--- a/Property.xlsx
+++ b/Property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\python\MUDAS\MUDAS 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C123AA-C682-482D-854A-36FD61613983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3ED61-2BCA-4AFA-BDE2-AAFF8B2F4FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="45972" yWindow="84" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -19,19 +19,20 @@
     <sheet name="Sup Feed" sheetId="11" r:id="rId4"/>
     <sheet name="Annual" sheetId="9" r:id="rId5"/>
     <sheet name="Crop" sheetId="1" r:id="rId6"/>
-    <sheet name="Labour" sheetId="10" r:id="rId7"/>
-    <sheet name="Mach" sheetId="2" r:id="rId8"/>
-    <sheet name="Stubble" sheetId="6" r:id="rId9"/>
-    <sheet name="Finance" sheetId="3" r:id="rId10"/>
+    <sheet name="Sheep Regions" sheetId="12" r:id="rId7"/>
+    <sheet name="Labour" sheetId="10" r:id="rId8"/>
+    <sheet name="Mach" sheetId="2" r:id="rId9"/>
+    <sheet name="Stubble" sheetId="6" r:id="rId10"/>
+    <sheet name="Finance" sheetId="3" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Annual!$G$137:$O$147</definedName>
-    <definedName name="approx_hay_yield" localSheetId="7">Mach!$B$42</definedName>
+    <definedName name="approx_hay_yield" localSheetId="8">Mach!$B$42</definedName>
     <definedName name="arable" localSheetId="5">Crop!$H$138:$M$139</definedName>
-    <definedName name="ave_pad_distance" localSheetId="7">Mach!$B$7</definedName>
+    <definedName name="ave_pad_distance" localSheetId="8">Mach!$B$7</definedName>
     <definedName name="bas">Labour!$L$69:$M$73</definedName>
     <definedName name="BaseLevelInput" localSheetId="4">Annual!$K$212:$K$221</definedName>
     <definedName name="chem_by_lmu">Crop!$I$330:$N$338</definedName>
@@ -40,9 +41,9 @@
     <definedName name="component_dmd">Stubble!$H$87:$M$95</definedName>
     <definedName name="CPDry" localSheetId="4">Annual!$V$293:$V$302</definedName>
     <definedName name="CPGrn" localSheetId="4">Annual!$X$267:$X$276</definedName>
-    <definedName name="daily_harvest_hours" localSheetId="7">Mach!$B$10</definedName>
+    <definedName name="daily_harvest_hours" localSheetId="8">Mach!$B$10</definedName>
     <definedName name="daily_hours">Labour!$G$48:$J$52</definedName>
-    <definedName name="daily_seed_hours" localSheetId="7">Mach!$B$12</definedName>
+    <definedName name="daily_seed_hours" localSheetId="8">Mach!$B$12</definedName>
     <definedName name="Date_Destocking" localSheetId="4">Annual!$J$108</definedName>
     <definedName name="Date_ResownGrazing" localSheetId="4">Annual!$J$111</definedName>
     <definedName name="Date_Seeding" localSheetId="4">Annual!$J$109</definedName>
@@ -53,7 +54,7 @@
     <definedName name="DigPOC" localSheetId="4">Annual!$J$351:$J$360</definedName>
     <definedName name="DigRednSenesce" localSheetId="4">Annual!$V$267:$V$276</definedName>
     <definedName name="DigSpread" localSheetId="4">Annual!$T$267:$T$276</definedName>
-    <definedName name="draft_seeding" localSheetId="7">'[1]Mach 1'!$B$35</definedName>
+    <definedName name="draft_seeding" localSheetId="8">'[1]Mach 1'!$B$35</definedName>
     <definedName name="dry_seed_start" localSheetId="5">Crop!$I$78</definedName>
     <definedName name="empty_rate">'Sup Feed'!$G$60:$I$68</definedName>
     <definedName name="EndGS" localSheetId="4">Annual!$J$67</definedName>
@@ -75,7 +76,7 @@
     <definedName name="FOOGrazePropn" localSheetId="4">Annual!$O$223:$O$226</definedName>
     <definedName name="FOOPOC" localSheetId="4">Annual!$M$351:$M$360</definedName>
     <definedName name="frost" localSheetId="5">Crop!$H$266:$M$276</definedName>
-    <definedName name="fuel_adj_tractor" localSheetId="7">'[1]Mach 1'!$B$37</definedName>
+    <definedName name="fuel_adj_tractor" localSheetId="8">'[1]Mach 1'!$B$37</definedName>
     <definedName name="GermPhases" localSheetId="4">Annual!$H$137:$O$147</definedName>
     <definedName name="GermScalarLMU" localSheetId="4">Annual!$M$89:$Q$89</definedName>
     <definedName name="GermStd" localSheetId="4">Annual!$L$89</definedName>
@@ -112,9 +113,9 @@
     <definedName name="min_perm">Labour!$J$11</definedName>
     <definedName name="nap_fert">Crop!$H$219:$M$220</definedName>
     <definedName name="nap_passes">Crop!$H$222:$M$223</definedName>
-    <definedName name="number_crop_gear" localSheetId="7">Mach!$B$5</definedName>
-    <definedName name="option" localSheetId="7">Mach!$B$3</definedName>
-    <definedName name="overdraw_limit" localSheetId="9">Finance!$B$2</definedName>
+    <definedName name="number_crop_gear" localSheetId="8">Mach!$B$5</definedName>
+    <definedName name="option" localSheetId="8">Mach!$B$3</definedName>
+    <definedName name="overdraw_limit" localSheetId="10">Finance!$B$2</definedName>
     <definedName name="overheads">General!$I$24:$J$33</definedName>
     <definedName name="own_seed">Crop!$P$400:$P$417</definedName>
     <definedName name="passes" localSheetId="5">Crop!#REF!</definedName>
@@ -148,19 +149,19 @@
     <definedName name="seed_info">Crop!$G$432:$Q$450</definedName>
     <definedName name="seed_period_lengths" localSheetId="5">Crop!$I$73:$I$76</definedName>
     <definedName name="seed_prep">Labour!$S$97:$T$100</definedName>
-    <definedName name="seeder_speed_lmu_adj" localSheetId="7">Mach!$A$31:$B$36</definedName>
+    <definedName name="seeder_speed_lmu_adj" localSheetId="8">Mach!$A$31:$B$36</definedName>
     <definedName name="seeding_after_season_start" localSheetId="5">Crop!$I$80</definedName>
     <definedName name="seeding_freq">Crop!#REF!</definedName>
-    <definedName name="seeding_fuel_lmu_adj" localSheetId="7">Mach!$A$17:$B$22</definedName>
+    <definedName name="seeding_fuel_lmu_adj" localSheetId="8">Mach!$A$17:$B$22</definedName>
     <definedName name="seeding_helper">Labour!$E$98</definedName>
     <definedName name="seeding_length">Annual!$J$110</definedName>
-    <definedName name="seeding_occur" localSheetId="7">Mach!$B$15</definedName>
+    <definedName name="seeding_occur" localSheetId="8">Mach!$B$15</definedName>
     <definedName name="seeding_rate" localSheetId="5">Crop!$I$399:$N$417</definedName>
     <definedName name="SenesceEOS" localSheetId="4">Annual!$N$244:$N$253</definedName>
     <definedName name="SenescePropn" localSheetId="4">Annual!$K$244:$K$253</definedName>
     <definedName name="sick_leave_permanent">Labour!$J$31</definedName>
     <definedName name="spray_prep">Labour!$P$97:$Q$100</definedName>
-    <definedName name="sprayer_crop_allocation" localSheetId="7">Mach!$B$39</definedName>
+    <definedName name="sprayer_crop_allocation" localSheetId="8">Mach!$B$39</definedName>
     <definedName name="start_harvest_crops" localSheetId="5">Crop!$H$105:$I$116</definedName>
     <definedName name="step_chem_passes">Crop!$I$376:$J$384</definedName>
     <definedName name="step_fert_passes">Crop!$M$377:$M$380</definedName>
@@ -170,13 +171,14 @@
     <definedName name="storage_type">'Sup Feed'!$I$13:$K$18</definedName>
     <definedName name="stub_cat_prop">Stubble!$H$109:$L$117</definedName>
     <definedName name="stub_cat_qual">Stubble!$H$120:$L$128</definedName>
-    <definedName name="stub_handling_date" localSheetId="7">Mach!$B$45</definedName>
-    <definedName name="stub_handling_length" localSheetId="7">Mach!$B$47</definedName>
-    <definedName name="stubble_handling" localSheetId="8">Stubble!$G$28:$H$39</definedName>
+    <definedName name="stub_handling_date" localSheetId="8">Mach!$B$45</definedName>
+    <definedName name="stub_handling_length" localSheetId="8">Mach!$B$47</definedName>
+    <definedName name="stubble_handling" localSheetId="9">Stubble!$G$28:$H$39</definedName>
     <definedName name="super">Labour!$O$69:$P$73</definedName>
     <definedName name="tax">Labour!$F$69:$G$72</definedName>
-    <definedName name="tillage_maint" localSheetId="7">'[1]Mach 1'!$B$39</definedName>
-    <definedName name="tillage_maint_lmu_adj" localSheetId="7">Mach!$A$24:$B$29</definedName>
+    <definedName name="test" localSheetId="6">'Sheep Regions'!$B$3:$E$9</definedName>
+    <definedName name="tillage_maint" localSheetId="8">'[1]Mach 1'!$B$39</definedName>
+    <definedName name="tillage_maint_lmu_adj" localSheetId="8">Mach!$A$24:$B$29</definedName>
     <definedName name="time_between_pad">'Sup Feed'!$O$57</definedName>
     <definedName name="time_fill_feeder">'Sup Feed'!$G$50:$I$53</definedName>
     <definedName name="Trampling" localSheetId="4">Annual!$J$66</definedName>
@@ -185,7 +187,7 @@
     <definedName name="yield_by_lmu" localSheetId="5">Crop!$I$238:$N$250</definedName>
     <definedName name="yield_penalty" localSheetId="5">Crop!$H$84:$J$96</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2908,7 +2910,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="526">
   <si>
     <t>«</t>
   </si>
@@ -4500,6 +4502,24 @@
   <si>
     <t>Seeding Penalty</t>
   </si>
+  <si>
+    <t>axis 1</t>
+  </si>
+  <si>
+    <t>axis 2</t>
+  </si>
+  <si>
+    <t>axis -0</t>
+  </si>
+  <si>
+    <t>slice 1</t>
+  </si>
+  <si>
+    <t>slice 2</t>
+  </si>
+  <si>
+    <t>canola</t>
+  </si>
 </sst>
 </file>
 
@@ -5095,7 +5115,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="458">
+  <cellXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6185,6 +6205,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="22" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="16" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -6228,46 +6288,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="10" borderId="22" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Calculations" xfId="10" xr:uid="{449B9FA0-BCFF-41FE-A9C5-7F4DFD2D1D3B}"/>
@@ -6567,6 +6588,86 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E28A42-5E13-421F-9494-002D29350BFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="1752600"/>
+          <a:ext cx="2148840" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>This array is named</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> test - it can be deleted. its only there to use to help understand how reshape works</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6990,6 +7091,4126 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E7CEFF-83F4-4D28-85EF-3859ECCF0B70}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A2:Z139"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66:I73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="97" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" style="97" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="97" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" style="97" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="97"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G2" s="98"/>
+    </row>
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="50">
+        <v>38576.728703703702</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="285" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="285" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="282"/>
+      <c r="J28" s="283"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="285" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="285">
+        <v>3.5</v>
+      </c>
+      <c r="I29" s="282"/>
+      <c r="J29" s="284"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="285" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="285">
+        <v>4.2</v>
+      </c>
+      <c r="I30" s="282"/>
+      <c r="J30" s="284"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="285" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="285">
+        <v>3.5</v>
+      </c>
+      <c r="I31" s="282"/>
+      <c r="J31" s="284"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="285" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="285"/>
+      <c r="I32" s="282"/>
+      <c r="J32" s="284"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="285" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="285">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I33" s="282"/>
+      <c r="J33" s="284"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="285" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="285">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I34" s="282"/>
+      <c r="J34" s="284"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="285" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="285"/>
+      <c r="I35" s="282"/>
+      <c r="J35" s="284"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="285" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="285"/>
+      <c r="I36" s="282"/>
+      <c r="J36" s="283"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="285" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="285"/>
+      <c r="I37" s="282"/>
+      <c r="J37" s="283"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="285" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="285"/>
+      <c r="I38" s="282"/>
+      <c r="J38" s="284"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="285" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="285"/>
+      <c r="I39" s="282"/>
+      <c r="J39" s="284"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="281"/>
+      <c r="H40" s="281"/>
+      <c r="I40" s="282"/>
+      <c r="J40" s="284"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" s="4" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37" t="str">
+        <f>G18</f>
+        <v>STUBBLE HANDLING</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+    </row>
+    <row r="46" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+    </row>
+    <row r="47" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="50">
+        <v>38576.728703703702</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="H58" s="45">
+        <v>1</v>
+      </c>
+      <c r="I58" s="73"/>
+      <c r="K58" s="419" t="s">
+        <v>474</v>
+      </c>
+      <c r="L58" s="420">
+        <v>0.1</v>
+      </c>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="26"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="26"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="26"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="31"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="N64" s="31"/>
+      <c r="O64" s="74"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="26"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="J65" s="286"/>
+      <c r="K65" s="72"/>
+      <c r="L65" s="72"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="26"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I66" s="71">
+        <v>0.42</v>
+      </c>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O66" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="26"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67" s="71">
+        <v>0.44</v>
+      </c>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="O67" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="26"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I68" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O68" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="26"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I69" s="71">
+        <v>0.2</v>
+      </c>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O69" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="26"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70" s="71">
+        <v>0.2</v>
+      </c>
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O70" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="26"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K71" s="75"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="O71" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="26"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="O72" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="26"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I73" s="71">
+        <v>0.7</v>
+      </c>
+      <c r="J73" s="72"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="O73" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="26"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="72"/>
+      <c r="N74" s="72"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="26"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H75" s="31"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="N75" s="31"/>
+      <c r="O75" s="74"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="26"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="J76" s="72"/>
+      <c r="K76" s="72"/>
+      <c r="L76" s="72"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="26"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77" s="71">
+        <v>0.94</v>
+      </c>
+      <c r="J77" s="72"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O77" s="71">
+        <v>2</v>
+      </c>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="26"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78" s="71">
+        <v>0.94</v>
+      </c>
+      <c r="J78" s="72"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="O78" s="71">
+        <v>2</v>
+      </c>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="26"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I79" s="71">
+        <v>0.94</v>
+      </c>
+      <c r="J79" s="72"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O79" s="71">
+        <v>2</v>
+      </c>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="26"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I80" s="71">
+        <v>0.97</v>
+      </c>
+      <c r="J80" s="72"/>
+      <c r="K80" s="75"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O80" s="71">
+        <v>2</v>
+      </c>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="29"/>
+      <c r="U80" s="29"/>
+      <c r="V80" s="26"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81" s="71">
+        <v>0.97</v>
+      </c>
+      <c r="J81" s="72"/>
+      <c r="K81" s="75"/>
+      <c r="L81" s="75"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O81" s="71">
+        <v>2</v>
+      </c>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="29"/>
+      <c r="U81" s="29"/>
+      <c r="V81" s="26"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I82" s="71">
+        <v>0.9</v>
+      </c>
+      <c r="J82" s="72"/>
+      <c r="K82" s="75"/>
+      <c r="L82" s="75"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="O82" s="71">
+        <v>2</v>
+      </c>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
+      <c r="V82" s="26"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I83" s="71">
+        <v>0.9</v>
+      </c>
+      <c r="J83" s="75"/>
+      <c r="K83" s="75"/>
+      <c r="L83" s="75"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="O83" s="71">
+        <v>2</v>
+      </c>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29"/>
+      <c r="U83" s="29"/>
+      <c r="V83" s="26"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I84" s="71">
+        <v>1</v>
+      </c>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="O84" s="71">
+        <v>2</v>
+      </c>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="26"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="75"/>
+      <c r="L85" s="75"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="75"/>
+      <c r="O85" s="75"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="26"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="H86" s="31"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="75"/>
+      <c r="O86" s="75"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+      <c r="V86" s="26"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="J87" s="75" t="s">
+        <v>460</v>
+      </c>
+      <c r="K87" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="L87" s="75" t="s">
+        <v>462</v>
+      </c>
+      <c r="M87" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="N87" s="75"/>
+      <c r="O87" s="75"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="26"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+    </row>
+    <row r="88" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I88" s="71">
+        <v>85</v>
+      </c>
+      <c r="J88" s="71">
+        <v>58</v>
+      </c>
+      <c r="K88" s="71">
+        <v>37</v>
+      </c>
+      <c r="L88" s="71">
+        <v>37</v>
+      </c>
+      <c r="M88" s="71">
+        <v>23</v>
+      </c>
+      <c r="N88" s="75"/>
+      <c r="O88" s="75"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="29"/>
+      <c r="V88" s="26"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+    </row>
+    <row r="89" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I89" s="71">
+        <v>85</v>
+      </c>
+      <c r="J89" s="71">
+        <v>58</v>
+      </c>
+      <c r="K89" s="71">
+        <v>37</v>
+      </c>
+      <c r="L89" s="71">
+        <v>37</v>
+      </c>
+      <c r="M89" s="71">
+        <v>23</v>
+      </c>
+      <c r="N89" s="75"/>
+      <c r="O89" s="75"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="26"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+    </row>
+    <row r="90" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I90" s="71">
+        <v>85</v>
+      </c>
+      <c r="J90" s="71">
+        <v>58</v>
+      </c>
+      <c r="K90" s="71">
+        <v>37</v>
+      </c>
+      <c r="L90" s="71">
+        <v>37</v>
+      </c>
+      <c r="M90" s="71">
+        <v>23</v>
+      </c>
+      <c r="N90" s="75"/>
+      <c r="O90" s="75"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="26"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I91" s="71">
+        <v>95</v>
+      </c>
+      <c r="J91" s="71">
+        <v>64</v>
+      </c>
+      <c r="K91" s="71">
+        <v>0</v>
+      </c>
+      <c r="L91" s="71">
+        <v>52</v>
+      </c>
+      <c r="M91" s="71">
+        <v>31</v>
+      </c>
+      <c r="N91" s="75"/>
+      <c r="O91" s="75"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="26"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+    </row>
+    <row r="92" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92" s="71">
+        <v>95</v>
+      </c>
+      <c r="J92" s="71">
+        <v>64</v>
+      </c>
+      <c r="K92" s="71">
+        <v>0</v>
+      </c>
+      <c r="L92" s="71">
+        <v>52</v>
+      </c>
+      <c r="M92" s="71">
+        <v>31</v>
+      </c>
+      <c r="N92" s="75"/>
+      <c r="O92" s="75"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I93" s="71">
+        <v>90</v>
+      </c>
+      <c r="J93" s="71">
+        <v>64</v>
+      </c>
+      <c r="K93" s="71">
+        <v>0</v>
+      </c>
+      <c r="L93" s="71">
+        <v>58</v>
+      </c>
+      <c r="M93" s="71">
+        <v>35</v>
+      </c>
+      <c r="N93" s="75"/>
+      <c r="O93" s="75"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="26"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+    </row>
+    <row r="94" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I94" s="71">
+        <v>90</v>
+      </c>
+      <c r="J94" s="71">
+        <v>64</v>
+      </c>
+      <c r="K94" s="71">
+        <v>0</v>
+      </c>
+      <c r="L94" s="71">
+        <v>58</v>
+      </c>
+      <c r="M94" s="71">
+        <v>35</v>
+      </c>
+      <c r="N94" s="75"/>
+      <c r="O94" s="75"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="26"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+    </row>
+    <row r="95" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I95" s="71">
+        <v>85</v>
+      </c>
+      <c r="J95" s="71">
+        <v>70</v>
+      </c>
+      <c r="K95" s="71">
+        <v>37</v>
+      </c>
+      <c r="L95" s="71">
+        <v>37</v>
+      </c>
+      <c r="M95" s="71">
+        <v>23</v>
+      </c>
+      <c r="N95" s="75"/>
+      <c r="O95" s="75"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="26"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="73"/>
+      <c r="J96" s="75"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="75"/>
+      <c r="M96" s="75"/>
+      <c r="N96" s="75"/>
+      <c r="O96" s="75"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="29"/>
+      <c r="S96" s="29"/>
+      <c r="T96" s="29"/>
+      <c r="U96" s="29"/>
+      <c r="V96" s="26"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+    </row>
+    <row r="97" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="H97" s="31"/>
+      <c r="I97" s="73"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="75"/>
+      <c r="M97" s="75"/>
+      <c r="N97" s="75"/>
+      <c r="O97" s="75"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="29"/>
+      <c r="V97" s="26"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+    </row>
+    <row r="98" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="J98" s="75" t="s">
+        <v>460</v>
+      </c>
+      <c r="K98" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="L98" s="75" t="s">
+        <v>462</v>
+      </c>
+      <c r="M98" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="N98" s="75"/>
+      <c r="O98" s="75"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="26"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I99" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J99" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K99" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L99" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M99" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="N99" s="75"/>
+      <c r="O99" s="75"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="26"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I100" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J100" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K100" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L100" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M100" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="N100" s="75"/>
+      <c r="O100" s="75"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="29"/>
+      <c r="V100" s="26"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+    </row>
+    <row r="101" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J101" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K101" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L101" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M101" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="N101" s="75"/>
+      <c r="O101" s="75"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="29"/>
+      <c r="U101" s="29"/>
+      <c r="V101" s="26"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+    </row>
+    <row r="102" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I102" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J102" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K102" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L102" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M102" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="N102" s="75"/>
+      <c r="O102" s="75"/>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="29"/>
+      <c r="R102" s="29"/>
+      <c r="S102" s="29"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="29"/>
+      <c r="V102" s="26"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
+    </row>
+    <row r="103" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I103" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J103" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K103" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L103" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M103" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="N103" s="75"/>
+      <c r="O103" s="75"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+      <c r="R103" s="29"/>
+      <c r="S103" s="29"/>
+      <c r="T103" s="29"/>
+      <c r="U103" s="29"/>
+      <c r="V103" s="26"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+    </row>
+    <row r="104" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I104" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J104" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K104" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L104" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M104" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="N104" s="75"/>
+      <c r="O104" s="75"/>
+      <c r="P104" s="29"/>
+      <c r="Q104" s="29"/>
+      <c r="R104" s="29"/>
+      <c r="S104" s="29"/>
+      <c r="T104" s="29"/>
+      <c r="U104" s="29"/>
+      <c r="V104" s="26"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
+    </row>
+    <row r="105" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I105" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J105" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K105" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L105" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M105" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="N105" s="75"/>
+      <c r="O105" s="75"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="29"/>
+      <c r="U105" s="29"/>
+      <c r="V105" s="26"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+    </row>
+    <row r="106" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I106" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J106" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K106" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L106" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M106" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="N106" s="75"/>
+      <c r="O106" s="75"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+      <c r="V106" s="26"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+    </row>
+    <row r="107" spans="1:26" s="4" customFormat="1" ht="12.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="75"/>
+      <c r="K107" s="75"/>
+      <c r="L107" s="75"/>
+      <c r="M107" s="75"/>
+      <c r="N107" s="75"/>
+      <c r="O107" s="75"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="26"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+    </row>
+    <row r="108" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="H108" s="31"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="75"/>
+      <c r="K108" s="75"/>
+      <c r="L108" s="75"/>
+      <c r="M108" s="75"/>
+      <c r="N108" s="75"/>
+      <c r="O108" s="75"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="29"/>
+      <c r="R108" s="29"/>
+      <c r="S108" s="29"/>
+      <c r="T108" s="29"/>
+      <c r="U108" s="29"/>
+      <c r="V108" s="26"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+    </row>
+    <row r="109" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="J109" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="K109" s="75" t="s">
+        <v>469</v>
+      </c>
+      <c r="L109" s="75" t="s">
+        <v>470</v>
+      </c>
+      <c r="M109" s="75"/>
+      <c r="N109" s="75"/>
+      <c r="O109" s="75"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+      <c r="R109" s="29"/>
+      <c r="S109" s="29"/>
+      <c r="T109" s="29"/>
+      <c r="U109" s="29"/>
+      <c r="V109" s="26"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+    </row>
+    <row r="110" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I110" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J110" s="71">
+        <v>0.04</v>
+      </c>
+      <c r="K110" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L110" s="71">
+        <f>1-SUM(I110:K110)</f>
+        <v>0.81</v>
+      </c>
+      <c r="M110" s="75"/>
+      <c r="N110" s="75"/>
+      <c r="O110" s="75"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="29"/>
+      <c r="R110" s="29"/>
+      <c r="S110" s="29"/>
+      <c r="T110" s="29"/>
+      <c r="U110" s="29"/>
+      <c r="V110" s="26"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+    </row>
+    <row r="111" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I111" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J111" s="71">
+        <v>0.04</v>
+      </c>
+      <c r="K111" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L111" s="71">
+        <f t="shared" ref="L111:L112" si="0">1-SUM(I111:K111)</f>
+        <v>0.81</v>
+      </c>
+      <c r="M111" s="75"/>
+      <c r="N111" s="75"/>
+      <c r="O111" s="75"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="29"/>
+      <c r="R111" s="29"/>
+      <c r="S111" s="29"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="29"/>
+      <c r="V111" s="26"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+    </row>
+    <row r="112" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J112" s="71">
+        <v>0.04</v>
+      </c>
+      <c r="K112" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L112" s="71">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="M112" s="75"/>
+      <c r="N112" s="75"/>
+      <c r="O112" s="75"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+      <c r="V112" s="26"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+    </row>
+    <row r="113" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I113" s="71">
+        <v>0.02</v>
+      </c>
+      <c r="J113" s="71">
+        <v>0.03</v>
+      </c>
+      <c r="K113" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L113" s="71">
+        <f t="shared" ref="L113:L117" si="1">1-SUM(I113:K113)</f>
+        <v>0.85</v>
+      </c>
+      <c r="M113" s="75"/>
+      <c r="N113" s="75"/>
+      <c r="O113" s="75"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="29"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="29"/>
+      <c r="U113" s="29"/>
+      <c r="V113" s="26"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+    </row>
+    <row r="114" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I114" s="71">
+        <v>0.02</v>
+      </c>
+      <c r="J114" s="71">
+        <v>0.03</v>
+      </c>
+      <c r="K114" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L114" s="71">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M114" s="75"/>
+      <c r="N114" s="75"/>
+      <c r="O114" s="75"/>
+      <c r="P114" s="29"/>
+      <c r="Q114" s="29"/>
+      <c r="R114" s="29"/>
+      <c r="S114" s="29"/>
+      <c r="T114" s="29"/>
+      <c r="U114" s="29"/>
+      <c r="V114" s="26"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+    </row>
+    <row r="115" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I115" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J115" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="K115" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="L115" s="71">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M115" s="75"/>
+      <c r="N115" s="75"/>
+      <c r="O115" s="75"/>
+      <c r="P115" s="29"/>
+      <c r="Q115" s="29"/>
+      <c r="R115" s="29"/>
+      <c r="S115" s="29"/>
+      <c r="T115" s="29"/>
+      <c r="U115" s="29"/>
+      <c r="V115" s="26"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+    </row>
+    <row r="116" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I116" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J116" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="K116" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="L116" s="71">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M116" s="75"/>
+      <c r="N116" s="75"/>
+      <c r="O116" s="75"/>
+      <c r="P116" s="29"/>
+      <c r="Q116" s="29"/>
+      <c r="R116" s="29"/>
+      <c r="S116" s="29"/>
+      <c r="T116" s="29"/>
+      <c r="U116" s="29"/>
+      <c r="V116" s="26"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+    </row>
+    <row r="117" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I117" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J117" s="71">
+        <v>0.04</v>
+      </c>
+      <c r="K117" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L117" s="71">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="M117" s="75"/>
+      <c r="N117" s="75"/>
+      <c r="O117" s="75"/>
+      <c r="P117" s="29"/>
+      <c r="Q117" s="29"/>
+      <c r="R117" s="29"/>
+      <c r="S117" s="29"/>
+      <c r="T117" s="29"/>
+      <c r="U117" s="29"/>
+      <c r="V117" s="26"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+    </row>
+    <row r="118" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="73"/>
+      <c r="J118" s="75"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="75"/>
+      <c r="M118" s="75"/>
+      <c r="N118" s="75"/>
+      <c r="O118" s="75"/>
+      <c r="P118" s="29"/>
+      <c r="Q118" s="29"/>
+      <c r="R118" s="29"/>
+      <c r="S118" s="29"/>
+      <c r="T118" s="29"/>
+      <c r="U118" s="29"/>
+      <c r="V118" s="26"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+    </row>
+    <row r="119" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="H119" s="31"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="75"/>
+      <c r="K119" s="75"/>
+      <c r="L119" s="75"/>
+      <c r="M119" s="75"/>
+      <c r="N119" s="75"/>
+      <c r="O119" s="75"/>
+      <c r="P119" s="29"/>
+      <c r="Q119" s="29"/>
+      <c r="R119" s="29"/>
+      <c r="S119" s="29"/>
+      <c r="T119" s="29"/>
+      <c r="U119" s="29"/>
+      <c r="V119" s="26"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+    </row>
+    <row r="120" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="J120" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="K120" s="75" t="s">
+        <v>469</v>
+      </c>
+      <c r="L120" s="75" t="s">
+        <v>470</v>
+      </c>
+      <c r="M120" s="75"/>
+      <c r="N120" s="75"/>
+      <c r="O120" s="75"/>
+      <c r="P120" s="29"/>
+      <c r="Q120" s="29"/>
+      <c r="R120" s="29"/>
+      <c r="S120" s="29"/>
+      <c r="T120" s="29"/>
+      <c r="U120" s="29"/>
+      <c r="V120" s="26"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+    </row>
+    <row r="121" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I121" s="71">
+        <v>80</v>
+      </c>
+      <c r="J121" s="71">
+        <v>51</v>
+      </c>
+      <c r="K121" s="71">
+        <v>45</v>
+      </c>
+      <c r="L121" s="71">
+        <v>30</v>
+      </c>
+      <c r="M121" s="75"/>
+      <c r="N121" s="75"/>
+      <c r="O121" s="75"/>
+      <c r="P121" s="29"/>
+      <c r="Q121" s="29"/>
+      <c r="R121" s="29"/>
+      <c r="S121" s="29"/>
+      <c r="T121" s="29"/>
+      <c r="U121" s="29"/>
+      <c r="V121" s="26"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+    </row>
+    <row r="122" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I122" s="71">
+        <v>80</v>
+      </c>
+      <c r="J122" s="71">
+        <v>51</v>
+      </c>
+      <c r="K122" s="71">
+        <v>45</v>
+      </c>
+      <c r="L122" s="71">
+        <v>30</v>
+      </c>
+      <c r="M122" s="75"/>
+      <c r="N122" s="75"/>
+      <c r="O122" s="75"/>
+      <c r="P122" s="29"/>
+      <c r="Q122" s="29"/>
+      <c r="R122" s="29"/>
+      <c r="S122" s="29"/>
+      <c r="T122" s="29"/>
+      <c r="U122" s="29"/>
+      <c r="V122" s="26"/>
+      <c r="W122" s="12"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+    </row>
+    <row r="123" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I123" s="71">
+        <v>80</v>
+      </c>
+      <c r="J123" s="71">
+        <v>51</v>
+      </c>
+      <c r="K123" s="71">
+        <v>45</v>
+      </c>
+      <c r="L123" s="71">
+        <v>30</v>
+      </c>
+      <c r="M123" s="75"/>
+      <c r="N123" s="75"/>
+      <c r="O123" s="75"/>
+      <c r="P123" s="29"/>
+      <c r="Q123" s="29"/>
+      <c r="R123" s="29"/>
+      <c r="S123" s="29"/>
+      <c r="T123" s="29"/>
+      <c r="U123" s="29"/>
+      <c r="V123" s="26"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
+    </row>
+    <row r="124" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I124" s="71">
+        <v>89</v>
+      </c>
+      <c r="J124" s="71">
+        <v>68</v>
+      </c>
+      <c r="K124" s="71">
+        <v>46</v>
+      </c>
+      <c r="L124" s="71">
+        <v>33</v>
+      </c>
+      <c r="M124" s="75"/>
+      <c r="N124" s="75"/>
+      <c r="O124" s="75"/>
+      <c r="P124" s="29"/>
+      <c r="Q124" s="29"/>
+      <c r="R124" s="29"/>
+      <c r="S124" s="29"/>
+      <c r="T124" s="29"/>
+      <c r="U124" s="29"/>
+      <c r="V124" s="26"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+    </row>
+    <row r="125" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I125" s="71">
+        <v>89</v>
+      </c>
+      <c r="J125" s="71">
+        <v>68</v>
+      </c>
+      <c r="K125" s="71">
+        <v>46</v>
+      </c>
+      <c r="L125" s="71">
+        <v>33</v>
+      </c>
+      <c r="M125" s="75"/>
+      <c r="N125" s="75"/>
+      <c r="O125" s="75"/>
+      <c r="P125" s="29"/>
+      <c r="Q125" s="29"/>
+      <c r="R125" s="29"/>
+      <c r="S125" s="29"/>
+      <c r="T125" s="29"/>
+      <c r="U125" s="29"/>
+      <c r="V125" s="26"/>
+      <c r="W125" s="12"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+    </row>
+    <row r="126" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I126" s="71">
+        <v>85</v>
+      </c>
+      <c r="J126" s="71">
+        <v>65</v>
+      </c>
+      <c r="K126" s="71">
+        <v>56</v>
+      </c>
+      <c r="L126" s="71">
+        <v>43</v>
+      </c>
+      <c r="M126" s="75"/>
+      <c r="N126" s="75"/>
+      <c r="O126" s="75"/>
+      <c r="P126" s="29"/>
+      <c r="Q126" s="29"/>
+      <c r="R126" s="29"/>
+      <c r="S126" s="29"/>
+      <c r="T126" s="29"/>
+      <c r="U126" s="29"/>
+      <c r="V126" s="26"/>
+      <c r="W126" s="12"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
+    </row>
+    <row r="127" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I127" s="71">
+        <v>85</v>
+      </c>
+      <c r="J127" s="71">
+        <v>65</v>
+      </c>
+      <c r="K127" s="71">
+        <v>56</v>
+      </c>
+      <c r="L127" s="71">
+        <v>43</v>
+      </c>
+      <c r="M127" s="75"/>
+      <c r="N127" s="75"/>
+      <c r="O127" s="75"/>
+      <c r="P127" s="29"/>
+      <c r="Q127" s="29"/>
+      <c r="R127" s="29"/>
+      <c r="S127" s="29"/>
+      <c r="T127" s="29"/>
+      <c r="U127" s="29"/>
+      <c r="V127" s="26"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="3"/>
+      <c r="Y127" s="3"/>
+      <c r="Z127" s="3"/>
+    </row>
+    <row r="128" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I128" s="71">
+        <v>80</v>
+      </c>
+      <c r="J128" s="71">
+        <v>51</v>
+      </c>
+      <c r="K128" s="71">
+        <v>45</v>
+      </c>
+      <c r="L128" s="71">
+        <v>30</v>
+      </c>
+      <c r="M128" s="75"/>
+      <c r="N128" s="75"/>
+      <c r="O128" s="75"/>
+      <c r="P128" s="29"/>
+      <c r="Q128" s="29"/>
+      <c r="R128" s="29"/>
+      <c r="S128" s="29"/>
+      <c r="T128" s="29"/>
+      <c r="U128" s="29"/>
+      <c r="V128" s="26"/>
+      <c r="W128" s="12"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="3"/>
+    </row>
+    <row r="129" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="73"/>
+      <c r="J129" s="75"/>
+      <c r="K129" s="75"/>
+      <c r="L129" s="75"/>
+      <c r="M129" s="75"/>
+      <c r="N129" s="75"/>
+      <c r="O129" s="75"/>
+      <c r="P129" s="29"/>
+      <c r="Q129" s="29"/>
+      <c r="R129" s="29"/>
+      <c r="S129" s="29"/>
+      <c r="T129" s="29"/>
+      <c r="U129" s="29"/>
+      <c r="V129" s="26"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="3"/>
+      <c r="Y129" s="3"/>
+      <c r="Z129" s="3"/>
+    </row>
+    <row r="130" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="73"/>
+      <c r="J130" s="75"/>
+      <c r="K130" s="75"/>
+      <c r="L130" s="75"/>
+      <c r="M130" s="75"/>
+      <c r="N130" s="75"/>
+      <c r="O130" s="75"/>
+      <c r="P130" s="29"/>
+      <c r="Q130" s="29"/>
+      <c r="R130" s="29"/>
+      <c r="S130" s="29"/>
+      <c r="T130" s="29"/>
+      <c r="U130" s="29"/>
+      <c r="V130" s="26"/>
+      <c r="W130" s="12"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="3"/>
+    </row>
+    <row r="131" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="73"/>
+      <c r="J131" s="75"/>
+      <c r="K131" s="75"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="75"/>
+      <c r="N131" s="75"/>
+      <c r="O131" s="75"/>
+      <c r="P131" s="29"/>
+      <c r="Q131" s="29"/>
+      <c r="R131" s="29"/>
+      <c r="S131" s="29"/>
+      <c r="T131" s="29"/>
+      <c r="U131" s="29"/>
+      <c r="V131" s="26"/>
+      <c r="W131" s="12"/>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="3"/>
+      <c r="Z131" s="3"/>
+    </row>
+    <row r="132" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="73"/>
+      <c r="J132" s="75"/>
+      <c r="K132" s="75"/>
+      <c r="L132" s="75"/>
+      <c r="M132" s="75"/>
+      <c r="N132" s="75"/>
+      <c r="O132" s="75"/>
+      <c r="P132" s="29"/>
+      <c r="Q132" s="29"/>
+      <c r="R132" s="29"/>
+      <c r="S132" s="29"/>
+      <c r="T132" s="29"/>
+      <c r="U132" s="29"/>
+      <c r="V132" s="26"/>
+      <c r="W132" s="12"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="3"/>
+    </row>
+    <row r="133" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="73"/>
+      <c r="J133" s="75"/>
+      <c r="K133" s="75"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="75"/>
+      <c r="N133" s="75"/>
+      <c r="O133" s="75"/>
+      <c r="P133" s="29"/>
+      <c r="Q133" s="29"/>
+      <c r="R133" s="29"/>
+      <c r="S133" s="29"/>
+      <c r="T133" s="29"/>
+      <c r="U133" s="29"/>
+      <c r="V133" s="26"/>
+      <c r="W133" s="12"/>
+      <c r="X133" s="3"/>
+      <c r="Y133" s="3"/>
+      <c r="Z133" s="3"/>
+    </row>
+    <row r="134" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="73"/>
+      <c r="J134" s="75"/>
+      <c r="K134" s="75"/>
+      <c r="L134" s="75"/>
+      <c r="M134" s="75"/>
+      <c r="N134" s="75"/>
+      <c r="O134" s="75"/>
+      <c r="P134" s="29"/>
+      <c r="Q134" s="29"/>
+      <c r="R134" s="29"/>
+      <c r="S134" s="29"/>
+      <c r="T134" s="29"/>
+      <c r="U134" s="29"/>
+      <c r="V134" s="26"/>
+      <c r="W134" s="12"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="3"/>
+    </row>
+    <row r="135" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="73"/>
+      <c r="J135" s="75"/>
+      <c r="K135" s="75"/>
+      <c r="L135" s="75"/>
+      <c r="M135" s="75"/>
+      <c r="N135" s="75"/>
+      <c r="O135" s="75"/>
+      <c r="P135" s="29"/>
+      <c r="Q135" s="29"/>
+      <c r="R135" s="29"/>
+      <c r="S135" s="29"/>
+      <c r="T135" s="29"/>
+      <c r="U135" s="29"/>
+      <c r="V135" s="26"/>
+      <c r="W135" s="12"/>
+      <c r="X135" s="3"/>
+      <c r="Y135" s="3"/>
+      <c r="Z135" s="3"/>
+    </row>
+    <row r="136" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="I136" s="73"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="72"/>
+      <c r="L136" s="72"/>
+      <c r="M136" s="72"/>
+      <c r="N136" s="72"/>
+      <c r="O136" s="72"/>
+      <c r="P136" s="29"/>
+      <c r="Q136" s="29"/>
+      <c r="R136" s="29"/>
+      <c r="S136" s="29"/>
+      <c r="T136" s="29"/>
+      <c r="U136" s="29"/>
+      <c r="V136" s="26"/>
+      <c r="W136" s="12"/>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="3"/>
+    </row>
+    <row r="137" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="35"/>
+      <c r="M137" s="35"/>
+      <c r="N137" s="35"/>
+      <c r="O137" s="35"/>
+      <c r="P137" s="35"/>
+      <c r="Q137" s="35"/>
+      <c r="R137" s="35"/>
+      <c r="S137" s="35"/>
+      <c r="T137" s="35"/>
+      <c r="U137" s="35"/>
+      <c r="V137" s="26"/>
+      <c r="W137" s="12"/>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
+    </row>
+    <row r="138" spans="1:26" s="4" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="37" t="str">
+        <f>G48</f>
+        <v>HARVEST INDEX &amp; STUBBLE PRODUCTION</v>
+      </c>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="36"/>
+      <c r="N138" s="36"/>
+      <c r="O138" s="36"/>
+      <c r="P138" s="36"/>
+      <c r="Q138" s="36"/>
+      <c r="R138" s="36"/>
+      <c r="S138" s="36"/>
+      <c r="T138" s="36"/>
+      <c r="U138" s="36"/>
+      <c r="V138" s="36"/>
+      <c r="W138" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+      <c r="Z138" s="3"/>
+    </row>
+    <row r="139" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
+      <c r="Z139" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17698FFE-A6A0-4C30-BDC9-58F80A4FAF68}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:B2"/>
@@ -11657,21 +15878,21 @@
       <c r="E46" s="140"/>
       <c r="F46" s="142"/>
       <c r="G46" s="151"/>
-      <c r="H46" s="431" t="s">
+      <c r="H46" s="444" t="s">
         <v>164</v>
       </c>
-      <c r="I46" s="432"/>
-      <c r="J46" s="432"/>
-      <c r="K46" s="432"/>
-      <c r="L46" s="432"/>
-      <c r="M46" s="432"/>
-      <c r="N46" s="432"/>
-      <c r="O46" s="432"/>
-      <c r="P46" s="432"/>
-      <c r="Q46" s="432"/>
-      <c r="R46" s="432"/>
-      <c r="S46" s="432"/>
-      <c r="T46" s="433"/>
+      <c r="I46" s="445"/>
+      <c r="J46" s="445"/>
+      <c r="K46" s="445"/>
+      <c r="L46" s="445"/>
+      <c r="M46" s="445"/>
+      <c r="N46" s="445"/>
+      <c r="O46" s="445"/>
+      <c r="P46" s="445"/>
+      <c r="Q46" s="445"/>
+      <c r="R46" s="445"/>
+      <c r="S46" s="445"/>
+      <c r="T46" s="446"/>
       <c r="U46" s="151"/>
       <c r="V46" s="142"/>
       <c r="W46" s="122"/>
@@ -11685,19 +15906,19 @@
       <c r="E47" s="140"/>
       <c r="F47" s="142"/>
       <c r="G47" s="151"/>
-      <c r="H47" s="434"/>
-      <c r="I47" s="435"/>
-      <c r="J47" s="435"/>
-      <c r="K47" s="435"/>
-      <c r="L47" s="435"/>
-      <c r="M47" s="435"/>
-      <c r="N47" s="435"/>
-      <c r="O47" s="435"/>
-      <c r="P47" s="435"/>
-      <c r="Q47" s="435"/>
-      <c r="R47" s="435"/>
-      <c r="S47" s="435"/>
-      <c r="T47" s="436"/>
+      <c r="H47" s="447"/>
+      <c r="I47" s="448"/>
+      <c r="J47" s="448"/>
+      <c r="K47" s="448"/>
+      <c r="L47" s="448"/>
+      <c r="M47" s="448"/>
+      <c r="N47" s="448"/>
+      <c r="O47" s="448"/>
+      <c r="P47" s="448"/>
+      <c r="Q47" s="448"/>
+      <c r="R47" s="448"/>
+      <c r="S47" s="448"/>
+      <c r="T47" s="449"/>
       <c r="U47" s="151"/>
       <c r="V47" s="142"/>
       <c r="W47" s="122"/>
@@ -11711,19 +15932,19 @@
       <c r="E48" s="140"/>
       <c r="F48" s="142"/>
       <c r="G48" s="151"/>
-      <c r="H48" s="434"/>
-      <c r="I48" s="435"/>
-      <c r="J48" s="435"/>
-      <c r="K48" s="435"/>
-      <c r="L48" s="435"/>
-      <c r="M48" s="435"/>
-      <c r="N48" s="435"/>
-      <c r="O48" s="435"/>
-      <c r="P48" s="435"/>
-      <c r="Q48" s="435"/>
-      <c r="R48" s="435"/>
-      <c r="S48" s="435"/>
-      <c r="T48" s="436"/>
+      <c r="H48" s="447"/>
+      <c r="I48" s="448"/>
+      <c r="J48" s="448"/>
+      <c r="K48" s="448"/>
+      <c r="L48" s="448"/>
+      <c r="M48" s="448"/>
+      <c r="N48" s="448"/>
+      <c r="O48" s="448"/>
+      <c r="P48" s="448"/>
+      <c r="Q48" s="448"/>
+      <c r="R48" s="448"/>
+      <c r="S48" s="448"/>
+      <c r="T48" s="449"/>
       <c r="U48" s="151"/>
       <c r="V48" s="142"/>
       <c r="W48" s="122"/>
@@ -11737,19 +15958,19 @@
       <c r="E49" s="140"/>
       <c r="F49" s="142"/>
       <c r="G49" s="151"/>
-      <c r="H49" s="437"/>
-      <c r="I49" s="438"/>
-      <c r="J49" s="438"/>
-      <c r="K49" s="438"/>
-      <c r="L49" s="438"/>
-      <c r="M49" s="438"/>
-      <c r="N49" s="438"/>
-      <c r="O49" s="438"/>
-      <c r="P49" s="438"/>
-      <c r="Q49" s="438"/>
-      <c r="R49" s="438"/>
-      <c r="S49" s="438"/>
-      <c r="T49" s="439"/>
+      <c r="H49" s="450"/>
+      <c r="I49" s="451"/>
+      <c r="J49" s="451"/>
+      <c r="K49" s="451"/>
+      <c r="L49" s="451"/>
+      <c r="M49" s="451"/>
+      <c r="N49" s="451"/>
+      <c r="O49" s="451"/>
+      <c r="P49" s="451"/>
+      <c r="Q49" s="451"/>
+      <c r="R49" s="451"/>
+      <c r="S49" s="451"/>
+      <c r="T49" s="452"/>
       <c r="U49" s="151"/>
       <c r="V49" s="142"/>
       <c r="W49" s="122"/>
@@ -26326,9 +30547,9 @@
       <c r="I318" s="252"/>
       <c r="J318" s="252"/>
       <c r="K318" s="139"/>
-      <c r="L318" s="440"/>
-      <c r="M318" s="441"/>
-      <c r="N318" s="441"/>
+      <c r="L318" s="453"/>
+      <c r="M318" s="454"/>
+      <c r="N318" s="454"/>
       <c r="O318" s="139"/>
       <c r="P318" s="139"/>
       <c r="Q318" s="139"/>
@@ -31880,7 +36101,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A478" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
@@ -32292,7 +36513,7 @@
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="22"/>
-      <c r="G72" s="456" t="s">
+      <c r="G72" s="442" t="s">
         <v>120</v>
       </c>
       <c r="H72" s="31"/>
@@ -32326,7 +36547,7 @@
       <c r="H73" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="I73" s="454">
+      <c r="I73" s="440">
         <v>21</v>
       </c>
       <c r="J73" s="32"/>
@@ -32356,14 +36577,14 @@
       <c r="F74" s="22"/>
       <c r="G74" s="31"/>
       <c r="H74" s="32"/>
-      <c r="I74" s="454">
+      <c r="I74" s="440">
         <v>5</v>
       </c>
       <c r="J74" s="32"/>
       <c r="K74" s="96"/>
       <c r="L74" s="96"/>
-      <c r="M74" s="449"/>
-      <c r="N74" s="453"/>
+      <c r="M74" s="435"/>
+      <c r="N74" s="439"/>
       <c r="O74" s="32"/>
       <c r="P74" s="32"/>
       <c r="Q74" s="32"/>
@@ -32386,15 +36607,15 @@
       <c r="F75" s="22"/>
       <c r="G75" s="31"/>
       <c r="H75" s="32"/>
-      <c r="I75" s="454">
+      <c r="I75" s="440">
         <v>5</v>
       </c>
       <c r="J75" s="32"/>
       <c r="K75" s="96"/>
       <c r="L75" s="96"/>
-      <c r="M75" s="449"/>
-      <c r="N75" s="452"/>
-      <c r="O75" s="450"/>
+      <c r="M75" s="435"/>
+      <c r="N75" s="438"/>
+      <c r="O75" s="436"/>
       <c r="P75" s="32"/>
       <c r="Q75" s="32"/>
       <c r="R75" s="32"/>
@@ -32416,15 +36637,15 @@
       <c r="F76" s="22"/>
       <c r="G76" s="31"/>
       <c r="H76" s="32"/>
-      <c r="I76" s="454">
+      <c r="I76" s="440">
         <v>5</v>
       </c>
       <c r="J76" s="32"/>
       <c r="K76" s="96"/>
       <c r="L76" s="96"/>
-      <c r="M76" s="449"/>
-      <c r="N76" s="452"/>
-      <c r="O76" s="450"/>
+      <c r="M76" s="435"/>
+      <c r="N76" s="438"/>
+      <c r="O76" s="436"/>
       <c r="P76" s="32"/>
       <c r="Q76" s="32"/>
       <c r="R76" s="32"/>
@@ -32448,9 +36669,9 @@
       <c r="J77" s="32"/>
       <c r="K77" s="96"/>
       <c r="L77" s="96"/>
-      <c r="M77" s="449"/>
-      <c r="N77" s="452"/>
-      <c r="O77" s="450"/>
+      <c r="M77" s="435"/>
+      <c r="N77" s="438"/>
+      <c r="O77" s="436"/>
       <c r="P77" s="32"/>
       <c r="Q77" s="32"/>
       <c r="R77" s="32"/>
@@ -32474,15 +36695,15 @@
       <c r="H78" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="I78" s="455">
+      <c r="I78" s="441">
         <v>43556</v>
       </c>
       <c r="J78" s="32"/>
       <c r="K78" s="96"/>
       <c r="L78" s="96"/>
-      <c r="M78" s="449"/>
-      <c r="N78" s="452"/>
-      <c r="O78" s="450"/>
+      <c r="M78" s="435"/>
+      <c r="N78" s="438"/>
+      <c r="O78" s="436"/>
       <c r="P78" s="32"/>
       <c r="Q78" s="32"/>
       <c r="R78" s="32"/>
@@ -32506,9 +36727,9 @@
       <c r="J79" s="32"/>
       <c r="K79" s="96"/>
       <c r="L79" s="96"/>
-      <c r="M79" s="449"/>
-      <c r="N79" s="452"/>
-      <c r="O79" s="450"/>
+      <c r="M79" s="435"/>
+      <c r="N79" s="438"/>
+      <c r="O79" s="436"/>
       <c r="P79" s="32"/>
       <c r="Q79" s="32"/>
       <c r="R79" s="32"/>
@@ -32532,7 +36753,7 @@
       <c r="H80" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="I80" s="454">
+      <c r="I80" s="440">
         <v>10</v>
       </c>
       <c r="J80" s="32"/>
@@ -32588,15 +36809,15 @@
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="22"/>
-      <c r="G82" s="457" t="s">
+      <c r="G82" s="443" t="s">
         <v>519</v>
       </c>
       <c r="H82" s="32"/>
       <c r="I82" s="32"/>
       <c r="J82" s="32"/>
-      <c r="K82" s="451"/>
-      <c r="L82" s="451"/>
-      <c r="M82" s="451"/>
+      <c r="K82" s="437"/>
+      <c r="L82" s="437"/>
+      <c r="M82" s="437"/>
       <c r="N82" s="32"/>
       <c r="O82" s="32"/>
       <c r="P82" s="32"/>
@@ -32648,13 +36869,13 @@
       <c r="E84" s="13"/>
       <c r="F84" s="22"/>
       <c r="G84" s="31"/>
-      <c r="H84" s="454" t="s">
+      <c r="H84" s="440" t="s">
         <v>127</v>
       </c>
-      <c r="I84" s="454" t="s">
+      <c r="I84" s="440" t="s">
         <v>130</v>
       </c>
-      <c r="J84" s="454" t="s">
+      <c r="J84" s="440" t="s">
         <v>134</v>
       </c>
       <c r="K84" s="96"/>
@@ -32682,13 +36903,13 @@
       <c r="E85" s="13"/>
       <c r="F85" s="22"/>
       <c r="G85" s="31"/>
-      <c r="H85" s="454" t="s">
+      <c r="H85" s="440" t="s">
         <v>78</v>
       </c>
-      <c r="I85" s="454">
+      <c r="I85" s="440">
         <v>25</v>
       </c>
-      <c r="J85" s="454">
+      <c r="J85" s="440">
         <v>250</v>
       </c>
       <c r="K85" s="96"/>
@@ -32716,13 +36937,13 @@
       <c r="E86" s="13"/>
       <c r="F86" s="22"/>
       <c r="G86" s="31"/>
-      <c r="H86" s="454" t="s">
+      <c r="H86" s="440" t="s">
         <v>81</v>
       </c>
-      <c r="I86" s="454">
+      <c r="I86" s="440">
         <v>20</v>
       </c>
-      <c r="J86" s="454">
+      <c r="J86" s="440">
         <v>250</v>
       </c>
       <c r="K86" s="96"/>
@@ -32750,13 +36971,13 @@
       <c r="E87" s="13"/>
       <c r="F87" s="22"/>
       <c r="G87" s="31"/>
-      <c r="H87" s="454" t="s">
+      <c r="H87" s="440" t="s">
         <v>80</v>
       </c>
-      <c r="I87" s="454">
+      <c r="I87" s="440">
         <v>15</v>
       </c>
-      <c r="J87" s="454">
+      <c r="J87" s="440">
         <v>250</v>
       </c>
       <c r="K87" s="96"/>
@@ -32784,13 +37005,13 @@
       <c r="E88" s="13"/>
       <c r="F88" s="22"/>
       <c r="G88" s="31"/>
-      <c r="H88" s="454" t="s">
+      <c r="H88" s="440" t="s">
         <v>83</v>
       </c>
-      <c r="I88" s="454">
+      <c r="I88" s="440">
         <v>25</v>
       </c>
-      <c r="J88" s="454">
+      <c r="J88" s="440">
         <v>250</v>
       </c>
       <c r="K88" s="96"/>
@@ -32818,11 +37039,11 @@
       <c r="E89" s="13"/>
       <c r="F89" s="22"/>
       <c r="G89" s="31"/>
-      <c r="H89" s="454" t="s">
+      <c r="H89" s="440" t="s">
         <v>322</v>
       </c>
-      <c r="I89" s="454"/>
-      <c r="J89" s="454"/>
+      <c r="I89" s="440"/>
+      <c r="J89" s="440"/>
       <c r="K89" s="96"/>
       <c r="L89" s="96"/>
       <c r="M89" s="96"/>
@@ -32848,13 +37069,13 @@
       <c r="E90" s="13"/>
       <c r="F90" s="22"/>
       <c r="G90" s="31"/>
-      <c r="H90" s="454" t="s">
+      <c r="H90" s="440" t="s">
         <v>86</v>
       </c>
-      <c r="I90" s="454">
+      <c r="I90" s="440">
         <v>30</v>
       </c>
-      <c r="J90" s="454">
+      <c r="J90" s="440">
         <v>250</v>
       </c>
       <c r="K90" s="96"/>
@@ -32882,13 +37103,13 @@
       <c r="E91" s="13"/>
       <c r="F91" s="22"/>
       <c r="G91" s="31"/>
-      <c r="H91" s="454" t="s">
+      <c r="H91" s="440" t="s">
         <v>77</v>
       </c>
-      <c r="I91" s="454">
+      <c r="I91" s="440">
         <v>30</v>
       </c>
-      <c r="J91" s="454">
+      <c r="J91" s="440">
         <v>250</v>
       </c>
       <c r="K91" s="96"/>
@@ -32916,13 +37137,13 @@
       <c r="E92" s="13"/>
       <c r="F92" s="22"/>
       <c r="G92" s="31"/>
-      <c r="H92" s="454" t="s">
+      <c r="H92" s="440" t="s">
         <v>82</v>
       </c>
-      <c r="I92" s="454">
+      <c r="I92" s="440">
         <v>25</v>
       </c>
-      <c r="J92" s="454">
+      <c r="J92" s="440">
         <v>250</v>
       </c>
       <c r="K92" s="96"/>
@@ -32950,13 +37171,13 @@
       <c r="E93" s="13"/>
       <c r="F93" s="22"/>
       <c r="G93" s="31"/>
-      <c r="H93" s="454" t="s">
+      <c r="H93" s="440" t="s">
         <v>79</v>
       </c>
-      <c r="I93" s="454">
+      <c r="I93" s="440">
         <v>25</v>
       </c>
-      <c r="J93" s="454">
+      <c r="J93" s="440">
         <v>250</v>
       </c>
       <c r="K93" s="96"/>
@@ -32984,13 +37205,13 @@
       <c r="E94" s="13"/>
       <c r="F94" s="22"/>
       <c r="G94" s="31"/>
-      <c r="H94" s="454" t="s">
+      <c r="H94" s="440" t="s">
         <v>87</v>
       </c>
-      <c r="I94" s="454">
+      <c r="I94" s="440">
         <v>25</v>
       </c>
-      <c r="J94" s="454">
+      <c r="J94" s="440">
         <v>250</v>
       </c>
       <c r="K94" s="96"/>
@@ -33018,13 +37239,13 @@
       <c r="E95" s="13"/>
       <c r="F95" s="22"/>
       <c r="G95" s="31"/>
-      <c r="H95" s="454" t="s">
+      <c r="H95" s="440" t="s">
         <v>88</v>
       </c>
-      <c r="I95" s="454">
+      <c r="I95" s="440">
         <v>25</v>
       </c>
-      <c r="J95" s="454">
+      <c r="J95" s="440">
         <v>250</v>
       </c>
       <c r="K95" s="96"/>
@@ -33052,13 +37273,13 @@
       <c r="E96" s="13"/>
       <c r="F96" s="22"/>
       <c r="G96" s="31"/>
-      <c r="H96" s="454" t="s">
+      <c r="H96" s="440" t="s">
         <v>89</v>
       </c>
-      <c r="I96" s="454">
+      <c r="I96" s="440">
         <v>25</v>
       </c>
-      <c r="J96" s="454">
+      <c r="J96" s="440">
         <v>250</v>
       </c>
       <c r="K96" s="96"/>
@@ -33113,7 +37334,7 @@
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="22"/>
-      <c r="G98" s="456" t="s">
+      <c r="G98" s="442" t="s">
         <v>123</v>
       </c>
       <c r="I98" s="32"/>
@@ -33146,7 +37367,7 @@
       <c r="H99" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="I99" s="455">
+      <c r="I99" s="441">
         <v>43794</v>
       </c>
       <c r="J99" s="32"/>
@@ -33206,7 +37427,7 @@
       <c r="H101" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I101" s="454">
+      <c r="I101" s="440">
         <v>10</v>
       </c>
       <c r="J101" s="32"/>
@@ -33236,7 +37457,7 @@
       <c r="F102" s="22"/>
       <c r="G102" s="31"/>
       <c r="H102" s="32"/>
-      <c r="I102" s="454">
+      <c r="I102" s="440">
         <v>27</v>
       </c>
       <c r="J102" s="32"/>
@@ -33323,10 +37544,10 @@
       <c r="E105" s="13"/>
       <c r="F105" s="22"/>
       <c r="G105" s="31"/>
-      <c r="H105" s="454" t="s">
+      <c r="H105" s="440" t="s">
         <v>127</v>
       </c>
-      <c r="I105" s="454" t="s">
+      <c r="I105" s="440" t="s">
         <v>118</v>
       </c>
       <c r="J105" s="32"/>
@@ -33355,10 +37576,10 @@
       <c r="E106" s="13"/>
       <c r="F106" s="22"/>
       <c r="G106" s="31"/>
-      <c r="H106" s="454" t="s">
+      <c r="H106" s="440" t="s">
         <v>78</v>
       </c>
-      <c r="I106" s="455">
+      <c r="I106" s="441">
         <v>43804</v>
       </c>
       <c r="J106" s="32"/>
@@ -33387,10 +37608,10 @@
       <c r="E107" s="13"/>
       <c r="F107" s="22"/>
       <c r="G107" s="31"/>
-      <c r="H107" s="454" t="s">
+      <c r="H107" s="440" t="s">
         <v>81</v>
       </c>
-      <c r="I107" s="455">
+      <c r="I107" s="441">
         <v>43804</v>
       </c>
       <c r="J107" s="32"/>
@@ -33419,10 +37640,10 @@
       <c r="E108" s="13"/>
       <c r="F108" s="22"/>
       <c r="G108" s="31"/>
-      <c r="H108" s="454" t="s">
+      <c r="H108" s="440" t="s">
         <v>80</v>
       </c>
-      <c r="I108" s="455">
+      <c r="I108" s="441">
         <v>43804</v>
       </c>
       <c r="J108" s="32"/>
@@ -33451,10 +37672,10 @@
       <c r="E109" s="13"/>
       <c r="F109" s="22"/>
       <c r="G109" s="31"/>
-      <c r="H109" s="454" t="s">
+      <c r="H109" s="440" t="s">
         <v>83</v>
       </c>
-      <c r="I109" s="455">
+      <c r="I109" s="441">
         <v>43794</v>
       </c>
       <c r="J109" s="32"/>
@@ -33483,10 +37704,10 @@
       <c r="E110" s="13"/>
       <c r="F110" s="22"/>
       <c r="G110" s="31"/>
-      <c r="H110" s="454" t="s">
+      <c r="H110" s="440" t="s">
         <v>86</v>
       </c>
-      <c r="I110" s="455">
+      <c r="I110" s="441">
         <v>43794</v>
       </c>
       <c r="J110" s="32"/>
@@ -33515,10 +37736,10 @@
       <c r="E111" s="13"/>
       <c r="F111" s="22"/>
       <c r="G111" s="31"/>
-      <c r="H111" s="454" t="s">
+      <c r="H111" s="440" t="s">
         <v>77</v>
       </c>
-      <c r="I111" s="455">
+      <c r="I111" s="441">
         <v>43794</v>
       </c>
       <c r="J111" s="32"/>
@@ -33547,10 +37768,10 @@
       <c r="E112" s="13"/>
       <c r="F112" s="22"/>
       <c r="G112" s="31"/>
-      <c r="H112" s="454" t="s">
+      <c r="H112" s="440" t="s">
         <v>82</v>
       </c>
-      <c r="I112" s="455">
+      <c r="I112" s="441">
         <v>43804</v>
       </c>
       <c r="J112" s="32"/>
@@ -33579,10 +37800,10 @@
       <c r="E113" s="13"/>
       <c r="F113" s="22"/>
       <c r="G113" s="31"/>
-      <c r="H113" s="454" t="s">
+      <c r="H113" s="440" t="s">
         <v>79</v>
       </c>
-      <c r="I113" s="455">
+      <c r="I113" s="441">
         <v>43804</v>
       </c>
       <c r="J113" s="32"/>
@@ -33611,10 +37832,10 @@
       <c r="E114" s="13"/>
       <c r="F114" s="22"/>
       <c r="G114" s="31"/>
-      <c r="H114" s="454" t="s">
+      <c r="H114" s="440" t="s">
         <v>87</v>
       </c>
-      <c r="I114" s="455">
+      <c r="I114" s="441">
         <v>43804</v>
       </c>
       <c r="J114" s="32"/>
@@ -33643,10 +37864,10 @@
       <c r="E115" s="13"/>
       <c r="F115" s="22"/>
       <c r="G115" s="31"/>
-      <c r="H115" s="454" t="s">
+      <c r="H115" s="440" t="s">
         <v>88</v>
       </c>
-      <c r="I115" s="455">
+      <c r="I115" s="441">
         <v>43804</v>
       </c>
       <c r="J115" s="32"/>
@@ -33675,10 +37896,10 @@
       <c r="E116" s="13"/>
       <c r="F116" s="22"/>
       <c r="G116" s="31"/>
-      <c r="H116" s="454" t="s">
+      <c r="H116" s="440" t="s">
         <v>89</v>
       </c>
-      <c r="I116" s="455">
+      <c r="I116" s="441">
         <v>43804</v>
       </c>
       <c r="J116" s="32"/>
@@ -33738,7 +37959,7 @@
       <c r="H118" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="I118" s="455">
+      <c r="I118" s="441">
         <v>43770</v>
       </c>
       <c r="J118" s="32"/>
@@ -33798,7 +38019,7 @@
       <c r="H120" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="I120" s="454">
+      <c r="I120" s="440">
         <v>15</v>
       </c>
       <c r="J120" s="32"/>
@@ -33854,7 +38075,7 @@
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="22"/>
-      <c r="G122" s="456" t="s">
+      <c r="G122" s="442" t="s">
         <v>348</v>
       </c>
       <c r="I122" s="32"/>
@@ -33887,7 +38108,7 @@
       <c r="H123" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="I123" s="454">
+      <c r="I123" s="440">
         <v>7</v>
       </c>
       <c r="J123" s="32"/>
@@ -39785,7 +44006,7 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="448"/>
+      <c r="K285" s="434"/>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
       <c r="N285" s="6"/>
@@ -39994,16 +44215,16 @@
       <c r="H292" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="I292" s="445">
+      <c r="I292" s="431">
         <v>1</v>
       </c>
-      <c r="J292" s="445">
+      <c r="J292" s="431">
         <v>1.3</v>
       </c>
-      <c r="K292" s="446">
+      <c r="K292" s="432">
         <v>43556</v>
       </c>
-      <c r="L292" s="445">
+      <c r="L292" s="431">
         <v>5</v>
       </c>
       <c r="M292" s="92"/>
@@ -40031,16 +44252,16 @@
       <c r="H293" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="I293" s="445">
+      <c r="I293" s="431">
         <v>1</v>
       </c>
-      <c r="J293" s="445">
+      <c r="J293" s="431">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K293" s="446">
+      <c r="K293" s="432">
         <v>43647</v>
       </c>
-      <c r="L293" s="445">
+      <c r="L293" s="431">
         <v>5</v>
       </c>
       <c r="M293" s="92"/>
@@ -40068,19 +44289,19 @@
       <c r="H294" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="I294" s="445">
+      <c r="I294" s="431">
         <v>1</v>
       </c>
-      <c r="J294" s="445">
+      <c r="J294" s="431">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K294" s="446">
+      <c r="K294" s="432">
         <v>43511</v>
       </c>
-      <c r="L294" s="445">
+      <c r="L294" s="431">
         <v>90</v>
       </c>
-      <c r="M294" s="447"/>
+      <c r="M294" s="433"/>
       <c r="N294" s="88"/>
       <c r="O294" s="88"/>
       <c r="P294" s="88"/>
@@ -40105,19 +44326,19 @@
       <c r="H295" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="I295" s="445">
+      <c r="I295" s="431">
         <v>1</v>
       </c>
-      <c r="J295" s="445">
+      <c r="J295" s="431">
         <v>0.7</v>
       </c>
-      <c r="K295" s="446">
+      <c r="K295" s="432">
         <v>43653</v>
       </c>
-      <c r="L295" s="445">
+      <c r="L295" s="431">
         <v>5</v>
       </c>
-      <c r="M295" s="447"/>
+      <c r="M295" s="433"/>
       <c r="N295" s="88"/>
       <c r="O295" s="88"/>
       <c r="P295" s="88"/>
@@ -41953,7 +46174,7 @@
       <c r="G354" s="23"/>
       <c r="H354" s="23"/>
       <c r="I354" s="23" t="str">
-        <f>I377</f>
+        <f t="shared" ref="I354:I361" si="0">I377</f>
         <v>knock</v>
       </c>
       <c r="J354" s="295">
@@ -41988,7 +46209,7 @@
       <c r="G355" s="23"/>
       <c r="H355" s="23"/>
       <c r="I355" s="23" t="str">
-        <f>I378</f>
+        <f t="shared" si="0"/>
         <v>infurrow</v>
       </c>
       <c r="J355" s="295">
@@ -42023,7 +46244,7 @@
       <c r="G356" s="23"/>
       <c r="H356" s="23"/>
       <c r="I356" s="23" t="str">
-        <f>I379</f>
+        <f t="shared" si="0"/>
         <v>post broadleaf</v>
       </c>
       <c r="J356" s="295">
@@ -42058,7 +46279,7 @@
       <c r="G357" s="23"/>
       <c r="H357" s="23"/>
       <c r="I357" s="23" t="str">
-        <f>I380</f>
+        <f t="shared" si="0"/>
         <v>post grass</v>
       </c>
       <c r="J357" s="295">
@@ -42093,7 +46314,7 @@
       <c r="G358" s="31"/>
       <c r="H358" s="31"/>
       <c r="I358" s="23" t="str">
-        <f>I381</f>
+        <f t="shared" si="0"/>
         <v>spraytop</v>
       </c>
       <c r="J358" s="295">
@@ -42128,7 +46349,7 @@
       <c r="G359" s="23"/>
       <c r="H359" s="23"/>
       <c r="I359" s="23" t="str">
-        <f>I382</f>
+        <f t="shared" si="0"/>
         <v>fungicide cereal</v>
       </c>
       <c r="J359" s="295">
@@ -42163,7 +46384,7 @@
       <c r="G360" s="23"/>
       <c r="H360" s="23"/>
       <c r="I360" s="23" t="str">
-        <f>I383</f>
+        <f t="shared" si="0"/>
         <v>fungicide oilseed</v>
       </c>
       <c r="J360" s="295">
@@ -42198,7 +46419,7 @@
       <c r="G361" s="23"/>
       <c r="H361" s="23"/>
       <c r="I361" s="23" t="str">
-        <f>I384</f>
+        <f t="shared" si="0"/>
         <v>fungicide pulse</v>
       </c>
       <c r="J361" s="295">
@@ -42674,7 +46895,7 @@
       <c r="G377" s="23"/>
       <c r="H377" s="23"/>
       <c r="I377" s="23" t="str">
-        <f>I331</f>
+        <f t="shared" ref="I377:I384" si="1">I331</f>
         <v>knock</v>
       </c>
       <c r="J377" s="296">
@@ -42712,7 +46933,7 @@
       <c r="G378" s="23"/>
       <c r="H378" s="23"/>
       <c r="I378" s="23" t="str">
-        <f>I332</f>
+        <f t="shared" si="1"/>
         <v>infurrow</v>
       </c>
       <c r="J378" s="296">
@@ -42750,7 +46971,7 @@
       <c r="G379" s="23"/>
       <c r="H379" s="23"/>
       <c r="I379" s="23" t="str">
-        <f>I333</f>
+        <f t="shared" si="1"/>
         <v>post broadleaf</v>
       </c>
       <c r="J379" s="296">
@@ -42788,7 +47009,7 @@
       <c r="G380" s="23"/>
       <c r="H380" s="23"/>
       <c r="I380" s="23" t="str">
-        <f>I334</f>
+        <f t="shared" si="1"/>
         <v>post grass</v>
       </c>
       <c r="J380" s="296">
@@ -42826,7 +47047,7 @@
       <c r="G381" s="23"/>
       <c r="H381" s="23"/>
       <c r="I381" s="23" t="str">
-        <f>I335</f>
+        <f t="shared" si="1"/>
         <v>spraytop</v>
       </c>
       <c r="J381" s="296">
@@ -42859,7 +47080,7 @@
       <c r="G382" s="23"/>
       <c r="H382" s="23"/>
       <c r="I382" s="23" t="str">
-        <f>I336</f>
+        <f t="shared" si="1"/>
         <v>fungicide cereal</v>
       </c>
       <c r="J382" s="296">
@@ -42892,7 +47113,7 @@
       <c r="G383" s="23"/>
       <c r="H383" s="23"/>
       <c r="I383" s="23" t="str">
-        <f>I337</f>
+        <f t="shared" si="1"/>
         <v>fungicide oilseed</v>
       </c>
       <c r="J383" s="296">
@@ -42925,7 +47146,7 @@
       <c r="G384" s="23"/>
       <c r="H384" s="23"/>
       <c r="I384" s="23" t="str">
-        <f>I338</f>
+        <f t="shared" si="1"/>
         <v>fungicide pulse</v>
       </c>
       <c r="J384" s="296">
@@ -43309,7 +47530,7 @@
       <c r="E397" s="13"/>
       <c r="F397" s="13"/>
       <c r="G397" s="13"/>
-      <c r="H397" s="442"/>
+      <c r="H397" s="455"/>
       <c r="I397" s="13"/>
       <c r="J397" s="13"/>
       <c r="K397" s="18"/>
@@ -43337,7 +47558,7 @@
       <c r="E398" s="13"/>
       <c r="F398" s="13"/>
       <c r="G398" s="13"/>
-      <c r="H398" s="442"/>
+      <c r="H398" s="455"/>
       <c r="I398" s="13"/>
       <c r="J398" s="19" t="s">
         <v>42</v>
@@ -43371,7 +47592,7 @@
       <c r="G399" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H399" s="442"/>
+      <c r="H399" s="455"/>
       <c r="I399" s="13"/>
       <c r="J399" s="19" t="s">
         <v>67</v>
@@ -47210,6 +51431,306 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7487BF92-A04F-4C5C-BC2B-11327DDC945F}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" s="458" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K1" t="s">
+        <v>525</v>
+      </c>
+      <c r="L1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" s="458" t="s">
+        <v>521</v>
+      </c>
+      <c r="I2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>470</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>522</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>522</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>522</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>522</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>522</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>522</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95A93BC-BD5A-4E07-A7F7-F8220E7EBE2C}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:X118"/>
@@ -49110,10 +53631,10 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="443" t="s">
+      <c r="F68" s="456" t="s">
         <v>377</v>
       </c>
-      <c r="G68" s="444"/>
+      <c r="G68" s="457"/>
       <c r="H68" s="19"/>
       <c r="I68" s="19" t="s">
         <v>378</v>
@@ -49945,8 +54466,8 @@
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
-      <c r="E96" s="443"/>
-      <c r="F96" s="444"/>
+      <c r="E96" s="456"/>
+      <c r="F96" s="457"/>
       <c r="G96" s="19" t="s">
         <v>385</v>
       </c>
@@ -50679,7 +55200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187C8797-B96D-4D83-85D9-E8CE59C3FB06}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:B47"/>
@@ -50951,4124 +55472,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E7CEFF-83F4-4D28-85EF-3859ECCF0B70}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:Z139"/>
-  <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66:I73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" style="97" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" style="97" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="97" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" style="97" customWidth="1"/>
-    <col min="5" max="5" width="2.5546875" style="97" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" style="97" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="97"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="G2" s="98"/>
-    </row>
-    <row r="15" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="50">
-        <v>38576.728703703702</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="285" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="285" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="282"/>
-      <c r="J28" s="283"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="285" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="285">
-        <v>3.5</v>
-      </c>
-      <c r="I29" s="282"/>
-      <c r="J29" s="284"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="285" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="285">
-        <v>4.2</v>
-      </c>
-      <c r="I30" s="282"/>
-      <c r="J30" s="284"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="285" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="285">
-        <v>3.5</v>
-      </c>
-      <c r="I31" s="282"/>
-      <c r="J31" s="284"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="285" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="285"/>
-      <c r="I32" s="282"/>
-      <c r="J32" s="284"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="285" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="285">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I33" s="282"/>
-      <c r="J33" s="284"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="285" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="285">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I34" s="282"/>
-      <c r="J34" s="284"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="285" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="285"/>
-      <c r="I35" s="282"/>
-      <c r="J35" s="284"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="285" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="285"/>
-      <c r="I36" s="282"/>
-      <c r="J36" s="283"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="285" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="285"/>
-      <c r="I37" s="282"/>
-      <c r="J37" s="283"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="285" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="285"/>
-      <c r="I38" s="282"/>
-      <c r="J38" s="284"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="285" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="285"/>
-      <c r="I39" s="282"/>
-      <c r="J39" s="284"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="281"/>
-      <c r="H40" s="281"/>
-      <c r="I40" s="282"/>
-      <c r="J40" s="284"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-    </row>
-    <row r="42" spans="1:26" s="4" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="37" t="str">
-        <f>G18</f>
-        <v>STUBBLE HANDLING</v>
-      </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-    </row>
-    <row r="43" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-    </row>
-    <row r="44" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-    </row>
-    <row r="45" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-    </row>
-    <row r="50" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="50">
-        <v>38576.728703703702</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="15"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-    </row>
-    <row r="52" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-    </row>
-    <row r="53" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-    </row>
-    <row r="54" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-    </row>
-    <row r="58" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="H58" s="45">
-        <v>1</v>
-      </c>
-      <c r="I58" s="73"/>
-      <c r="K58" s="419" t="s">
-        <v>474</v>
-      </c>
-      <c r="L58" s="420">
-        <v>0.1</v>
-      </c>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="25"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-    </row>
-    <row r="59" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="25"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-    </row>
-    <row r="60" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-    </row>
-    <row r="61" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
-      <c r="V61" s="26"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-    </row>
-    <row r="62" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="25"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-    </row>
-    <row r="63" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="25"/>
-      <c r="V63" s="26"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-    </row>
-    <row r="64" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="31"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="N64" s="31"/>
-      <c r="O64" s="74"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="26"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="74" t="s">
-        <v>465</v>
-      </c>
-      <c r="J65" s="286"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="74" t="s">
-        <v>471</v>
-      </c>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="26"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-    </row>
-    <row r="66" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66" s="71">
-        <v>0.42</v>
-      </c>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="O66" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="26"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-    </row>
-    <row r="67" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I67" s="71">
-        <v>0.44</v>
-      </c>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="O67" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="26"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I68" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="O68" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="26"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-    </row>
-    <row r="69" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69" s="71">
-        <v>0.2</v>
-      </c>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="O69" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="26"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-    </row>
-    <row r="70" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I70" s="71">
-        <v>0.2</v>
-      </c>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="O70" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="26"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-    </row>
-    <row r="71" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I71" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="O71" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="26"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-    </row>
-    <row r="72" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I72" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="O72" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="26"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-    </row>
-    <row r="73" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I73" s="71">
-        <v>0.7</v>
-      </c>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="O73" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="26"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-    </row>
-    <row r="74" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="26"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-    </row>
-    <row r="75" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H75" s="31"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="N75" s="31"/>
-      <c r="O75" s="74"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="26"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-    </row>
-    <row r="76" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="74" t="s">
-        <v>464</v>
-      </c>
-      <c r="J76" s="72"/>
-      <c r="K76" s="72"/>
-      <c r="L76" s="72"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="74" t="s">
-        <v>472</v>
-      </c>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="29"/>
-      <c r="S76" s="29"/>
-      <c r="T76" s="29"/>
-      <c r="U76" s="29"/>
-      <c r="V76" s="26"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-    </row>
-    <row r="77" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I77" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="J77" s="72"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="O77" s="71">
-        <v>2</v>
-      </c>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="29"/>
-      <c r="U77" s="29"/>
-      <c r="V77" s="26"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-    </row>
-    <row r="78" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I78" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="J78" s="72"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="O78" s="71">
-        <v>2</v>
-      </c>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="26"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-    </row>
-    <row r="79" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I79" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="J79" s="72"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="O79" s="71">
-        <v>2</v>
-      </c>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="29"/>
-      <c r="U79" s="29"/>
-      <c r="V79" s="26"/>
-      <c r="W79" s="12"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-    </row>
-    <row r="80" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I80" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="J80" s="72"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="O80" s="71">
-        <v>2</v>
-      </c>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="29"/>
-      <c r="U80" s="29"/>
-      <c r="V80" s="26"/>
-      <c r="W80" s="12"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-    </row>
-    <row r="81" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I81" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="J81" s="72"/>
-      <c r="K81" s="75"/>
-      <c r="L81" s="75"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="O81" s="71">
-        <v>2</v>
-      </c>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="29"/>
-      <c r="U81" s="29"/>
-      <c r="V81" s="26"/>
-      <c r="W81" s="12"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-    </row>
-    <row r="82" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I82" s="71">
-        <v>0.9</v>
-      </c>
-      <c r="J82" s="72"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="O82" s="71">
-        <v>2</v>
-      </c>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="29"/>
-      <c r="S82" s="29"/>
-      <c r="T82" s="29"/>
-      <c r="U82" s="29"/>
-      <c r="V82" s="26"/>
-      <c r="W82" s="12"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I83" s="71">
-        <v>0.9</v>
-      </c>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="O83" s="71">
-        <v>2</v>
-      </c>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="29"/>
-      <c r="V83" s="26"/>
-      <c r="W83" s="12"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-    </row>
-    <row r="84" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I84" s="71">
-        <v>1</v>
-      </c>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="O84" s="71">
-        <v>2</v>
-      </c>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="26"/>
-      <c r="W84" s="12"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
-    </row>
-    <row r="85" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="29"/>
-      <c r="V85" s="26"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
-    </row>
-    <row r="86" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="H86" s="31"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="29"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="29"/>
-      <c r="S86" s="29"/>
-      <c r="T86" s="29"/>
-      <c r="U86" s="29"/>
-      <c r="V86" s="26"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-    </row>
-    <row r="87" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="73" t="s">
-        <v>418</v>
-      </c>
-      <c r="J87" s="75" t="s">
-        <v>460</v>
-      </c>
-      <c r="K87" s="75" t="s">
-        <v>461</v>
-      </c>
-      <c r="L87" s="75" t="s">
-        <v>462</v>
-      </c>
-      <c r="M87" s="75" t="s">
-        <v>463</v>
-      </c>
-      <c r="N87" s="75"/>
-      <c r="O87" s="75"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="26"/>
-      <c r="W87" s="12"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-    </row>
-    <row r="88" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I88" s="71">
-        <v>85</v>
-      </c>
-      <c r="J88" s="71">
-        <v>58</v>
-      </c>
-      <c r="K88" s="71">
-        <v>37</v>
-      </c>
-      <c r="L88" s="71">
-        <v>37</v>
-      </c>
-      <c r="M88" s="71">
-        <v>23</v>
-      </c>
-      <c r="N88" s="75"/>
-      <c r="O88" s="75"/>
-      <c r="P88" s="29"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="29"/>
-      <c r="S88" s="29"/>
-      <c r="T88" s="29"/>
-      <c r="U88" s="29"/>
-      <c r="V88" s="26"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-    </row>
-    <row r="89" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I89" s="71">
-        <v>85</v>
-      </c>
-      <c r="J89" s="71">
-        <v>58</v>
-      </c>
-      <c r="K89" s="71">
-        <v>37</v>
-      </c>
-      <c r="L89" s="71">
-        <v>37</v>
-      </c>
-      <c r="M89" s="71">
-        <v>23</v>
-      </c>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
-      <c r="P89" s="29"/>
-      <c r="Q89" s="29"/>
-      <c r="R89" s="29"/>
-      <c r="S89" s="29"/>
-      <c r="T89" s="29"/>
-      <c r="U89" s="29"/>
-      <c r="V89" s="26"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
-    </row>
-    <row r="90" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I90" s="71">
-        <v>85</v>
-      </c>
-      <c r="J90" s="71">
-        <v>58</v>
-      </c>
-      <c r="K90" s="71">
-        <v>37</v>
-      </c>
-      <c r="L90" s="71">
-        <v>37</v>
-      </c>
-      <c r="M90" s="71">
-        <v>23</v>
-      </c>
-      <c r="N90" s="75"/>
-      <c r="O90" s="75"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="29"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="26"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I91" s="71">
-        <v>95</v>
-      </c>
-      <c r="J91" s="71">
-        <v>64</v>
-      </c>
-      <c r="K91" s="71">
-        <v>0</v>
-      </c>
-      <c r="L91" s="71">
-        <v>52</v>
-      </c>
-      <c r="M91" s="71">
-        <v>31</v>
-      </c>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="29"/>
-      <c r="V91" s="26"/>
-      <c r="W91" s="12"/>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-    </row>
-    <row r="92" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I92" s="71">
-        <v>95</v>
-      </c>
-      <c r="J92" s="71">
-        <v>64</v>
-      </c>
-      <c r="K92" s="71">
-        <v>0</v>
-      </c>
-      <c r="L92" s="71">
-        <v>52</v>
-      </c>
-      <c r="M92" s="71">
-        <v>31</v>
-      </c>
-      <c r="N92" s="75"/>
-      <c r="O92" s="75"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="29"/>
-      <c r="V92" s="26"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
-    </row>
-    <row r="93" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I93" s="71">
-        <v>90</v>
-      </c>
-      <c r="J93" s="71">
-        <v>64</v>
-      </c>
-      <c r="K93" s="71">
-        <v>0</v>
-      </c>
-      <c r="L93" s="71">
-        <v>58</v>
-      </c>
-      <c r="M93" s="71">
-        <v>35</v>
-      </c>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="29"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="29"/>
-      <c r="V93" s="26"/>
-      <c r="W93" s="12"/>
-      <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-    </row>
-    <row r="94" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I94" s="71">
-        <v>90</v>
-      </c>
-      <c r="J94" s="71">
-        <v>64</v>
-      </c>
-      <c r="K94" s="71">
-        <v>0</v>
-      </c>
-      <c r="L94" s="71">
-        <v>58</v>
-      </c>
-      <c r="M94" s="71">
-        <v>35</v>
-      </c>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="29"/>
-      <c r="V94" s="26"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-    </row>
-    <row r="95" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I95" s="71">
-        <v>85</v>
-      </c>
-      <c r="J95" s="71">
-        <v>70</v>
-      </c>
-      <c r="K95" s="71">
-        <v>37</v>
-      </c>
-      <c r="L95" s="71">
-        <v>37</v>
-      </c>
-      <c r="M95" s="71">
-        <v>23</v>
-      </c>
-      <c r="N95" s="75"/>
-      <c r="O95" s="75"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="26"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="73"/>
-      <c r="J96" s="75"/>
-      <c r="K96" s="75"/>
-      <c r="L96" s="75"/>
-      <c r="M96" s="75"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="75"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="29"/>
-      <c r="S96" s="29"/>
-      <c r="T96" s="29"/>
-      <c r="U96" s="29"/>
-      <c r="V96" s="26"/>
-      <c r="W96" s="12"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-    </row>
-    <row r="97" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="H97" s="31"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="75"/>
-      <c r="K97" s="75"/>
-      <c r="L97" s="75"/>
-      <c r="M97" s="75"/>
-      <c r="N97" s="75"/>
-      <c r="O97" s="75"/>
-      <c r="P97" s="29"/>
-      <c r="Q97" s="29"/>
-      <c r="R97" s="29"/>
-      <c r="S97" s="29"/>
-      <c r="T97" s="29"/>
-      <c r="U97" s="29"/>
-      <c r="V97" s="26"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-    </row>
-    <row r="98" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="73" t="s">
-        <v>418</v>
-      </c>
-      <c r="J98" s="75" t="s">
-        <v>460</v>
-      </c>
-      <c r="K98" s="75" t="s">
-        <v>461</v>
-      </c>
-      <c r="L98" s="75" t="s">
-        <v>462</v>
-      </c>
-      <c r="M98" s="75" t="s">
-        <v>463</v>
-      </c>
-      <c r="N98" s="75"/>
-      <c r="O98" s="75"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="29"/>
-      <c r="U98" s="29"/>
-      <c r="V98" s="26"/>
-      <c r="W98" s="12"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-    </row>
-    <row r="99" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I99" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J99" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K99" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L99" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M99" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N99" s="75"/>
-      <c r="O99" s="75"/>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="29"/>
-      <c r="S99" s="29"/>
-      <c r="T99" s="29"/>
-      <c r="U99" s="29"/>
-      <c r="V99" s="26"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-    </row>
-    <row r="100" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I100" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J100" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K100" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L100" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M100" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N100" s="75"/>
-      <c r="O100" s="75"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="29"/>
-      <c r="U100" s="29"/>
-      <c r="V100" s="26"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-    </row>
-    <row r="101" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I101" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J101" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K101" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L101" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M101" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N101" s="75"/>
-      <c r="O101" s="75"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="29"/>
-      <c r="V101" s="26"/>
-      <c r="W101" s="12"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-    </row>
-    <row r="102" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I102" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J102" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K102" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L102" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M102" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N102" s="75"/>
-      <c r="O102" s="75"/>
-      <c r="P102" s="29"/>
-      <c r="Q102" s="29"/>
-      <c r="R102" s="29"/>
-      <c r="S102" s="29"/>
-      <c r="T102" s="29"/>
-      <c r="U102" s="29"/>
-      <c r="V102" s="26"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-    </row>
-    <row r="103" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I103" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J103" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K103" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L103" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M103" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N103" s="75"/>
-      <c r="O103" s="75"/>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="29"/>
-      <c r="S103" s="29"/>
-      <c r="T103" s="29"/>
-      <c r="U103" s="29"/>
-      <c r="V103" s="26"/>
-      <c r="W103" s="12"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-    </row>
-    <row r="104" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I104" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J104" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K104" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L104" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M104" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N104" s="75"/>
-      <c r="O104" s="75"/>
-      <c r="P104" s="29"/>
-      <c r="Q104" s="29"/>
-      <c r="R104" s="29"/>
-      <c r="S104" s="29"/>
-      <c r="T104" s="29"/>
-      <c r="U104" s="29"/>
-      <c r="V104" s="26"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-    </row>
-    <row r="105" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I105" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J105" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K105" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L105" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M105" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N105" s="75"/>
-      <c r="O105" s="75"/>
-      <c r="P105" s="29"/>
-      <c r="Q105" s="29"/>
-      <c r="R105" s="29"/>
-      <c r="S105" s="29"/>
-      <c r="T105" s="29"/>
-      <c r="U105" s="29"/>
-      <c r="V105" s="26"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="3"/>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
-    </row>
-    <row r="106" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I106" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J106" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K106" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L106" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M106" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N106" s="75"/>
-      <c r="O106" s="75"/>
-      <c r="P106" s="29"/>
-      <c r="Q106" s="29"/>
-      <c r="R106" s="29"/>
-      <c r="S106" s="29"/>
-      <c r="T106" s="29"/>
-      <c r="U106" s="29"/>
-      <c r="V106" s="26"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="3"/>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
-    </row>
-    <row r="107" spans="1:26" s="4" customFormat="1" ht="12.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="75"/>
-      <c r="K107" s="75"/>
-      <c r="L107" s="75"/>
-      <c r="M107" s="75"/>
-      <c r="N107" s="75"/>
-      <c r="O107" s="75"/>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="29"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="29"/>
-      <c r="U107" s="29"/>
-      <c r="V107" s="26"/>
-      <c r="W107" s="12"/>
-      <c r="X107" s="3"/>
-      <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
-    </row>
-    <row r="108" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="H108" s="31"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="75"/>
-      <c r="K108" s="75"/>
-      <c r="L108" s="75"/>
-      <c r="M108" s="75"/>
-      <c r="N108" s="75"/>
-      <c r="O108" s="75"/>
-      <c r="P108" s="29"/>
-      <c r="Q108" s="29"/>
-      <c r="R108" s="29"/>
-      <c r="S108" s="29"/>
-      <c r="T108" s="29"/>
-      <c r="U108" s="29"/>
-      <c r="V108" s="26"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="3"/>
-      <c r="Y108" s="3"/>
-      <c r="Z108" s="3"/>
-    </row>
-    <row r="109" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="J109" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="K109" s="75" t="s">
-        <v>469</v>
-      </c>
-      <c r="L109" s="75" t="s">
-        <v>470</v>
-      </c>
-      <c r="M109" s="75"/>
-      <c r="N109" s="75"/>
-      <c r="O109" s="75"/>
-      <c r="P109" s="29"/>
-      <c r="Q109" s="29"/>
-      <c r="R109" s="29"/>
-      <c r="S109" s="29"/>
-      <c r="T109" s="29"/>
-      <c r="U109" s="29"/>
-      <c r="V109" s="26"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="3"/>
-      <c r="Y109" s="3"/>
-      <c r="Z109" s="3"/>
-    </row>
-    <row r="110" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I110" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J110" s="71">
-        <v>0.04</v>
-      </c>
-      <c r="K110" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L110" s="71">
-        <f>1-SUM(I110:K110)</f>
-        <v>0.81</v>
-      </c>
-      <c r="M110" s="75"/>
-      <c r="N110" s="75"/>
-      <c r="O110" s="75"/>
-      <c r="P110" s="29"/>
-      <c r="Q110" s="29"/>
-      <c r="R110" s="29"/>
-      <c r="S110" s="29"/>
-      <c r="T110" s="29"/>
-      <c r="U110" s="29"/>
-      <c r="V110" s="26"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="3"/>
-      <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
-    </row>
-    <row r="111" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I111" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J111" s="71">
-        <v>0.04</v>
-      </c>
-      <c r="K111" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L111" s="71">
-        <f t="shared" ref="L111:L112" si="0">1-SUM(I111:K111)</f>
-        <v>0.81</v>
-      </c>
-      <c r="M111" s="75"/>
-      <c r="N111" s="75"/>
-      <c r="O111" s="75"/>
-      <c r="P111" s="29"/>
-      <c r="Q111" s="29"/>
-      <c r="R111" s="29"/>
-      <c r="S111" s="29"/>
-      <c r="T111" s="29"/>
-      <c r="U111" s="29"/>
-      <c r="V111" s="26"/>
-      <c r="W111" s="12"/>
-      <c r="X111" s="3"/>
-      <c r="Y111" s="3"/>
-      <c r="Z111" s="3"/>
-    </row>
-    <row r="112" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I112" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J112" s="71">
-        <v>0.04</v>
-      </c>
-      <c r="K112" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L112" s="71">
-        <f t="shared" si="0"/>
-        <v>0.81</v>
-      </c>
-      <c r="M112" s="75"/>
-      <c r="N112" s="75"/>
-      <c r="O112" s="75"/>
-      <c r="P112" s="29"/>
-      <c r="Q112" s="29"/>
-      <c r="R112" s="29"/>
-      <c r="S112" s="29"/>
-      <c r="T112" s="29"/>
-      <c r="U112" s="29"/>
-      <c r="V112" s="26"/>
-      <c r="W112" s="12"/>
-      <c r="X112" s="3"/>
-      <c r="Y112" s="3"/>
-      <c r="Z112" s="3"/>
-    </row>
-    <row r="113" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I113" s="71">
-        <v>0.02</v>
-      </c>
-      <c r="J113" s="71">
-        <v>0.03</v>
-      </c>
-      <c r="K113" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L113" s="71">
-        <f t="shared" ref="L113:L117" si="1">1-SUM(I113:K113)</f>
-        <v>0.85</v>
-      </c>
-      <c r="M113" s="75"/>
-      <c r="N113" s="75"/>
-      <c r="O113" s="75"/>
-      <c r="P113" s="29"/>
-      <c r="Q113" s="29"/>
-      <c r="R113" s="29"/>
-      <c r="S113" s="29"/>
-      <c r="T113" s="29"/>
-      <c r="U113" s="29"/>
-      <c r="V113" s="26"/>
-      <c r="W113" s="12"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-    </row>
-    <row r="114" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I114" s="71">
-        <v>0.02</v>
-      </c>
-      <c r="J114" s="71">
-        <v>0.03</v>
-      </c>
-      <c r="K114" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L114" s="71">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="M114" s="75"/>
-      <c r="N114" s="75"/>
-      <c r="O114" s="75"/>
-      <c r="P114" s="29"/>
-      <c r="Q114" s="29"/>
-      <c r="R114" s="29"/>
-      <c r="S114" s="29"/>
-      <c r="T114" s="29"/>
-      <c r="U114" s="29"/>
-      <c r="V114" s="26"/>
-      <c r="W114" s="12"/>
-      <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-    </row>
-    <row r="115" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I115" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J115" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="K115" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="L115" s="71">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="M115" s="75"/>
-      <c r="N115" s="75"/>
-      <c r="O115" s="75"/>
-      <c r="P115" s="29"/>
-      <c r="Q115" s="29"/>
-      <c r="R115" s="29"/>
-      <c r="S115" s="29"/>
-      <c r="T115" s="29"/>
-      <c r="U115" s="29"/>
-      <c r="V115" s="26"/>
-      <c r="W115" s="12"/>
-      <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-    </row>
-    <row r="116" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I116" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J116" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="K116" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="L116" s="71">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="M116" s="75"/>
-      <c r="N116" s="75"/>
-      <c r="O116" s="75"/>
-      <c r="P116" s="29"/>
-      <c r="Q116" s="29"/>
-      <c r="R116" s="29"/>
-      <c r="S116" s="29"/>
-      <c r="T116" s="29"/>
-      <c r="U116" s="29"/>
-      <c r="V116" s="26"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="3"/>
-      <c r="Y116" s="3"/>
-      <c r="Z116" s="3"/>
-    </row>
-    <row r="117" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I117" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J117" s="71">
-        <v>0.04</v>
-      </c>
-      <c r="K117" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L117" s="71">
-        <f t="shared" si="1"/>
-        <v>0.81</v>
-      </c>
-      <c r="M117" s="75"/>
-      <c r="N117" s="75"/>
-      <c r="O117" s="75"/>
-      <c r="P117" s="29"/>
-      <c r="Q117" s="29"/>
-      <c r="R117" s="29"/>
-      <c r="S117" s="29"/>
-      <c r="T117" s="29"/>
-      <c r="U117" s="29"/>
-      <c r="V117" s="26"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="3"/>
-      <c r="Y117" s="3"/>
-      <c r="Z117" s="3"/>
-    </row>
-    <row r="118" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="73"/>
-      <c r="J118" s="75"/>
-      <c r="K118" s="75"/>
-      <c r="L118" s="75"/>
-      <c r="M118" s="75"/>
-      <c r="N118" s="75"/>
-      <c r="O118" s="75"/>
-      <c r="P118" s="29"/>
-      <c r="Q118" s="29"/>
-      <c r="R118" s="29"/>
-      <c r="S118" s="29"/>
-      <c r="T118" s="29"/>
-      <c r="U118" s="29"/>
-      <c r="V118" s="26"/>
-      <c r="W118" s="12"/>
-      <c r="X118" s="3"/>
-      <c r="Y118" s="3"/>
-      <c r="Z118" s="3"/>
-    </row>
-    <row r="119" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H119" s="31"/>
-      <c r="I119" s="73"/>
-      <c r="J119" s="75"/>
-      <c r="K119" s="75"/>
-      <c r="L119" s="75"/>
-      <c r="M119" s="75"/>
-      <c r="N119" s="75"/>
-      <c r="O119" s="75"/>
-      <c r="P119" s="29"/>
-      <c r="Q119" s="29"/>
-      <c r="R119" s="29"/>
-      <c r="S119" s="29"/>
-      <c r="T119" s="29"/>
-      <c r="U119" s="29"/>
-      <c r="V119" s="26"/>
-      <c r="W119" s="12"/>
-      <c r="X119" s="3"/>
-      <c r="Y119" s="3"/>
-      <c r="Z119" s="3"/>
-    </row>
-    <row r="120" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="J120" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="K120" s="75" t="s">
-        <v>469</v>
-      </c>
-      <c r="L120" s="75" t="s">
-        <v>470</v>
-      </c>
-      <c r="M120" s="75"/>
-      <c r="N120" s="75"/>
-      <c r="O120" s="75"/>
-      <c r="P120" s="29"/>
-      <c r="Q120" s="29"/>
-      <c r="R120" s="29"/>
-      <c r="S120" s="29"/>
-      <c r="T120" s="29"/>
-      <c r="U120" s="29"/>
-      <c r="V120" s="26"/>
-      <c r="W120" s="12"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-    </row>
-    <row r="121" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I121" s="71">
-        <v>80</v>
-      </c>
-      <c r="J121" s="71">
-        <v>51</v>
-      </c>
-      <c r="K121" s="71">
-        <v>45</v>
-      </c>
-      <c r="L121" s="71">
-        <v>30</v>
-      </c>
-      <c r="M121" s="75"/>
-      <c r="N121" s="75"/>
-      <c r="O121" s="75"/>
-      <c r="P121" s="29"/>
-      <c r="Q121" s="29"/>
-      <c r="R121" s="29"/>
-      <c r="S121" s="29"/>
-      <c r="T121" s="29"/>
-      <c r="U121" s="29"/>
-      <c r="V121" s="26"/>
-      <c r="W121" s="12"/>
-      <c r="X121" s="3"/>
-      <c r="Y121" s="3"/>
-      <c r="Z121" s="3"/>
-    </row>
-    <row r="122" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I122" s="71">
-        <v>80</v>
-      </c>
-      <c r="J122" s="71">
-        <v>51</v>
-      </c>
-      <c r="K122" s="71">
-        <v>45</v>
-      </c>
-      <c r="L122" s="71">
-        <v>30</v>
-      </c>
-      <c r="M122" s="75"/>
-      <c r="N122" s="75"/>
-      <c r="O122" s="75"/>
-      <c r="P122" s="29"/>
-      <c r="Q122" s="29"/>
-      <c r="R122" s="29"/>
-      <c r="S122" s="29"/>
-      <c r="T122" s="29"/>
-      <c r="U122" s="29"/>
-      <c r="V122" s="26"/>
-      <c r="W122" s="12"/>
-      <c r="X122" s="3"/>
-      <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
-    </row>
-    <row r="123" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I123" s="71">
-        <v>80</v>
-      </c>
-      <c r="J123" s="71">
-        <v>51</v>
-      </c>
-      <c r="K123" s="71">
-        <v>45</v>
-      </c>
-      <c r="L123" s="71">
-        <v>30</v>
-      </c>
-      <c r="M123" s="75"/>
-      <c r="N123" s="75"/>
-      <c r="O123" s="75"/>
-      <c r="P123" s="29"/>
-      <c r="Q123" s="29"/>
-      <c r="R123" s="29"/>
-      <c r="S123" s="29"/>
-      <c r="T123" s="29"/>
-      <c r="U123" s="29"/>
-      <c r="V123" s="26"/>
-      <c r="W123" s="12"/>
-      <c r="X123" s="3"/>
-      <c r="Y123" s="3"/>
-      <c r="Z123" s="3"/>
-    </row>
-    <row r="124" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I124" s="71">
-        <v>89</v>
-      </c>
-      <c r="J124" s="71">
-        <v>68</v>
-      </c>
-      <c r="K124" s="71">
-        <v>46</v>
-      </c>
-      <c r="L124" s="71">
-        <v>33</v>
-      </c>
-      <c r="M124" s="75"/>
-      <c r="N124" s="75"/>
-      <c r="O124" s="75"/>
-      <c r="P124" s="29"/>
-      <c r="Q124" s="29"/>
-      <c r="R124" s="29"/>
-      <c r="S124" s="29"/>
-      <c r="T124" s="29"/>
-      <c r="U124" s="29"/>
-      <c r="V124" s="26"/>
-      <c r="W124" s="12"/>
-      <c r="X124" s="3"/>
-      <c r="Y124" s="3"/>
-      <c r="Z124" s="3"/>
-    </row>
-    <row r="125" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="31"/>
-      <c r="H125" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I125" s="71">
-        <v>89</v>
-      </c>
-      <c r="J125" s="71">
-        <v>68</v>
-      </c>
-      <c r="K125" s="71">
-        <v>46</v>
-      </c>
-      <c r="L125" s="71">
-        <v>33</v>
-      </c>
-      <c r="M125" s="75"/>
-      <c r="N125" s="75"/>
-      <c r="O125" s="75"/>
-      <c r="P125" s="29"/>
-      <c r="Q125" s="29"/>
-      <c r="R125" s="29"/>
-      <c r="S125" s="29"/>
-      <c r="T125" s="29"/>
-      <c r="U125" s="29"/>
-      <c r="V125" s="26"/>
-      <c r="W125" s="12"/>
-      <c r="X125" s="3"/>
-      <c r="Y125" s="3"/>
-      <c r="Z125" s="3"/>
-    </row>
-    <row r="126" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I126" s="71">
-        <v>85</v>
-      </c>
-      <c r="J126" s="71">
-        <v>65</v>
-      </c>
-      <c r="K126" s="71">
-        <v>56</v>
-      </c>
-      <c r="L126" s="71">
-        <v>43</v>
-      </c>
-      <c r="M126" s="75"/>
-      <c r="N126" s="75"/>
-      <c r="O126" s="75"/>
-      <c r="P126" s="29"/>
-      <c r="Q126" s="29"/>
-      <c r="R126" s="29"/>
-      <c r="S126" s="29"/>
-      <c r="T126" s="29"/>
-      <c r="U126" s="29"/>
-      <c r="V126" s="26"/>
-      <c r="W126" s="12"/>
-      <c r="X126" s="3"/>
-      <c r="Y126" s="3"/>
-      <c r="Z126" s="3"/>
-    </row>
-    <row r="127" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I127" s="71">
-        <v>85</v>
-      </c>
-      <c r="J127" s="71">
-        <v>65</v>
-      </c>
-      <c r="K127" s="71">
-        <v>56</v>
-      </c>
-      <c r="L127" s="71">
-        <v>43</v>
-      </c>
-      <c r="M127" s="75"/>
-      <c r="N127" s="75"/>
-      <c r="O127" s="75"/>
-      <c r="P127" s="29"/>
-      <c r="Q127" s="29"/>
-      <c r="R127" s="29"/>
-      <c r="S127" s="29"/>
-      <c r="T127" s="29"/>
-      <c r="U127" s="29"/>
-      <c r="V127" s="26"/>
-      <c r="W127" s="12"/>
-      <c r="X127" s="3"/>
-      <c r="Y127" s="3"/>
-      <c r="Z127" s="3"/>
-    </row>
-    <row r="128" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I128" s="71">
-        <v>80</v>
-      </c>
-      <c r="J128" s="71">
-        <v>51</v>
-      </c>
-      <c r="K128" s="71">
-        <v>45</v>
-      </c>
-      <c r="L128" s="71">
-        <v>30</v>
-      </c>
-      <c r="M128" s="75"/>
-      <c r="N128" s="75"/>
-      <c r="O128" s="75"/>
-      <c r="P128" s="29"/>
-      <c r="Q128" s="29"/>
-      <c r="R128" s="29"/>
-      <c r="S128" s="29"/>
-      <c r="T128" s="29"/>
-      <c r="U128" s="29"/>
-      <c r="V128" s="26"/>
-      <c r="W128" s="12"/>
-      <c r="X128" s="3"/>
-      <c r="Y128" s="3"/>
-      <c r="Z128" s="3"/>
-    </row>
-    <row r="129" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="73"/>
-      <c r="J129" s="75"/>
-      <c r="K129" s="75"/>
-      <c r="L129" s="75"/>
-      <c r="M129" s="75"/>
-      <c r="N129" s="75"/>
-      <c r="O129" s="75"/>
-      <c r="P129" s="29"/>
-      <c r="Q129" s="29"/>
-      <c r="R129" s="29"/>
-      <c r="S129" s="29"/>
-      <c r="T129" s="29"/>
-      <c r="U129" s="29"/>
-      <c r="V129" s="26"/>
-      <c r="W129" s="12"/>
-      <c r="X129" s="3"/>
-      <c r="Y129" s="3"/>
-      <c r="Z129" s="3"/>
-    </row>
-    <row r="130" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="73"/>
-      <c r="J130" s="75"/>
-      <c r="K130" s="75"/>
-      <c r="L130" s="75"/>
-      <c r="M130" s="75"/>
-      <c r="N130" s="75"/>
-      <c r="O130" s="75"/>
-      <c r="P130" s="29"/>
-      <c r="Q130" s="29"/>
-      <c r="R130" s="29"/>
-      <c r="S130" s="29"/>
-      <c r="T130" s="29"/>
-      <c r="U130" s="29"/>
-      <c r="V130" s="26"/>
-      <c r="W130" s="12"/>
-      <c r="X130" s="3"/>
-      <c r="Y130" s="3"/>
-      <c r="Z130" s="3"/>
-    </row>
-    <row r="131" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="73"/>
-      <c r="J131" s="75"/>
-      <c r="K131" s="75"/>
-      <c r="L131" s="75"/>
-      <c r="M131" s="75"/>
-      <c r="N131" s="75"/>
-      <c r="O131" s="75"/>
-      <c r="P131" s="29"/>
-      <c r="Q131" s="29"/>
-      <c r="R131" s="29"/>
-      <c r="S131" s="29"/>
-      <c r="T131" s="29"/>
-      <c r="U131" s="29"/>
-      <c r="V131" s="26"/>
-      <c r="W131" s="12"/>
-      <c r="X131" s="3"/>
-      <c r="Y131" s="3"/>
-      <c r="Z131" s="3"/>
-    </row>
-    <row r="132" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="73"/>
-      <c r="J132" s="75"/>
-      <c r="K132" s="75"/>
-      <c r="L132" s="75"/>
-      <c r="M132" s="75"/>
-      <c r="N132" s="75"/>
-      <c r="O132" s="75"/>
-      <c r="P132" s="29"/>
-      <c r="Q132" s="29"/>
-      <c r="R132" s="29"/>
-      <c r="S132" s="29"/>
-      <c r="T132" s="29"/>
-      <c r="U132" s="29"/>
-      <c r="V132" s="26"/>
-      <c r="W132" s="12"/>
-      <c r="X132" s="3"/>
-      <c r="Y132" s="3"/>
-      <c r="Z132" s="3"/>
-    </row>
-    <row r="133" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="73"/>
-      <c r="J133" s="75"/>
-      <c r="K133" s="75"/>
-      <c r="L133" s="75"/>
-      <c r="M133" s="75"/>
-      <c r="N133" s="75"/>
-      <c r="O133" s="75"/>
-      <c r="P133" s="29"/>
-      <c r="Q133" s="29"/>
-      <c r="R133" s="29"/>
-      <c r="S133" s="29"/>
-      <c r="T133" s="29"/>
-      <c r="U133" s="29"/>
-      <c r="V133" s="26"/>
-      <c r="W133" s="12"/>
-      <c r="X133" s="3"/>
-      <c r="Y133" s="3"/>
-      <c r="Z133" s="3"/>
-    </row>
-    <row r="134" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="73"/>
-      <c r="J134" s="75"/>
-      <c r="K134" s="75"/>
-      <c r="L134" s="75"/>
-      <c r="M134" s="75"/>
-      <c r="N134" s="75"/>
-      <c r="O134" s="75"/>
-      <c r="P134" s="29"/>
-      <c r="Q134" s="29"/>
-      <c r="R134" s="29"/>
-      <c r="S134" s="29"/>
-      <c r="T134" s="29"/>
-      <c r="U134" s="29"/>
-      <c r="V134" s="26"/>
-      <c r="W134" s="12"/>
-      <c r="X134" s="3"/>
-      <c r="Y134" s="3"/>
-      <c r="Z134" s="3"/>
-    </row>
-    <row r="135" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="73"/>
-      <c r="J135" s="75"/>
-      <c r="K135" s="75"/>
-      <c r="L135" s="75"/>
-      <c r="M135" s="75"/>
-      <c r="N135" s="75"/>
-      <c r="O135" s="75"/>
-      <c r="P135" s="29"/>
-      <c r="Q135" s="29"/>
-      <c r="R135" s="29"/>
-      <c r="S135" s="29"/>
-      <c r="T135" s="29"/>
-      <c r="U135" s="29"/>
-      <c r="V135" s="26"/>
-      <c r="W135" s="12"/>
-      <c r="X135" s="3"/>
-      <c r="Y135" s="3"/>
-      <c r="Z135" s="3"/>
-    </row>
-    <row r="136" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="73"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
-      <c r="L136" s="72"/>
-      <c r="M136" s="72"/>
-      <c r="N136" s="72"/>
-      <c r="O136" s="72"/>
-      <c r="P136" s="29"/>
-      <c r="Q136" s="29"/>
-      <c r="R136" s="29"/>
-      <c r="S136" s="29"/>
-      <c r="T136" s="29"/>
-      <c r="U136" s="29"/>
-      <c r="V136" s="26"/>
-      <c r="W136" s="12"/>
-      <c r="X136" s="3"/>
-      <c r="Y136" s="3"/>
-      <c r="Z136" s="3"/>
-    </row>
-    <row r="137" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="35"/>
-      <c r="K137" s="35"/>
-      <c r="L137" s="35"/>
-      <c r="M137" s="35"/>
-      <c r="N137" s="35"/>
-      <c r="O137" s="35"/>
-      <c r="P137" s="35"/>
-      <c r="Q137" s="35"/>
-      <c r="R137" s="35"/>
-      <c r="S137" s="35"/>
-      <c r="T137" s="35"/>
-      <c r="U137" s="35"/>
-      <c r="V137" s="26"/>
-      <c r="W137" s="12"/>
-      <c r="X137" s="3"/>
-      <c r="Y137" s="3"/>
-      <c r="Z137" s="3"/>
-    </row>
-    <row r="138" spans="1:26" s="4" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="37" t="str">
-        <f>G48</f>
-        <v>HARVEST INDEX &amp; STUBBLE PRODUCTION</v>
-      </c>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
-      <c r="L138" s="36"/>
-      <c r="M138" s="36"/>
-      <c r="N138" s="36"/>
-      <c r="O138" s="36"/>
-      <c r="P138" s="36"/>
-      <c r="Q138" s="36"/>
-      <c r="R138" s="36"/>
-      <c r="S138" s="36"/>
-      <c r="T138" s="36"/>
-      <c r="U138" s="36"/>
-      <c r="V138" s="36"/>
-      <c r="W138" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="X138" s="3"/>
-      <c r="Y138" s="3"/>
-      <c r="Z138" s="3"/>
-    </row>
-    <row r="139" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
-      <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-      <c r="S139" s="3"/>
-      <c r="T139" s="3"/>
-      <c r="U139" s="3"/>
-      <c r="V139" s="3"/>
-      <c r="W139" s="3"/>
-      <c r="X139" s="3"/>
-      <c r="Y139" s="3"/>
-      <c r="Z139" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Property.xlsx
+++ b/Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\python\MUDAS\MUDAS 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3ED61-2BCA-4AFA-BDE2-AAFF8B2F4FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF4503B-79A8-421E-860B-9CA68057B53E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="84" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="45972" yWindow="84" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <definedName name="yield_by_lmu" localSheetId="5">Crop!$I$238:$N$250</definedName>
     <definedName name="yield_penalty" localSheetId="5">Crop!$H$84:$J$96</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6245,6 +6245,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="16" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -6288,7 +6289,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Calculations" xfId="10" xr:uid="{449B9FA0-BCFF-41FE-A9C5-7F4DFD2D1D3B}"/>
@@ -15878,21 +15878,21 @@
       <c r="E46" s="140"/>
       <c r="F46" s="142"/>
       <c r="G46" s="151"/>
-      <c r="H46" s="444" t="s">
+      <c r="H46" s="445" t="s">
         <v>164</v>
       </c>
-      <c r="I46" s="445"/>
-      <c r="J46" s="445"/>
-      <c r="K46" s="445"/>
-      <c r="L46" s="445"/>
-      <c r="M46" s="445"/>
-      <c r="N46" s="445"/>
-      <c r="O46" s="445"/>
-      <c r="P46" s="445"/>
-      <c r="Q46" s="445"/>
-      <c r="R46" s="445"/>
-      <c r="S46" s="445"/>
-      <c r="T46" s="446"/>
+      <c r="I46" s="446"/>
+      <c r="J46" s="446"/>
+      <c r="K46" s="446"/>
+      <c r="L46" s="446"/>
+      <c r="M46" s="446"/>
+      <c r="N46" s="446"/>
+      <c r="O46" s="446"/>
+      <c r="P46" s="446"/>
+      <c r="Q46" s="446"/>
+      <c r="R46" s="446"/>
+      <c r="S46" s="446"/>
+      <c r="T46" s="447"/>
       <c r="U46" s="151"/>
       <c r="V46" s="142"/>
       <c r="W46" s="122"/>
@@ -15906,19 +15906,19 @@
       <c r="E47" s="140"/>
       <c r="F47" s="142"/>
       <c r="G47" s="151"/>
-      <c r="H47" s="447"/>
-      <c r="I47" s="448"/>
-      <c r="J47" s="448"/>
-      <c r="K47" s="448"/>
-      <c r="L47" s="448"/>
-      <c r="M47" s="448"/>
-      <c r="N47" s="448"/>
-      <c r="O47" s="448"/>
-      <c r="P47" s="448"/>
-      <c r="Q47" s="448"/>
-      <c r="R47" s="448"/>
-      <c r="S47" s="448"/>
-      <c r="T47" s="449"/>
+      <c r="H47" s="448"/>
+      <c r="I47" s="449"/>
+      <c r="J47" s="449"/>
+      <c r="K47" s="449"/>
+      <c r="L47" s="449"/>
+      <c r="M47" s="449"/>
+      <c r="N47" s="449"/>
+      <c r="O47" s="449"/>
+      <c r="P47" s="449"/>
+      <c r="Q47" s="449"/>
+      <c r="R47" s="449"/>
+      <c r="S47" s="449"/>
+      <c r="T47" s="450"/>
       <c r="U47" s="151"/>
       <c r="V47" s="142"/>
       <c r="W47" s="122"/>
@@ -15932,19 +15932,19 @@
       <c r="E48" s="140"/>
       <c r="F48" s="142"/>
       <c r="G48" s="151"/>
-      <c r="H48" s="447"/>
-      <c r="I48" s="448"/>
-      <c r="J48" s="448"/>
-      <c r="K48" s="448"/>
-      <c r="L48" s="448"/>
-      <c r="M48" s="448"/>
-      <c r="N48" s="448"/>
-      <c r="O48" s="448"/>
-      <c r="P48" s="448"/>
-      <c r="Q48" s="448"/>
-      <c r="R48" s="448"/>
-      <c r="S48" s="448"/>
-      <c r="T48" s="449"/>
+      <c r="H48" s="448"/>
+      <c r="I48" s="449"/>
+      <c r="J48" s="449"/>
+      <c r="K48" s="449"/>
+      <c r="L48" s="449"/>
+      <c r="M48" s="449"/>
+      <c r="N48" s="449"/>
+      <c r="O48" s="449"/>
+      <c r="P48" s="449"/>
+      <c r="Q48" s="449"/>
+      <c r="R48" s="449"/>
+      <c r="S48" s="449"/>
+      <c r="T48" s="450"/>
       <c r="U48" s="151"/>
       <c r="V48" s="142"/>
       <c r="W48" s="122"/>
@@ -15958,19 +15958,19 @@
       <c r="E49" s="140"/>
       <c r="F49" s="142"/>
       <c r="G49" s="151"/>
-      <c r="H49" s="450"/>
-      <c r="I49" s="451"/>
-      <c r="J49" s="451"/>
-      <c r="K49" s="451"/>
-      <c r="L49" s="451"/>
-      <c r="M49" s="451"/>
-      <c r="N49" s="451"/>
-      <c r="O49" s="451"/>
-      <c r="P49" s="451"/>
-      <c r="Q49" s="451"/>
-      <c r="R49" s="451"/>
-      <c r="S49" s="451"/>
-      <c r="T49" s="452"/>
+      <c r="H49" s="451"/>
+      <c r="I49" s="452"/>
+      <c r="J49" s="452"/>
+      <c r="K49" s="452"/>
+      <c r="L49" s="452"/>
+      <c r="M49" s="452"/>
+      <c r="N49" s="452"/>
+      <c r="O49" s="452"/>
+      <c r="P49" s="452"/>
+      <c r="Q49" s="452"/>
+      <c r="R49" s="452"/>
+      <c r="S49" s="452"/>
+      <c r="T49" s="453"/>
       <c r="U49" s="151"/>
       <c r="V49" s="142"/>
       <c r="W49" s="122"/>
@@ -30547,9 +30547,9 @@
       <c r="I318" s="252"/>
       <c r="J318" s="252"/>
       <c r="K318" s="139"/>
-      <c r="L318" s="453"/>
-      <c r="M318" s="454"/>
-      <c r="N318" s="454"/>
+      <c r="L318" s="454"/>
+      <c r="M318" s="455"/>
+      <c r="N318" s="455"/>
       <c r="O318" s="139"/>
       <c r="P318" s="139"/>
       <c r="Q318" s="139"/>
@@ -36101,8 +36101,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP506"/>
   <sheetViews>
-    <sheetView topLeftCell="A478" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S382" sqref="S382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="12" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -47530,7 +47530,7 @@
       <c r="E397" s="13"/>
       <c r="F397" s="13"/>
       <c r="G397" s="13"/>
-      <c r="H397" s="455"/>
+      <c r="H397" s="456"/>
       <c r="I397" s="13"/>
       <c r="J397" s="13"/>
       <c r="K397" s="18"/>
@@ -47558,7 +47558,7 @@
       <c r="E398" s="13"/>
       <c r="F398" s="13"/>
       <c r="G398" s="13"/>
-      <c r="H398" s="455"/>
+      <c r="H398" s="456"/>
       <c r="I398" s="13"/>
       <c r="J398" s="19" t="s">
         <v>42</v>
@@ -47592,7 +47592,7 @@
       <c r="G399" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H399" s="455"/>
+      <c r="H399" s="456"/>
       <c r="I399" s="13"/>
       <c r="J399" s="19" t="s">
         <v>67</v>
@@ -51434,7 +51434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7487BF92-A04F-4C5C-BC2B-11327DDC945F}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -51453,7 +51453,7 @@
       <c r="E1" t="s">
         <v>524</v>
       </c>
-      <c r="F1" s="458" t="s">
+      <c r="F1" s="444" t="s">
         <v>520</v>
       </c>
       <c r="I1" t="s">
@@ -51482,7 +51482,7 @@
       <c r="E2" t="s">
         <v>524</v>
       </c>
-      <c r="F2" s="458" t="s">
+      <c r="F2" s="444" t="s">
         <v>521</v>
       </c>
       <c r="I2" t="s">
@@ -53631,10 +53631,10 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="456" t="s">
+      <c r="F68" s="457" t="s">
         <v>377</v>
       </c>
-      <c r="G68" s="457"/>
+      <c r="G68" s="458"/>
       <c r="H68" s="19"/>
       <c r="I68" s="19" t="s">
         <v>378</v>
@@ -54466,8 +54466,8 @@
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
-      <c r="E96" s="456"/>
-      <c r="F96" s="457"/>
+      <c r="E96" s="457"/>
+      <c r="F96" s="458"/>
       <c r="G96" s="19" t="s">
         <v>385</v>
       </c>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\python\MUDAS\MUDAS 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49D4D11-EB83-4E73-A432-3FE2C1E17D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103EE347-B64F-4D71-8AB0-377DF75A0EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="84" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <definedName name="fixed_control" localSheetId="5">Crop!$G$95:$R$119</definedName>
     <definedName name="fixed_fert" localSheetId="5">Crop!$G$95:$J$119</definedName>
     <definedName name="fixed_fert_passes" localSheetId="5">Crop!$L$95:$O$119</definedName>
-    <definedName name="fixed_rotphases">Crop!$G$156:$L$161</definedName>
+    <definedName name="fixed_rotphases">Crop!$G$155:$L$161</definedName>
     <definedName name="FOOatGrazing" localSheetId="4">Annual!$L$120</definedName>
     <definedName name="FOOatSeeding" localSheetId="4">Annual!$J$113</definedName>
     <definedName name="FOODryH" localSheetId="4">Annual!$M$293:$M$302</definedName>
@@ -123,7 +123,7 @@
     <definedName name="number_crop_gear" localSheetId="8">Mach!$B$5</definedName>
     <definedName name="option" localSheetId="8">Mach!$B$3</definedName>
     <definedName name="overdraw_limit" localSheetId="10">Finance!$B$2</definedName>
-    <definedName name="overheads">General!$I$24:$J$33</definedName>
+    <definedName name="overheads">General!$I$49:$J$58</definedName>
     <definedName name="own_seed">Crop!$P$373:$P$390</definedName>
     <definedName name="PastDecay" localSheetId="4">Annual!$J$68</definedName>
     <definedName name="PGRScalarH" localSheetId="4">Annual!$M$212:$M$221</definedName>
@@ -152,6 +152,7 @@
     <definedName name="SA.PGR" localSheetId="4">Annual!#REF!</definedName>
     <definedName name="SA.PGRLMU" localSheetId="4">Annual!#REF!</definedName>
     <definedName name="SA.PGRPer" localSheetId="4">Annual!#REF!</definedName>
+    <definedName name="season_info">General!$I$24:$K$25</definedName>
     <definedName name="seed_info">Crop!$G$405:$Q$423</definedName>
     <definedName name="seed_period_lengths" localSheetId="5">Crop!$I$13:$I$16</definedName>
     <definedName name="seed_prep">Labour!$S$97:$T$100</definedName>
@@ -194,7 +195,7 @@
     <definedName name="yield_penalty" localSheetId="5">Crop!$H$24:$J$36</definedName>
     <definedName name="yields" localSheetId="5">Crop!$M$155:$M$161</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -266,7 +267,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{44D2834B-F5A5-4B3F-8A7A-AF2F7CF0521F}">
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{468F4AA6-F6F7-4C76-99C7-3D4020558FE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+this is probability when all season types are included. This is altered in the code if only a subset of seasons are included
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{44D2834B-F5A5-4B3F-8A7A-AF2F7CF0521F}">
       <text>
         <r>
           <rPr>
@@ -2995,7 +3021,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="526">
   <si>
     <t>«</t>
   </si>
@@ -4587,6 +4613,24 @@
   <si>
     <t>fert passes</t>
   </si>
+  <si>
+    <t>Season Types</t>
+  </si>
+  <si>
+    <t>season 1</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>Note: add to the table below when the inputs for other seasons exist</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>Do you wan steady state model?</t>
+  </si>
 </sst>
 </file>
 
@@ -4606,7 +4650,7 @@
     <numFmt numFmtId="174" formatCode="0.000"/>
     <numFmt numFmtId="175" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4787,6 +4831,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="21">
@@ -5192,7 +5243,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5222,8 +5273,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="469">
+  <cellXfs count="474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6351,6 +6403,37 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="20" borderId="24" xfId="12" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="24" xfId="12"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="16" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -6388,51 +6471,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="20" borderId="24" xfId="12" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="24" xfId="12"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="10" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Calculations" xfId="10" xr:uid="{449B9FA0-BCFF-41FE-A9C5-7F4DFD2D1D3B}"/>
     <cellStyle name="Formula 1" xfId="11" xr:uid="{F8CEB686-1EA8-43D0-A731-F4582AD6DEDB}"/>
     <cellStyle name="IndexSelectBackground" xfId="7" xr:uid="{D65E80AD-CB0E-4369-AB4D-3C50EADF821F}"/>
@@ -6444,6 +6510,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0C3493F0-E759-4D93-8160-530DBAD973D6}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{0FB42827-6271-4A4D-87D5-7577D9F5FC01}"/>
+    <cellStyle name="Percent" xfId="13" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{FE2D1058-BCB6-47B5-B4CE-77F02A915649}"/>
     <cellStyle name="WorksheetBackground" xfId="6" xr:uid="{F1D7B2CD-A7D3-44D4-9C6E-58E9948FB1C9}"/>
   </cellStyles>
@@ -11444,10 +11511,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB1FD0-C06F-43E2-AD4D-7EBD7CDF886A}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:Z38"/>
+  <dimension ref="A2:Z63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:J33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11535,6 +11602,7 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="326"/>
       <c r="B14" s="327"/>
@@ -11631,7 +11699,7 @@
       </c>
       <c r="F17" s="333"/>
       <c r="G17" s="334" t="s">
-        <v>384</v>
+        <v>520</v>
       </c>
       <c r="H17" s="333"/>
       <c r="I17" s="333"/>
@@ -11660,9 +11728,7 @@
       <c r="D18" s="332"/>
       <c r="E18" s="337"/>
       <c r="F18" s="333"/>
-      <c r="G18" s="333" t="s">
-        <v>385</v>
-      </c>
+      <c r="G18" s="333"/>
       <c r="H18" s="333"/>
       <c r="I18" s="333"/>
       <c r="J18" s="333"/>
@@ -11690,14 +11756,12 @@
       <c r="D19" s="332"/>
       <c r="E19" s="337"/>
       <c r="F19" s="333"/>
-      <c r="G19" s="339">
-        <v>38576.728726851848</v>
-      </c>
-      <c r="H19" s="333" t="s">
-        <v>386</v>
-      </c>
+      <c r="G19" s="339"/>
+      <c r="H19" s="333"/>
       <c r="I19" s="333"/>
-      <c r="J19" s="333"/>
+      <c r="J19" s="333" t="s">
+        <v>523</v>
+      </c>
       <c r="K19" s="333"/>
       <c r="L19" s="333"/>
       <c r="M19" s="333"/>
@@ -11814,9 +11878,7 @@
       <c r="J23" s="337"/>
       <c r="K23" s="343"/>
       <c r="L23" s="344"/>
-      <c r="M23" s="344" t="s">
-        <v>388</v>
-      </c>
+      <c r="M23" s="344"/>
       <c r="N23" s="344"/>
       <c r="O23" s="344"/>
       <c r="P23" s="344"/>
@@ -11842,11 +11904,15 @@
       <c r="H24" s="337"/>
       <c r="I24" s="337"/>
       <c r="J24" s="343" t="s">
-        <v>387</v>
-      </c>
-      <c r="K24" s="343"/>
+        <v>522</v>
+      </c>
+      <c r="K24" s="343" t="s">
+        <v>524</v>
+      </c>
       <c r="L24" s="344"/>
-      <c r="M24" s="344"/>
+      <c r="M24" s="469" t="s">
+        <v>525</v>
+      </c>
       <c r="N24" s="344"/>
       <c r="O24" s="344"/>
       <c r="P24" s="344"/>
@@ -11871,15 +11937,17 @@
       <c r="G25" s="99"/>
       <c r="H25" s="349"/>
       <c r="I25" s="363" t="s">
-        <v>390</v>
-      </c>
-      <c r="J25" s="350">
-        <v>1500</v>
-      </c>
-      <c r="K25" s="351"/>
+        <v>521</v>
+      </c>
+      <c r="J25" s="471">
+        <v>1</v>
+      </c>
+      <c r="K25" s="470" t="b">
+        <v>1</v>
+      </c>
       <c r="L25" s="351"/>
-      <c r="M25" s="352">
-        <v>1500</v>
+      <c r="M25" s="470" t="b">
+        <v>1</v>
       </c>
       <c r="N25" s="351"/>
       <c r="O25" s="351"/>
@@ -11904,17 +11972,11 @@
       <c r="F26" s="345"/>
       <c r="G26" s="99"/>
       <c r="H26" s="349"/>
-      <c r="I26" s="363" t="s">
-        <v>391</v>
-      </c>
-      <c r="J26" s="350">
-        <v>15000</v>
-      </c>
+      <c r="I26" s="351"/>
+      <c r="J26" s="472"/>
       <c r="K26" s="351"/>
       <c r="L26" s="351"/>
-      <c r="M26" s="352">
-        <v>5000</v>
-      </c>
+      <c r="M26" s="351"/>
       <c r="N26" s="351"/>
       <c r="O26" s="351"/>
       <c r="P26" s="351"/>
@@ -11938,17 +12000,11 @@
       <c r="F27" s="345"/>
       <c r="G27" s="99"/>
       <c r="H27" s="349"/>
-      <c r="I27" s="363" t="s">
-        <v>392</v>
-      </c>
-      <c r="J27" s="350">
-        <v>2000</v>
-      </c>
+      <c r="I27" s="351"/>
+      <c r="J27" s="472"/>
       <c r="K27" s="351"/>
       <c r="L27" s="351"/>
-      <c r="M27" s="352">
-        <v>2000</v>
-      </c>
+      <c r="M27" s="351"/>
       <c r="N27" s="351"/>
       <c r="O27" s="351"/>
       <c r="P27" s="351"/>
@@ -11972,17 +12028,11 @@
       <c r="F28" s="345"/>
       <c r="G28" s="99"/>
       <c r="H28" s="349"/>
-      <c r="I28" s="363" t="s">
-        <v>393</v>
-      </c>
-      <c r="J28" s="350">
-        <v>5000</v>
-      </c>
+      <c r="I28" s="351"/>
+      <c r="J28" s="472"/>
       <c r="K28" s="351"/>
       <c r="L28" s="351"/>
-      <c r="M28" s="352">
-        <v>3000</v>
-      </c>
+      <c r="M28" s="351"/>
       <c r="N28" s="351"/>
       <c r="O28" s="351"/>
       <c r="P28" s="351"/>
@@ -12006,17 +12056,11 @@
       <c r="F29" s="345"/>
       <c r="G29" s="99"/>
       <c r="H29" s="349"/>
-      <c r="I29" s="363" t="s">
-        <v>394</v>
-      </c>
-      <c r="J29" s="350">
-        <v>50000</v>
-      </c>
+      <c r="I29" s="351"/>
+      <c r="J29" s="472"/>
       <c r="K29" s="351"/>
       <c r="L29" s="351"/>
-      <c r="M29" s="352">
-        <v>20000</v>
-      </c>
+      <c r="M29" s="351"/>
       <c r="N29" s="351"/>
       <c r="O29" s="351"/>
       <c r="P29" s="351"/>
@@ -12040,17 +12084,11 @@
       <c r="F30" s="345"/>
       <c r="G30" s="99"/>
       <c r="H30" s="349"/>
-      <c r="I30" s="363" t="s">
-        <v>395</v>
-      </c>
-      <c r="J30" s="350">
-        <v>1500</v>
-      </c>
+      <c r="I30" s="351"/>
+      <c r="J30" s="472"/>
       <c r="K30" s="351"/>
       <c r="L30" s="351"/>
-      <c r="M30" s="352">
-        <v>1500</v>
-      </c>
+      <c r="M30" s="351"/>
       <c r="N30" s="351"/>
       <c r="O30" s="351"/>
       <c r="P30" s="351"/>
@@ -12074,17 +12112,11 @@
       <c r="F31" s="345"/>
       <c r="G31" s="99"/>
       <c r="H31" s="349"/>
-      <c r="I31" s="363" t="s">
-        <v>396</v>
-      </c>
-      <c r="J31" s="350">
-        <v>10000</v>
-      </c>
+      <c r="I31" s="351"/>
+      <c r="J31" s="472"/>
       <c r="K31" s="351"/>
       <c r="L31" s="351"/>
-      <c r="M31" s="352">
-        <v>5000</v>
-      </c>
+      <c r="M31" s="351"/>
       <c r="N31" s="351"/>
       <c r="O31" s="351"/>
       <c r="P31" s="351"/>
@@ -12108,17 +12140,11 @@
       <c r="F32" s="353"/>
       <c r="G32" s="99"/>
       <c r="H32" s="349"/>
-      <c r="I32" s="363" t="s">
-        <v>397</v>
-      </c>
-      <c r="J32" s="350">
-        <v>7500</v>
-      </c>
+      <c r="I32" s="351"/>
+      <c r="J32" s="472"/>
       <c r="K32" s="351"/>
       <c r="L32" s="351"/>
-      <c r="M32" s="352">
-        <v>3000</v>
-      </c>
+      <c r="M32" s="351"/>
       <c r="N32" s="351"/>
       <c r="O32" s="351"/>
       <c r="P32" s="351"/>
@@ -12142,15 +12168,11 @@
       <c r="F33" s="353"/>
       <c r="G33" s="99"/>
       <c r="H33" s="349"/>
-      <c r="I33" s="363" t="s">
-        <v>334</v>
-      </c>
-      <c r="J33" s="350">
-        <v>6000</v>
-      </c>
+      <c r="I33" s="351"/>
+      <c r="J33" s="472"/>
       <c r="K33" s="351"/>
       <c r="L33" s="351"/>
-      <c r="M33" s="352"/>
+      <c r="M33" s="351"/>
       <c r="N33" s="351"/>
       <c r="O33" s="351"/>
       <c r="P33" s="351"/>
@@ -12175,7 +12197,7 @@
       <c r="G34" s="349"/>
       <c r="H34" s="349"/>
       <c r="I34" s="349"/>
-      <c r="J34" s="355"/>
+      <c r="J34" s="473"/>
       <c r="K34" s="351"/>
       <c r="L34" s="351"/>
       <c r="M34" s="355"/>
@@ -12205,16 +12227,13 @@
       </c>
       <c r="H35" s="349"/>
       <c r="I35" s="349"/>
-      <c r="J35" s="356">
-        <f>SUM(J25:J33)</f>
-        <v>98500</v>
-      </c>
-      <c r="K35" s="351"/>
-      <c r="L35" s="351"/>
-      <c r="M35" s="357">
-        <f>SUM(M25:M32)</f>
-        <v>41000</v>
-      </c>
+      <c r="J35" s="349">
+        <f>SUM(J25:J34)</f>
+        <v>1</v>
+      </c>
+      <c r="K35" s="349"/>
+      <c r="L35" s="349"/>
+      <c r="M35" s="349"/>
       <c r="N35" s="351"/>
       <c r="O35" s="351"/>
       <c r="P35" s="351"/>
@@ -12266,7 +12285,7 @@
       <c r="F37" s="360"/>
       <c r="G37" s="361" t="str">
         <f>G17</f>
-        <v>FINANCE - ANNUAL OVERHEADS</v>
+        <v>Season Types</v>
       </c>
       <c r="H37" s="360"/>
       <c r="I37" s="360"/>
@@ -12318,7 +12337,791 @@
       <c r="Y38" s="328"/>
       <c r="Z38" s="328"/>
     </row>
+    <row r="39" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="326"/>
+      <c r="B39" s="327"/>
+      <c r="C39" s="327"/>
+      <c r="D39" s="327"/>
+      <c r="E39" s="327"/>
+      <c r="F39" s="327"/>
+      <c r="G39" s="327"/>
+      <c r="H39" s="328"/>
+      <c r="I39" s="328"/>
+      <c r="J39" s="328"/>
+      <c r="K39" s="328"/>
+      <c r="L39" s="328"/>
+      <c r="M39" s="328"/>
+      <c r="N39" s="328"/>
+      <c r="O39" s="328"/>
+      <c r="P39" s="328"/>
+      <c r="Q39" s="328"/>
+      <c r="R39" s="328"/>
+      <c r="S39" s="328"/>
+      <c r="T39" s="328"/>
+      <c r="U39" s="328"/>
+      <c r="V39" s="328"/>
+      <c r="W39" s="328"/>
+      <c r="X39" s="327"/>
+      <c r="Y39" s="327"/>
+      <c r="Z39" s="327"/>
+    </row>
+    <row r="40" spans="1:26" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="326"/>
+      <c r="B40" s="327"/>
+      <c r="C40" s="327"/>
+      <c r="D40" s="327"/>
+      <c r="E40" s="327"/>
+      <c r="F40" s="327"/>
+      <c r="G40" s="327"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="328"/>
+      <c r="K40" s="328"/>
+      <c r="L40" s="328"/>
+      <c r="M40" s="328"/>
+      <c r="N40" s="328"/>
+      <c r="O40" s="328"/>
+      <c r="P40" s="328"/>
+      <c r="Q40" s="328"/>
+      <c r="R40" s="328"/>
+      <c r="S40" s="328"/>
+      <c r="T40" s="328"/>
+      <c r="U40" s="328"/>
+      <c r="V40" s="328"/>
+      <c r="W40" s="328"/>
+      <c r="X40" s="327"/>
+      <c r="Y40" s="327"/>
+      <c r="Z40" s="327"/>
+    </row>
+    <row r="41" spans="1:26" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="326"/>
+      <c r="B41" s="327"/>
+      <c r="C41" s="329" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="329"/>
+      <c r="E41" s="329"/>
+      <c r="F41" s="329"/>
+      <c r="G41" s="329"/>
+      <c r="H41" s="329"/>
+      <c r="I41" s="329"/>
+      <c r="J41" s="329"/>
+      <c r="K41" s="330"/>
+      <c r="L41" s="330"/>
+      <c r="M41" s="330"/>
+      <c r="N41" s="330"/>
+      <c r="O41" s="330"/>
+      <c r="P41" s="330"/>
+      <c r="Q41" s="330"/>
+      <c r="R41" s="330"/>
+      <c r="S41" s="330"/>
+      <c r="T41" s="330"/>
+      <c r="U41" s="330"/>
+      <c r="V41" s="330"/>
+      <c r="W41" s="331"/>
+      <c r="X41" s="328"/>
+      <c r="Y41" s="328"/>
+      <c r="Z41" s="328"/>
+    </row>
+    <row r="42" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="326"/>
+      <c r="B42" s="327"/>
+      <c r="C42" s="332"/>
+      <c r="D42" s="332"/>
+      <c r="E42" s="332" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="333"/>
+      <c r="G42" s="334" t="s">
+        <v>384</v>
+      </c>
+      <c r="H42" s="333"/>
+      <c r="I42" s="333"/>
+      <c r="J42" s="333"/>
+      <c r="K42" s="333"/>
+      <c r="L42" s="333"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="333"/>
+      <c r="O42" s="333"/>
+      <c r="P42" s="333"/>
+      <c r="Q42" s="333"/>
+      <c r="R42" s="333"/>
+      <c r="S42" s="335"/>
+      <c r="T42" s="333"/>
+      <c r="U42" s="335"/>
+      <c r="V42" s="335"/>
+      <c r="W42" s="336"/>
+      <c r="X42" s="328"/>
+      <c r="Y42" s="328"/>
+      <c r="Z42" s="328"/>
+    </row>
+    <row r="43" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="326"/>
+      <c r="B43" s="327"/>
+      <c r="C43" s="332"/>
+      <c r="D43" s="332"/>
+      <c r="E43" s="337"/>
+      <c r="F43" s="333"/>
+      <c r="G43" s="333" t="s">
+        <v>385</v>
+      </c>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
+      <c r="K43" s="333"/>
+      <c r="L43" s="333"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="333"/>
+      <c r="O43" s="333"/>
+      <c r="P43" s="333"/>
+      <c r="Q43" s="333"/>
+      <c r="R43" s="333"/>
+      <c r="S43" s="335"/>
+      <c r="T43" s="338"/>
+      <c r="U43" s="335"/>
+      <c r="V43" s="335"/>
+      <c r="W43" s="336"/>
+      <c r="X43" s="328"/>
+      <c r="Y43" s="328"/>
+      <c r="Z43" s="328"/>
+    </row>
+    <row r="44" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="326"/>
+      <c r="B44" s="327"/>
+      <c r="C44" s="337"/>
+      <c r="D44" s="332"/>
+      <c r="E44" s="337"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="339">
+        <v>38576.728726851848</v>
+      </c>
+      <c r="H44" s="333" t="s">
+        <v>386</v>
+      </c>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
+      <c r="L44" s="333"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="333"/>
+      <c r="O44" s="333"/>
+      <c r="P44" s="333"/>
+      <c r="Q44" s="333"/>
+      <c r="R44" s="333"/>
+      <c r="S44" s="335"/>
+      <c r="T44" s="338"/>
+      <c r="U44" s="335"/>
+      <c r="V44" s="335"/>
+      <c r="W44" s="336"/>
+      <c r="X44" s="328"/>
+      <c r="Y44" s="328"/>
+      <c r="Z44" s="328"/>
+    </row>
+    <row r="45" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="326"/>
+      <c r="B45" s="327"/>
+      <c r="C45" s="340">
+        <v>0</v>
+      </c>
+      <c r="D45" s="332"/>
+      <c r="E45" s="337"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="341"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
+      <c r="L45" s="333"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="333"/>
+      <c r="O45" s="333"/>
+      <c r="P45" s="333"/>
+      <c r="Q45" s="333"/>
+      <c r="R45" s="333"/>
+      <c r="S45" s="335"/>
+      <c r="T45" s="338"/>
+      <c r="U45" s="335"/>
+      <c r="V45" s="335"/>
+      <c r="W45" s="336"/>
+      <c r="X45" s="328"/>
+      <c r="Y45" s="328"/>
+      <c r="Z45" s="328"/>
+    </row>
+    <row r="46" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="326"/>
+      <c r="B46" s="327"/>
+      <c r="C46" s="337"/>
+      <c r="D46" s="337"/>
+      <c r="E46" s="337"/>
+      <c r="F46" s="337"/>
+      <c r="G46" s="337"/>
+      <c r="H46" s="337"/>
+      <c r="I46" s="337"/>
+      <c r="J46" s="342"/>
+      <c r="K46" s="342"/>
+      <c r="L46" s="342"/>
+      <c r="M46" s="342"/>
+      <c r="N46" s="342"/>
+      <c r="O46" s="342"/>
+      <c r="P46" s="342"/>
+      <c r="Q46" s="342"/>
+      <c r="R46" s="342"/>
+      <c r="S46" s="342"/>
+      <c r="T46" s="342"/>
+      <c r="U46" s="342"/>
+      <c r="V46" s="342"/>
+      <c r="W46" s="336"/>
+      <c r="X46" s="328"/>
+      <c r="Y46" s="328"/>
+      <c r="Z46" s="328"/>
+    </row>
+    <row r="47" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="326"/>
+      <c r="B47" s="327"/>
+      <c r="C47" s="337"/>
+      <c r="D47" s="337"/>
+      <c r="E47" s="337"/>
+      <c r="F47" s="337"/>
+      <c r="G47" s="337"/>
+      <c r="H47" s="337"/>
+      <c r="I47" s="337"/>
+      <c r="J47" s="337"/>
+      <c r="K47" s="337"/>
+      <c r="L47" s="342"/>
+      <c r="M47" s="342"/>
+      <c r="N47" s="342"/>
+      <c r="O47" s="342"/>
+      <c r="P47" s="342"/>
+      <c r="Q47" s="342"/>
+      <c r="R47" s="342"/>
+      <c r="S47" s="342"/>
+      <c r="T47" s="342"/>
+      <c r="U47" s="342"/>
+      <c r="V47" s="342"/>
+      <c r="W47" s="336"/>
+      <c r="X47" s="328"/>
+      <c r="Y47" s="328"/>
+      <c r="Z47" s="328"/>
+    </row>
+    <row r="48" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="326"/>
+      <c r="B48" s="327"/>
+      <c r="C48" s="337"/>
+      <c r="D48" s="337"/>
+      <c r="E48" s="337"/>
+      <c r="F48" s="337"/>
+      <c r="G48" s="337"/>
+      <c r="H48" s="337"/>
+      <c r="I48" s="337"/>
+      <c r="J48" s="337"/>
+      <c r="K48" s="343"/>
+      <c r="L48" s="344"/>
+      <c r="M48" s="344" t="s">
+        <v>388</v>
+      </c>
+      <c r="N48" s="344"/>
+      <c r="O48" s="344"/>
+      <c r="P48" s="344"/>
+      <c r="Q48" s="344"/>
+      <c r="R48" s="344"/>
+      <c r="S48" s="342"/>
+      <c r="T48" s="342"/>
+      <c r="U48" s="342"/>
+      <c r="V48" s="342"/>
+      <c r="W48" s="336"/>
+      <c r="X48" s="328"/>
+      <c r="Y48" s="328"/>
+      <c r="Z48" s="328"/>
+    </row>
+    <row r="49" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="326"/>
+      <c r="B49" s="327"/>
+      <c r="C49" s="337"/>
+      <c r="D49" s="337"/>
+      <c r="E49" s="337"/>
+      <c r="F49" s="337"/>
+      <c r="G49" s="337"/>
+      <c r="H49" s="337"/>
+      <c r="I49" s="337"/>
+      <c r="J49" s="343" t="s">
+        <v>387</v>
+      </c>
+      <c r="K49" s="343"/>
+      <c r="L49" s="344"/>
+      <c r="M49" s="344"/>
+      <c r="N49" s="344"/>
+      <c r="O49" s="344"/>
+      <c r="P49" s="344"/>
+      <c r="Q49" s="344"/>
+      <c r="R49" s="344"/>
+      <c r="S49" s="342"/>
+      <c r="T49" s="342"/>
+      <c r="U49" s="342"/>
+      <c r="V49" s="342"/>
+      <c r="W49" s="336"/>
+      <c r="X49" s="328"/>
+      <c r="Y49" s="328"/>
+      <c r="Z49" s="328"/>
+    </row>
+    <row r="50" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="326"/>
+      <c r="B50" s="327"/>
+      <c r="C50" s="337"/>
+      <c r="D50" s="337"/>
+      <c r="E50" s="337"/>
+      <c r="F50" s="345"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="349"/>
+      <c r="I50" s="363" t="s">
+        <v>390</v>
+      </c>
+      <c r="J50" s="350">
+        <v>1500</v>
+      </c>
+      <c r="K50" s="351"/>
+      <c r="L50" s="351"/>
+      <c r="M50" s="352">
+        <v>1500</v>
+      </c>
+      <c r="N50" s="351"/>
+      <c r="O50" s="351"/>
+      <c r="P50" s="351"/>
+      <c r="Q50" s="351"/>
+      <c r="R50" s="351"/>
+      <c r="S50" s="351"/>
+      <c r="T50" s="351"/>
+      <c r="U50" s="351"/>
+      <c r="V50" s="348"/>
+      <c r="W50" s="336"/>
+      <c r="X50" s="328"/>
+      <c r="Y50" s="328"/>
+      <c r="Z50" s="328"/>
+    </row>
+    <row r="51" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="326"/>
+      <c r="B51" s="327"/>
+      <c r="C51" s="337"/>
+      <c r="D51" s="337"/>
+      <c r="E51" s="337"/>
+      <c r="F51" s="345"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="349"/>
+      <c r="I51" s="363" t="s">
+        <v>391</v>
+      </c>
+      <c r="J51" s="350">
+        <v>15000</v>
+      </c>
+      <c r="K51" s="351"/>
+      <c r="L51" s="351"/>
+      <c r="M51" s="352">
+        <v>5000</v>
+      </c>
+      <c r="N51" s="351"/>
+      <c r="O51" s="351"/>
+      <c r="P51" s="351"/>
+      <c r="Q51" s="351"/>
+      <c r="R51" s="351"/>
+      <c r="S51" s="351"/>
+      <c r="T51" s="351"/>
+      <c r="U51" s="351"/>
+      <c r="V51" s="348"/>
+      <c r="W51" s="336"/>
+      <c r="X51" s="328"/>
+      <c r="Y51" s="328"/>
+      <c r="Z51" s="328"/>
+    </row>
+    <row r="52" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="326"/>
+      <c r="B52" s="327"/>
+      <c r="C52" s="337"/>
+      <c r="D52" s="337"/>
+      <c r="E52" s="337"/>
+      <c r="F52" s="345"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="349"/>
+      <c r="I52" s="363" t="s">
+        <v>392</v>
+      </c>
+      <c r="J52" s="350">
+        <v>2000</v>
+      </c>
+      <c r="K52" s="351"/>
+      <c r="L52" s="351"/>
+      <c r="M52" s="352">
+        <v>2000</v>
+      </c>
+      <c r="N52" s="351"/>
+      <c r="O52" s="351"/>
+      <c r="P52" s="351"/>
+      <c r="Q52" s="351"/>
+      <c r="R52" s="351"/>
+      <c r="S52" s="351"/>
+      <c r="T52" s="351"/>
+      <c r="U52" s="351"/>
+      <c r="V52" s="348"/>
+      <c r="W52" s="336"/>
+      <c r="X52" s="328"/>
+      <c r="Y52" s="328"/>
+      <c r="Z52" s="328"/>
+    </row>
+    <row r="53" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="326"/>
+      <c r="B53" s="327"/>
+      <c r="C53" s="337"/>
+      <c r="D53" s="337"/>
+      <c r="E53" s="337"/>
+      <c r="F53" s="345"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="349"/>
+      <c r="I53" s="363" t="s">
+        <v>393</v>
+      </c>
+      <c r="J53" s="350">
+        <v>5000</v>
+      </c>
+      <c r="K53" s="351"/>
+      <c r="L53" s="351"/>
+      <c r="M53" s="352">
+        <v>3000</v>
+      </c>
+      <c r="N53" s="351"/>
+      <c r="O53" s="351"/>
+      <c r="P53" s="351"/>
+      <c r="Q53" s="351"/>
+      <c r="R53" s="351"/>
+      <c r="S53" s="351"/>
+      <c r="T53" s="351"/>
+      <c r="U53" s="351"/>
+      <c r="V53" s="348"/>
+      <c r="W53" s="336"/>
+      <c r="X53" s="328"/>
+      <c r="Y53" s="328"/>
+      <c r="Z53" s="328"/>
+    </row>
+    <row r="54" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="326"/>
+      <c r="B54" s="327"/>
+      <c r="C54" s="337"/>
+      <c r="D54" s="337"/>
+      <c r="E54" s="337"/>
+      <c r="F54" s="345"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="349"/>
+      <c r="I54" s="363" t="s">
+        <v>394</v>
+      </c>
+      <c r="J54" s="350">
+        <v>50000</v>
+      </c>
+      <c r="K54" s="351"/>
+      <c r="L54" s="351"/>
+      <c r="M54" s="352">
+        <v>20000</v>
+      </c>
+      <c r="N54" s="351"/>
+      <c r="O54" s="351"/>
+      <c r="P54" s="351"/>
+      <c r="Q54" s="351"/>
+      <c r="R54" s="351"/>
+      <c r="S54" s="351"/>
+      <c r="T54" s="351"/>
+      <c r="U54" s="351"/>
+      <c r="V54" s="348"/>
+      <c r="W54" s="336"/>
+      <c r="X54" s="328"/>
+      <c r="Y54" s="328"/>
+      <c r="Z54" s="328"/>
+    </row>
+    <row r="55" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="326"/>
+      <c r="B55" s="327"/>
+      <c r="C55" s="337"/>
+      <c r="D55" s="337"/>
+      <c r="E55" s="337"/>
+      <c r="F55" s="345"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="363" t="s">
+        <v>395</v>
+      </c>
+      <c r="J55" s="350">
+        <v>1500</v>
+      </c>
+      <c r="K55" s="351"/>
+      <c r="L55" s="351"/>
+      <c r="M55" s="352">
+        <v>1500</v>
+      </c>
+      <c r="N55" s="351"/>
+      <c r="O55" s="351"/>
+      <c r="P55" s="351"/>
+      <c r="Q55" s="351"/>
+      <c r="R55" s="351"/>
+      <c r="S55" s="351"/>
+      <c r="T55" s="351"/>
+      <c r="U55" s="351"/>
+      <c r="V55" s="348"/>
+      <c r="W55" s="336"/>
+      <c r="X55" s="328"/>
+      <c r="Y55" s="328"/>
+      <c r="Z55" s="328"/>
+    </row>
+    <row r="56" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="326"/>
+      <c r="B56" s="327"/>
+      <c r="C56" s="337"/>
+      <c r="D56" s="337"/>
+      <c r="E56" s="337"/>
+      <c r="F56" s="345"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="349"/>
+      <c r="I56" s="363" t="s">
+        <v>396</v>
+      </c>
+      <c r="J56" s="350">
+        <v>10000</v>
+      </c>
+      <c r="K56" s="351"/>
+      <c r="L56" s="351"/>
+      <c r="M56" s="352">
+        <v>5000</v>
+      </c>
+      <c r="N56" s="351"/>
+      <c r="O56" s="351"/>
+      <c r="P56" s="351"/>
+      <c r="Q56" s="351"/>
+      <c r="R56" s="351"/>
+      <c r="S56" s="351"/>
+      <c r="T56" s="351"/>
+      <c r="U56" s="351"/>
+      <c r="V56" s="348"/>
+      <c r="W56" s="336"/>
+      <c r="X56" s="328"/>
+      <c r="Y56" s="328"/>
+      <c r="Z56" s="328"/>
+    </row>
+    <row r="57" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="326"/>
+      <c r="B57" s="327"/>
+      <c r="C57" s="337"/>
+      <c r="D57" s="337"/>
+      <c r="E57" s="337"/>
+      <c r="F57" s="353"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="349"/>
+      <c r="I57" s="363" t="s">
+        <v>397</v>
+      </c>
+      <c r="J57" s="350">
+        <v>7500</v>
+      </c>
+      <c r="K57" s="351"/>
+      <c r="L57" s="351"/>
+      <c r="M57" s="352">
+        <v>3000</v>
+      </c>
+      <c r="N57" s="351"/>
+      <c r="O57" s="351"/>
+      <c r="P57" s="351"/>
+      <c r="Q57" s="351"/>
+      <c r="R57" s="351"/>
+      <c r="S57" s="351"/>
+      <c r="T57" s="351"/>
+      <c r="U57" s="351"/>
+      <c r="V57" s="348"/>
+      <c r="W57" s="336"/>
+      <c r="X57" s="328"/>
+      <c r="Y57" s="328"/>
+      <c r="Z57" s="328"/>
+    </row>
+    <row r="58" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="326"/>
+      <c r="B58" s="327"/>
+      <c r="C58" s="337"/>
+      <c r="D58" s="337"/>
+      <c r="E58" s="337"/>
+      <c r="F58" s="353"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="349"/>
+      <c r="I58" s="363" t="s">
+        <v>334</v>
+      </c>
+      <c r="J58" s="350">
+        <v>6000</v>
+      </c>
+      <c r="K58" s="351"/>
+      <c r="L58" s="351"/>
+      <c r="M58" s="352"/>
+      <c r="N58" s="351"/>
+      <c r="O58" s="351"/>
+      <c r="P58" s="351"/>
+      <c r="Q58" s="351"/>
+      <c r="R58" s="351"/>
+      <c r="S58" s="351"/>
+      <c r="T58" s="351"/>
+      <c r="U58" s="351"/>
+      <c r="V58" s="348"/>
+      <c r="W58" s="336"/>
+      <c r="X58" s="328"/>
+      <c r="Y58" s="328"/>
+      <c r="Z58" s="328"/>
+    </row>
+    <row r="59" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="326"/>
+      <c r="B59" s="327"/>
+      <c r="C59" s="337"/>
+      <c r="D59" s="337"/>
+      <c r="E59" s="337"/>
+      <c r="F59" s="354"/>
+      <c r="G59" s="349"/>
+      <c r="H59" s="349"/>
+      <c r="I59" s="349"/>
+      <c r="J59" s="355"/>
+      <c r="K59" s="351"/>
+      <c r="L59" s="351"/>
+      <c r="M59" s="355"/>
+      <c r="N59" s="351"/>
+      <c r="O59" s="351"/>
+      <c r="P59" s="351"/>
+      <c r="Q59" s="351"/>
+      <c r="R59" s="351"/>
+      <c r="S59" s="351"/>
+      <c r="T59" s="351"/>
+      <c r="U59" s="351"/>
+      <c r="V59" s="348"/>
+      <c r="W59" s="336"/>
+      <c r="X59" s="328"/>
+      <c r="Y59" s="328"/>
+      <c r="Z59" s="328"/>
+    </row>
+    <row r="60" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="326"/>
+      <c r="B60" s="327"/>
+      <c r="C60" s="337"/>
+      <c r="D60" s="337"/>
+      <c r="E60" s="337"/>
+      <c r="F60" s="354"/>
+      <c r="G60" s="349" t="s">
+        <v>398</v>
+      </c>
+      <c r="H60" s="349"/>
+      <c r="I60" s="349"/>
+      <c r="J60" s="356">
+        <f>SUM(J50:J58)</f>
+        <v>98500</v>
+      </c>
+      <c r="K60" s="351"/>
+      <c r="L60" s="351"/>
+      <c r="M60" s="357">
+        <f>SUM(M50:M57)</f>
+        <v>41000</v>
+      </c>
+      <c r="N60" s="351"/>
+      <c r="O60" s="351"/>
+      <c r="P60" s="351"/>
+      <c r="Q60" s="351"/>
+      <c r="R60" s="351"/>
+      <c r="S60" s="351"/>
+      <c r="T60" s="351"/>
+      <c r="U60" s="351"/>
+      <c r="V60" s="348"/>
+      <c r="W60" s="336"/>
+      <c r="X60" s="328"/>
+      <c r="Y60" s="328"/>
+      <c r="Z60" s="328"/>
+    </row>
+    <row r="61" spans="1:26" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="326"/>
+      <c r="B61" s="327"/>
+      <c r="C61" s="337"/>
+      <c r="D61" s="337"/>
+      <c r="E61" s="337"/>
+      <c r="F61" s="353"/>
+      <c r="G61" s="358"/>
+      <c r="H61" s="358"/>
+      <c r="I61" s="358"/>
+      <c r="J61" s="359"/>
+      <c r="K61" s="359"/>
+      <c r="L61" s="359"/>
+      <c r="M61" s="359"/>
+      <c r="N61" s="359"/>
+      <c r="O61" s="359"/>
+      <c r="P61" s="359"/>
+      <c r="Q61" s="359"/>
+      <c r="R61" s="359"/>
+      <c r="S61" s="359"/>
+      <c r="T61" s="359"/>
+      <c r="U61" s="359"/>
+      <c r="V61" s="348"/>
+      <c r="W61" s="336"/>
+      <c r="X61" s="328"/>
+      <c r="Y61" s="328"/>
+      <c r="Z61" s="328"/>
+    </row>
+    <row r="62" spans="1:26" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="326"/>
+      <c r="B62" s="327"/>
+      <c r="C62" s="360"/>
+      <c r="D62" s="360"/>
+      <c r="E62" s="360"/>
+      <c r="F62" s="360"/>
+      <c r="G62" s="361" t="str">
+        <f>G42</f>
+        <v>FINANCE - ANNUAL OVERHEADS</v>
+      </c>
+      <c r="H62" s="360"/>
+      <c r="I62" s="360"/>
+      <c r="J62" s="360"/>
+      <c r="K62" s="360"/>
+      <c r="L62" s="360"/>
+      <c r="M62" s="360"/>
+      <c r="N62" s="360"/>
+      <c r="O62" s="360"/>
+      <c r="P62" s="360"/>
+      <c r="Q62" s="360"/>
+      <c r="R62" s="360"/>
+      <c r="S62" s="360"/>
+      <c r="T62" s="360"/>
+      <c r="U62" s="360"/>
+      <c r="V62" s="360"/>
+      <c r="W62" s="362" t="s">
+        <v>24</v>
+      </c>
+      <c r="X62" s="328"/>
+      <c r="Y62" s="328"/>
+      <c r="Z62" s="328"/>
+    </row>
+    <row r="63" spans="1:26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="326"/>
+      <c r="B63" s="327"/>
+      <c r="C63" s="327"/>
+      <c r="D63" s="327"/>
+      <c r="E63" s="327"/>
+      <c r="F63" s="328"/>
+      <c r="G63" s="328"/>
+      <c r="H63" s="328"/>
+      <c r="I63" s="328"/>
+      <c r="J63" s="328"/>
+      <c r="K63" s="328"/>
+      <c r="L63" s="328"/>
+      <c r="M63" s="328"/>
+      <c r="N63" s="328"/>
+      <c r="O63" s="328"/>
+      <c r="P63" s="328"/>
+      <c r="Q63" s="328"/>
+      <c r="R63" s="328"/>
+      <c r="S63" s="328"/>
+      <c r="T63" s="328"/>
+      <c r="U63" s="328"/>
+      <c r="V63" s="328"/>
+      <c r="W63" s="328"/>
+      <c r="X63" s="328"/>
+      <c r="Y63" s="328"/>
+      <c r="Z63" s="328"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -16083,21 +16886,21 @@
       <c r="E46" s="139"/>
       <c r="F46" s="141"/>
       <c r="G46" s="150"/>
-      <c r="H46" s="442" t="s">
+      <c r="H46" s="453" t="s">
         <v>163</v>
       </c>
-      <c r="I46" s="443"/>
-      <c r="J46" s="443"/>
-      <c r="K46" s="443"/>
-      <c r="L46" s="443"/>
-      <c r="M46" s="443"/>
-      <c r="N46" s="443"/>
-      <c r="O46" s="443"/>
-      <c r="P46" s="443"/>
-      <c r="Q46" s="443"/>
-      <c r="R46" s="443"/>
-      <c r="S46" s="443"/>
-      <c r="T46" s="444"/>
+      <c r="I46" s="454"/>
+      <c r="J46" s="454"/>
+      <c r="K46" s="454"/>
+      <c r="L46" s="454"/>
+      <c r="M46" s="454"/>
+      <c r="N46" s="454"/>
+      <c r="O46" s="454"/>
+      <c r="P46" s="454"/>
+      <c r="Q46" s="454"/>
+      <c r="R46" s="454"/>
+      <c r="S46" s="454"/>
+      <c r="T46" s="455"/>
       <c r="U46" s="150"/>
       <c r="V46" s="141"/>
       <c r="W46" s="121"/>
@@ -16111,19 +16914,19 @@
       <c r="E47" s="139"/>
       <c r="F47" s="141"/>
       <c r="G47" s="150"/>
-      <c r="H47" s="445"/>
-      <c r="I47" s="446"/>
-      <c r="J47" s="446"/>
-      <c r="K47" s="446"/>
-      <c r="L47" s="446"/>
-      <c r="M47" s="446"/>
-      <c r="N47" s="446"/>
-      <c r="O47" s="446"/>
-      <c r="P47" s="446"/>
-      <c r="Q47" s="446"/>
-      <c r="R47" s="446"/>
-      <c r="S47" s="446"/>
-      <c r="T47" s="447"/>
+      <c r="H47" s="456"/>
+      <c r="I47" s="457"/>
+      <c r="J47" s="457"/>
+      <c r="K47" s="457"/>
+      <c r="L47" s="457"/>
+      <c r="M47" s="457"/>
+      <c r="N47" s="457"/>
+      <c r="O47" s="457"/>
+      <c r="P47" s="457"/>
+      <c r="Q47" s="457"/>
+      <c r="R47" s="457"/>
+      <c r="S47" s="457"/>
+      <c r="T47" s="458"/>
       <c r="U47" s="150"/>
       <c r="V47" s="141"/>
       <c r="W47" s="121"/>
@@ -16137,19 +16940,19 @@
       <c r="E48" s="139"/>
       <c r="F48" s="141"/>
       <c r="G48" s="150"/>
-      <c r="H48" s="445"/>
-      <c r="I48" s="446"/>
-      <c r="J48" s="446"/>
-      <c r="K48" s="446"/>
-      <c r="L48" s="446"/>
-      <c r="M48" s="446"/>
-      <c r="N48" s="446"/>
-      <c r="O48" s="446"/>
-      <c r="P48" s="446"/>
-      <c r="Q48" s="446"/>
-      <c r="R48" s="446"/>
-      <c r="S48" s="446"/>
-      <c r="T48" s="447"/>
+      <c r="H48" s="456"/>
+      <c r="I48" s="457"/>
+      <c r="J48" s="457"/>
+      <c r="K48" s="457"/>
+      <c r="L48" s="457"/>
+      <c r="M48" s="457"/>
+      <c r="N48" s="457"/>
+      <c r="O48" s="457"/>
+      <c r="P48" s="457"/>
+      <c r="Q48" s="457"/>
+      <c r="R48" s="457"/>
+      <c r="S48" s="457"/>
+      <c r="T48" s="458"/>
       <c r="U48" s="150"/>
       <c r="V48" s="141"/>
       <c r="W48" s="121"/>
@@ -16163,19 +16966,19 @@
       <c r="E49" s="139"/>
       <c r="F49" s="141"/>
       <c r="G49" s="150"/>
-      <c r="H49" s="448"/>
-      <c r="I49" s="449"/>
-      <c r="J49" s="449"/>
-      <c r="K49" s="449"/>
-      <c r="L49" s="449"/>
-      <c r="M49" s="449"/>
-      <c r="N49" s="449"/>
-      <c r="O49" s="449"/>
-      <c r="P49" s="449"/>
-      <c r="Q49" s="449"/>
-      <c r="R49" s="449"/>
-      <c r="S49" s="449"/>
-      <c r="T49" s="450"/>
+      <c r="H49" s="459"/>
+      <c r="I49" s="460"/>
+      <c r="J49" s="460"/>
+      <c r="K49" s="460"/>
+      <c r="L49" s="460"/>
+      <c r="M49" s="460"/>
+      <c r="N49" s="460"/>
+      <c r="O49" s="460"/>
+      <c r="P49" s="460"/>
+      <c r="Q49" s="460"/>
+      <c r="R49" s="460"/>
+      <c r="S49" s="460"/>
+      <c r="T49" s="461"/>
       <c r="U49" s="150"/>
       <c r="V49" s="141"/>
       <c r="W49" s="121"/>
@@ -30752,9 +31555,9 @@
       <c r="I318" s="251"/>
       <c r="J318" s="251"/>
       <c r="K318" s="138"/>
-      <c r="L318" s="451"/>
-      <c r="M318" s="452"/>
-      <c r="N318" s="452"/>
+      <c r="L318" s="462"/>
+      <c r="M318" s="463"/>
+      <c r="N318" s="463"/>
       <c r="O318" s="138"/>
       <c r="P318" s="138"/>
       <c r="Q318" s="138"/>
@@ -36306,8 +37109,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AU479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H182" sqref="H182"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156:L161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="12" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -39180,18 +39983,18 @@
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="467" t="s">
+      <c r="H93" s="466" t="s">
         <v>518</v>
       </c>
-      <c r="I93" s="467"/>
-      <c r="J93" s="467"/>
+      <c r="I93" s="466"/>
+      <c r="J93" s="466"/>
       <c r="K93" s="420"/>
       <c r="L93" s="441"/>
-      <c r="M93" s="462" t="s">
+      <c r="M93" s="465" t="s">
         <v>380</v>
       </c>
-      <c r="N93" s="462"/>
-      <c r="O93" s="462"/>
+      <c r="N93" s="465"/>
+      <c r="O93" s="465"/>
       <c r="P93" s="441"/>
       <c r="Q93" s="441"/>
       <c r="R93" s="441"/>
@@ -39255,8 +40058,8 @@
       <c r="J95" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="K95" s="463"/>
-      <c r="L95" s="463"/>
+      <c r="K95" s="448"/>
+      <c r="L95" s="448"/>
       <c r="M95" s="20" t="s">
         <v>475</v>
       </c>
@@ -39298,10 +40101,10 @@
         <v>0</v>
       </c>
       <c r="L96" s="4" t="str">
-        <f>G96</f>
+        <f t="shared" ref="L96:L119" si="0">G96</f>
         <v>b</v>
       </c>
-      <c r="M96" s="468">
+      <c r="M96" s="452">
         <f>1/4</f>
         <v>0.25</v>
       </c>
@@ -39342,19 +40145,19 @@
         <v>0</v>
       </c>
       <c r="L97" s="4" t="str">
-        <f>G97</f>
+        <f t="shared" si="0"/>
         <v>f</v>
       </c>
-      <c r="M97" s="468">
-        <f t="shared" ref="M97:M119" si="0">1/4</f>
+      <c r="M97" s="452">
+        <f t="shared" ref="M97:M119" si="1">1/4</f>
         <v>0.25</v>
       </c>
       <c r="N97" s="422">
-        <f t="shared" ref="N97:O119" si="1">IF(I97&gt;0,1,0)</f>
+        <f t="shared" ref="N97:O119" si="2">IF(I97&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="O97" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S97" s="32"/>
@@ -39386,19 +40189,19 @@
         <v>0</v>
       </c>
       <c r="L98" s="4" t="str">
-        <f>G98</f>
+        <f t="shared" si="0"/>
         <v>h</v>
       </c>
-      <c r="M98" s="468">
-        <f t="shared" si="0"/>
+      <c r="M98" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N98" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O98" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S98" s="32"/>
@@ -39430,19 +40233,19 @@
         <v>0</v>
       </c>
       <c r="L99" s="4" t="str">
-        <f>G99</f>
+        <f t="shared" si="0"/>
         <v>i</v>
       </c>
-      <c r="M99" s="468">
-        <f t="shared" si="0"/>
+      <c r="M99" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N99" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O99" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S99" s="32"/>
@@ -39474,19 +40277,19 @@
         <v>0</v>
       </c>
       <c r="L100" s="4" t="str">
-        <f>G100</f>
+        <f t="shared" si="0"/>
         <v>k</v>
       </c>
-      <c r="M100" s="468">
-        <f t="shared" si="0"/>
+      <c r="M100" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N100" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O100" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S100" s="32"/>
@@ -39518,19 +40321,19 @@
         <v>0</v>
       </c>
       <c r="L101" s="4" t="str">
-        <f>G101</f>
+        <f t="shared" si="0"/>
         <v>l</v>
       </c>
-      <c r="M101" s="468">
-        <f t="shared" si="0"/>
+      <c r="M101" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N101" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O101" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S101" s="32"/>
@@ -39562,19 +40365,19 @@
         <v>0</v>
       </c>
       <c r="L102" s="4" t="str">
-        <f>G102</f>
+        <f t="shared" si="0"/>
         <v>o</v>
       </c>
-      <c r="M102" s="468">
-        <f t="shared" si="0"/>
+      <c r="M102" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N102" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O102" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S102" s="32"/>
@@ -39606,19 +40409,19 @@
         <v>0</v>
       </c>
       <c r="L103" s="4" t="str">
-        <f>G103</f>
+        <f t="shared" si="0"/>
         <v>of</v>
       </c>
-      <c r="M103" s="468">
-        <f t="shared" si="0"/>
+      <c r="M103" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N103" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O103" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S103" s="32"/>
@@ -39650,19 +40453,19 @@
         <v>0</v>
       </c>
       <c r="L104" s="4" t="str">
-        <f>G104</f>
+        <f t="shared" si="0"/>
         <v>r</v>
       </c>
-      <c r="M104" s="468">
-        <f t="shared" si="0"/>
+      <c r="M104" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N104" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O104" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S104" s="32"/>
@@ -39694,19 +40497,19 @@
         <v>0</v>
       </c>
       <c r="L105" s="4" t="str">
-        <f>G105</f>
+        <f t="shared" si="0"/>
         <v>v</v>
       </c>
-      <c r="M105" s="468">
-        <f t="shared" si="0"/>
+      <c r="M105" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N105" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O105" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S105" s="32"/>
@@ -39738,19 +40541,19 @@
         <v>0</v>
       </c>
       <c r="L106" s="4" t="str">
-        <f>G106</f>
+        <f t="shared" si="0"/>
         <v>w</v>
       </c>
-      <c r="M106" s="468">
-        <f t="shared" si="0"/>
+      <c r="M106" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N106" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O106" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S106" s="32"/>
@@ -39782,19 +40585,19 @@
         <v>0</v>
       </c>
       <c r="L107" s="4" t="str">
-        <f>G107</f>
+        <f t="shared" si="0"/>
         <v>z</v>
       </c>
-      <c r="M107" s="468">
-        <f t="shared" si="0"/>
+      <c r="M107" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N107" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O107" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S107" s="32"/>
@@ -39827,19 +40630,19 @@
       </c>
       <c r="K108" s="23"/>
       <c r="L108" s="4" t="str">
-        <f>G108</f>
+        <f t="shared" si="0"/>
         <v>ar</v>
       </c>
-      <c r="M108" s="468">
-        <f t="shared" si="0"/>
+      <c r="M108" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N108" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O108" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S108" s="32"/>
@@ -39872,19 +40675,19 @@
       </c>
       <c r="K109" s="23"/>
       <c r="L109" s="4" t="str">
-        <f>G109</f>
+        <f t="shared" si="0"/>
         <v>m</v>
       </c>
-      <c r="M109" s="468">
-        <f t="shared" si="0"/>
+      <c r="M109" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N109" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O109" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S109" s="32"/>
@@ -39916,19 +40719,19 @@
         <v>12</v>
       </c>
       <c r="L110" s="4" t="str">
-        <f>G110</f>
+        <f t="shared" si="0"/>
         <v>j</v>
       </c>
-      <c r="M110" s="468">
-        <f t="shared" si="0"/>
+      <c r="M110" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N110" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O110" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S110" s="32"/>
@@ -39960,19 +40763,19 @@
         <v>17</v>
       </c>
       <c r="L111" s="4" t="str">
-        <f>G111</f>
+        <f t="shared" si="0"/>
         <v>jr</v>
       </c>
-      <c r="M111" s="468">
-        <f t="shared" si="0"/>
+      <c r="M111" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N111" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O111" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S111" s="32"/>
@@ -40005,19 +40808,19 @@
       </c>
       <c r="K112" s="23"/>
       <c r="L112" s="4" t="str">
-        <f>G112</f>
+        <f t="shared" si="0"/>
         <v>s</v>
       </c>
-      <c r="M112" s="468">
-        <f t="shared" si="0"/>
+      <c r="M112" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N112" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O112" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S112" s="32"/>
@@ -40050,19 +40853,19 @@
       </c>
       <c r="K113" s="23"/>
       <c r="L113" s="4" t="str">
-        <f>G113</f>
+        <f t="shared" si="0"/>
         <v>sr</v>
       </c>
-      <c r="M113" s="468">
-        <f t="shared" si="0"/>
+      <c r="M113" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N113" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O113" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S113" s="32"/>
@@ -40095,19 +40898,19 @@
       </c>
       <c r="K114" s="23"/>
       <c r="L114" s="4" t="str">
-        <f>G114</f>
+        <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="M114" s="468">
-        <f t="shared" si="0"/>
+      <c r="M114" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N114" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O114" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S114" s="32"/>
@@ -40140,19 +40943,19 @@
       </c>
       <c r="K115" s="23"/>
       <c r="L115" s="4" t="str">
-        <f>G115</f>
+        <f t="shared" si="0"/>
         <v>tr</v>
       </c>
-      <c r="M115" s="468">
-        <f t="shared" si="0"/>
+      <c r="M115" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N115" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O115" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S115" s="32"/>
@@ -40185,19 +40988,19 @@
       </c>
       <c r="K116" s="23"/>
       <c r="L116" s="4" t="str">
-        <f>G116</f>
+        <f t="shared" si="0"/>
         <v>u</v>
       </c>
-      <c r="M116" s="468">
-        <f t="shared" si="0"/>
+      <c r="M116" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N116" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O116" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S116" s="32"/>
@@ -40230,19 +41033,19 @@
       </c>
       <c r="K117" s="22"/>
       <c r="L117" s="4" t="str">
-        <f>G117</f>
+        <f t="shared" si="0"/>
         <v>ur</v>
       </c>
-      <c r="M117" s="468">
-        <f t="shared" si="0"/>
+      <c r="M117" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N117" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O117" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S117" s="32"/>
@@ -40275,19 +41078,19 @@
       </c>
       <c r="K118" s="22"/>
       <c r="L118" s="4" t="str">
-        <f>G118</f>
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
-      <c r="M118" s="468">
-        <f t="shared" si="0"/>
+      <c r="M118" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N118" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O118" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S118" s="32"/>
@@ -40319,19 +41122,19 @@
         <v>17</v>
       </c>
       <c r="L119" s="4" t="str">
-        <f>G119</f>
+        <f t="shared" si="0"/>
         <v>xr</v>
       </c>
-      <c r="M119" s="468">
-        <f t="shared" si="0"/>
+      <c r="M119" s="452">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N119" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O119" s="422">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S119" s="32"/>
@@ -41287,10 +42090,10 @@
       <c r="F149" s="9"/>
       <c r="G149" s="14"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="457" t="s">
+      <c r="I149" s="443" t="s">
         <v>491</v>
       </c>
-      <c r="J149" s="456" t="b">
+      <c r="J149" s="442" t="b">
         <v>0</v>
       </c>
       <c r="K149" s="9"/>
@@ -41397,7 +42200,7 @@
       <c r="K152" s="441"/>
       <c r="L152" s="441"/>
       <c r="M152" s="441"/>
-      <c r="N152" s="458" t="s">
+      <c r="N152" s="444" t="s">
         <v>506</v>
       </c>
       <c r="O152" s="441"/>
@@ -41478,13 +42281,13 @@
       <c r="P154" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="Q154" s="461" t="s">
+      <c r="Q154" s="447" t="s">
         <v>501</v>
       </c>
-      <c r="R154" s="461" t="s">
+      <c r="R154" s="447" t="s">
         <v>501</v>
       </c>
-      <c r="S154" s="461" t="s">
+      <c r="S154" s="447" t="s">
         <v>501</v>
       </c>
       <c r="T154" s="441" t="s">
@@ -41598,12 +42401,12 @@
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
       <c r="F156" s="22"/>
-      <c r="G156" s="459"/>
-      <c r="H156" s="459"/>
-      <c r="I156" s="459"/>
-      <c r="J156" s="459"/>
-      <c r="K156" s="459"/>
-      <c r="L156" s="460" t="s">
+      <c r="G156" s="445"/>
+      <c r="H156" s="445"/>
+      <c r="I156" s="445"/>
+      <c r="J156" s="445"/>
+      <c r="K156" s="445"/>
+      <c r="L156" s="446" t="s">
         <v>92</v>
       </c>
       <c r="M156" s="422">
@@ -41644,15 +42447,15 @@
         <v>1</v>
       </c>
       <c r="Y156" s="422">
-        <f t="shared" ref="Y156:AA156" si="2">IF(U156&gt;0,1,0)</f>
+        <f t="shared" ref="Y156:AA156" si="3">IF(U156&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="Z156" s="422">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA156" s="422">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB156" s="12"/>
@@ -41667,12 +42470,12 @@
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
       <c r="F157" s="22"/>
-      <c r="G157" s="459"/>
-      <c r="H157" s="459"/>
-      <c r="I157" s="459"/>
-      <c r="J157" s="459"/>
-      <c r="K157" s="459"/>
-      <c r="L157" s="460" t="s">
+      <c r="G157" s="445"/>
+      <c r="H157" s="445"/>
+      <c r="I157" s="445"/>
+      <c r="J157" s="445"/>
+      <c r="K157" s="445"/>
+      <c r="L157" s="446" t="s">
         <v>91</v>
       </c>
       <c r="M157" s="422">
@@ -41709,19 +42512,19 @@
         <v>0</v>
       </c>
       <c r="X157" s="422">
-        <f t="shared" ref="X157:X161" si="3">IF(T157&gt;0,1,0)</f>
+        <f t="shared" ref="X157:X161" si="4">IF(T157&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="Y157" s="422">
-        <f t="shared" ref="Y157:Y161" si="4">IF(U157&gt;0,1,0)</f>
+        <f t="shared" ref="Y157:Y161" si="5">IF(U157&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="Z157" s="422">
-        <f t="shared" ref="Z157:Z161" si="5">IF(V157&gt;0,1,0)</f>
+        <f t="shared" ref="Z157:Z161" si="6">IF(V157&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="AA157" s="422">
-        <f t="shared" ref="AA157:AA161" si="6">IF(W157&gt;0,1,0)</f>
+        <f t="shared" ref="AA157:AA161" si="7">IF(W157&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="AB157" s="12"/>
@@ -41736,12 +42539,12 @@
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
       <c r="F158" s="22"/>
-      <c r="G158" s="459"/>
-      <c r="H158" s="459"/>
-      <c r="I158" s="459"/>
-      <c r="J158" s="459"/>
-      <c r="K158" s="459"/>
-      <c r="L158" s="460" t="s">
+      <c r="G158" s="445"/>
+      <c r="H158" s="445"/>
+      <c r="I158" s="445"/>
+      <c r="J158" s="445"/>
+      <c r="K158" s="445"/>
+      <c r="L158" s="446" t="s">
         <v>93</v>
       </c>
       <c r="M158" s="422">
@@ -41778,19 +42581,19 @@
         <v>0</v>
       </c>
       <c r="X158" s="422">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Y158" s="422">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="Y158" s="422">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Z158" s="422">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA158" s="422">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB158" s="12"/>
@@ -41805,12 +42608,12 @@
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
       <c r="F159" s="22"/>
-      <c r="G159" s="459"/>
-      <c r="H159" s="459"/>
-      <c r="I159" s="459"/>
-      <c r="J159" s="459"/>
-      <c r="K159" s="459"/>
-      <c r="L159" s="460" t="s">
+      <c r="G159" s="445"/>
+      <c r="H159" s="445"/>
+      <c r="I159" s="445"/>
+      <c r="J159" s="445"/>
+      <c r="K159" s="445"/>
+      <c r="L159" s="446" t="s">
         <v>471</v>
       </c>
       <c r="M159" s="422">
@@ -41847,19 +42650,19 @@
         <v>0</v>
       </c>
       <c r="X159" s="422">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Y159" s="422">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="Y159" s="422">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Z159" s="422">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA159" s="422">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB159" s="12"/>
@@ -41874,12 +42677,12 @@
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
       <c r="F160" s="22"/>
-      <c r="G160" s="459"/>
-      <c r="H160" s="459"/>
-      <c r="I160" s="459"/>
-      <c r="J160" s="459"/>
-      <c r="K160" s="459"/>
-      <c r="L160" s="460" t="s">
+      <c r="G160" s="445"/>
+      <c r="H160" s="445"/>
+      <c r="I160" s="445"/>
+      <c r="J160" s="445"/>
+      <c r="K160" s="445"/>
+      <c r="L160" s="446" t="s">
         <v>81</v>
       </c>
       <c r="M160" s="422">
@@ -41916,19 +42719,19 @@
         <v>0</v>
       </c>
       <c r="X160" s="422">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Y160" s="422">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="Y160" s="422">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Z160" s="422">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA160" s="422">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB160" s="12"/>
@@ -41943,12 +42746,12 @@
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="22"/>
-      <c r="G161" s="459"/>
-      <c r="H161" s="459"/>
-      <c r="I161" s="459"/>
-      <c r="J161" s="459"/>
-      <c r="K161" s="459"/>
-      <c r="L161" s="460" t="s">
+      <c r="G161" s="445"/>
+      <c r="H161" s="445"/>
+      <c r="I161" s="445"/>
+      <c r="J161" s="445"/>
+      <c r="K161" s="445"/>
+      <c r="L161" s="446" t="s">
         <v>79</v>
       </c>
       <c r="M161" s="422">
@@ -41985,19 +42788,19 @@
         <v>0</v>
       </c>
       <c r="X161" s="422">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Y161" s="422">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="Y161" s="422">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="Z161" s="422">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA161" s="422">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB161" s="12"/>
@@ -42349,7 +43152,7 @@
       <c r="F172" s="9"/>
       <c r="G172" s="14"/>
       <c r="H172" s="9"/>
-      <c r="I172" s="457"/>
+      <c r="I172" s="443"/>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
       <c r="L172" s="9"/>
@@ -42440,7 +43243,7 @@
       <c r="K175" s="441"/>
       <c r="L175" s="441"/>
       <c r="M175" s="441"/>
-      <c r="N175" s="458"/>
+      <c r="N175" s="444"/>
       <c r="O175" s="441"/>
       <c r="P175" s="441"/>
       <c r="Q175" s="441"/>
@@ -45347,7 +46150,7 @@
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
       <c r="F261" s="30"/>
-      <c r="H261" s="464" t="s">
+      <c r="H261" s="449" t="s">
         <v>514</v>
       </c>
       <c r="I261" s="427">
@@ -45384,7 +46187,7 @@
       <c r="D262" s="13"/>
       <c r="E262" s="13"/>
       <c r="F262" s="30"/>
-      <c r="H262" s="465" t="s">
+      <c r="H262" s="450" t="s">
         <v>515</v>
       </c>
       <c r="I262" s="427">
@@ -45421,7 +46224,7 @@
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
       <c r="F263" s="30"/>
-      <c r="H263" s="465" t="s">
+      <c r="H263" s="450" t="s">
         <v>73</v>
       </c>
       <c r="I263" s="427">
@@ -45458,7 +46261,7 @@
       <c r="D264" s="13"/>
       <c r="E264" s="13"/>
       <c r="F264" s="30"/>
-      <c r="H264" s="465" t="s">
+      <c r="H264" s="450" t="s">
         <v>516</v>
       </c>
       <c r="I264" s="427">
@@ -45495,7 +46298,7 @@
       <c r="D265" s="13"/>
       <c r="E265" s="13"/>
       <c r="F265" s="30"/>
-      <c r="H265" s="466" t="s">
+      <c r="H265" s="451" t="s">
         <v>76</v>
       </c>
       <c r="I265" s="427">
@@ -45532,7 +46335,7 @@
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
       <c r="F266" s="30"/>
-      <c r="H266" s="466" t="s">
+      <c r="H266" s="451" t="s">
         <v>75</v>
       </c>
       <c r="I266" s="427">
@@ -45569,7 +46372,7 @@
       <c r="D267" s="13"/>
       <c r="E267" s="13"/>
       <c r="F267" s="30"/>
-      <c r="H267" s="466" t="s">
+      <c r="H267" s="451" t="s">
         <v>74</v>
       </c>
       <c r="I267" s="427">
@@ -46047,7 +46850,7 @@
       <c r="D283" s="13"/>
       <c r="E283" s="13"/>
       <c r="F283" s="30"/>
-      <c r="H283" s="464" t="s">
+      <c r="H283" s="449" t="s">
         <v>514</v>
       </c>
       <c r="I283" s="46">
@@ -46085,7 +46888,7 @@
       <c r="D284" s="13"/>
       <c r="E284" s="13"/>
       <c r="F284" s="30"/>
-      <c r="H284" s="465" t="s">
+      <c r="H284" s="450" t="s">
         <v>515</v>
       </c>
       <c r="I284" s="46">
@@ -46123,7 +46926,7 @@
       <c r="D285" s="13"/>
       <c r="E285" s="13"/>
       <c r="F285" s="30"/>
-      <c r="H285" s="465" t="s">
+      <c r="H285" s="450" t="s">
         <v>73</v>
       </c>
       <c r="I285" s="46">
@@ -46161,7 +46964,7 @@
       <c r="D286" s="13"/>
       <c r="E286" s="13"/>
       <c r="F286" s="30"/>
-      <c r="H286" s="465" t="s">
+      <c r="H286" s="450" t="s">
         <v>516</v>
       </c>
       <c r="I286" s="46">
@@ -47456,7 +48259,7 @@
       <c r="G327" s="23"/>
       <c r="H327" s="23"/>
       <c r="I327" s="23" t="str">
-        <f t="shared" ref="I327:I334" si="7">I350</f>
+        <f t="shared" ref="I327:I334" si="8">I350</f>
         <v>pre seeding</v>
       </c>
       <c r="J327" s="294">
@@ -47491,7 +48294,7 @@
       <c r="G328" s="23"/>
       <c r="H328" s="23"/>
       <c r="I328" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>at seeding</v>
       </c>
       <c r="J328" s="294">
@@ -47526,7 +48329,7 @@
       <c r="G329" s="23"/>
       <c r="H329" s="23"/>
       <c r="I329" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>post seeding</v>
       </c>
       <c r="J329" s="294">
@@ -47561,7 +48364,7 @@
       <c r="G330" s="23"/>
       <c r="H330" s="23"/>
       <c r="I330" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cereal</v>
       </c>
       <c r="J330" s="294">
@@ -47596,7 +48399,7 @@
       <c r="G331" s="31"/>
       <c r="H331" s="31"/>
       <c r="I331" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>oilseed</v>
       </c>
       <c r="J331" s="294">
@@ -47631,7 +48434,7 @@
       <c r="G332" s="23"/>
       <c r="H332" s="23"/>
       <c r="I332" s="23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>pulse</v>
       </c>
       <c r="J332" s="294">
@@ -47666,7 +48469,7 @@
       <c r="G333" s="23"/>
       <c r="H333" s="23"/>
       <c r="I333" s="23" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="J333" s="294">
@@ -47701,7 +48504,7 @@
       <c r="G334" s="23"/>
       <c r="H334" s="23"/>
       <c r="I334" s="23" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="J334" s="294">
@@ -48177,7 +48980,7 @@
       <c r="G350" s="23"/>
       <c r="H350" s="23"/>
       <c r="I350" s="23" t="str">
-        <f>I306</f>
+        <f t="shared" ref="I350:I355" si="9">I306</f>
         <v>pre seeding</v>
       </c>
       <c r="J350" s="295">
@@ -48215,7 +49018,7 @@
       <c r="G351" s="23"/>
       <c r="H351" s="23"/>
       <c r="I351" s="23" t="str">
-        <f>I307</f>
+        <f t="shared" si="9"/>
         <v>at seeding</v>
       </c>
       <c r="J351" s="295">
@@ -48253,7 +49056,7 @@
       <c r="G352" s="23"/>
       <c r="H352" s="23"/>
       <c r="I352" s="23" t="str">
-        <f>I308</f>
+        <f t="shared" si="9"/>
         <v>post seeding</v>
       </c>
       <c r="J352" s="295">
@@ -48291,7 +49094,7 @@
       <c r="G353" s="23"/>
       <c r="H353" s="23"/>
       <c r="I353" s="23" t="str">
-        <f>I309</f>
+        <f t="shared" si="9"/>
         <v>cereal</v>
       </c>
       <c r="J353" s="295">
@@ -48329,7 +49132,7 @@
       <c r="G354" s="23"/>
       <c r="H354" s="23"/>
       <c r="I354" s="23" t="str">
-        <f>I310</f>
+        <f t="shared" si="9"/>
         <v>oilseed</v>
       </c>
       <c r="J354" s="295">
@@ -48362,7 +49165,7 @@
       <c r="G355" s="23"/>
       <c r="H355" s="23"/>
       <c r="I355" s="23" t="str">
-        <f>I311</f>
+        <f t="shared" si="9"/>
         <v>pulse</v>
       </c>
       <c r="J355" s="295">
@@ -48812,7 +49615,7 @@
       <c r="E370" s="13"/>
       <c r="F370" s="13"/>
       <c r="G370" s="13"/>
-      <c r="H370" s="453"/>
+      <c r="H370" s="464"/>
       <c r="I370" s="13"/>
       <c r="J370" s="13"/>
       <c r="K370" s="18"/>
@@ -48840,7 +49643,7 @@
       <c r="E371" s="13"/>
       <c r="F371" s="13"/>
       <c r="G371" s="13"/>
-      <c r="H371" s="453"/>
+      <c r="H371" s="464"/>
       <c r="I371" s="13"/>
       <c r="J371" s="19" t="s">
         <v>42</v>
@@ -48874,7 +49677,7 @@
       <c r="G372" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H372" s="453"/>
+      <c r="H372" s="464"/>
       <c r="I372" s="13"/>
       <c r="J372" s="19" t="s">
         <v>67</v>
@@ -54915,10 +55718,10 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="454" t="s">
+      <c r="F68" s="467" t="s">
         <v>366</v>
       </c>
-      <c r="G68" s="455"/>
+      <c r="G68" s="468"/>
       <c r="H68" s="19"/>
       <c r="I68" s="19" t="s">
         <v>367</v>
@@ -55750,8 +56553,8 @@
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
-      <c r="E96" s="454"/>
-      <c r="F96" s="455"/>
+      <c r="E96" s="467"/>
+      <c r="F96" s="468"/>
       <c r="G96" s="19" t="s">
         <v>374</v>
       </c>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\python\MUDAS\MUDAS 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78425C1F-96FD-4647-B274-671A745E7CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F481B2-C603-4760-BDCE-D96D95BA6408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="84" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="45972" yWindow="84" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -2873,7 +2873,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="527">
   <si>
     <t>«</t>
   </si>
@@ -4482,6 +4482,9 @@
   </si>
   <si>
     <t>Current rotations represented below:</t>
+  </si>
+  <si>
+    <t>*season type will have to be added. Note sheep use the first slice to determine the break of season</t>
   </si>
 </sst>
 </file>
@@ -6820,9 +6823,9 @@
       <sheetName val="Mach 1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="26">
           <cell r="I26" t="str">
@@ -6885,7 +6888,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="35">
           <cell r="B35">
@@ -13052,9 +13055,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB23067-7440-4A35-B3C1-23A2B3B50502}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13063,12 +13068,12 @@
     <col min="3" max="16384" width="8.88671875" style="97"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="102" t="s">
         <v>116</v>
       </c>
@@ -13079,7 +13084,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="99">
         <v>0</v>
       </c>
@@ -13091,7 +13096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="99">
         <v>1</v>
       </c>
@@ -13102,8 +13107,11 @@
         <f t="shared" ref="C5:C12" si="0">B6-B5</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="97" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="99">
         <v>2</v>
       </c>
@@ -13115,7 +13123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="99">
         <v>3</v>
       </c>
@@ -13127,7 +13135,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="99">
         <v>4</v>
       </c>
@@ -13139,7 +13147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="99">
         <v>5</v>
       </c>
@@ -13151,7 +13159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="99">
         <v>6</v>
       </c>
@@ -13163,7 +13171,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="99">
         <v>7</v>
       </c>
@@ -13175,7 +13183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="99">
         <v>8</v>
       </c>
@@ -13187,7 +13195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="99">
         <v>9</v>
       </c>
@@ -13199,7 +13207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="99">
         <v>10</v>
       </c>
@@ -37032,8 +37040,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AU487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L362" sqref="L362"/>
+    <sheetView topLeftCell="A159" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H296" sqref="H296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="12" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\python\MUDAS\MUDAS 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F481B2-C603-4760-BDCE-D96D95BA6408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E55CCAA-EDC6-48E2-8B65-6FA14761497F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="84" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -40,8 +40,8 @@
     <definedName name="chem_by_lmu">Crop!$I$338:$N$344</definedName>
     <definedName name="chem_cost" localSheetId="5">Crop!$H$198:$N$223</definedName>
     <definedName name="chem_info">Crop!$I$359:$K$365</definedName>
-    <definedName name="clover_propn_in_sward_stubble">Stubble!$L$58</definedName>
-    <definedName name="component_dmd">Stubble!$H$87:$M$95</definedName>
+    <definedName name="clover_propn_in_sward_stubble">Stubble!$L$88</definedName>
+    <definedName name="component_dmd">Stubble!$H$117:$M$125</definedName>
     <definedName name="CPDry" localSheetId="4">Annual!$V$293:$V$302</definedName>
     <definedName name="CPGrn" localSheetId="4">Annual!$X$267:$X$276</definedName>
     <definedName name="daily_harvest_hours" localSheetId="8">Mach!$B$10</definedName>
@@ -90,10 +90,11 @@
     <definedName name="harv_date" localSheetId="5">Crop!$I$58</definedName>
     <definedName name="harv_period_lengths" localSheetId="5">Crop!$I$60:$I$61</definedName>
     <definedName name="harvest_helper">Labour!$G$97:$H$109</definedName>
-    <definedName name="harvest_index">Stubble!$H$65:$I$73</definedName>
+    <definedName name="harvest_index">Stubble!$H$95:$I$103</definedName>
     <definedName name="harvest_prep">Labour!$J$97:$K$99</definedName>
     <definedName name="hay_making_date" localSheetId="5">Crop!$I$77</definedName>
     <definedName name="hay_making_len" localSheetId="5">Crop!$I$79</definedName>
+    <definedName name="i_hf">Stubble!$J$29</definedName>
     <definedName name="initial_fungus" localSheetId="5">'[2]Initial conditions'!$M$12:$O$12</definedName>
     <definedName name="initial_nutrients">'[2]Initial conditions'!$R$12</definedName>
     <definedName name="initial_weed" localSheetId="5">'[2]Initial conditions'!$H$11:$J$13</definedName>
@@ -130,35 +131,18 @@
     <definedName name="planning">Labour!$I$69:$J$80</definedName>
     <definedName name="poc_destock">Crop!$I$82</definedName>
     <definedName name="POCCons" localSheetId="4">Annual!$L$322:$Q$332</definedName>
-    <definedName name="POCDays" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="proportion_grain_harv">Stubble!$H$76:$I$84</definedName>
-    <definedName name="quality_deterioration">Stubble!$H$98:$M$106</definedName>
-    <definedName name="quantity_deterioration">Stubble!$N$65:$O$73</definedName>
+    <definedName name="proportion_grain_harv">Stubble!$H$106:$I$114</definedName>
+    <definedName name="quality_deterioration">Stubble!$H$128:$M$136</definedName>
+    <definedName name="quantity_deterioration">Stubble!$N$95:$O$103</definedName>
     <definedName name="rail_cartage" localSheetId="1">General!$H$10</definedName>
     <definedName name="RIFOO" localSheetId="4">Annual!$K$18</definedName>
-    <definedName name="rifoo" localSheetId="2">'Feed Budget'!#REF!</definedName>
     <definedName name="road_cartage_distance" localSheetId="1">General!$H$12</definedName>
-    <definedName name="SA.DigDeclineDry" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.DigDeclineGrnL" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.DigFOO" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.DigGrnTimeLMU" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.DigSenesced" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.DigSpread" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.Germ" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.GermLMU" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.Past_inc" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.PastGP_inc" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.PastL_inc" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.PGR" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.PGRLMU" localSheetId="4">Annual!#REF!</definedName>
-    <definedName name="SA.PGRPer" localSheetId="4">Annual!#REF!</definedName>
     <definedName name="season_info">General!$I$24:$K$25</definedName>
     <definedName name="seed_info">Crop!$G$413:$Q$431</definedName>
     <definedName name="seed_period_lengths" localSheetId="5">Crop!$I$32:$I$35</definedName>
     <definedName name="seed_prep">Labour!$S$97:$T$100</definedName>
     <definedName name="seeder_speed_lmu_adj" localSheetId="8">Mach!$A$31:$B$36</definedName>
     <definedName name="seeding_after_season_start" localSheetId="5">Crop!$I$39</definedName>
-    <definedName name="seeding_freq">Crop!#REF!</definedName>
     <definedName name="seeding_fuel_lmu_adj" localSheetId="8">Mach!$A$17:$B$22</definedName>
     <definedName name="seeding_helper">Labour!$E$98</definedName>
     <definedName name="seeding_length">Annual!$J$110</definedName>
@@ -170,17 +154,15 @@
     <definedName name="spray_prep">Labour!$P$97:$Q$100</definedName>
     <definedName name="sprayer_crop_allocation" localSheetId="8">Mach!$B$39</definedName>
     <definedName name="start_harvest_crops" localSheetId="5">Crop!$H$64:$I$75</definedName>
-    <definedName name="step_chem_passes">Crop!#REF!</definedName>
-    <definedName name="step_fert_passes">Crop!#REF!</definedName>
-    <definedName name="step_size">Stubble!$H$58</definedName>
+    <definedName name="step_size">Stubble!$H$88</definedName>
     <definedName name="storage_cost_date">'Sup Feed'!$K$32</definedName>
     <definedName name="storage_grain">'[1]Sup Feed'!$I$26:$N$28</definedName>
     <definedName name="storage_type">'Sup Feed'!$I$13:$K$18</definedName>
-    <definedName name="stub_cat_prop">Stubble!$H$109:$L$117</definedName>
-    <definedName name="stub_cat_qual">Stubble!$H$120:$L$128</definedName>
+    <definedName name="stub_cat_prop">Stubble!$H$139:$L$147</definedName>
+    <definedName name="stub_cat_qual">Stubble!$H$150:$L$158</definedName>
     <definedName name="stub_handling_date" localSheetId="8">Mach!$B$45</definedName>
     <definedName name="stub_handling_length" localSheetId="8">Mach!$B$47</definedName>
-    <definedName name="stubble_handling" localSheetId="9">Stubble!$G$28:$H$39</definedName>
+    <definedName name="stubble_handling" localSheetId="9">Stubble!$G$58:$H$69</definedName>
     <definedName name="super">Labour!$O$69:$P$73</definedName>
     <definedName name="tax">Labour!$F$69:$G$72</definedName>
     <definedName name="test" localSheetId="6">'Sheep Regions'!$B$3:$E$9</definedName>
@@ -189,7 +171,7 @@
     <definedName name="time_between_pad">'Sup Feed'!$O$57</definedName>
     <definedName name="time_fill_feeder">'Sup Feed'!$G$50:$I$53</definedName>
     <definedName name="Trampling" localSheetId="4">Annual!$J$66</definedName>
-    <definedName name="trampling">Stubble!$N$76:$O$84</definedName>
+    <definedName name="trampling">Stubble!$N$106:$O$114</definedName>
     <definedName name="user_crop_rot">Crop!$J$169</definedName>
     <definedName name="yield_by_lmu" localSheetId="5">Crop!$I$240:$N$252</definedName>
     <definedName name="yield_penalty" localSheetId="5">Crop!$H$43:$J$55</definedName>
@@ -2507,7 +2489,31 @@
     <author>Michael Young</author>
   </authors>
   <commentList>
-    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{A636A175-11E8-4327-BFE9-1ABC2EA6635E}">
+    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{70D896D4-9185-4577-B620-39C167EABF61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Young:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+factor for relitive availability</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G58" authorId="0" shapeId="0" xr:uid="{A636A175-11E8-4327-BFE9-1ABC2EA6635E}">
       <text>
         <r>
           <rPr>
@@ -2531,7 +2537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{66079CB8-D06C-46AC-8DC7-9BC360514861}">
+    <comment ref="H58" authorId="0" shapeId="0" xr:uid="{66079CB8-D06C-46AC-8DC7-9BC360514861}">
       <text>
         <r>
           <rPr>
@@ -2555,7 +2561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G58" authorId="0" shapeId="0" xr:uid="{B66DD46C-909C-4413-9B2B-84ED918734EC}">
+    <comment ref="G88" authorId="0" shapeId="0" xr:uid="{B66DD46C-909C-4413-9B2B-84ED918734EC}">
       <text>
         <r>
           <rPr>
@@ -2580,7 +2586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K58" authorId="0" shapeId="0" xr:uid="{14FD931B-0795-46B2-9E97-B92F9945A6C8}">
+    <comment ref="K88" authorId="0" shapeId="0" xr:uid="{14FD931B-0795-46B2-9E97-B92F9945A6C8}">
       <text>
         <r>
           <rPr>
@@ -2604,7 +2610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G64" authorId="0" shapeId="0" xr:uid="{65BBE8AA-806B-4B95-A72F-8EEBBD4EB545}">
+    <comment ref="G94" authorId="0" shapeId="0" xr:uid="{65BBE8AA-806B-4B95-A72F-8EEBBD4EB545}">
       <text>
         <r>
           <rPr>
@@ -2628,7 +2634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M64" authorId="0" shapeId="0" xr:uid="{93B2860A-E775-407D-826A-9870DF7B6A60}">
+    <comment ref="M94" authorId="0" shapeId="0" xr:uid="{93B2860A-E775-407D-826A-9870DF7B6A60}">
       <text>
         <r>
           <rPr>
@@ -2652,7 +2658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G75" authorId="0" shapeId="0" xr:uid="{15BB0F16-7131-4D16-8E31-4B9CC8FFC43A}">
+    <comment ref="G105" authorId="0" shapeId="0" xr:uid="{15BB0F16-7131-4D16-8E31-4B9CC8FFC43A}">
       <text>
         <r>
           <rPr>
@@ -2676,7 +2682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M75" authorId="0" shapeId="0" xr:uid="{292DEB33-D3BC-40E7-B57E-79BBE377AFB7}">
+    <comment ref="M105" authorId="0" shapeId="0" xr:uid="{292DEB33-D3BC-40E7-B57E-79BBE377AFB7}">
       <text>
         <r>
           <rPr>
@@ -2700,7 +2706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G86" authorId="0" shapeId="0" xr:uid="{6D28406D-A9F4-40AE-8098-A3882D5B99CC}">
+    <comment ref="G116" authorId="0" shapeId="0" xr:uid="{6D28406D-A9F4-40AE-8098-A3882D5B99CC}">
       <text>
         <r>
           <rPr>
@@ -2724,7 +2730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K87" authorId="0" shapeId="0" xr:uid="{C283F54F-991D-4DC4-91FD-263895B776C5}">
+    <comment ref="K117" authorId="0" shapeId="0" xr:uid="{C283F54F-991D-4DC4-91FD-263895B776C5}">
       <text>
         <r>
           <rPr>
@@ -2748,7 +2754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K91" authorId="0" shapeId="0" xr:uid="{57F02848-1BF2-4441-892B-02350168CEC6}">
+    <comment ref="K121" authorId="0" shapeId="0" xr:uid="{57F02848-1BF2-4441-892B-02350168CEC6}">
       <text>
         <r>
           <rPr>
@@ -2772,7 +2778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J95" authorId="0" shapeId="0" xr:uid="{B7B8AF9E-21B8-4DA5-807B-DFECEF827112}">
+    <comment ref="J125" authorId="0" shapeId="0" xr:uid="{B7B8AF9E-21B8-4DA5-807B-DFECEF827112}">
       <text>
         <r>
           <rPr>
@@ -2796,7 +2802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G97" authorId="0" shapeId="0" xr:uid="{E4E27D6A-42FE-4E50-AEF9-FFBE2460AE39}">
+    <comment ref="G127" authorId="0" shapeId="0" xr:uid="{E4E27D6A-42FE-4E50-AEF9-FFBE2460AE39}">
       <text>
         <r>
           <rPr>
@@ -2820,7 +2826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G108" authorId="0" shapeId="0" xr:uid="{A744DFE7-5AB9-4797-A593-B6D02F1C1475}">
+    <comment ref="G138" authorId="0" shapeId="0" xr:uid="{A744DFE7-5AB9-4797-A593-B6D02F1C1475}">
       <text>
         <r>
           <rPr>
@@ -2844,7 +2850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G119" authorId="0" shapeId="0" xr:uid="{AB62E3CC-0B13-41F2-8F34-470B177749F8}">
+    <comment ref="G149" authorId="0" shapeId="0" xr:uid="{AB62E3CC-0B13-41F2-8F34-470B177749F8}">
       <text>
         <r>
           <rPr>
@@ -2873,7 +2879,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="529">
   <si>
     <t>«</t>
   </si>
@@ -4486,6 +4492,12 @@
   <si>
     <t>*season type will have to be added. Note sheep use the first slice to determine the break of season</t>
   </si>
+  <si>
+    <t>STUBBLE As Feed</t>
+  </si>
+  <si>
+    <t>hf</t>
+  </si>
 </sst>
 </file>
 
@@ -5117,7 +5129,7 @@
     <xf numFmtId="0" fontId="24" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="475">
+  <cellXfs count="477">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6293,6 +6305,12 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="16" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -7290,10 +7308,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E7CEFF-83F4-4D28-85EF-3859ECCF0B70}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:Z139"/>
+  <dimension ref="A2:Z169"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66:I73"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -7406,7 +7424,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10" t="s">
-        <v>329</v>
+        <v>527</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -7526,19 +7544,19 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
+      <c r="J22" s="459"/>
+      <c r="K22" s="459"/>
+      <c r="L22" s="459"/>
+      <c r="M22" s="459"/>
+      <c r="N22" s="459"/>
+      <c r="O22" s="459"/>
+      <c r="P22" s="459"/>
+      <c r="Q22" s="459"/>
+      <c r="R22" s="459"/>
+      <c r="S22" s="459"/>
+      <c r="T22" s="459"/>
+      <c r="U22" s="459"/>
+      <c r="V22" s="459"/>
       <c r="W22" s="12"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -7556,17 +7574,17 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
+      <c r="L23" s="459"/>
+      <c r="M23" s="459"/>
+      <c r="N23" s="459"/>
+      <c r="O23" s="459"/>
+      <c r="P23" s="459"/>
+      <c r="Q23" s="459"/>
+      <c r="R23" s="459"/>
+      <c r="S23" s="459"/>
+      <c r="T23" s="459"/>
+      <c r="U23" s="459"/>
+      <c r="V23" s="459"/>
       <c r="W23" s="12"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -7591,10 +7609,10 @@
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
+      <c r="S24" s="459"/>
+      <c r="T24" s="459"/>
+      <c r="U24" s="459"/>
+      <c r="V24" s="459"/>
       <c r="W24" s="12"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
@@ -7609,7 +7627,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="459"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
@@ -7619,10 +7637,10 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
+      <c r="S25" s="459"/>
+      <c r="T25" s="459"/>
+      <c r="U25" s="459"/>
+      <c r="V25" s="459"/>
       <c r="W25" s="12"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
@@ -7647,10 +7665,10 @@
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
+      <c r="S26" s="459"/>
+      <c r="T26" s="459"/>
+      <c r="U26" s="459"/>
+      <c r="V26" s="459"/>
       <c r="W26" s="12"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
@@ -7684,20 +7702,16 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="284" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="284" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="281"/>
+      <c r="G28" s="282"/>
+      <c r="H28" s="282"/>
+      <c r="I28" s="282"/>
       <c r="J28" s="282"/>
       <c r="K28" s="72"/>
       <c r="L28" s="72"/>
@@ -7716,21 +7730,21 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="284" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="284">
-        <v>3.5</v>
-      </c>
-      <c r="I29" s="281"/>
-      <c r="J29" s="283"/>
+      <c r="G29" s="283"/>
+      <c r="H29" s="283"/>
+      <c r="I29" s="283" t="s">
+        <v>528</v>
+      </c>
+      <c r="J29" s="460">
+        <v>1</v>
+      </c>
       <c r="K29" s="75"/>
       <c r="L29" s="75"/>
       <c r="O29" s="75"/>
@@ -7746,20 +7760,16 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="284" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="284">
-        <v>4.2</v>
-      </c>
-      <c r="I30" s="281"/>
+      <c r="G30" s="283"/>
+      <c r="H30" s="283"/>
+      <c r="I30" s="283"/>
       <c r="J30" s="283"/>
       <c r="K30" s="75"/>
       <c r="L30" s="75"/>
@@ -7776,20 +7786,16 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="284" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="284">
-        <v>3.5</v>
-      </c>
-      <c r="I31" s="281"/>
+      <c r="G31" s="283"/>
+      <c r="H31" s="283"/>
+      <c r="I31" s="283"/>
       <c r="J31" s="283"/>
       <c r="K31" s="75"/>
       <c r="L31" s="75"/>
@@ -7806,18 +7812,16 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="284" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="284"/>
-      <c r="I32" s="281"/>
+      <c r="G32" s="283"/>
+      <c r="H32" s="283"/>
+      <c r="I32" s="283"/>
       <c r="J32" s="283"/>
       <c r="K32" s="75"/>
       <c r="L32" s="75"/>
@@ -7834,20 +7838,16 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="284" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="284">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I33" s="281"/>
+      <c r="G33" s="283"/>
+      <c r="H33" s="283"/>
+      <c r="I33" s="283"/>
       <c r="J33" s="283"/>
       <c r="K33" s="75"/>
       <c r="L33" s="75"/>
@@ -7864,20 +7864,16 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="284" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="284">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I34" s="281"/>
+      <c r="G34" s="283"/>
+      <c r="H34" s="283"/>
+      <c r="I34" s="283"/>
       <c r="J34" s="283"/>
       <c r="K34" s="75"/>
       <c r="L34" s="75"/>
@@ -7894,18 +7890,16 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="284" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="284"/>
-      <c r="I35" s="281"/>
+      <c r="G35" s="283"/>
+      <c r="H35" s="283"/>
+      <c r="I35" s="283"/>
       <c r="J35" s="283"/>
       <c r="K35" s="75"/>
       <c r="L35" s="75"/>
@@ -7922,18 +7916,16 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="284" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="284"/>
-      <c r="I36" s="281"/>
+      <c r="G36" s="282"/>
+      <c r="H36" s="282"/>
+      <c r="I36" s="282"/>
       <c r="J36" s="282"/>
       <c r="K36" s="72"/>
       <c r="L36" s="72"/>
@@ -7950,18 +7942,16 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="284" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="284"/>
-      <c r="I37" s="281"/>
+      <c r="G37" s="282"/>
+      <c r="H37" s="282"/>
+      <c r="I37" s="282"/>
       <c r="J37" s="282"/>
       <c r="K37" s="72"/>
       <c r="L37" s="72"/>
@@ -7978,18 +7968,16 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="284" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="284"/>
-      <c r="I38" s="281"/>
+      <c r="G38" s="283"/>
+      <c r="H38" s="283"/>
+      <c r="I38" s="283"/>
       <c r="J38" s="283"/>
       <c r="K38" s="75"/>
       <c r="L38" s="75"/>
@@ -8006,18 +7994,16 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="284" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="284"/>
-      <c r="I39" s="281"/>
+      <c r="G39" s="283"/>
+      <c r="H39" s="283"/>
+      <c r="I39" s="283"/>
       <c r="J39" s="283"/>
       <c r="K39" s="75"/>
       <c r="L39" s="75"/>
@@ -8097,7 +8083,7 @@
       <c r="F42" s="36"/>
       <c r="G42" s="37" t="str">
         <f>G18</f>
-        <v>STUBBLE HANDLING</v>
+        <v>STUBBLE As Feed</v>
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
@@ -8273,7 +8259,7 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="10" t="s">
-        <v>62</v>
+        <v>329</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -8551,201 +8537,204 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="22"/>
-      <c r="G58" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="H58" s="45">
-        <v>1</v>
-      </c>
-      <c r="I58" s="73"/>
-      <c r="K58" s="418" t="s">
-        <v>463</v>
-      </c>
-      <c r="L58" s="419">
-        <v>0.1</v>
-      </c>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="25"/>
+      <c r="G58" s="284" t="s">
+        <v>126</v>
+      </c>
+      <c r="H58" s="284" t="s">
+        <v>139</v>
+      </c>
+      <c r="I58" s="281"/>
+      <c r="J58" s="282"/>
+      <c r="K58" s="72"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
       <c r="V58" s="26"/>
       <c r="W58" s="12"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="25"/>
+      <c r="G59" s="284" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" s="284">
+        <v>3.5</v>
+      </c>
+      <c r="I59" s="281"/>
+      <c r="J59" s="283"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="O59" s="75"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
       <c r="V59" s="26"/>
       <c r="W59" s="12"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
+      <c r="G60" s="284" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="284">
+        <v>4.2</v>
+      </c>
+      <c r="I60" s="281"/>
+      <c r="J60" s="283"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="O60" s="75"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
       <c r="V60" s="26"/>
       <c r="W60" s="12"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="22"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
+      <c r="G61" s="284" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" s="284">
+        <v>3.5</v>
+      </c>
+      <c r="I61" s="281"/>
+      <c r="J61" s="283"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="O61" s="75"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
       <c r="V61" s="26"/>
       <c r="W61" s="12"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="25"/>
+      <c r="G62" s="284" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="284"/>
+      <c r="I62" s="281"/>
+      <c r="J62" s="283"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="75"/>
+      <c r="O62" s="75"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
       <c r="V62" s="26"/>
       <c r="W62" s="12"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="22"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="25"/>
+      <c r="G63" s="284" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="284">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I63" s="281"/>
+      <c r="J63" s="283"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
       <c r="V63" s="26"/>
       <c r="W63" s="12"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="22"/>
-      <c r="G64" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="31"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="N64" s="31"/>
-      <c r="O64" s="74"/>
+      <c r="G64" s="284" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="284">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I64" s="281"/>
+      <c r="J64" s="283"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="O64" s="75"/>
       <c r="P64" s="29"/>
       <c r="Q64" s="29"/>
       <c r="R64" s="29"/>
@@ -8758,26 +8747,22 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="22"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="74" t="s">
-        <v>454</v>
-      </c>
-      <c r="J65" s="285"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="74" t="s">
-        <v>460</v>
-      </c>
+      <c r="G65" s="284" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65" s="284"/>
+      <c r="I65" s="281"/>
+      <c r="J65" s="283"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="75"/>
+      <c r="O65" s="75"/>
       <c r="P65" s="29"/>
       <c r="Q65" s="29"/>
       <c r="R65" s="29"/>
@@ -8790,29 +8775,22 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="22"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66" s="71">
-        <v>0.42</v>
-      </c>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="O66" s="71">
-        <v>0.4</v>
-      </c>
+      <c r="G66" s="284" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" s="284"/>
+      <c r="I66" s="281"/>
+      <c r="J66" s="282"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="O66" s="72"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
       <c r="R66" s="29"/>
@@ -8825,29 +8803,22 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="22"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I67" s="71">
-        <v>0.44</v>
-      </c>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="O67" s="71">
-        <v>0.4</v>
-      </c>
+      <c r="G67" s="284" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" s="284"/>
+      <c r="I67" s="281"/>
+      <c r="J67" s="282"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="72"/>
+      <c r="O67" s="72"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="29"/>
       <c r="R67" s="29"/>
@@ -8860,29 +8831,22 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="22"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I68" s="71">
-        <v>0.4</v>
-      </c>
+      <c r="G68" s="284" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" s="284"/>
+      <c r="I68" s="281"/>
+      <c r="J68" s="283"/>
       <c r="K68" s="75"/>
       <c r="L68" s="75"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="O68" s="71">
-        <v>0.4</v>
-      </c>
+      <c r="O68" s="75"/>
       <c r="P68" s="29"/>
       <c r="Q68" s="29"/>
       <c r="R68" s="29"/>
@@ -8895,29 +8859,22 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="22"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69" s="71">
-        <v>0.2</v>
-      </c>
+      <c r="G69" s="284" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="284"/>
+      <c r="I69" s="281"/>
+      <c r="J69" s="283"/>
       <c r="K69" s="75"/>
       <c r="L69" s="75"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="O69" s="71">
-        <v>0.4</v>
-      </c>
+      <c r="O69" s="75"/>
       <c r="P69" s="29"/>
       <c r="Q69" s="29"/>
       <c r="R69" s="29"/>
@@ -8937,22 +8894,13 @@
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="22"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I70" s="71">
-        <v>0.2</v>
-      </c>
+      <c r="G70" s="280"/>
+      <c r="H70" s="280"/>
+      <c r="I70" s="281"/>
+      <c r="J70" s="283"/>
       <c r="K70" s="75"/>
       <c r="L70" s="75"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="O70" s="71">
-        <v>0.4</v>
-      </c>
+      <c r="O70" s="75"/>
       <c r="P70" s="29"/>
       <c r="Q70" s="29"/>
       <c r="R70" s="29"/>
@@ -8965,73 +8913,63 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I71" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="O71" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
       <c r="V71" s="26"/>
       <c r="W71" s="12"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" s="4" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I72" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="O72" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="26"/>
-      <c r="W72" s="12"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="37" t="str">
+        <f>G48</f>
+        <v>STUBBLE HANDLING</v>
+      </c>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
@@ -9039,35 +8977,27 @@
     <row r="73" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I73" s="71">
-        <v>0.7</v>
-      </c>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="72"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="O73" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="26"/>
-      <c r="W73" s="12"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
@@ -9075,27 +9005,27 @@
     <row r="74" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="26"/>
-      <c r="W74" s="12"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
@@ -9103,99 +9033,85 @@
     <row r="75" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H75" s="31"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="N75" s="31"/>
-      <c r="O75" s="74"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="26"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-    </row>
-    <row r="76" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+    </row>
+    <row r="76" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="J76" s="72"/>
-      <c r="K76" s="72"/>
-      <c r="L76" s="72"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="74" t="s">
-        <v>461</v>
-      </c>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="29"/>
-      <c r="S76" s="29"/>
-      <c r="T76" s="29"/>
-      <c r="U76" s="29"/>
-      <c r="V76" s="26"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-    </row>
-    <row r="77" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+    </row>
+    <row r="77" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I77" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="J77" s="72"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="O77" s="71">
-        <v>2</v>
-      </c>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="29"/>
-      <c r="U77" s="29"/>
-      <c r="V77" s="26"/>
-      <c r="W77" s="12"/>
+      <c r="C77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="7"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
@@ -9203,34 +9119,30 @@
     <row r="78" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I78" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="J78" s="72"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="O78" s="71">
-        <v>2</v>
-      </c>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="26"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
       <c r="W78" s="12"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
@@ -9239,34 +9151,28 @@
     <row r="79" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="13"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I79" s="71">
-        <v>0.94</v>
-      </c>
-      <c r="J79" s="72"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="O79" s="71">
-        <v>2</v>
-      </c>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="29"/>
-      <c r="U79" s="29"/>
-      <c r="V79" s="26"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
       <c r="W79" s="12"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
@@ -9276,33 +9182,27 @@
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="13"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I80" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="J80" s="72"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="O80" s="71">
-        <v>2</v>
-      </c>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="29"/>
-      <c r="U80" s="29"/>
-      <c r="V80" s="26"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="50">
+        <v>38576.728703703702</v>
+      </c>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
       <c r="W80" s="12"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
@@ -9311,34 +9211,26 @@
     <row r="81" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="13"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I81" s="71">
-        <v>0.97</v>
-      </c>
-      <c r="J81" s="72"/>
-      <c r="K81" s="75"/>
-      <c r="L81" s="75"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="O81" s="71">
-        <v>2</v>
-      </c>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="29"/>
-      <c r="U81" s="29"/>
-      <c r="V81" s="26"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
       <c r="W81" s="12"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
@@ -9350,31 +9242,23 @@
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I82" s="71">
-        <v>0.9</v>
-      </c>
-      <c r="J82" s="72"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="O82" s="71">
-        <v>2</v>
-      </c>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="29"/>
-      <c r="S82" s="29"/>
-      <c r="T82" s="29"/>
-      <c r="U82" s="29"/>
-      <c r="V82" s="26"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="18"/>
+      <c r="V82" s="18"/>
       <c r="W82" s="12"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
@@ -9386,31 +9270,23 @@
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I83" s="71">
-        <v>0.9</v>
-      </c>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="O83" s="71">
-        <v>2</v>
-      </c>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="29"/>
-      <c r="V83" s="26"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="18"/>
+      <c r="V83" s="18"/>
       <c r="W83" s="12"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
@@ -9422,31 +9298,23 @@
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I84" s="71">
-        <v>1</v>
-      </c>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="O84" s="71">
-        <v>2</v>
-      </c>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="26"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18"/>
       <c r="W84" s="12"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
@@ -9458,330 +9326,253 @@
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="29"/>
-      <c r="V85" s="26"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+      <c r="V85" s="18"/>
       <c r="W85" s="12"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="H86" s="31"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="29"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="29"/>
-      <c r="S86" s="29"/>
-      <c r="T86" s="29"/>
-      <c r="U86" s="29"/>
-      <c r="V86" s="26"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
       <c r="W86" s="12"/>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="22"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="73" t="s">
-        <v>407</v>
-      </c>
-      <c r="J87" s="75" t="s">
-        <v>449</v>
-      </c>
-      <c r="K87" s="75" t="s">
-        <v>450</v>
-      </c>
-      <c r="L87" s="75" t="s">
-        <v>451</v>
-      </c>
-      <c r="M87" s="75" t="s">
-        <v>452</v>
-      </c>
-      <c r="N87" s="75"/>
-      <c r="O87" s="75"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="29"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
       <c r="V87" s="26"/>
       <c r="W87" s="12"/>
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="22"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="I88" s="71">
-        <v>85</v>
-      </c>
-      <c r="J88" s="71">
-        <v>58</v>
-      </c>
-      <c r="K88" s="71">
-        <v>37</v>
-      </c>
-      <c r="L88" s="71">
-        <v>37</v>
-      </c>
-      <c r="M88" s="71">
-        <v>23</v>
-      </c>
-      <c r="N88" s="75"/>
-      <c r="O88" s="75"/>
-      <c r="P88" s="29"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="29"/>
-      <c r="S88" s="29"/>
-      <c r="T88" s="29"/>
-      <c r="U88" s="29"/>
+      <c r="G88" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H88" s="45">
+        <v>1</v>
+      </c>
+      <c r="I88" s="73"/>
+      <c r="K88" s="418" t="s">
+        <v>463</v>
+      </c>
+      <c r="L88" s="419">
+        <v>0.1</v>
+      </c>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
       <c r="V88" s="26"/>
       <c r="W88" s="12"/>
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="22"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I89" s="71">
-        <v>85</v>
-      </c>
-      <c r="J89" s="71">
-        <v>58</v>
-      </c>
-      <c r="K89" s="71">
-        <v>37</v>
-      </c>
-      <c r="L89" s="71">
-        <v>37</v>
-      </c>
-      <c r="M89" s="71">
-        <v>23</v>
-      </c>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
-      <c r="P89" s="29"/>
-      <c r="Q89" s="29"/>
-      <c r="R89" s="29"/>
-      <c r="S89" s="29"/>
-      <c r="T89" s="29"/>
-      <c r="U89" s="29"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+      <c r="T89" s="25"/>
+      <c r="U89" s="25"/>
       <c r="V89" s="26"/>
       <c r="W89" s="12"/>
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="22"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I90" s="71">
-        <v>85</v>
-      </c>
-      <c r="J90" s="71">
-        <v>58</v>
-      </c>
-      <c r="K90" s="71">
-        <v>37</v>
-      </c>
-      <c r="L90" s="71">
-        <v>37</v>
-      </c>
-      <c r="M90" s="71">
-        <v>23</v>
-      </c>
-      <c r="N90" s="75"/>
-      <c r="O90" s="75"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="29"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="29"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="25"/>
+      <c r="U90" s="25"/>
       <c r="V90" s="26"/>
       <c r="W90" s="12"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="22"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I91" s="71">
-        <v>95</v>
-      </c>
-      <c r="J91" s="71">
-        <v>64</v>
-      </c>
-      <c r="K91" s="71">
-        <v>0</v>
-      </c>
-      <c r="L91" s="71">
-        <v>52</v>
-      </c>
-      <c r="M91" s="71">
-        <v>31</v>
-      </c>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="29"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="25"/>
+      <c r="U91" s="25"/>
       <c r="V91" s="26"/>
       <c r="W91" s="12"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="22"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I92" s="71">
-        <v>95</v>
-      </c>
-      <c r="J92" s="71">
-        <v>64</v>
-      </c>
-      <c r="K92" s="71">
-        <v>0</v>
-      </c>
-      <c r="L92" s="71">
-        <v>52</v>
-      </c>
-      <c r="M92" s="71">
-        <v>31</v>
-      </c>
-      <c r="N92" s="75"/>
-      <c r="O92" s="75"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="29"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
       <c r="V92" s="26"/>
       <c r="W92" s="12"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" s="4" customFormat="1" ht="11.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="22"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I93" s="71">
-        <v>90</v>
-      </c>
-      <c r="J93" s="71">
-        <v>64</v>
-      </c>
-      <c r="K93" s="71">
-        <v>0</v>
-      </c>
-      <c r="L93" s="71">
-        <v>58</v>
-      </c>
-      <c r="M93" s="71">
-        <v>35</v>
-      </c>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="29"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="29"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
+      <c r="U93" s="25"/>
       <c r="V93" s="26"/>
       <c r="W93" s="12"/>
       <c r="X93" s="3"/>
@@ -9795,27 +9586,19 @@
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="22"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I94" s="71">
-        <v>90</v>
-      </c>
-      <c r="J94" s="71">
+      <c r="G94" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="K94" s="71">
-        <v>0</v>
-      </c>
-      <c r="L94" s="71">
-        <v>58</v>
-      </c>
-      <c r="M94" s="71">
-        <v>35</v>
-      </c>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="72"/>
+      <c r="K94" s="72"/>
+      <c r="L94" s="72"/>
+      <c r="M94" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="N94" s="31"/>
+      <c r="O94" s="74"/>
       <c r="P94" s="29"/>
       <c r="Q94" s="29"/>
       <c r="R94" s="29"/>
@@ -9836,26 +9619,18 @@
       <c r="E95" s="13"/>
       <c r="F95" s="22"/>
       <c r="G95" s="31"/>
-      <c r="H95" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I95" s="71">
-        <v>85</v>
-      </c>
-      <c r="J95" s="71">
-        <v>70</v>
-      </c>
-      <c r="K95" s="71">
-        <v>37</v>
-      </c>
-      <c r="L95" s="71">
-        <v>37</v>
-      </c>
-      <c r="M95" s="71">
-        <v>23</v>
-      </c>
-      <c r="N95" s="75"/>
-      <c r="O95" s="75"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="74" t="s">
+        <v>454</v>
+      </c>
+      <c r="J95" s="285"/>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="74" t="s">
+        <v>460</v>
+      </c>
       <c r="P95" s="29"/>
       <c r="Q95" s="29"/>
       <c r="R95" s="29"/>
@@ -9876,14 +9651,21 @@
       <c r="E96" s="13"/>
       <c r="F96" s="22"/>
       <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="73"/>
-      <c r="J96" s="75"/>
+      <c r="H96" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I96" s="71">
+        <v>0.42</v>
+      </c>
       <c r="K96" s="75"/>
       <c r="L96" s="75"/>
-      <c r="M96" s="75"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="75"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O96" s="71">
+        <v>0.4</v>
+      </c>
       <c r="P96" s="29"/>
       <c r="Q96" s="29"/>
       <c r="R96" s="29"/>
@@ -9903,17 +9685,22 @@
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="22"/>
-      <c r="G97" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="H97" s="31"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="75"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I97" s="71">
+        <v>0.44</v>
+      </c>
       <c r="K97" s="75"/>
       <c r="L97" s="75"/>
-      <c r="M97" s="75"/>
-      <c r="N97" s="75"/>
-      <c r="O97" s="75"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="O97" s="71">
+        <v>0.4</v>
+      </c>
       <c r="P97" s="29"/>
       <c r="Q97" s="29"/>
       <c r="R97" s="29"/>
@@ -9934,24 +9721,21 @@
       <c r="E98" s="13"/>
       <c r="F98" s="22"/>
       <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="73" t="s">
-        <v>407</v>
-      </c>
-      <c r="J98" s="75" t="s">
-        <v>449</v>
-      </c>
-      <c r="K98" s="75" t="s">
-        <v>450</v>
-      </c>
-      <c r="L98" s="75" t="s">
-        <v>451</v>
-      </c>
-      <c r="M98" s="75" t="s">
-        <v>452</v>
-      </c>
-      <c r="N98" s="75"/>
-      <c r="O98" s="75"/>
+      <c r="H98" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="K98" s="75"/>
+      <c r="L98" s="75"/>
+      <c r="M98" s="31"/>
+      <c r="N98" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O98" s="71">
+        <v>0.4</v>
+      </c>
       <c r="P98" s="29"/>
       <c r="Q98" s="29"/>
       <c r="R98" s="29"/>
@@ -9973,25 +9757,20 @@
       <c r="F99" s="22"/>
       <c r="G99" s="31"/>
       <c r="H99" s="31" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I99" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J99" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K99" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L99" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M99" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N99" s="75"/>
-      <c r="O99" s="75"/>
+        <v>0.2</v>
+      </c>
+      <c r="K99" s="75"/>
+      <c r="L99" s="75"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O99" s="71">
+        <v>0.4</v>
+      </c>
       <c r="P99" s="29"/>
       <c r="Q99" s="29"/>
       <c r="R99" s="29"/>
@@ -10013,25 +9792,20 @@
       <c r="F100" s="22"/>
       <c r="G100" s="31"/>
       <c r="H100" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I100" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J100" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K100" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L100" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M100" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N100" s="75"/>
-      <c r="O100" s="75"/>
+        <v>0.2</v>
+      </c>
+      <c r="K100" s="75"/>
+      <c r="L100" s="75"/>
+      <c r="M100" s="31"/>
+      <c r="N100" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O100" s="71">
+        <v>0.4</v>
+      </c>
       <c r="P100" s="29"/>
       <c r="Q100" s="29"/>
       <c r="R100" s="29"/>
@@ -10053,25 +9827,20 @@
       <c r="F101" s="22"/>
       <c r="G101" s="31"/>
       <c r="H101" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I101" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J101" s="71">
         <v>0.3</v>
       </c>
-      <c r="K101" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L101" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M101" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N101" s="75"/>
-      <c r="O101" s="75"/>
+      <c r="K101" s="75"/>
+      <c r="L101" s="75"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="O101" s="71">
+        <v>0.4</v>
+      </c>
       <c r="P101" s="29"/>
       <c r="Q101" s="29"/>
       <c r="R101" s="29"/>
@@ -10093,25 +9862,21 @@
       <c r="F102" s="22"/>
       <c r="G102" s="31"/>
       <c r="H102" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I102" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J102" s="71">
         <v>0.3</v>
       </c>
-      <c r="K102" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L102" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M102" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N102" s="75"/>
-      <c r="O102" s="75"/>
+      <c r="J102" s="75"/>
+      <c r="K102" s="75"/>
+      <c r="L102" s="75"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="O102" s="71">
+        <v>0.4</v>
+      </c>
       <c r="P102" s="29"/>
       <c r="Q102" s="29"/>
       <c r="R102" s="29"/>
@@ -10133,25 +9898,21 @@
       <c r="F103" s="22"/>
       <c r="G103" s="31"/>
       <c r="H103" s="31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I103" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J103" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K103" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L103" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M103" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N103" s="75"/>
-      <c r="O103" s="75"/>
+        <v>0.7</v>
+      </c>
+      <c r="J103" s="72"/>
+      <c r="K103" s="72"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="O103" s="71">
+        <v>0.4</v>
+      </c>
       <c r="P103" s="29"/>
       <c r="Q103" s="29"/>
       <c r="R103" s="29"/>
@@ -10172,26 +9933,14 @@
       <c r="E104" s="13"/>
       <c r="F104" s="22"/>
       <c r="G104" s="31"/>
-      <c r="H104" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I104" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J104" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K104" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L104" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M104" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N104" s="75"/>
-      <c r="O104" s="75"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="72"/>
+      <c r="K104" s="72"/>
+      <c r="L104" s="72"/>
+      <c r="M104" s="72"/>
+      <c r="N104" s="72"/>
+      <c r="O104" s="72"/>
       <c r="P104" s="29"/>
       <c r="Q104" s="29"/>
       <c r="R104" s="29"/>
@@ -10211,27 +9960,19 @@
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="22"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I105" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J105" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K105" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L105" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M105" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N105" s="75"/>
-      <c r="O105" s="75"/>
+      <c r="G105" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" s="31"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="72"/>
+      <c r="M105" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N105" s="31"/>
+      <c r="O105" s="74"/>
       <c r="P105" s="29"/>
       <c r="Q105" s="29"/>
       <c r="R105" s="29"/>
@@ -10252,26 +9993,18 @@
       <c r="E106" s="13"/>
       <c r="F106" s="22"/>
       <c r="G106" s="31"/>
-      <c r="H106" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I106" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J106" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="K106" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="L106" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="M106" s="71">
-        <v>0.3</v>
-      </c>
-      <c r="N106" s="75"/>
-      <c r="O106" s="75"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
+      <c r="L106" s="72"/>
+      <c r="M106" s="31"/>
+      <c r="N106" s="31"/>
+      <c r="O106" s="74" t="s">
+        <v>461</v>
+      </c>
       <c r="P106" s="29"/>
       <c r="Q106" s="29"/>
       <c r="R106" s="29"/>
@@ -10284,7 +10017,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" s="4" customFormat="1" ht="12.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="13"/>
@@ -10292,14 +10025,22 @@
       <c r="E107" s="13"/>
       <c r="F107" s="22"/>
       <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="75"/>
+      <c r="H107" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I107" s="71">
+        <v>0.94</v>
+      </c>
+      <c r="J107" s="72"/>
       <c r="K107" s="75"/>
       <c r="L107" s="75"/>
-      <c r="M107" s="75"/>
-      <c r="N107" s="75"/>
-      <c r="O107" s="75"/>
+      <c r="M107" s="31"/>
+      <c r="N107" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O107" s="71">
+        <v>2</v>
+      </c>
       <c r="P107" s="29"/>
       <c r="Q107" s="29"/>
       <c r="R107" s="29"/>
@@ -10319,17 +10060,23 @@
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="22"/>
-      <c r="G108" s="31" t="s">
-        <v>456</v>
-      </c>
-      <c r="H108" s="31"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="75"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I108" s="71">
+        <v>0.94</v>
+      </c>
+      <c r="J108" s="72"/>
       <c r="K108" s="75"/>
       <c r="L108" s="75"/>
-      <c r="M108" s="75"/>
-      <c r="N108" s="75"/>
-      <c r="O108" s="75"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="O108" s="71">
+        <v>2</v>
+      </c>
       <c r="P108" s="29"/>
       <c r="Q108" s="29"/>
       <c r="R108" s="29"/>
@@ -10350,22 +10097,22 @@
       <c r="E109" s="13"/>
       <c r="F109" s="22"/>
       <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="J109" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="K109" s="75" t="s">
-        <v>458</v>
-      </c>
-      <c r="L109" s="75" t="s">
-        <v>459</v>
-      </c>
-      <c r="M109" s="75"/>
-      <c r="N109" s="75"/>
-      <c r="O109" s="75"/>
+      <c r="H109" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I109" s="71">
+        <v>0.94</v>
+      </c>
+      <c r="J109" s="72"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="75"/>
+      <c r="M109" s="31"/>
+      <c r="N109" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O109" s="71">
+        <v>2</v>
+      </c>
       <c r="P109" s="29"/>
       <c r="Q109" s="29"/>
       <c r="R109" s="29"/>
@@ -10387,24 +10134,21 @@
       <c r="F110" s="22"/>
       <c r="G110" s="31"/>
       <c r="H110" s="31" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I110" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J110" s="71">
-        <v>0.04</v>
-      </c>
-      <c r="K110" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L110" s="71">
-        <f>1-SUM(I110:K110)</f>
-        <v>0.81</v>
-      </c>
-      <c r="M110" s="75"/>
-      <c r="N110" s="75"/>
-      <c r="O110" s="75"/>
+        <v>0.97</v>
+      </c>
+      <c r="J110" s="72"/>
+      <c r="K110" s="75"/>
+      <c r="L110" s="75"/>
+      <c r="M110" s="31"/>
+      <c r="N110" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O110" s="71">
+        <v>2</v>
+      </c>
       <c r="P110" s="29"/>
       <c r="Q110" s="29"/>
       <c r="R110" s="29"/>
@@ -10426,24 +10170,21 @@
       <c r="F111" s="22"/>
       <c r="G111" s="31"/>
       <c r="H111" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I111" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J111" s="71">
-        <v>0.04</v>
-      </c>
-      <c r="K111" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L111" s="71">
-        <f t="shared" ref="L111:L112" si="0">1-SUM(I111:K111)</f>
-        <v>0.81</v>
-      </c>
-      <c r="M111" s="75"/>
-      <c r="N111" s="75"/>
-      <c r="O111" s="75"/>
+        <v>0.97</v>
+      </c>
+      <c r="J111" s="72"/>
+      <c r="K111" s="75"/>
+      <c r="L111" s="75"/>
+      <c r="M111" s="31"/>
+      <c r="N111" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O111" s="71">
+        <v>2</v>
+      </c>
       <c r="P111" s="29"/>
       <c r="Q111" s="29"/>
       <c r="R111" s="29"/>
@@ -10465,24 +10206,21 @@
       <c r="F112" s="22"/>
       <c r="G112" s="31"/>
       <c r="H112" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I112" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J112" s="71">
-        <v>0.04</v>
-      </c>
-      <c r="K112" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L112" s="71">
-        <f t="shared" si="0"/>
-        <v>0.81</v>
-      </c>
-      <c r="M112" s="75"/>
-      <c r="N112" s="75"/>
-      <c r="O112" s="75"/>
+        <v>0.9</v>
+      </c>
+      <c r="J112" s="72"/>
+      <c r="K112" s="75"/>
+      <c r="L112" s="75"/>
+      <c r="M112" s="31"/>
+      <c r="N112" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="O112" s="71">
+        <v>2</v>
+      </c>
       <c r="P112" s="29"/>
       <c r="Q112" s="29"/>
       <c r="R112" s="29"/>
@@ -10504,24 +10242,21 @@
       <c r="F113" s="22"/>
       <c r="G113" s="31"/>
       <c r="H113" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I113" s="71">
-        <v>0.02</v>
-      </c>
-      <c r="J113" s="71">
-        <v>0.03</v>
-      </c>
-      <c r="K113" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L113" s="71">
-        <f t="shared" ref="L113:L117" si="1">1-SUM(I113:K113)</f>
-        <v>0.85</v>
-      </c>
-      <c r="M113" s="75"/>
-      <c r="N113" s="75"/>
-      <c r="O113" s="75"/>
+        <v>0.9</v>
+      </c>
+      <c r="J113" s="75"/>
+      <c r="K113" s="75"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="31"/>
+      <c r="N113" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="O113" s="71">
+        <v>2</v>
+      </c>
       <c r="P113" s="29"/>
       <c r="Q113" s="29"/>
       <c r="R113" s="29"/>
@@ -10543,24 +10278,21 @@
       <c r="F114" s="22"/>
       <c r="G114" s="31"/>
       <c r="H114" s="31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I114" s="71">
-        <v>0.02</v>
-      </c>
-      <c r="J114" s="71">
-        <v>0.03</v>
-      </c>
-      <c r="K114" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L114" s="71">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="M114" s="75"/>
-      <c r="N114" s="75"/>
-      <c r="O114" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="J114" s="75"/>
+      <c r="K114" s="75"/>
+      <c r="L114" s="75"/>
+      <c r="M114" s="31"/>
+      <c r="N114" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="O114" s="71">
+        <v>2</v>
+      </c>
       <c r="P114" s="29"/>
       <c r="Q114" s="29"/>
       <c r="R114" s="29"/>
@@ -10581,22 +10313,11 @@
       <c r="E115" s="13"/>
       <c r="F115" s="22"/>
       <c r="G115" s="31"/>
-      <c r="H115" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I115" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J115" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="K115" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="L115" s="71">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
+      <c r="H115" s="31"/>
+      <c r="I115" s="73"/>
+      <c r="J115" s="75"/>
+      <c r="K115" s="75"/>
+      <c r="L115" s="75"/>
       <c r="M115" s="75"/>
       <c r="N115" s="75"/>
       <c r="O115" s="75"/>
@@ -10619,23 +10340,14 @@
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="22"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I116" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J116" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="K116" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="L116" s="71">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
+      <c r="G116" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="H116" s="31"/>
+      <c r="I116" s="73"/>
+      <c r="J116" s="75"/>
+      <c r="K116" s="75"/>
+      <c r="L116" s="75"/>
       <c r="M116" s="75"/>
       <c r="N116" s="75"/>
       <c r="O116" s="75"/>
@@ -10659,23 +10371,22 @@
       <c r="E117" s="13"/>
       <c r="F117" s="22"/>
       <c r="G117" s="31"/>
-      <c r="H117" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I117" s="71">
-        <v>0.05</v>
-      </c>
-      <c r="J117" s="71">
-        <v>0.04</v>
-      </c>
-      <c r="K117" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="L117" s="71">
-        <f t="shared" si="1"/>
-        <v>0.81</v>
-      </c>
-      <c r="M117" s="75"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="73" t="s">
+        <v>407</v>
+      </c>
+      <c r="J117" s="75" t="s">
+        <v>449</v>
+      </c>
+      <c r="K117" s="75" t="s">
+        <v>450</v>
+      </c>
+      <c r="L117" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="M117" s="75" t="s">
+        <v>452</v>
+      </c>
       <c r="N117" s="75"/>
       <c r="O117" s="75"/>
       <c r="P117" s="29"/>
@@ -10698,12 +10409,24 @@
       <c r="E118" s="13"/>
       <c r="F118" s="22"/>
       <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="73"/>
-      <c r="J118" s="75"/>
-      <c r="K118" s="75"/>
-      <c r="L118" s="75"/>
-      <c r="M118" s="75"/>
+      <c r="H118" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I118" s="71">
+        <v>85</v>
+      </c>
+      <c r="J118" s="71">
+        <v>58</v>
+      </c>
+      <c r="K118" s="71">
+        <v>37</v>
+      </c>
+      <c r="L118" s="71">
+        <v>37</v>
+      </c>
+      <c r="M118" s="71">
+        <v>23</v>
+      </c>
       <c r="N118" s="75"/>
       <c r="O118" s="75"/>
       <c r="P118" s="29"/>
@@ -10725,15 +10448,25 @@
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="22"/>
-      <c r="G119" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="H119" s="31"/>
-      <c r="I119" s="73"/>
-      <c r="J119" s="75"/>
-      <c r="K119" s="75"/>
-      <c r="L119" s="75"/>
-      <c r="M119" s="75"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I119" s="71">
+        <v>85</v>
+      </c>
+      <c r="J119" s="71">
+        <v>58</v>
+      </c>
+      <c r="K119" s="71">
+        <v>37</v>
+      </c>
+      <c r="L119" s="71">
+        <v>37</v>
+      </c>
+      <c r="M119" s="71">
+        <v>23</v>
+      </c>
       <c r="N119" s="75"/>
       <c r="O119" s="75"/>
       <c r="P119" s="29"/>
@@ -10756,20 +10489,24 @@
       <c r="E120" s="13"/>
       <c r="F120" s="22"/>
       <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="J120" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="K120" s="75" t="s">
-        <v>458</v>
-      </c>
-      <c r="L120" s="75" t="s">
-        <v>459</v>
-      </c>
-      <c r="M120" s="75"/>
+      <c r="H120" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I120" s="71">
+        <v>85</v>
+      </c>
+      <c r="J120" s="71">
+        <v>58</v>
+      </c>
+      <c r="K120" s="71">
+        <v>37</v>
+      </c>
+      <c r="L120" s="71">
+        <v>37</v>
+      </c>
+      <c r="M120" s="71">
+        <v>23</v>
+      </c>
       <c r="N120" s="75"/>
       <c r="O120" s="75"/>
       <c r="P120" s="29"/>
@@ -10793,21 +10530,23 @@
       <c r="F121" s="22"/>
       <c r="G121" s="31"/>
       <c r="H121" s="31" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I121" s="71">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J121" s="71">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K121" s="71">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L121" s="71">
-        <v>30</v>
-      </c>
-      <c r="M121" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="M121" s="71">
+        <v>31</v>
+      </c>
       <c r="N121" s="75"/>
       <c r="O121" s="75"/>
       <c r="P121" s="29"/>
@@ -10831,21 +10570,23 @@
       <c r="F122" s="22"/>
       <c r="G122" s="31"/>
       <c r="H122" s="31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I122" s="71">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J122" s="71">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K122" s="71">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L122" s="71">
-        <v>30</v>
-      </c>
-      <c r="M122" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="M122" s="71">
+        <v>31</v>
+      </c>
       <c r="N122" s="75"/>
       <c r="O122" s="75"/>
       <c r="P122" s="29"/>
@@ -10869,21 +10610,23 @@
       <c r="F123" s="22"/>
       <c r="G123" s="31"/>
       <c r="H123" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I123" s="71">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J123" s="71">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K123" s="71">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L123" s="71">
-        <v>30</v>
-      </c>
-      <c r="M123" s="75"/>
+        <v>58</v>
+      </c>
+      <c r="M123" s="71">
+        <v>35</v>
+      </c>
       <c r="N123" s="75"/>
       <c r="O123" s="75"/>
       <c r="P123" s="29"/>
@@ -10907,21 +10650,23 @@
       <c r="F124" s="22"/>
       <c r="G124" s="31"/>
       <c r="H124" s="31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I124" s="71">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J124" s="71">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K124" s="71">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L124" s="71">
-        <v>33</v>
-      </c>
-      <c r="M124" s="75"/>
+        <v>58</v>
+      </c>
+      <c r="M124" s="71">
+        <v>35</v>
+      </c>
       <c r="N124" s="75"/>
       <c r="O124" s="75"/>
       <c r="P124" s="29"/>
@@ -10945,21 +10690,23 @@
       <c r="F125" s="22"/>
       <c r="G125" s="31"/>
       <c r="H125" s="31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I125" s="71">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J125" s="71">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K125" s="71">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L125" s="71">
-        <v>33</v>
-      </c>
-      <c r="M125" s="75"/>
+        <v>37</v>
+      </c>
+      <c r="M125" s="71">
+        <v>23</v>
+      </c>
       <c r="N125" s="75"/>
       <c r="O125" s="75"/>
       <c r="P125" s="29"/>
@@ -10982,21 +10729,11 @@
       <c r="E126" s="13"/>
       <c r="F126" s="22"/>
       <c r="G126" s="31"/>
-      <c r="H126" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I126" s="71">
-        <v>85</v>
-      </c>
-      <c r="J126" s="71">
-        <v>65</v>
-      </c>
-      <c r="K126" s="71">
-        <v>56</v>
-      </c>
-      <c r="L126" s="71">
-        <v>43</v>
-      </c>
+      <c r="H126" s="31"/>
+      <c r="I126" s="73"/>
+      <c r="J126" s="75"/>
+      <c r="K126" s="75"/>
+      <c r="L126" s="75"/>
       <c r="M126" s="75"/>
       <c r="N126" s="75"/>
       <c r="O126" s="75"/>
@@ -11019,22 +10756,14 @@
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="22"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I127" s="71">
-        <v>85</v>
-      </c>
-      <c r="J127" s="71">
-        <v>65</v>
-      </c>
-      <c r="K127" s="71">
-        <v>56</v>
-      </c>
-      <c r="L127" s="71">
-        <v>43</v>
-      </c>
+      <c r="G127" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="H127" s="31"/>
+      <c r="I127" s="73"/>
+      <c r="J127" s="75"/>
+      <c r="K127" s="75"/>
+      <c r="L127" s="75"/>
       <c r="M127" s="75"/>
       <c r="N127" s="75"/>
       <c r="O127" s="75"/>
@@ -11058,22 +10787,22 @@
       <c r="E128" s="13"/>
       <c r="F128" s="22"/>
       <c r="G128" s="31"/>
-      <c r="H128" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I128" s="71">
-        <v>80</v>
-      </c>
-      <c r="J128" s="71">
-        <v>51</v>
-      </c>
-      <c r="K128" s="71">
-        <v>45</v>
-      </c>
-      <c r="L128" s="71">
-        <v>30</v>
-      </c>
-      <c r="M128" s="75"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="73" t="s">
+        <v>407</v>
+      </c>
+      <c r="J128" s="75" t="s">
+        <v>449</v>
+      </c>
+      <c r="K128" s="75" t="s">
+        <v>450</v>
+      </c>
+      <c r="L128" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="M128" s="75" t="s">
+        <v>452</v>
+      </c>
       <c r="N128" s="75"/>
       <c r="O128" s="75"/>
       <c r="P128" s="29"/>
@@ -11096,12 +10825,24 @@
       <c r="E129" s="13"/>
       <c r="F129" s="22"/>
       <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="73"/>
-      <c r="J129" s="75"/>
-      <c r="K129" s="75"/>
-      <c r="L129" s="75"/>
-      <c r="M129" s="75"/>
+      <c r="H129" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I129" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J129" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K129" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L129" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M129" s="71">
+        <v>0.3</v>
+      </c>
       <c r="N129" s="75"/>
       <c r="O129" s="75"/>
       <c r="P129" s="29"/>
@@ -11124,12 +10865,24 @@
       <c r="E130" s="13"/>
       <c r="F130" s="22"/>
       <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="73"/>
-      <c r="J130" s="75"/>
-      <c r="K130" s="75"/>
-      <c r="L130" s="75"/>
-      <c r="M130" s="75"/>
+      <c r="H130" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I130" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J130" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K130" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L130" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M130" s="71">
+        <v>0.3</v>
+      </c>
       <c r="N130" s="75"/>
       <c r="O130" s="75"/>
       <c r="P130" s="29"/>
@@ -11152,12 +10905,24 @@
       <c r="E131" s="13"/>
       <c r="F131" s="22"/>
       <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="73"/>
-      <c r="J131" s="75"/>
-      <c r="K131" s="75"/>
-      <c r="L131" s="75"/>
-      <c r="M131" s="75"/>
+      <c r="H131" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I131" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J131" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K131" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L131" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M131" s="71">
+        <v>0.3</v>
+      </c>
       <c r="N131" s="75"/>
       <c r="O131" s="75"/>
       <c r="P131" s="29"/>
@@ -11180,12 +10945,24 @@
       <c r="E132" s="13"/>
       <c r="F132" s="22"/>
       <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="73"/>
-      <c r="J132" s="75"/>
-      <c r="K132" s="75"/>
-      <c r="L132" s="75"/>
-      <c r="M132" s="75"/>
+      <c r="H132" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I132" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J132" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K132" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L132" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M132" s="71">
+        <v>0.3</v>
+      </c>
       <c r="N132" s="75"/>
       <c r="O132" s="75"/>
       <c r="P132" s="29"/>
@@ -11208,12 +10985,24 @@
       <c r="E133" s="13"/>
       <c r="F133" s="22"/>
       <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="73"/>
-      <c r="J133" s="75"/>
-      <c r="K133" s="75"/>
-      <c r="L133" s="75"/>
-      <c r="M133" s="75"/>
+      <c r="H133" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I133" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J133" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K133" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L133" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M133" s="71">
+        <v>0.3</v>
+      </c>
       <c r="N133" s="75"/>
       <c r="O133" s="75"/>
       <c r="P133" s="29"/>
@@ -11236,12 +11025,24 @@
       <c r="E134" s="13"/>
       <c r="F134" s="22"/>
       <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="73"/>
-      <c r="J134" s="75"/>
-      <c r="K134" s="75"/>
-      <c r="L134" s="75"/>
-      <c r="M134" s="75"/>
+      <c r="H134" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I134" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J134" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K134" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L134" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M134" s="71">
+        <v>0.3</v>
+      </c>
       <c r="N134" s="75"/>
       <c r="O134" s="75"/>
       <c r="P134" s="29"/>
@@ -11264,12 +11065,24 @@
       <c r="E135" s="13"/>
       <c r="F135" s="22"/>
       <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="73"/>
-      <c r="J135" s="75"/>
-      <c r="K135" s="75"/>
-      <c r="L135" s="75"/>
-      <c r="M135" s="75"/>
+      <c r="H135" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I135" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J135" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K135" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L135" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M135" s="71">
+        <v>0.3</v>
+      </c>
       <c r="N135" s="75"/>
       <c r="O135" s="75"/>
       <c r="P135" s="29"/>
@@ -11290,16 +11103,28 @@
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
-      <c r="F136" s="30"/>
+      <c r="F136" s="22"/>
       <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="73"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
-      <c r="L136" s="72"/>
-      <c r="M136" s="72"/>
-      <c r="N136" s="72"/>
-      <c r="O136" s="72"/>
+      <c r="H136" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I136" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J136" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="K136" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="L136" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="M136" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="N136" s="75"/>
+      <c r="O136" s="75"/>
       <c r="P136" s="29"/>
       <c r="Q136" s="29"/>
       <c r="R136" s="29"/>
@@ -11312,63 +11137,60 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" s="4" customFormat="1" ht="12.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
-      <c r="I137" s="34"/>
-      <c r="J137" s="35"/>
-      <c r="K137" s="35"/>
-      <c r="L137" s="35"/>
-      <c r="M137" s="35"/>
-      <c r="N137" s="35"/>
-      <c r="O137" s="35"/>
-      <c r="P137" s="35"/>
-      <c r="Q137" s="35"/>
-      <c r="R137" s="35"/>
-      <c r="S137" s="35"/>
-      <c r="T137" s="35"/>
-      <c r="U137" s="35"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="73"/>
+      <c r="J137" s="75"/>
+      <c r="K137" s="75"/>
+      <c r="L137" s="75"/>
+      <c r="M137" s="75"/>
+      <c r="N137" s="75"/>
+      <c r="O137" s="75"/>
+      <c r="P137" s="29"/>
+      <c r="Q137" s="29"/>
+      <c r="R137" s="29"/>
+      <c r="S137" s="29"/>
+      <c r="T137" s="29"/>
+      <c r="U137" s="29"/>
       <c r="V137" s="26"/>
       <c r="W137" s="12"/>
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" s="4" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="37" t="str">
-        <f>G48</f>
-        <v>HARVEST INDEX &amp; STUBBLE PRODUCTION</v>
-      </c>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
-      <c r="L138" s="36"/>
-      <c r="M138" s="36"/>
-      <c r="N138" s="36"/>
-      <c r="O138" s="36"/>
-      <c r="P138" s="36"/>
-      <c r="Q138" s="36"/>
-      <c r="R138" s="36"/>
-      <c r="S138" s="36"/>
-      <c r="T138" s="36"/>
-      <c r="U138" s="36"/>
-      <c r="V138" s="36"/>
-      <c r="W138" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="H138" s="31"/>
+      <c r="I138" s="73"/>
+      <c r="J138" s="75"/>
+      <c r="K138" s="75"/>
+      <c r="L138" s="75"/>
+      <c r="M138" s="75"/>
+      <c r="N138" s="75"/>
+      <c r="O138" s="75"/>
+      <c r="P138" s="29"/>
+      <c r="Q138" s="29"/>
+      <c r="R138" s="29"/>
+      <c r="S138" s="29"/>
+      <c r="T138" s="29"/>
+      <c r="U138" s="29"/>
+      <c r="V138" s="26"/>
+      <c r="W138" s="12"/>
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
@@ -11376,30 +11198,1061 @@
     <row r="139" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
-      <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-      <c r="S139" s="3"/>
-      <c r="T139" s="3"/>
-      <c r="U139" s="3"/>
-      <c r="V139" s="3"/>
-      <c r="W139" s="3"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="J139" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="K139" s="75" t="s">
+        <v>458</v>
+      </c>
+      <c r="L139" s="75" t="s">
+        <v>459</v>
+      </c>
+      <c r="M139" s="75"/>
+      <c r="N139" s="75"/>
+      <c r="O139" s="75"/>
+      <c r="P139" s="29"/>
+      <c r="Q139" s="29"/>
+      <c r="R139" s="29"/>
+      <c r="S139" s="29"/>
+      <c r="T139" s="29"/>
+      <c r="U139" s="29"/>
+      <c r="V139" s="26"/>
+      <c r="W139" s="12"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
+    </row>
+    <row r="140" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I140" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J140" s="71">
+        <v>0.04</v>
+      </c>
+      <c r="K140" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L140" s="71">
+        <f>1-SUM(I140:K140)</f>
+        <v>0.81</v>
+      </c>
+      <c r="M140" s="75"/>
+      <c r="N140" s="75"/>
+      <c r="O140" s="75"/>
+      <c r="P140" s="29"/>
+      <c r="Q140" s="29"/>
+      <c r="R140" s="29"/>
+      <c r="S140" s="29"/>
+      <c r="T140" s="29"/>
+      <c r="U140" s="29"/>
+      <c r="V140" s="26"/>
+      <c r="W140" s="12"/>
+      <c r="X140" s="3"/>
+      <c r="Y140" s="3"/>
+      <c r="Z140" s="3"/>
+    </row>
+    <row r="141" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I141" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J141" s="71">
+        <v>0.04</v>
+      </c>
+      <c r="K141" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L141" s="71">
+        <f t="shared" ref="L141:L142" si="0">1-SUM(I141:K141)</f>
+        <v>0.81</v>
+      </c>
+      <c r="M141" s="75"/>
+      <c r="N141" s="75"/>
+      <c r="O141" s="75"/>
+      <c r="P141" s="29"/>
+      <c r="Q141" s="29"/>
+      <c r="R141" s="29"/>
+      <c r="S141" s="29"/>
+      <c r="T141" s="29"/>
+      <c r="U141" s="29"/>
+      <c r="V141" s="26"/>
+      <c r="W141" s="12"/>
+      <c r="X141" s="3"/>
+      <c r="Y141" s="3"/>
+      <c r="Z141" s="3"/>
+    </row>
+    <row r="142" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I142" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J142" s="71">
+        <v>0.04</v>
+      </c>
+      <c r="K142" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L142" s="71">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="M142" s="75"/>
+      <c r="N142" s="75"/>
+      <c r="O142" s="75"/>
+      <c r="P142" s="29"/>
+      <c r="Q142" s="29"/>
+      <c r="R142" s="29"/>
+      <c r="S142" s="29"/>
+      <c r="T142" s="29"/>
+      <c r="U142" s="29"/>
+      <c r="V142" s="26"/>
+      <c r="W142" s="12"/>
+      <c r="X142" s="3"/>
+      <c r="Y142" s="3"/>
+      <c r="Z142" s="3"/>
+    </row>
+    <row r="143" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I143" s="71">
+        <v>0.02</v>
+      </c>
+      <c r="J143" s="71">
+        <v>0.03</v>
+      </c>
+      <c r="K143" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L143" s="71">
+        <f t="shared" ref="L143:L147" si="1">1-SUM(I143:K143)</f>
+        <v>0.85</v>
+      </c>
+      <c r="M143" s="75"/>
+      <c r="N143" s="75"/>
+      <c r="O143" s="75"/>
+      <c r="P143" s="29"/>
+      <c r="Q143" s="29"/>
+      <c r="R143" s="29"/>
+      <c r="S143" s="29"/>
+      <c r="T143" s="29"/>
+      <c r="U143" s="29"/>
+      <c r="V143" s="26"/>
+      <c r="W143" s="12"/>
+      <c r="X143" s="3"/>
+      <c r="Y143" s="3"/>
+      <c r="Z143" s="3"/>
+    </row>
+    <row r="144" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I144" s="71">
+        <v>0.02</v>
+      </c>
+      <c r="J144" s="71">
+        <v>0.03</v>
+      </c>
+      <c r="K144" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L144" s="71">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M144" s="75"/>
+      <c r="N144" s="75"/>
+      <c r="O144" s="75"/>
+      <c r="P144" s="29"/>
+      <c r="Q144" s="29"/>
+      <c r="R144" s="29"/>
+      <c r="S144" s="29"/>
+      <c r="T144" s="29"/>
+      <c r="U144" s="29"/>
+      <c r="V144" s="26"/>
+      <c r="W144" s="12"/>
+      <c r="X144" s="3"/>
+      <c r="Y144" s="3"/>
+      <c r="Z144" s="3"/>
+    </row>
+    <row r="145" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I145" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J145" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="K145" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="L145" s="71">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M145" s="75"/>
+      <c r="N145" s="75"/>
+      <c r="O145" s="75"/>
+      <c r="P145" s="29"/>
+      <c r="Q145" s="29"/>
+      <c r="R145" s="29"/>
+      <c r="S145" s="29"/>
+      <c r="T145" s="29"/>
+      <c r="U145" s="29"/>
+      <c r="V145" s="26"/>
+      <c r="W145" s="12"/>
+      <c r="X145" s="3"/>
+      <c r="Y145" s="3"/>
+      <c r="Z145" s="3"/>
+    </row>
+    <row r="146" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I146" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J146" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="K146" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="L146" s="71">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M146" s="75"/>
+      <c r="N146" s="75"/>
+      <c r="O146" s="75"/>
+      <c r="P146" s="29"/>
+      <c r="Q146" s="29"/>
+      <c r="R146" s="29"/>
+      <c r="S146" s="29"/>
+      <c r="T146" s="29"/>
+      <c r="U146" s="29"/>
+      <c r="V146" s="26"/>
+      <c r="W146" s="12"/>
+      <c r="X146" s="3"/>
+      <c r="Y146" s="3"/>
+      <c r="Z146" s="3"/>
+    </row>
+    <row r="147" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I147" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J147" s="71">
+        <v>0.04</v>
+      </c>
+      <c r="K147" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="L147" s="71">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="M147" s="75"/>
+      <c r="N147" s="75"/>
+      <c r="O147" s="75"/>
+      <c r="P147" s="29"/>
+      <c r="Q147" s="29"/>
+      <c r="R147" s="29"/>
+      <c r="S147" s="29"/>
+      <c r="T147" s="29"/>
+      <c r="U147" s="29"/>
+      <c r="V147" s="26"/>
+      <c r="W147" s="12"/>
+      <c r="X147" s="3"/>
+      <c r="Y147" s="3"/>
+      <c r="Z147" s="3"/>
+    </row>
+    <row r="148" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="73"/>
+      <c r="J148" s="75"/>
+      <c r="K148" s="75"/>
+      <c r="L148" s="75"/>
+      <c r="M148" s="75"/>
+      <c r="N148" s="75"/>
+      <c r="O148" s="75"/>
+      <c r="P148" s="29"/>
+      <c r="Q148" s="29"/>
+      <c r="R148" s="29"/>
+      <c r="S148" s="29"/>
+      <c r="T148" s="29"/>
+      <c r="U148" s="29"/>
+      <c r="V148" s="26"/>
+      <c r="W148" s="12"/>
+      <c r="X148" s="3"/>
+      <c r="Y148" s="3"/>
+      <c r="Z148" s="3"/>
+    </row>
+    <row r="149" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="H149" s="31"/>
+      <c r="I149" s="73"/>
+      <c r="J149" s="75"/>
+      <c r="K149" s="75"/>
+      <c r="L149" s="75"/>
+      <c r="M149" s="75"/>
+      <c r="N149" s="75"/>
+      <c r="O149" s="75"/>
+      <c r="P149" s="29"/>
+      <c r="Q149" s="29"/>
+      <c r="R149" s="29"/>
+      <c r="S149" s="29"/>
+      <c r="T149" s="29"/>
+      <c r="U149" s="29"/>
+      <c r="V149" s="26"/>
+      <c r="W149" s="12"/>
+      <c r="X149" s="3"/>
+      <c r="Y149" s="3"/>
+      <c r="Z149" s="3"/>
+    </row>
+    <row r="150" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
+      <c r="I150" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="J150" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="K150" s="75" t="s">
+        <v>458</v>
+      </c>
+      <c r="L150" s="75" t="s">
+        <v>459</v>
+      </c>
+      <c r="M150" s="75"/>
+      <c r="N150" s="75"/>
+      <c r="O150" s="75"/>
+      <c r="P150" s="29"/>
+      <c r="Q150" s="29"/>
+      <c r="R150" s="29"/>
+      <c r="S150" s="29"/>
+      <c r="T150" s="29"/>
+      <c r="U150" s="29"/>
+      <c r="V150" s="26"/>
+      <c r="W150" s="12"/>
+      <c r="X150" s="3"/>
+      <c r="Y150" s="3"/>
+      <c r="Z150" s="3"/>
+    </row>
+    <row r="151" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I151" s="71">
+        <v>80</v>
+      </c>
+      <c r="J151" s="71">
+        <v>51</v>
+      </c>
+      <c r="K151" s="71">
+        <v>45</v>
+      </c>
+      <c r="L151" s="71">
+        <v>30</v>
+      </c>
+      <c r="M151" s="75"/>
+      <c r="N151" s="75"/>
+      <c r="O151" s="75"/>
+      <c r="P151" s="29"/>
+      <c r="Q151" s="29"/>
+      <c r="R151" s="29"/>
+      <c r="S151" s="29"/>
+      <c r="T151" s="29"/>
+      <c r="U151" s="29"/>
+      <c r="V151" s="26"/>
+      <c r="W151" s="12"/>
+      <c r="X151" s="3"/>
+      <c r="Y151" s="3"/>
+      <c r="Z151" s="3"/>
+    </row>
+    <row r="152" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I152" s="71">
+        <v>80</v>
+      </c>
+      <c r="J152" s="71">
+        <v>51</v>
+      </c>
+      <c r="K152" s="71">
+        <v>45</v>
+      </c>
+      <c r="L152" s="71">
+        <v>30</v>
+      </c>
+      <c r="M152" s="75"/>
+      <c r="N152" s="75"/>
+      <c r="O152" s="75"/>
+      <c r="P152" s="29"/>
+      <c r="Q152" s="29"/>
+      <c r="R152" s="29"/>
+      <c r="S152" s="29"/>
+      <c r="T152" s="29"/>
+      <c r="U152" s="29"/>
+      <c r="V152" s="26"/>
+      <c r="W152" s="12"/>
+      <c r="X152" s="3"/>
+      <c r="Y152" s="3"/>
+      <c r="Z152" s="3"/>
+    </row>
+    <row r="153" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I153" s="71">
+        <v>80</v>
+      </c>
+      <c r="J153" s="71">
+        <v>51</v>
+      </c>
+      <c r="K153" s="71">
+        <v>45</v>
+      </c>
+      <c r="L153" s="71">
+        <v>30</v>
+      </c>
+      <c r="M153" s="75"/>
+      <c r="N153" s="75"/>
+      <c r="O153" s="75"/>
+      <c r="P153" s="29"/>
+      <c r="Q153" s="29"/>
+      <c r="R153" s="29"/>
+      <c r="S153" s="29"/>
+      <c r="T153" s="29"/>
+      <c r="U153" s="29"/>
+      <c r="V153" s="26"/>
+      <c r="W153" s="12"/>
+      <c r="X153" s="3"/>
+      <c r="Y153" s="3"/>
+      <c r="Z153" s="3"/>
+    </row>
+    <row r="154" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I154" s="71">
+        <v>89</v>
+      </c>
+      <c r="J154" s="71">
+        <v>68</v>
+      </c>
+      <c r="K154" s="71">
+        <v>46</v>
+      </c>
+      <c r="L154" s="71">
+        <v>33</v>
+      </c>
+      <c r="M154" s="75"/>
+      <c r="N154" s="75"/>
+      <c r="O154" s="75"/>
+      <c r="P154" s="29"/>
+      <c r="Q154" s="29"/>
+      <c r="R154" s="29"/>
+      <c r="S154" s="29"/>
+      <c r="T154" s="29"/>
+      <c r="U154" s="29"/>
+      <c r="V154" s="26"/>
+      <c r="W154" s="12"/>
+      <c r="X154" s="3"/>
+      <c r="Y154" s="3"/>
+      <c r="Z154" s="3"/>
+    </row>
+    <row r="155" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I155" s="71">
+        <v>89</v>
+      </c>
+      <c r="J155" s="71">
+        <v>68</v>
+      </c>
+      <c r="K155" s="71">
+        <v>46</v>
+      </c>
+      <c r="L155" s="71">
+        <v>33</v>
+      </c>
+      <c r="M155" s="75"/>
+      <c r="N155" s="75"/>
+      <c r="O155" s="75"/>
+      <c r="P155" s="29"/>
+      <c r="Q155" s="29"/>
+      <c r="R155" s="29"/>
+      <c r="S155" s="29"/>
+      <c r="T155" s="29"/>
+      <c r="U155" s="29"/>
+      <c r="V155" s="26"/>
+      <c r="W155" s="12"/>
+      <c r="X155" s="3"/>
+      <c r="Y155" s="3"/>
+      <c r="Z155" s="3"/>
+    </row>
+    <row r="156" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I156" s="71">
+        <v>85</v>
+      </c>
+      <c r="J156" s="71">
+        <v>65</v>
+      </c>
+      <c r="K156" s="71">
+        <v>56</v>
+      </c>
+      <c r="L156" s="71">
+        <v>43</v>
+      </c>
+      <c r="M156" s="75"/>
+      <c r="N156" s="75"/>
+      <c r="O156" s="75"/>
+      <c r="P156" s="29"/>
+      <c r="Q156" s="29"/>
+      <c r="R156" s="29"/>
+      <c r="S156" s="29"/>
+      <c r="T156" s="29"/>
+      <c r="U156" s="29"/>
+      <c r="V156" s="26"/>
+      <c r="W156" s="12"/>
+      <c r="X156" s="3"/>
+      <c r="Y156" s="3"/>
+      <c r="Z156" s="3"/>
+    </row>
+    <row r="157" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I157" s="71">
+        <v>85</v>
+      </c>
+      <c r="J157" s="71">
+        <v>65</v>
+      </c>
+      <c r="K157" s="71">
+        <v>56</v>
+      </c>
+      <c r="L157" s="71">
+        <v>43</v>
+      </c>
+      <c r="M157" s="75"/>
+      <c r="N157" s="75"/>
+      <c r="O157" s="75"/>
+      <c r="P157" s="29"/>
+      <c r="Q157" s="29"/>
+      <c r="R157" s="29"/>
+      <c r="S157" s="29"/>
+      <c r="T157" s="29"/>
+      <c r="U157" s="29"/>
+      <c r="V157" s="26"/>
+      <c r="W157" s="12"/>
+      <c r="X157" s="3"/>
+      <c r="Y157" s="3"/>
+      <c r="Z157" s="3"/>
+    </row>
+    <row r="158" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I158" s="71">
+        <v>80</v>
+      </c>
+      <c r="J158" s="71">
+        <v>51</v>
+      </c>
+      <c r="K158" s="71">
+        <v>45</v>
+      </c>
+      <c r="L158" s="71">
+        <v>30</v>
+      </c>
+      <c r="M158" s="75"/>
+      <c r="N158" s="75"/>
+      <c r="O158" s="75"/>
+      <c r="P158" s="29"/>
+      <c r="Q158" s="29"/>
+      <c r="R158" s="29"/>
+      <c r="S158" s="29"/>
+      <c r="T158" s="29"/>
+      <c r="U158" s="29"/>
+      <c r="V158" s="26"/>
+      <c r="W158" s="12"/>
+      <c r="X158" s="3"/>
+      <c r="Y158" s="3"/>
+      <c r="Z158" s="3"/>
+    </row>
+    <row r="159" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="31"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="75"/>
+      <c r="K159" s="75"/>
+      <c r="L159" s="75"/>
+      <c r="M159" s="75"/>
+      <c r="N159" s="75"/>
+      <c r="O159" s="75"/>
+      <c r="P159" s="29"/>
+      <c r="Q159" s="29"/>
+      <c r="R159" s="29"/>
+      <c r="S159" s="29"/>
+      <c r="T159" s="29"/>
+      <c r="U159" s="29"/>
+      <c r="V159" s="26"/>
+      <c r="W159" s="12"/>
+      <c r="X159" s="3"/>
+      <c r="Y159" s="3"/>
+      <c r="Z159" s="3"/>
+    </row>
+    <row r="160" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="31"/>
+      <c r="I160" s="73"/>
+      <c r="J160" s="75"/>
+      <c r="K160" s="75"/>
+      <c r="L160" s="75"/>
+      <c r="M160" s="75"/>
+      <c r="N160" s="75"/>
+      <c r="O160" s="75"/>
+      <c r="P160" s="29"/>
+      <c r="Q160" s="29"/>
+      <c r="R160" s="29"/>
+      <c r="S160" s="29"/>
+      <c r="T160" s="29"/>
+      <c r="U160" s="29"/>
+      <c r="V160" s="26"/>
+      <c r="W160" s="12"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3"/>
+      <c r="Z160" s="3"/>
+    </row>
+    <row r="161" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="31"/>
+      <c r="I161" s="73"/>
+      <c r="J161" s="75"/>
+      <c r="K161" s="75"/>
+      <c r="L161" s="75"/>
+      <c r="M161" s="75"/>
+      <c r="N161" s="75"/>
+      <c r="O161" s="75"/>
+      <c r="P161" s="29"/>
+      <c r="Q161" s="29"/>
+      <c r="R161" s="29"/>
+      <c r="S161" s="29"/>
+      <c r="T161" s="29"/>
+      <c r="U161" s="29"/>
+      <c r="V161" s="26"/>
+      <c r="W161" s="12"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+      <c r="Z161" s="3"/>
+    </row>
+    <row r="162" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="31"/>
+      <c r="H162" s="31"/>
+      <c r="I162" s="73"/>
+      <c r="J162" s="75"/>
+      <c r="K162" s="75"/>
+      <c r="L162" s="75"/>
+      <c r="M162" s="75"/>
+      <c r="N162" s="75"/>
+      <c r="O162" s="75"/>
+      <c r="P162" s="29"/>
+      <c r="Q162" s="29"/>
+      <c r="R162" s="29"/>
+      <c r="S162" s="29"/>
+      <c r="T162" s="29"/>
+      <c r="U162" s="29"/>
+      <c r="V162" s="26"/>
+      <c r="W162" s="12"/>
+      <c r="X162" s="3"/>
+      <c r="Y162" s="3"/>
+      <c r="Z162" s="3"/>
+    </row>
+    <row r="163" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="31"/>
+      <c r="I163" s="73"/>
+      <c r="J163" s="75"/>
+      <c r="K163" s="75"/>
+      <c r="L163" s="75"/>
+      <c r="M163" s="75"/>
+      <c r="N163" s="75"/>
+      <c r="O163" s="75"/>
+      <c r="P163" s="29"/>
+      <c r="Q163" s="29"/>
+      <c r="R163" s="29"/>
+      <c r="S163" s="29"/>
+      <c r="T163" s="29"/>
+      <c r="U163" s="29"/>
+      <c r="V163" s="26"/>
+      <c r="W163" s="12"/>
+      <c r="X163" s="3"/>
+      <c r="Y163" s="3"/>
+      <c r="Z163" s="3"/>
+    </row>
+    <row r="164" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="31"/>
+      <c r="I164" s="73"/>
+      <c r="J164" s="75"/>
+      <c r="K164" s="75"/>
+      <c r="L164" s="75"/>
+      <c r="M164" s="75"/>
+      <c r="N164" s="75"/>
+      <c r="O164" s="75"/>
+      <c r="P164" s="29"/>
+      <c r="Q164" s="29"/>
+      <c r="R164" s="29"/>
+      <c r="S164" s="29"/>
+      <c r="T164" s="29"/>
+      <c r="U164" s="29"/>
+      <c r="V164" s="26"/>
+      <c r="W164" s="12"/>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="3"/>
+      <c r="Z164" s="3"/>
+    </row>
+    <row r="165" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="31"/>
+      <c r="I165" s="73"/>
+      <c r="J165" s="75"/>
+      <c r="K165" s="75"/>
+      <c r="L165" s="75"/>
+      <c r="M165" s="75"/>
+      <c r="N165" s="75"/>
+      <c r="O165" s="75"/>
+      <c r="P165" s="29"/>
+      <c r="Q165" s="29"/>
+      <c r="R165" s="29"/>
+      <c r="S165" s="29"/>
+      <c r="T165" s="29"/>
+      <c r="U165" s="29"/>
+      <c r="V165" s="26"/>
+      <c r="W165" s="12"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="3"/>
+      <c r="Z165" s="3"/>
+    </row>
+    <row r="166" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="31"/>
+      <c r="I166" s="73"/>
+      <c r="J166" s="72"/>
+      <c r="K166" s="72"/>
+      <c r="L166" s="72"/>
+      <c r="M166" s="72"/>
+      <c r="N166" s="72"/>
+      <c r="O166" s="72"/>
+      <c r="P166" s="29"/>
+      <c r="Q166" s="29"/>
+      <c r="R166" s="29"/>
+      <c r="S166" s="29"/>
+      <c r="T166" s="29"/>
+      <c r="U166" s="29"/>
+      <c r="V166" s="26"/>
+      <c r="W166" s="12"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+      <c r="Z166" s="3"/>
+    </row>
+    <row r="167" spans="1:26" s="4" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="34"/>
+      <c r="H167" s="34"/>
+      <c r="I167" s="34"/>
+      <c r="J167" s="35"/>
+      <c r="K167" s="35"/>
+      <c r="L167" s="35"/>
+      <c r="M167" s="35"/>
+      <c r="N167" s="35"/>
+      <c r="O167" s="35"/>
+      <c r="P167" s="35"/>
+      <c r="Q167" s="35"/>
+      <c r="R167" s="35"/>
+      <c r="S167" s="35"/>
+      <c r="T167" s="35"/>
+      <c r="U167" s="35"/>
+      <c r="V167" s="26"/>
+      <c r="W167" s="12"/>
+      <c r="X167" s="3"/>
+      <c r="Y167" s="3"/>
+      <c r="Z167" s="3"/>
+    </row>
+    <row r="168" spans="1:26" s="4" customFormat="1" ht="24.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="37" t="str">
+        <f>G78</f>
+        <v>HARVEST INDEX &amp; STUBBLE PRODUCTION</v>
+      </c>
+      <c r="H168" s="36"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
+      <c r="L168" s="36"/>
+      <c r="M168" s="36"/>
+      <c r="N168" s="36"/>
+      <c r="O168" s="36"/>
+      <c r="P168" s="36"/>
+      <c r="Q168" s="36"/>
+      <c r="R168" s="36"/>
+      <c r="S168" s="36"/>
+      <c r="T168" s="36"/>
+      <c r="U168" s="36"/>
+      <c r="V168" s="36"/>
+      <c r="W168" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="3"/>
+      <c r="Z168" s="3"/>
+    </row>
+    <row r="169" spans="1:26" s="4" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+      <c r="Y169" s="3"/>
+      <c r="Z169" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13057,7 +13910,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -15540,8 +16393,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:BD427"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K133" sqref="K133"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="O223" sqref="O223:O226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="12" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -16817,21 +17670,21 @@
       <c r="E46" s="139"/>
       <c r="F46" s="141"/>
       <c r="G46" s="150"/>
-      <c r="H46" s="459" t="s">
+      <c r="H46" s="461" t="s">
         <v>163</v>
       </c>
-      <c r="I46" s="460"/>
-      <c r="J46" s="460"/>
-      <c r="K46" s="460"/>
-      <c r="L46" s="460"/>
-      <c r="M46" s="460"/>
-      <c r="N46" s="460"/>
-      <c r="O46" s="460"/>
-      <c r="P46" s="460"/>
-      <c r="Q46" s="460"/>
-      <c r="R46" s="460"/>
-      <c r="S46" s="460"/>
-      <c r="T46" s="461"/>
+      <c r="I46" s="462"/>
+      <c r="J46" s="462"/>
+      <c r="K46" s="462"/>
+      <c r="L46" s="462"/>
+      <c r="M46" s="462"/>
+      <c r="N46" s="462"/>
+      <c r="O46" s="462"/>
+      <c r="P46" s="462"/>
+      <c r="Q46" s="462"/>
+      <c r="R46" s="462"/>
+      <c r="S46" s="462"/>
+      <c r="T46" s="463"/>
       <c r="U46" s="150"/>
       <c r="V46" s="141"/>
       <c r="W46" s="121"/>
@@ -16845,19 +17698,19 @@
       <c r="E47" s="139"/>
       <c r="F47" s="141"/>
       <c r="G47" s="150"/>
-      <c r="H47" s="462"/>
-      <c r="I47" s="463"/>
-      <c r="J47" s="463"/>
-      <c r="K47" s="463"/>
-      <c r="L47" s="463"/>
-      <c r="M47" s="463"/>
-      <c r="N47" s="463"/>
-      <c r="O47" s="463"/>
-      <c r="P47" s="463"/>
-      <c r="Q47" s="463"/>
-      <c r="R47" s="463"/>
-      <c r="S47" s="463"/>
-      <c r="T47" s="464"/>
+      <c r="H47" s="464"/>
+      <c r="I47" s="465"/>
+      <c r="J47" s="465"/>
+      <c r="K47" s="465"/>
+      <c r="L47" s="465"/>
+      <c r="M47" s="465"/>
+      <c r="N47" s="465"/>
+      <c r="O47" s="465"/>
+      <c r="P47" s="465"/>
+      <c r="Q47" s="465"/>
+      <c r="R47" s="465"/>
+      <c r="S47" s="465"/>
+      <c r="T47" s="466"/>
       <c r="U47" s="150"/>
       <c r="V47" s="141"/>
       <c r="W47" s="121"/>
@@ -16871,19 +17724,19 @@
       <c r="E48" s="139"/>
       <c r="F48" s="141"/>
       <c r="G48" s="150"/>
-      <c r="H48" s="462"/>
-      <c r="I48" s="463"/>
-      <c r="J48" s="463"/>
-      <c r="K48" s="463"/>
-      <c r="L48" s="463"/>
-      <c r="M48" s="463"/>
-      <c r="N48" s="463"/>
-      <c r="O48" s="463"/>
-      <c r="P48" s="463"/>
-      <c r="Q48" s="463"/>
-      <c r="R48" s="463"/>
-      <c r="S48" s="463"/>
-      <c r="T48" s="464"/>
+      <c r="H48" s="464"/>
+      <c r="I48" s="465"/>
+      <c r="J48" s="465"/>
+      <c r="K48" s="465"/>
+      <c r="L48" s="465"/>
+      <c r="M48" s="465"/>
+      <c r="N48" s="465"/>
+      <c r="O48" s="465"/>
+      <c r="P48" s="465"/>
+      <c r="Q48" s="465"/>
+      <c r="R48" s="465"/>
+      <c r="S48" s="465"/>
+      <c r="T48" s="466"/>
       <c r="U48" s="150"/>
       <c r="V48" s="141"/>
       <c r="W48" s="121"/>
@@ -16897,19 +17750,19 @@
       <c r="E49" s="139"/>
       <c r="F49" s="141"/>
       <c r="G49" s="150"/>
-      <c r="H49" s="465"/>
-      <c r="I49" s="466"/>
-      <c r="J49" s="466"/>
-      <c r="K49" s="466"/>
-      <c r="L49" s="466"/>
-      <c r="M49" s="466"/>
-      <c r="N49" s="466"/>
-      <c r="O49" s="466"/>
-      <c r="P49" s="466"/>
-      <c r="Q49" s="466"/>
-      <c r="R49" s="466"/>
-      <c r="S49" s="466"/>
-      <c r="T49" s="467"/>
+      <c r="H49" s="467"/>
+      <c r="I49" s="468"/>
+      <c r="J49" s="468"/>
+      <c r="K49" s="468"/>
+      <c r="L49" s="468"/>
+      <c r="M49" s="468"/>
+      <c r="N49" s="468"/>
+      <c r="O49" s="468"/>
+      <c r="P49" s="468"/>
+      <c r="Q49" s="468"/>
+      <c r="R49" s="468"/>
+      <c r="S49" s="468"/>
+      <c r="T49" s="469"/>
       <c r="U49" s="150"/>
       <c r="V49" s="141"/>
       <c r="W49" s="121"/>
@@ -18634,7 +19487,7 @@
       <c r="BC93" s="107"/>
       <c r="BD93" s="107"/>
     </row>
-    <row r="94" spans="1:56" s="175" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:56" s="175" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="173"/>
       <c r="B94" s="174"/>
       <c r="C94" s="174"/>
@@ -18686,7 +19539,7 @@
       <c r="BC94" s="107"/>
       <c r="BD94" s="107"/>
     </row>
-    <row r="95" spans="1:56" s="175" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:56" s="175" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="173"/>
       <c r="B95" s="106"/>
       <c r="C95" s="106"/>
@@ -18738,7 +19591,7 @@
       <c r="BC95" s="107"/>
       <c r="BD95" s="107"/>
     </row>
-    <row r="96" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="173"/>
       <c r="B96" s="106"/>
       <c r="C96" s="106"/>
@@ -18790,7 +19643,7 @@
       <c r="BC96" s="107"/>
       <c r="BD96" s="107"/>
     </row>
-    <row r="97" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A97" s="173"/>
       <c r="B97" s="158"/>
       <c r="C97" s="110" t="s">
@@ -18846,7 +19699,7 @@
       <c r="BC97" s="107"/>
       <c r="BD97" s="107"/>
     </row>
-    <row r="98" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A98" s="173"/>
       <c r="B98" s="158"/>
       <c r="C98" s="115"/>
@@ -18904,7 +19757,7 @@
       <c r="BC98" s="107"/>
       <c r="BD98" s="107"/>
     </row>
-    <row r="99" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="173"/>
       <c r="B99" s="158"/>
       <c r="C99" s="115"/>
@@ -18958,7 +19811,7 @@
       <c r="BC99" s="107"/>
       <c r="BD99" s="107"/>
     </row>
-    <row r="100" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="173"/>
       <c r="B100" s="158"/>
       <c r="C100" s="123"/>
@@ -19014,7 +19867,7 @@
       <c r="BC100" s="107"/>
       <c r="BD100" s="107"/>
     </row>
-    <row r="101" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="173"/>
       <c r="B101" s="158"/>
       <c r="C101" s="123">
@@ -19068,7 +19921,7 @@
       <c r="BC101" s="107"/>
       <c r="BD101" s="107"/>
     </row>
-    <row r="102" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="173"/>
       <c r="B102" s="158"/>
       <c r="C102" s="123"/>
@@ -19120,7 +19973,7 @@
       <c r="BC102" s="107"/>
       <c r="BD102" s="107"/>
     </row>
-    <row r="103" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="173"/>
       <c r="B103" s="158"/>
       <c r="C103" s="123"/>
@@ -19172,7 +20025,7 @@
       <c r="BC103" s="107"/>
       <c r="BD103" s="107"/>
     </row>
-    <row r="104" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="173"/>
       <c r="B104" s="158"/>
       <c r="C104" s="123"/>
@@ -19224,7 +20077,7 @@
       <c r="BC104" s="107"/>
       <c r="BD104" s="107"/>
     </row>
-    <row r="105" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="173"/>
       <c r="B105" s="158"/>
       <c r="C105" s="139"/>
@@ -19278,7 +20131,7 @@
       <c r="BC105" s="107"/>
       <c r="BD105" s="107"/>
     </row>
-    <row r="106" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="173"/>
       <c r="B106" s="158"/>
       <c r="C106" s="122" t="s">
@@ -19334,7 +20187,7 @@
       <c r="BC106" s="107"/>
       <c r="BD106" s="107"/>
     </row>
-    <row r="107" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="173"/>
       <c r="B107" s="158"/>
       <c r="C107" s="139"/>
@@ -19386,7 +20239,7 @@
       <c r="BC107" s="107"/>
       <c r="BD107" s="107"/>
     </row>
-    <row r="108" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="173"/>
       <c r="B108" s="158"/>
       <c r="C108" s="139"/>
@@ -19442,7 +20295,7 @@
       <c r="BC108" s="107"/>
       <c r="BD108" s="107"/>
     </row>
-    <row r="109" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="173"/>
       <c r="B109" s="158"/>
       <c r="C109" s="139"/>
@@ -19500,7 +20353,7 @@
       <c r="BC109" s="107"/>
       <c r="BD109" s="107"/>
     </row>
-    <row r="110" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="173"/>
       <c r="B110" s="158"/>
       <c r="C110" s="139"/>
@@ -19556,7 +20409,7 @@
       <c r="BC110" s="107"/>
       <c r="BD110" s="107"/>
     </row>
-    <row r="111" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="173"/>
       <c r="B111" s="158"/>
       <c r="C111" s="139"/>
@@ -19614,7 +20467,7 @@
       <c r="BC111" s="107"/>
       <c r="BD111" s="107"/>
     </row>
-    <row r="112" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="173"/>
       <c r="B112" s="158"/>
       <c r="C112" s="139"/>
@@ -19672,7 +20525,7 @@
       <c r="BC112" s="107"/>
       <c r="BD112" s="107"/>
     </row>
-    <row r="113" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="173"/>
       <c r="B113" s="158"/>
       <c r="C113" s="139"/>
@@ -19731,7 +20584,7 @@
       <c r="BC113" s="107"/>
       <c r="BD113" s="107"/>
     </row>
-    <row r="114" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="173"/>
       <c r="B114" s="158"/>
       <c r="C114" s="139"/>
@@ -19783,7 +20636,7 @@
       <c r="BC114" s="107"/>
       <c r="BD114" s="107"/>
     </row>
-    <row r="115" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="173"/>
       <c r="B115" s="158"/>
       <c r="C115" s="139"/>
@@ -19839,7 +20692,7 @@
       <c r="BC115" s="107"/>
       <c r="BD115" s="107"/>
     </row>
-    <row r="116" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="173"/>
       <c r="B116" s="158"/>
       <c r="C116" s="139"/>
@@ -19893,7 +20746,7 @@
       <c r="BC116" s="107"/>
       <c r="BD116" s="107"/>
     </row>
-    <row r="117" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="173"/>
       <c r="B117" s="158"/>
       <c r="C117" s="139"/>
@@ -19945,7 +20798,7 @@
       <c r="BC117" s="107"/>
       <c r="BD117" s="107"/>
     </row>
-    <row r="118" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="173"/>
       <c r="B118" s="158"/>
       <c r="C118" s="139"/>
@@ -20001,7 +20854,7 @@
       <c r="BC118" s="107"/>
       <c r="BD118" s="107"/>
     </row>
-    <row r="119" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="173"/>
       <c r="B119" s="158"/>
       <c r="C119" s="139"/>
@@ -20067,7 +20920,7 @@
       <c r="BC119" s="107"/>
       <c r="BD119" s="107"/>
     </row>
-    <row r="120" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="173"/>
       <c r="B120" s="158"/>
       <c r="C120" s="139"/>
@@ -20133,7 +20986,7 @@
       <c r="BC120" s="107"/>
       <c r="BD120" s="107"/>
     </row>
-    <row r="121" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="173"/>
       <c r="B121" s="158"/>
       <c r="C121" s="139"/>
@@ -20187,7 +21040,7 @@
       <c r="BC121" s="107"/>
       <c r="BD121" s="107"/>
     </row>
-    <row r="122" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="173"/>
       <c r="B122" s="158"/>
       <c r="C122" s="139"/>
@@ -20245,7 +21098,7 @@
       <c r="BC122" s="107"/>
       <c r="BD122" s="107"/>
     </row>
-    <row r="123" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="173"/>
       <c r="B123" s="158"/>
       <c r="C123" s="139"/>
@@ -20311,7 +21164,7 @@
       <c r="BC123" s="107"/>
       <c r="BD123" s="107"/>
     </row>
-    <row r="124" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="173"/>
       <c r="B124" s="158"/>
       <c r="C124" s="122" t="s">
@@ -20365,7 +21218,7 @@
       <c r="BC124" s="107"/>
       <c r="BD124" s="107"/>
     </row>
-    <row r="125" spans="1:56" s="175" customFormat="1" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:56" s="175" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="173"/>
       <c r="B125" s="158"/>
       <c r="C125" s="152"/>
@@ -20423,7 +21276,7 @@
       <c r="BC125" s="107"/>
       <c r="BD125" s="107"/>
     </row>
-    <row r="126" spans="1:56" s="175" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:56" s="175" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="173"/>
       <c r="B126" s="106"/>
       <c r="C126" s="106"/>
@@ -20475,7 +21328,7 @@
       <c r="BC126" s="107"/>
       <c r="BD126" s="107"/>
     </row>
-    <row r="127" spans="1:56" ht="12" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:56" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="105"/>
       <c r="B127" s="106"/>
       <c r="C127" s="106"/>
@@ -20501,7 +21354,7 @@
       <c r="W127" s="106"/>
       <c r="X127" s="106"/>
     </row>
-    <row r="128" spans="1:56" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:56" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="105"/>
       <c r="B128" s="106"/>
       <c r="C128" s="106"/>
@@ -20527,7 +21380,7 @@
       <c r="W128" s="106"/>
       <c r="X128" s="106"/>
     </row>
-    <row r="129" spans="1:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" s="105"/>
       <c r="B129" s="158"/>
       <c r="C129" s="110" t="s">
@@ -20557,7 +21410,7 @@
       <c r="W129" s="113"/>
       <c r="X129" s="159"/>
     </row>
-    <row r="130" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A130" s="105"/>
       <c r="B130" s="158"/>
       <c r="C130" s="115"/>
@@ -20589,7 +21442,7 @@
       <c r="W130" s="121"/>
       <c r="X130" s="159"/>
     </row>
-    <row r="131" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="105"/>
       <c r="B131" s="158"/>
       <c r="C131" s="115"/>
@@ -20617,7 +21470,7 @@
       <c r="W131" s="121"/>
       <c r="X131" s="159"/>
     </row>
-    <row r="132" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="105"/>
       <c r="B132" s="158"/>
       <c r="C132" s="123"/>
@@ -20649,7 +21502,7 @@
       <c r="W132" s="121"/>
       <c r="X132" s="159"/>
     </row>
-    <row r="133" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="105"/>
       <c r="B133" s="158"/>
       <c r="C133" s="123">
@@ -20679,7 +21532,7 @@
       <c r="W133" s="121"/>
       <c r="X133" s="159"/>
     </row>
-    <row r="134" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="105"/>
       <c r="B134" s="158"/>
       <c r="C134" s="123"/>
@@ -20705,7 +21558,7 @@
       <c r="W134" s="121"/>
       <c r="X134" s="159"/>
     </row>
-    <row r="135" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="105"/>
       <c r="B135" s="158"/>
       <c r="C135" s="123"/>
@@ -20731,7 +21584,7 @@
       <c r="W135" s="121"/>
       <c r="X135" s="159"/>
     </row>
-    <row r="136" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="105"/>
       <c r="B136" s="158"/>
       <c r="C136" s="123"/>
@@ -20759,7 +21612,7 @@
       <c r="W136" s="121"/>
       <c r="X136" s="159"/>
     </row>
-    <row r="137" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="105"/>
       <c r="B137" s="158"/>
       <c r="C137" s="139"/>
@@ -20803,7 +21656,7 @@
       <c r="W137" s="121"/>
       <c r="X137" s="159"/>
     </row>
-    <row r="138" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="105"/>
       <c r="B138" s="158"/>
       <c r="C138" s="139"/>
@@ -20848,7 +21701,7 @@
       <c r="W138" s="121"/>
       <c r="X138" s="159"/>
     </row>
-    <row r="139" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="105"/>
       <c r="B139" s="158"/>
       <c r="C139" s="139"/>
@@ -20893,7 +21746,7 @@
       <c r="W139" s="121"/>
       <c r="X139" s="159"/>
     </row>
-    <row r="140" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="105"/>
       <c r="B140" s="158"/>
       <c r="C140" s="139"/>
@@ -20938,7 +21791,7 @@
       <c r="W140" s="121"/>
       <c r="X140" s="159"/>
     </row>
-    <row r="141" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="105"/>
       <c r="B141" s="158"/>
       <c r="C141" s="139"/>
@@ -20983,7 +21836,7 @@
       <c r="W141" s="121"/>
       <c r="X141" s="159"/>
     </row>
-    <row r="142" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="105"/>
       <c r="B142" s="158"/>
       <c r="C142" s="139"/>
@@ -21028,7 +21881,7 @@
       <c r="W142" s="121"/>
       <c r="X142" s="159"/>
     </row>
-    <row r="143" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="105"/>
       <c r="B143" s="158"/>
       <c r="C143" s="139"/>
@@ -21073,7 +21926,7 @@
       <c r="W143" s="121"/>
       <c r="X143" s="159"/>
     </row>
-    <row r="144" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="105"/>
       <c r="B144" s="158"/>
       <c r="C144" s="139"/>
@@ -21118,7 +21971,7 @@
       <c r="W144" s="121"/>
       <c r="X144" s="159"/>
     </row>
-    <row r="145" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="105"/>
       <c r="B145" s="158"/>
       <c r="C145" s="139"/>
@@ -21163,7 +22016,7 @@
       <c r="W145" s="121"/>
       <c r="X145" s="159"/>
     </row>
-    <row r="146" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="105"/>
       <c r="B146" s="158"/>
       <c r="C146" s="139"/>
@@ -21208,7 +22061,7 @@
       <c r="W146" s="121"/>
       <c r="X146" s="159"/>
     </row>
-    <row r="147" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="105"/>
       <c r="B147" s="158"/>
       <c r="C147" s="139"/>
@@ -21253,7 +22106,7 @@
       <c r="W147" s="121"/>
       <c r="X147" s="159"/>
     </row>
-    <row r="148" spans="1:56" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:56" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="105"/>
       <c r="B148" s="158"/>
       <c r="C148" s="122" t="s">
@@ -21281,7 +22134,7 @@
       <c r="W148" s="151"/>
       <c r="X148" s="159"/>
     </row>
-    <row r="149" spans="1:56" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:56" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="105"/>
       <c r="B149" s="158"/>
       <c r="C149" s="152"/>
@@ -22965,7 +23818,7 @@
       <c r="BC173" s="107"/>
       <c r="BD173" s="107"/>
     </row>
-    <row r="174" spans="1:56" s="175" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:56" s="175" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="173"/>
       <c r="B174" s="106"/>
       <c r="C174" s="106"/>
@@ -23023,7 +23876,7 @@
       <c r="BC174" s="107"/>
       <c r="BD174" s="107"/>
     </row>
-    <row r="175" spans="1:56" s="175" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:56" s="175" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A175" s="173"/>
       <c r="B175" s="106"/>
       <c r="C175" s="106"/>
@@ -23081,7 +23934,7 @@
       <c r="BC175" s="107"/>
       <c r="BD175" s="107"/>
     </row>
-    <row r="176" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="173"/>
       <c r="B176" s="106"/>
       <c r="C176" s="106"/>
@@ -23139,7 +23992,7 @@
       <c r="BC176" s="107"/>
       <c r="BD176" s="107"/>
     </row>
-    <row r="177" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A177" s="173"/>
       <c r="B177" s="158"/>
       <c r="C177" s="110" t="s">
@@ -23199,7 +24052,7 @@
       <c r="BC177" s="107"/>
       <c r="BD177" s="107"/>
     </row>
-    <row r="178" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A178" s="173"/>
       <c r="B178" s="158"/>
       <c r="C178" s="115"/>
@@ -23263,7 +24116,7 @@
       <c r="BC178" s="107"/>
       <c r="BD178" s="107"/>
     </row>
-    <row r="179" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A179" s="173"/>
       <c r="B179" s="158"/>
       <c r="C179" s="115"/>
@@ -23323,7 +24176,7 @@
       <c r="BC179" s="107"/>
       <c r="BD179" s="107"/>
     </row>
-    <row r="180" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A180" s="173"/>
       <c r="B180" s="158"/>
       <c r="C180" s="123"/>
@@ -23385,7 +24238,7 @@
       <c r="BC180" s="107"/>
       <c r="BD180" s="107"/>
     </row>
-    <row r="181" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="173"/>
       <c r="B181" s="158"/>
       <c r="C181" s="123">
@@ -23445,7 +24298,7 @@
       <c r="BC181" s="107"/>
       <c r="BD181" s="107"/>
     </row>
-    <row r="182" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A182" s="173"/>
       <c r="B182" s="158"/>
       <c r="C182" s="123"/>
@@ -23505,7 +24358,7 @@
       <c r="BC182" s="107"/>
       <c r="BD182" s="107"/>
     </row>
-    <row r="183" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="173"/>
       <c r="B183" s="158"/>
       <c r="C183" s="123"/>
@@ -23563,7 +24416,7 @@
       <c r="BC183" s="107"/>
       <c r="BD183" s="107"/>
     </row>
-    <row r="184" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="173"/>
       <c r="B184" s="158"/>
       <c r="C184" s="123"/>
@@ -23625,7 +24478,7 @@
       <c r="BC184" s="107"/>
       <c r="BD184" s="107"/>
     </row>
-    <row r="185" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="173"/>
       <c r="B185" s="158"/>
       <c r="C185" s="139"/>
@@ -23703,7 +24556,7 @@
       <c r="BC185" s="107"/>
       <c r="BD185" s="107"/>
     </row>
-    <row r="186" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="173"/>
       <c r="B186" s="158"/>
       <c r="C186" s="139"/>
@@ -23785,7 +24638,7 @@
       <c r="BC186" s="107"/>
       <c r="BD186" s="107"/>
     </row>
-    <row r="187" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="173"/>
       <c r="B187" s="158"/>
       <c r="C187" s="139"/>
@@ -23867,7 +24720,7 @@
       <c r="BC187" s="107"/>
       <c r="BD187" s="107"/>
     </row>
-    <row r="188" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="173"/>
       <c r="B188" s="158"/>
       <c r="C188" s="139"/>
@@ -23949,7 +24802,7 @@
       <c r="BC188" s="107"/>
       <c r="BD188" s="107"/>
     </row>
-    <row r="189" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="173"/>
       <c r="B189" s="158"/>
       <c r="C189" s="139"/>
@@ -24031,7 +24884,7 @@
       <c r="BC189" s="107"/>
       <c r="BD189" s="107"/>
     </row>
-    <row r="190" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A190" s="173"/>
       <c r="B190" s="158"/>
       <c r="C190" s="139"/>
@@ -24113,7 +24966,7 @@
       <c r="BC190" s="107"/>
       <c r="BD190" s="107"/>
     </row>
-    <row r="191" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="173"/>
       <c r="B191" s="158"/>
       <c r="C191" s="139"/>
@@ -24195,7 +25048,7 @@
       <c r="BC191" s="107"/>
       <c r="BD191" s="107"/>
     </row>
-    <row r="192" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A192" s="173"/>
       <c r="B192" s="158"/>
       <c r="C192" s="139"/>
@@ -24277,7 +25130,7 @@
       <c r="BC192" s="107"/>
       <c r="BD192" s="107"/>
     </row>
-    <row r="193" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A193" s="173"/>
       <c r="B193" s="158"/>
       <c r="C193" s="139"/>
@@ -24359,7 +25212,7 @@
       <c r="BC193" s="107"/>
       <c r="BD193" s="107"/>
     </row>
-    <row r="194" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A194" s="173"/>
       <c r="B194" s="158"/>
       <c r="C194" s="139"/>
@@ -24441,7 +25294,7 @@
       <c r="BC194" s="107"/>
       <c r="BD194" s="107"/>
     </row>
-    <row r="195" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A195" s="173"/>
       <c r="B195" s="158"/>
       <c r="C195" s="139"/>
@@ -24523,7 +25376,7 @@
       <c r="BC195" s="107"/>
       <c r="BD195" s="107"/>
     </row>
-    <row r="196" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A196" s="173"/>
       <c r="B196" s="158"/>
       <c r="C196" s="122" t="s">
@@ -24583,7 +25436,7 @@
       <c r="BC196" s="107"/>
       <c r="BD196" s="107"/>
     </row>
-    <row r="197" spans="1:56" s="175" customFormat="1" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:56" s="175" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="173"/>
       <c r="B197" s="158"/>
       <c r="C197" s="152"/>
@@ -24645,7 +25498,7 @@
       <c r="BC197" s="107"/>
       <c r="BD197" s="107"/>
     </row>
-    <row r="198" spans="1:56" s="175" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:56" s="175" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="173"/>
       <c r="B198" s="106"/>
       <c r="C198" s="106"/>
@@ -24703,7 +25556,7 @@
       <c r="BC198" s="107"/>
       <c r="BD198" s="107"/>
     </row>
-    <row r="199" spans="1:56" s="175" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:56" s="175" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="173"/>
       <c r="B199" s="106"/>
       <c r="C199" s="106"/>
@@ -24755,7 +25608,7 @@
       <c r="BC199" s="107"/>
       <c r="BD199" s="107"/>
     </row>
-    <row r="200" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="173"/>
       <c r="B200" s="106"/>
       <c r="C200" s="106"/>
@@ -24807,7 +25660,7 @@
       <c r="BC200" s="107"/>
       <c r="BD200" s="107"/>
     </row>
-    <row r="201" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A201" s="173"/>
       <c r="B201" s="158"/>
       <c r="C201" s="110" t="s">
@@ -24863,7 +25716,7 @@
       <c r="BC201" s="107"/>
       <c r="BD201" s="107"/>
     </row>
-    <row r="202" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A202" s="173"/>
       <c r="B202" s="158"/>
       <c r="C202" s="115"/>
@@ -24921,7 +25774,7 @@
       <c r="BC202" s="107"/>
       <c r="BD202" s="107"/>
     </row>
-    <row r="203" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A203" s="173"/>
       <c r="B203" s="158"/>
       <c r="C203" s="115"/>
@@ -24975,7 +25828,7 @@
       <c r="BC203" s="107"/>
       <c r="BD203" s="107"/>
     </row>
-    <row r="204" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A204" s="173"/>
       <c r="B204" s="158"/>
       <c r="C204" s="123"/>
@@ -25031,7 +25884,7 @@
       <c r="BC204" s="107"/>
       <c r="BD204" s="107"/>
     </row>
-    <row r="205" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A205" s="173"/>
       <c r="B205" s="158"/>
       <c r="C205" s="123">
@@ -25085,7 +25938,7 @@
       <c r="BC205" s="107"/>
       <c r="BD205" s="107"/>
     </row>
-    <row r="206" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A206" s="173"/>
       <c r="B206" s="158"/>
       <c r="C206" s="123"/>
@@ -25137,7 +25990,7 @@
       <c r="BC206" s="107"/>
       <c r="BD206" s="107"/>
     </row>
-    <row r="207" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A207" s="173"/>
       <c r="B207" s="158"/>
       <c r="C207" s="123"/>
@@ -25193,7 +26046,7 @@
       <c r="BC207" s="107"/>
       <c r="BD207" s="107"/>
     </row>
-    <row r="208" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A208" s="173"/>
       <c r="B208" s="158"/>
       <c r="C208" s="123"/>
@@ -25251,7 +26104,7 @@
       <c r="BC208" s="107"/>
       <c r="BD208" s="107"/>
     </row>
-    <row r="209" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="173"/>
       <c r="B209" s="158"/>
       <c r="C209" s="139"/>
@@ -25309,7 +26162,7 @@
       <c r="BC209" s="107"/>
       <c r="BD209" s="107"/>
     </row>
-    <row r="210" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A210" s="173"/>
       <c r="B210" s="158"/>
       <c r="C210" s="122" t="s">
@@ -25365,7 +26218,7 @@
       <c r="BC210" s="107"/>
       <c r="BD210" s="107"/>
     </row>
-    <row r="211" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A211" s="173"/>
       <c r="B211" s="158"/>
       <c r="C211" s="139"/>
@@ -25417,7 +26270,7 @@
       <c r="BC211" s="107"/>
       <c r="BD211" s="107"/>
     </row>
-    <row r="212" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A212" s="173"/>
       <c r="B212" s="158"/>
       <c r="C212" s="139"/>
@@ -25475,7 +26328,7 @@
       <c r="BC212" s="107"/>
       <c r="BD212" s="107"/>
     </row>
-    <row r="213" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A213" s="173"/>
       <c r="B213" s="158"/>
       <c r="C213" s="139"/>
@@ -25533,7 +26386,7 @@
       <c r="BC213" s="107"/>
       <c r="BD213" s="107"/>
     </row>
-    <row r="214" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A214" s="173"/>
       <c r="B214" s="158"/>
       <c r="C214" s="139"/>
@@ -25591,7 +26444,7 @@
       <c r="BC214" s="107"/>
       <c r="BD214" s="107"/>
     </row>
-    <row r="215" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A215" s="173"/>
       <c r="B215" s="158"/>
       <c r="C215" s="139"/>
@@ -25649,7 +26502,7 @@
       <c r="BC215" s="107"/>
       <c r="BD215" s="107"/>
     </row>
-    <row r="216" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A216" s="173"/>
       <c r="B216" s="158"/>
       <c r="C216" s="139"/>
@@ -25707,7 +26560,7 @@
       <c r="BC216" s="107"/>
       <c r="BD216" s="107"/>
     </row>
-    <row r="217" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A217" s="173"/>
       <c r="B217" s="158"/>
       <c r="C217" s="139"/>
@@ -25765,7 +26618,7 @@
       <c r="BC217" s="107"/>
       <c r="BD217" s="107"/>
     </row>
-    <row r="218" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A218" s="173"/>
       <c r="B218" s="158"/>
       <c r="C218" s="139"/>
@@ -25823,7 +26676,7 @@
       <c r="BC218" s="107"/>
       <c r="BD218" s="107"/>
     </row>
-    <row r="219" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A219" s="173"/>
       <c r="B219" s="158"/>
       <c r="C219" s="139"/>
@@ -25881,7 +26734,7 @@
       <c r="BC219" s="107"/>
       <c r="BD219" s="107"/>
     </row>
-    <row r="220" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A220" s="173"/>
       <c r="B220" s="158"/>
       <c r="C220" s="139"/>
@@ -25939,7 +26792,7 @@
       <c r="BC220" s="107"/>
       <c r="BD220" s="107"/>
     </row>
-    <row r="221" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A221" s="173"/>
       <c r="B221" s="158"/>
       <c r="C221" s="139"/>
@@ -25997,7 +26850,7 @@
       <c r="BC221" s="107"/>
       <c r="BD221" s="107"/>
     </row>
-    <row r="222" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A222" s="173"/>
       <c r="B222" s="158"/>
       <c r="C222" s="139"/>
@@ -26049,7 +26902,7 @@
       <c r="BC222" s="107"/>
       <c r="BD222" s="107"/>
     </row>
-    <row r="223" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A223" s="173"/>
       <c r="B223" s="158"/>
       <c r="C223" s="139"/>
@@ -26105,7 +26958,7 @@
       <c r="BC223" s="107"/>
       <c r="BD223" s="107"/>
     </row>
-    <row r="224" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A224" s="173"/>
       <c r="B224" s="158"/>
       <c r="C224" s="139"/>
@@ -26161,7 +27014,7 @@
       <c r="BC224" s="107"/>
       <c r="BD224" s="107"/>
     </row>
-    <row r="225" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="173"/>
       <c r="B225" s="158"/>
       <c r="C225" s="139"/>
@@ -26217,7 +27070,7 @@
       <c r="BC225" s="107"/>
       <c r="BD225" s="107"/>
     </row>
-    <row r="226" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A226" s="173"/>
       <c r="B226" s="158"/>
       <c r="C226" s="139"/>
@@ -26273,7 +27126,7 @@
       <c r="BC226" s="107"/>
       <c r="BD226" s="107"/>
     </row>
-    <row r="227" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A227" s="173"/>
       <c r="B227" s="158"/>
       <c r="C227" s="139"/>
@@ -26327,7 +27180,7 @@
       <c r="BC227" s="107"/>
       <c r="BD227" s="107"/>
     </row>
-    <row r="228" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A228" s="173"/>
       <c r="B228" s="158"/>
       <c r="C228" s="122" t="s">
@@ -26381,7 +27234,7 @@
       <c r="BC228" s="107"/>
       <c r="BD228" s="107"/>
     </row>
-    <row r="229" spans="1:56" s="175" customFormat="1" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:56" s="175" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="173"/>
       <c r="B229" s="158"/>
       <c r="C229" s="152"/>
@@ -31170,7 +32023,7 @@
       <c r="BC307" s="107"/>
       <c r="BD307" s="107"/>
     </row>
-    <row r="308" spans="1:56" s="175" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:56" s="175" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A308" s="173"/>
       <c r="B308" s="106"/>
       <c r="C308" s="106"/>
@@ -31222,7 +32075,7 @@
       <c r="BC308" s="107"/>
       <c r="BD308" s="107"/>
     </row>
-    <row r="309" spans="1:56" ht="12" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:56" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A309" s="105"/>
       <c r="B309" s="106"/>
       <c r="C309" s="106"/>
@@ -31248,7 +32101,7 @@
       <c r="W309" s="106"/>
       <c r="X309" s="106"/>
     </row>
-    <row r="310" spans="1:56" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:56" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="105"/>
       <c r="B310" s="106"/>
       <c r="C310" s="106"/>
@@ -31274,7 +32127,7 @@
       <c r="W310" s="106"/>
       <c r="X310" s="106"/>
     </row>
-    <row r="311" spans="1:56" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:56" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A311" s="105"/>
       <c r="B311" s="158"/>
       <c r="C311" s="110" t="s">
@@ -31304,7 +32157,7 @@
       <c r="W311" s="113"/>
       <c r="X311" s="159"/>
     </row>
-    <row r="312" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A312" s="105"/>
       <c r="B312" s="158"/>
       <c r="C312" s="115"/>
@@ -31336,7 +32189,7 @@
       <c r="W312" s="121"/>
       <c r="X312" s="159"/>
     </row>
-    <row r="313" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A313" s="105"/>
       <c r="B313" s="158"/>
       <c r="C313" s="115"/>
@@ -31364,7 +32217,7 @@
       <c r="W313" s="121"/>
       <c r="X313" s="159"/>
     </row>
-    <row r="314" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A314" s="105"/>
       <c r="B314" s="158"/>
       <c r="C314" s="123"/>
@@ -31394,7 +32247,7 @@
       <c r="W314" s="121"/>
       <c r="X314" s="159"/>
     </row>
-    <row r="315" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="105"/>
       <c r="B315" s="158"/>
       <c r="C315" s="123">
@@ -31422,7 +32275,7 @@
       <c r="W315" s="121"/>
       <c r="X315" s="159"/>
     </row>
-    <row r="316" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="105"/>
       <c r="B316" s="158"/>
       <c r="C316" s="123"/>
@@ -31448,7 +32301,7 @@
       <c r="W316" s="121"/>
       <c r="X316" s="159"/>
     </row>
-    <row r="317" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A317" s="105"/>
       <c r="B317" s="158"/>
       <c r="C317" s="123"/>
@@ -31474,7 +32327,7 @@
       <c r="W317" s="121"/>
       <c r="X317" s="159"/>
     </row>
-    <row r="318" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A318" s="105"/>
       <c r="B318" s="158"/>
       <c r="C318" s="123"/>
@@ -31486,9 +32339,9 @@
       <c r="I318" s="251"/>
       <c r="J318" s="251"/>
       <c r="K318" s="138"/>
-      <c r="L318" s="468"/>
-      <c r="M318" s="469"/>
-      <c r="N318" s="469"/>
+      <c r="L318" s="470"/>
+      <c r="M318" s="471"/>
+      <c r="N318" s="471"/>
       <c r="O318" s="138"/>
       <c r="P318" s="138"/>
       <c r="Q318" s="138"/>
@@ -31500,7 +32353,7 @@
       <c r="W318" s="121"/>
       <c r="X318" s="159"/>
     </row>
-    <row r="319" spans="1:56" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:56" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A319" s="105"/>
       <c r="B319" s="158"/>
       <c r="C319" s="139"/>
@@ -31526,7 +32379,7 @@
       <c r="W319" s="121"/>
       <c r="X319" s="159"/>
     </row>
-    <row r="320" spans="1:56" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:56" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A320" s="105"/>
       <c r="B320" s="158"/>
       <c r="C320" s="122" t="s">
@@ -31556,7 +32409,7 @@
       <c r="W320" s="121"/>
       <c r="X320" s="159"/>
     </row>
-    <row r="321" spans="1:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:24" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A321" s="105"/>
       <c r="B321" s="158"/>
       <c r="C321" s="139"/>
@@ -31582,7 +32435,7 @@
       <c r="W321" s="121"/>
       <c r="X321" s="159"/>
     </row>
-    <row r="322" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A322" s="105"/>
       <c r="B322" s="158"/>
       <c r="C322" s="139"/>
@@ -31622,7 +32475,7 @@
       <c r="W322" s="121"/>
       <c r="X322" s="159"/>
     </row>
-    <row r="323" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A323" s="105"/>
       <c r="B323" s="158"/>
       <c r="C323" s="139"/>
@@ -31661,7 +32514,7 @@
       <c r="W323" s="121"/>
       <c r="X323" s="159"/>
     </row>
-    <row r="324" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A324" s="105"/>
       <c r="B324" s="158"/>
       <c r="C324" s="139"/>
@@ -31699,7 +32552,7 @@
       <c r="W324" s="121"/>
       <c r="X324" s="159"/>
     </row>
-    <row r="325" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A325" s="105"/>
       <c r="B325" s="158"/>
       <c r="C325" s="139"/>
@@ -31737,7 +32590,7 @@
       <c r="W325" s="121"/>
       <c r="X325" s="159"/>
     </row>
-    <row r="326" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A326" s="105"/>
       <c r="B326" s="158"/>
       <c r="C326" s="139"/>
@@ -31775,7 +32628,7 @@
       <c r="W326" s="121"/>
       <c r="X326" s="159"/>
     </row>
-    <row r="327" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A327" s="105"/>
       <c r="B327" s="158"/>
       <c r="C327" s="139"/>
@@ -31813,7 +32666,7 @@
       <c r="W327" s="121"/>
       <c r="X327" s="159"/>
     </row>
-    <row r="328" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A328" s="105"/>
       <c r="B328" s="158"/>
       <c r="C328" s="139"/>
@@ -31851,7 +32704,7 @@
       <c r="W328" s="121"/>
       <c r="X328" s="159"/>
     </row>
-    <row r="329" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A329" s="105"/>
       <c r="B329" s="158"/>
       <c r="C329" s="139"/>
@@ -31889,7 +32742,7 @@
       <c r="W329" s="121"/>
       <c r="X329" s="159"/>
     </row>
-    <row r="330" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A330" s="105"/>
       <c r="B330" s="158"/>
       <c r="C330" s="139"/>
@@ -31927,7 +32780,7 @@
       <c r="W330" s="121"/>
       <c r="X330" s="159"/>
     </row>
-    <row r="331" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A331" s="105"/>
       <c r="B331" s="158"/>
       <c r="C331" s="139"/>
@@ -31965,7 +32818,7 @@
       <c r="W331" s="121"/>
       <c r="X331" s="159"/>
     </row>
-    <row r="332" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A332" s="105"/>
       <c r="B332" s="158"/>
       <c r="C332" s="139"/>
@@ -32003,7 +32856,7 @@
       <c r="W332" s="121"/>
       <c r="X332" s="159"/>
     </row>
-    <row r="333" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A333" s="105"/>
       <c r="B333" s="158"/>
       <c r="C333" s="139"/>
@@ -32029,7 +32882,7 @@
       <c r="W333" s="121"/>
       <c r="X333" s="159"/>
     </row>
-    <row r="334" spans="1:24" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:24" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A334" s="105"/>
       <c r="B334" s="158"/>
       <c r="C334" s="139"/>
@@ -32055,7 +32908,7 @@
       <c r="W334" s="121"/>
       <c r="X334" s="159"/>
     </row>
-    <row r="335" spans="1:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:24" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="105"/>
       <c r="B335" s="158"/>
       <c r="C335" s="122" t="s">
@@ -32083,7 +32936,7 @@
       <c r="W335" s="151"/>
       <c r="X335" s="159"/>
     </row>
-    <row r="336" spans="1:24" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="105"/>
       <c r="B336" s="158"/>
       <c r="C336" s="152"/>
@@ -32115,7 +32968,7 @@
       </c>
       <c r="X336" s="159"/>
     </row>
-    <row r="337" spans="1:56" ht="12" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:56" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A337" s="105"/>
       <c r="B337" s="106"/>
       <c r="C337" s="106"/>
@@ -32141,7 +32994,7 @@
       <c r="W337" s="159"/>
       <c r="X337" s="159"/>
     </row>
-    <row r="338" spans="1:56" s="175" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:56" s="175" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A338" s="173"/>
       <c r="B338" s="106"/>
       <c r="C338" s="106"/>
@@ -32193,7 +33046,7 @@
       <c r="BC338" s="107"/>
       <c r="BD338" s="107"/>
     </row>
-    <row r="339" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="173"/>
       <c r="B339" s="106"/>
       <c r="C339" s="106"/>
@@ -32245,7 +33098,7 @@
       <c r="BC339" s="107"/>
       <c r="BD339" s="107"/>
     </row>
-    <row r="340" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A340" s="173"/>
       <c r="B340" s="106"/>
       <c r="C340" s="110" t="s">
@@ -32299,7 +33152,7 @@
       <c r="BC340" s="107"/>
       <c r="BD340" s="107"/>
     </row>
-    <row r="341" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A341" s="173"/>
       <c r="B341" s="106"/>
       <c r="C341" s="115"/>
@@ -32357,7 +33210,7 @@
       <c r="BC341" s="107"/>
       <c r="BD341" s="107"/>
     </row>
-    <row r="342" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="173"/>
       <c r="B342" s="106"/>
       <c r="C342" s="115"/>
@@ -32411,7 +33264,7 @@
       <c r="BC342" s="107"/>
       <c r="BD342" s="107"/>
     </row>
-    <row r="343" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A343" s="173"/>
       <c r="B343" s="106"/>
       <c r="C343" s="123"/>
@@ -32465,7 +33318,7 @@
       <c r="BC343" s="107"/>
       <c r="BD343" s="107"/>
     </row>
-    <row r="344" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A344" s="173"/>
       <c r="B344" s="106"/>
       <c r="C344" s="123">
@@ -32519,7 +33372,7 @@
       <c r="BC344" s="107"/>
       <c r="BD344" s="107"/>
     </row>
-    <row r="345" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="173"/>
       <c r="B345" s="106"/>
       <c r="C345" s="123"/>
@@ -32571,7 +33424,7 @@
       <c r="BC345" s="107"/>
       <c r="BD345" s="107"/>
     </row>
-    <row r="346" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A346" s="173"/>
       <c r="B346" s="106"/>
       <c r="C346" s="123"/>
@@ -32623,7 +33476,7 @@
       <c r="BC346" s="107"/>
       <c r="BD346" s="107"/>
     </row>
-    <row r="347" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A347" s="173"/>
       <c r="B347" s="106"/>
       <c r="C347" s="123"/>
@@ -32689,7 +33542,7 @@
       <c r="BC347" s="107"/>
       <c r="BD347" s="107"/>
     </row>
-    <row r="348" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A348" s="173"/>
       <c r="B348" s="106"/>
       <c r="C348" s="139"/>
@@ -32753,7 +33606,7 @@
       <c r="BC348" s="107"/>
       <c r="BD348" s="107"/>
     </row>
-    <row r="349" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A349" s="173"/>
       <c r="B349" s="106"/>
       <c r="C349" s="139"/>
@@ -32807,7 +33660,7 @@
       <c r="BC349" s="107"/>
       <c r="BD349" s="107"/>
     </row>
-    <row r="350" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A350" s="173"/>
       <c r="B350" s="106"/>
       <c r="C350" s="139"/>
@@ -32859,7 +33712,7 @@
       <c r="BC350" s="107"/>
       <c r="BD350" s="107"/>
     </row>
-    <row r="351" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A351" s="173"/>
       <c r="B351" s="106"/>
       <c r="C351" s="139"/>
@@ -32917,7 +33770,7 @@
       <c r="BC351" s="107"/>
       <c r="BD351" s="107"/>
     </row>
-    <row r="352" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A352" s="173"/>
       <c r="B352" s="106"/>
       <c r="C352" s="139"/>
@@ -32975,7 +33828,7 @@
       <c r="BC352" s="107"/>
       <c r="BD352" s="107"/>
     </row>
-    <row r="353" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="173"/>
       <c r="B353" s="106"/>
       <c r="C353" s="139"/>
@@ -33033,7 +33886,7 @@
       <c r="BC353" s="107"/>
       <c r="BD353" s="107"/>
     </row>
-    <row r="354" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A354" s="173"/>
       <c r="B354" s="106"/>
       <c r="C354" s="139"/>
@@ -33091,7 +33944,7 @@
       <c r="BC354" s="107"/>
       <c r="BD354" s="107"/>
     </row>
-    <row r="355" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A355" s="173"/>
       <c r="B355" s="106"/>
       <c r="C355" s="139"/>
@@ -33149,7 +34002,7 @@
       <c r="BC355" s="107"/>
       <c r="BD355" s="107"/>
     </row>
-    <row r="356" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A356" s="173"/>
       <c r="B356" s="106"/>
       <c r="C356" s="139"/>
@@ -33207,7 +34060,7 @@
       <c r="BC356" s="107"/>
       <c r="BD356" s="107"/>
     </row>
-    <row r="357" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A357" s="173"/>
       <c r="B357" s="106"/>
       <c r="C357" s="139"/>
@@ -33265,7 +34118,7 @@
       <c r="BC357" s="107"/>
       <c r="BD357" s="107"/>
     </row>
-    <row r="358" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A358" s="173"/>
       <c r="B358" s="106"/>
       <c r="C358" s="139"/>
@@ -33323,7 +34176,7 @@
       <c r="BC358" s="107"/>
       <c r="BD358" s="107"/>
     </row>
-    <row r="359" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A359" s="173"/>
       <c r="B359" s="106"/>
       <c r="C359" s="139"/>
@@ -33381,7 +34234,7 @@
       <c r="BC359" s="107"/>
       <c r="BD359" s="107"/>
     </row>
-    <row r="360" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A360" s="173"/>
       <c r="B360" s="106"/>
       <c r="C360" s="139"/>
@@ -33439,7 +34292,7 @@
       <c r="BC360" s="107"/>
       <c r="BD360" s="107"/>
     </row>
-    <row r="361" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A361" s="173"/>
       <c r="B361" s="106"/>
       <c r="C361" s="139"/>
@@ -33491,7 +34344,7 @@
       <c r="BC361" s="107"/>
       <c r="BD361" s="107"/>
     </row>
-    <row r="362" spans="1:56" s="175" customFormat="1" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:56" s="175" customFormat="1" ht="12.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A362" s="173"/>
       <c r="B362" s="106"/>
       <c r="C362" s="139"/>
@@ -33543,7 +34396,7 @@
       <c r="BC362" s="107"/>
       <c r="BD362" s="107"/>
     </row>
-    <row r="363" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:56" s="175" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A363" s="173"/>
       <c r="B363" s="106"/>
       <c r="C363" s="122" t="s">
@@ -33597,7 +34450,7 @@
       <c r="BC363" s="107"/>
       <c r="BD363" s="107"/>
     </row>
-    <row r="364" spans="1:56" s="175" customFormat="1" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:56" s="175" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="173"/>
       <c r="B364" s="106"/>
       <c r="C364" s="152"/>
@@ -40454,18 +41307,18 @@
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
-      <c r="H112" s="472" t="s">
+      <c r="H112" s="474" t="s">
         <v>512</v>
       </c>
-      <c r="I112" s="472"/>
-      <c r="J112" s="472"/>
+      <c r="I112" s="474"/>
+      <c r="J112" s="474"/>
       <c r="K112" s="420"/>
       <c r="L112" s="441"/>
-      <c r="M112" s="471" t="s">
+      <c r="M112" s="473" t="s">
         <v>380</v>
       </c>
-      <c r="N112" s="471"/>
-      <c r="O112" s="471"/>
+      <c r="N112" s="473"/>
+      <c r="O112" s="473"/>
       <c r="P112" s="441"/>
       <c r="Q112" s="441"/>
       <c r="R112" s="441"/>
@@ -49923,7 +50776,7 @@
       <c r="E378" s="13"/>
       <c r="F378" s="13"/>
       <c r="G378" s="13"/>
-      <c r="H378" s="470"/>
+      <c r="H378" s="472"/>
       <c r="I378" s="13"/>
       <c r="J378" s="13"/>
       <c r="K378" s="18"/>
@@ -49951,7 +50804,7 @@
       <c r="E379" s="13"/>
       <c r="F379" s="13"/>
       <c r="G379" s="13"/>
-      <c r="H379" s="470"/>
+      <c r="H379" s="472"/>
       <c r="I379" s="13"/>
       <c r="J379" s="19" t="s">
         <v>42</v>
@@ -49985,7 +50838,7 @@
       <c r="G380" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H380" s="470"/>
+      <c r="H380" s="472"/>
       <c r="I380" s="13"/>
       <c r="J380" s="19" t="s">
         <v>67</v>
@@ -56028,10 +56881,10 @@
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="473" t="s">
+      <c r="F68" s="475" t="s">
         <v>366</v>
       </c>
-      <c r="G68" s="474"/>
+      <c r="G68" s="476"/>
       <c r="H68" s="19"/>
       <c r="I68" s="19" t="s">
         <v>367</v>
@@ -56863,8 +57716,8 @@
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
-      <c r="E96" s="473"/>
-      <c r="F96" s="474"/>
+      <c r="E96" s="475"/>
+      <c r="F96" s="476"/>
       <c r="G96" s="19" t="s">
         <v>374</v>
       </c>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\python\MUDAS\MUDAS 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E55CCAA-EDC6-48E2-8B65-6FA14761497F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5698D2CD-AA46-4E25-8C0B-5D532F7FFA07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -154,6 +154,7 @@
     <definedName name="spray_prep">Labour!$P$97:$Q$100</definedName>
     <definedName name="sprayer_crop_allocation" localSheetId="8">Mach!$B$39</definedName>
     <definedName name="start_harvest_crops" localSheetId="5">Crop!$H$64:$I$75</definedName>
+    <definedName name="steady_state">General!$M$25</definedName>
     <definedName name="step_size">Stubble!$H$88</definedName>
     <definedName name="storage_cost_date">'Sup Feed'!$K$32</definedName>
     <definedName name="storage_grain">'[1]Sup Feed'!$I$26:$N$28</definedName>
@@ -12291,8 +12292,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:Z63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16393,7 +16394,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:BD427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+    <sheetView topLeftCell="A194" workbookViewId="0">
       <selection activeCell="O223" sqref="O223:O226"/>
     </sheetView>
   </sheetViews>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB6493-ECFD-4F69-91D0-F0D0996D9325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE89F559-FD4E-4DD3-82DD-81D1771ACDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27645" windowHeight="15360" activeTab="4" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="990" yWindow="150" windowWidth="27645" windowHeight="15360" activeTab="4" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -905,6 +905,31 @@
           </rPr>
           <t xml:space="preserve">
 Note APa doesn't exist therefore only necessary option is CPa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T264" authorId="1" shapeId="0" xr:uid="{C6CAF181-37E2-4F82-A4EA-A528C123A019}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the range of digestibility of the top 25% of the feed compared with the bottom 25%. Which is roughly the 10 to 90 percentile range (because the average of the top 25% is roughly the 10 percentile value)
+Value is to be for a low FOO sward. Increasing FOO increases the range in digestibility. The high end remains the same but the low end is reduced.</t>
         </r>
       </text>
     </comment>
@@ -3734,9 +3759,6 @@
     <t>digestibility if deferred</t>
   </si>
   <si>
-    <t>of sward</t>
-  </si>
-  <si>
     <t>senescing feed relative</t>
   </si>
   <si>
@@ -3747,9 +3769,6 @@
   </si>
   <si>
     <t>1 month</t>
-  </si>
-  <si>
-    <t>components</t>
   </si>
   <si>
     <t>to green diet digestibility</t>
@@ -4566,6 +4585,12 @@
       <t>-potentially this could come from the the simulation-ev_cutoff_p6f</t>
     </r>
   </si>
+  <si>
+    <t>of sward components</t>
+  </si>
+  <si>
+    <t>(low FOO)</t>
+  </si>
 </sst>
 </file>
 
@@ -5178,7 +5203,7 @@
     <xf numFmtId="0" fontId="23" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="473">
+  <cellXfs count="474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -6315,6 +6340,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="8" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Calculations" xfId="6" xr:uid="{449B9FA0-BCFF-41FE-A9C5-7F4DFD2D1D3B}"/>
@@ -7377,7 +7405,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -7693,7 +7721,7 @@
       <c r="G29" s="242"/>
       <c r="H29" s="242"/>
       <c r="I29" s="242" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J29" s="443">
         <v>1</v>
@@ -8212,7 +8240,7 @@
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -8501,7 +8529,7 @@
         <v>126</v>
       </c>
       <c r="H58" s="243" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I58" s="240"/>
       <c r="J58" s="241"/>
@@ -9365,14 +9393,14 @@
       <c r="E88" s="16"/>
       <c r="F88" s="25"/>
       <c r="G88" s="26" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H88" s="444">
         <v>1</v>
       </c>
       <c r="I88" s="54"/>
       <c r="K88" s="348" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L88" s="445">
         <v>0.05</v>
@@ -9548,7 +9576,7 @@
       <c r="K94" s="53"/>
       <c r="L94" s="53"/>
       <c r="M94" s="33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N94" s="33"/>
       <c r="O94" s="55"/>
@@ -9574,7 +9602,7 @@
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="55" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J95" s="244"/>
       <c r="K95" s="53"/>
@@ -9582,7 +9610,7 @@
       <c r="M95" s="33"/>
       <c r="N95" s="33"/>
       <c r="O95" s="55" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P95" s="31"/>
       <c r="Q95" s="31"/>
@@ -9922,7 +9950,7 @@
       <c r="K105" s="53"/>
       <c r="L105" s="53"/>
       <c r="M105" s="33" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N105" s="33"/>
       <c r="O105" s="55"/>
@@ -9948,7 +9976,7 @@
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="55" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J106" s="53"/>
       <c r="K106" s="53"/>
@@ -9956,7 +9984,7 @@
       <c r="M106" s="33"/>
       <c r="N106" s="33"/>
       <c r="O106" s="55" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P106" s="31"/>
       <c r="Q106" s="31"/>
@@ -10294,7 +10322,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="25"/>
       <c r="G116" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H116" s="33"/>
       <c r="I116" s="54"/>
@@ -10326,19 +10354,19 @@
       <c r="G117" s="33"/>
       <c r="H117" s="33"/>
       <c r="I117" s="158" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J117" s="448" t="s">
+        <v>433</v>
+      </c>
+      <c r="K117" s="448" t="s">
+        <v>434</v>
+      </c>
+      <c r="L117" s="448" t="s">
         <v>435</v>
       </c>
-      <c r="K117" s="448" t="s">
+      <c r="M117" s="448" t="s">
         <v>436</v>
-      </c>
-      <c r="L117" s="448" t="s">
-        <v>437</v>
-      </c>
-      <c r="M117" s="448" t="s">
-        <v>438</v>
       </c>
       <c r="N117" s="56"/>
       <c r="O117" s="56"/>
@@ -10710,7 +10738,7 @@
       <c r="E127" s="16"/>
       <c r="F127" s="25"/>
       <c r="G127" s="33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="54"/>
@@ -10742,19 +10770,19 @@
       <c r="G128" s="33"/>
       <c r="H128" s="33"/>
       <c r="I128" s="158" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J128" s="448" t="s">
+        <v>433</v>
+      </c>
+      <c r="K128" s="448" t="s">
+        <v>434</v>
+      </c>
+      <c r="L128" s="448" t="s">
         <v>435</v>
       </c>
-      <c r="K128" s="448" t="s">
+      <c r="M128" s="448" t="s">
         <v>436</v>
-      </c>
-      <c r="L128" s="448" t="s">
-        <v>437</v>
-      </c>
-      <c r="M128" s="448" t="s">
-        <v>438</v>
       </c>
       <c r="N128" s="56"/>
       <c r="O128" s="56"/>
@@ -11126,7 +11154,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="25"/>
       <c r="G138" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H138" s="33"/>
       <c r="I138" s="54"/>
@@ -11164,10 +11192,10 @@
         <v>81</v>
       </c>
       <c r="K139" s="448" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L139" s="448" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M139" s="56"/>
       <c r="N139" s="56"/>
@@ -11532,7 +11560,7 @@
       <c r="E149" s="16"/>
       <c r="F149" s="25"/>
       <c r="G149" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H149" s="33"/>
       <c r="I149" s="54"/>
@@ -11570,10 +11598,10 @@
         <v>81</v>
       </c>
       <c r="K150" s="448" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L150" s="448" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M150" s="56"/>
       <c r="N150" s="56"/>
@@ -12267,10 +12295,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G3" s="74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -12432,7 +12460,7 @@
       </c>
       <c r="F17" s="282"/>
       <c r="G17" s="283" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H17" s="282"/>
       <c r="I17" s="282"/>
@@ -12493,7 +12521,7 @@
       <c r="H19" s="282"/>
       <c r="I19" s="282"/>
       <c r="J19" s="282" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K19" s="282"/>
       <c r="L19" s="282"/>
@@ -12637,14 +12665,14 @@
       <c r="H24" s="286"/>
       <c r="I24" s="286"/>
       <c r="J24" s="292" t="s">
+        <v>498</v>
+      </c>
+      <c r="K24" s="292" t="s">
         <v>500</v>
-      </c>
-      <c r="K24" s="292" t="s">
-        <v>502</v>
       </c>
       <c r="L24" s="293"/>
       <c r="M24" s="375" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N24" s="293"/>
       <c r="O24" s="293"/>
@@ -12670,7 +12698,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="298"/>
       <c r="I25" s="309" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J25" s="380">
         <v>1</v>
@@ -12956,7 +12984,7 @@
       <c r="E35" s="286"/>
       <c r="F35" s="302"/>
       <c r="G35" s="298" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H35" s="298"/>
       <c r="I35" s="298"/>
@@ -13166,7 +13194,7 @@
       </c>
       <c r="F42" s="282"/>
       <c r="G42" s="283" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H42" s="282"/>
       <c r="I42" s="282"/>
@@ -13196,7 +13224,7 @@
       <c r="E43" s="286"/>
       <c r="F43" s="282"/>
       <c r="G43" s="282" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H43" s="282"/>
       <c r="I43" s="282"/>
@@ -13229,7 +13257,7 @@
         <v>38576.728726851848</v>
       </c>
       <c r="H44" s="282" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I44" s="282"/>
       <c r="J44" s="282"/>
@@ -13350,7 +13378,7 @@
       <c r="K48" s="292"/>
       <c r="L48" s="293"/>
       <c r="M48" s="293" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N48" s="293"/>
       <c r="O48" s="293"/>
@@ -13377,7 +13405,7 @@
       <c r="H49" s="286"/>
       <c r="I49" s="286"/>
       <c r="J49" s="292" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K49" s="292"/>
       <c r="L49" s="293"/>
@@ -13406,7 +13434,7 @@
       <c r="G50" s="74"/>
       <c r="H50" s="298"/>
       <c r="I50" s="309" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J50" s="385">
         <v>1500</v>
@@ -13440,7 +13468,7 @@
       <c r="G51" s="74"/>
       <c r="H51" s="298"/>
       <c r="I51" s="309" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J51" s="385">
         <v>15000</v>
@@ -13474,7 +13502,7 @@
       <c r="G52" s="74"/>
       <c r="H52" s="298"/>
       <c r="I52" s="309" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J52" s="385">
         <v>2000</v>
@@ -13508,7 +13536,7 @@
       <c r="G53" s="74"/>
       <c r="H53" s="298"/>
       <c r="I53" s="309" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J53" s="385">
         <v>5000</v>
@@ -13542,7 +13570,7 @@
       <c r="G54" s="74"/>
       <c r="H54" s="298"/>
       <c r="I54" s="309" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J54" s="385">
         <v>50000</v>
@@ -13576,7 +13604,7 @@
       <c r="G55" s="74"/>
       <c r="H55" s="298"/>
       <c r="I55" s="309" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J55" s="385">
         <v>1500</v>
@@ -13610,7 +13638,7 @@
       <c r="G56" s="74"/>
       <c r="H56" s="298"/>
       <c r="I56" s="309" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J56" s="385">
         <v>10000</v>
@@ -13644,7 +13672,7 @@
       <c r="G57" s="74"/>
       <c r="H57" s="298"/>
       <c r="I57" s="309" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J57" s="385">
         <v>7500</v>
@@ -13678,7 +13706,7 @@
       <c r="G58" s="74"/>
       <c r="H58" s="298"/>
       <c r="I58" s="309" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J58" s="385">
         <v>6000</v>
@@ -13736,7 +13764,7 @@
       <c r="E60" s="286"/>
       <c r="F60" s="302"/>
       <c r="G60" s="298" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H60" s="298"/>
       <c r="I60" s="298"/>
@@ -13916,7 +13944,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -14155,7 +14183,7 @@
       </c>
       <c r="F4" s="282"/>
       <c r="G4" s="283" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H4" s="282"/>
       <c r="I4" s="282"/>
@@ -14185,7 +14213,7 @@
       <c r="E5" s="286"/>
       <c r="F5" s="282"/>
       <c r="G5" s="282" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H5" s="282"/>
       <c r="I5" s="282"/>
@@ -14219,7 +14247,7 @@
       </c>
       <c r="H6" s="282"/>
       <c r="I6" s="282" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J6" s="282"/>
       <c r="K6" s="282"/>
@@ -14336,10 +14364,10 @@
       <c r="H10" s="286"/>
       <c r="I10" s="286"/>
       <c r="J10" s="292" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K10" s="292" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L10" s="293"/>
       <c r="M10" s="293"/>
@@ -14424,10 +14452,10 @@
       <c r="H13" s="295"/>
       <c r="I13" s="295"/>
       <c r="J13" s="296" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K13" s="296" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L13" s="296"/>
       <c r="M13" s="296"/>
@@ -14454,7 +14482,7 @@
       <c r="F14" s="294"/>
       <c r="H14" s="298"/>
       <c r="I14" s="311" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J14" s="388">
         <v>70</v>
@@ -14487,7 +14515,7 @@
       <c r="F15" s="294"/>
       <c r="H15" s="298"/>
       <c r="I15" s="311" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J15" s="388">
         <v>4760</v>
@@ -14496,10 +14524,10 @@
         <v>6752</v>
       </c>
       <c r="L15" s="298" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M15" s="298" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N15" s="311"/>
       <c r="O15" s="299"/>
@@ -14524,7 +14552,7 @@
       <c r="F16" s="294"/>
       <c r="H16" s="298"/>
       <c r="I16" s="311" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J16" s="388">
         <v>30</v>
@@ -14533,7 +14561,7 @@
         <v>30</v>
       </c>
       <c r="L16" s="298" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M16" s="311"/>
       <c r="N16" s="311"/>
@@ -14559,7 +14587,7 @@
       <c r="F17" s="294"/>
       <c r="H17" s="298"/>
       <c r="I17" s="311" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J17" s="2">
         <f>J15/EXP(J16*LN(1.2))</f>
@@ -14570,7 +14598,7 @@
         <v>28.444287013806314</v>
       </c>
       <c r="L17" s="298" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M17" s="311"/>
       <c r="N17" s="311"/>
@@ -14596,7 +14624,7 @@
       <c r="F18" s="302"/>
       <c r="H18" s="298"/>
       <c r="I18" s="312" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J18" s="389">
         <v>3.6</v>
@@ -14779,7 +14807,7 @@
       </c>
       <c r="F24" s="282"/>
       <c r="G24" s="283" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H24" s="282"/>
       <c r="I24" s="282"/>
@@ -14809,7 +14837,7 @@
       <c r="E25" s="286"/>
       <c r="F25" s="282"/>
       <c r="G25" s="282" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H25" s="282"/>
       <c r="I25" s="282"/>
@@ -15229,7 +15257,7 @@
       </c>
       <c r="F39" s="282"/>
       <c r="G39" s="283" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H39" s="282"/>
       <c r="I39" s="282"/>
@@ -15262,7 +15290,7 @@
       <c r="E40" s="286"/>
       <c r="F40" s="282"/>
       <c r="G40" s="282" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H40" s="316"/>
       <c r="I40" s="282"/>
@@ -15330,7 +15358,7 @@
       <c r="E42" s="286"/>
       <c r="F42" s="282"/>
       <c r="G42" s="310" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H42" s="316"/>
       <c r="I42" s="282"/>
@@ -15431,7 +15459,7 @@
       <c r="I45" s="320"/>
       <c r="J45" s="292"/>
       <c r="K45" s="292" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L45" s="292"/>
       <c r="M45" s="291"/>
@@ -15464,7 +15492,7 @@
       <c r="I46" s="320"/>
       <c r="J46" s="291"/>
       <c r="K46" s="291" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L46" s="291"/>
       <c r="M46" s="291"/>
@@ -15524,7 +15552,7 @@
       <c r="E48" s="286"/>
       <c r="F48" s="294"/>
       <c r="G48" s="327" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H48" s="323"/>
       <c r="I48" s="324"/>
@@ -15580,10 +15608,10 @@
       <c r="F50" s="294"/>
       <c r="G50" s="329"/>
       <c r="H50" s="329" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I50" s="329" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J50" s="329"/>
       <c r="K50" s="329"/>
@@ -15605,7 +15633,7 @@
       <c r="E51" s="286"/>
       <c r="F51" s="294"/>
       <c r="G51" s="341" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H51" s="391">
         <v>0.1</v>
@@ -15614,7 +15642,7 @@
         <v>0.2</v>
       </c>
       <c r="J51" s="329" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K51" s="393">
         <f>H51*60</f>
@@ -15625,7 +15653,7 @@
         <v>12</v>
       </c>
       <c r="M51" s="329" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q51" s="329"/>
       <c r="R51" s="329"/>
@@ -15649,7 +15677,7 @@
       <c r="E52" s="286"/>
       <c r="F52" s="294"/>
       <c r="G52" s="341" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H52" s="391">
         <v>0.1</v>
@@ -15658,7 +15686,7 @@
         <v>0.1</v>
       </c>
       <c r="J52" s="329" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K52" s="393">
         <f>H52*60</f>
@@ -15669,7 +15697,7 @@
         <v>6</v>
       </c>
       <c r="M52" s="329" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q52" s="329"/>
       <c r="R52" s="329"/>
@@ -15693,7 +15721,7 @@
       <c r="E53" s="286"/>
       <c r="F53" s="294"/>
       <c r="G53" s="341" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H53" s="391">
         <v>2</v>
@@ -15702,7 +15730,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="329" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K53" s="329"/>
       <c r="L53" s="329"/>
@@ -15736,7 +15764,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="J54" s="329" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K54" s="329"/>
       <c r="L54" s="329"/>
@@ -15769,12 +15797,12 @@
       <c r="L55" s="332"/>
       <c r="M55" s="332"/>
       <c r="N55" s="336" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O55" s="332"/>
       <c r="P55" s="332"/>
       <c r="Q55" s="329" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="R55" s="333"/>
       <c r="V55" s="334"/>
@@ -15819,26 +15847,26 @@
       <c r="E57" s="286"/>
       <c r="F57" s="301"/>
       <c r="H57" s="335" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K57" s="332"/>
       <c r="L57" s="332"/>
       <c r="M57" s="332"/>
       <c r="N57" s="332" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O57" s="394">
         <v>0.2</v>
       </c>
       <c r="P57" s="337" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q57" s="396">
         <f>O57*60</f>
         <v>12</v>
       </c>
       <c r="R57" s="332" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="V57" s="334"/>
       <c r="W57" s="285"/>
@@ -15863,13 +15891,13 @@
       <c r="L58" s="332"/>
       <c r="M58" s="332"/>
       <c r="N58" s="331" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O58" s="395">
         <v>2</v>
       </c>
       <c r="P58" s="337" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q58" s="332"/>
       <c r="R58" s="332"/>
@@ -15915,10 +15943,10 @@
       <c r="E60" s="286"/>
       <c r="F60" s="301"/>
       <c r="H60" s="326" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I60" s="331" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L60" s="332"/>
       <c r="M60" s="332"/>
@@ -15938,7 +15966,7 @@
       <c r="AA60" s="277"/>
       <c r="AB60" s="277"/>
       <c r="AC60" s="323" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15952,20 +15980,20 @@
         <v>117</v>
       </c>
       <c r="H61" s="331" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I61" s="331" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M61" s="332"/>
       <c r="N61" s="332" t="s">
         <v>117</v>
       </c>
       <c r="O61" s="332" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P61" s="338" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q61" s="332"/>
       <c r="U61" s="333"/>
@@ -16230,7 +16258,7 @@
       <c r="AA68" s="277"/>
       <c r="AB68" s="277"/>
       <c r="AC68" s="323" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16263,7 +16291,7 @@
       <c r="AA69" s="277"/>
       <c r="AB69" s="277"/>
       <c r="AC69" s="323" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16301,7 +16329,7 @@
       <c r="AA70" s="277"/>
       <c r="AB70" s="277"/>
       <c r="AC70" s="323" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16334,7 +16362,7 @@
       <c r="AA71" s="277"/>
       <c r="AB71" s="277"/>
       <c r="AC71" s="323" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -16348,8 +16376,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:BD427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="K167" sqref="K167:O171"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="S269" sqref="S269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -20317,7 +20345,7 @@
       <c r="F110" s="114"/>
       <c r="G110" s="116"/>
       <c r="H110" s="116" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I110" s="116"/>
       <c r="J110" s="176">
@@ -20431,7 +20459,7 @@
       <c r="F112" s="114"/>
       <c r="G112" s="116"/>
       <c r="H112" s="116" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I112" s="116"/>
       <c r="J112" s="346">
@@ -20439,7 +20467,7 @@
       </c>
       <c r="K112" s="116"/>
       <c r="L112" s="116" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M112" s="116"/>
       <c r="N112" s="116"/>
@@ -20489,7 +20517,7 @@
       <c r="F113" s="114"/>
       <c r="G113" s="116"/>
       <c r="H113" s="344" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I113" s="116"/>
       <c r="J113" s="345">
@@ -20498,7 +20526,7 @@
       </c>
       <c r="K113" s="116"/>
       <c r="L113" s="116" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M113" s="116"/>
       <c r="N113" s="116"/>
@@ -21085,7 +21113,7 @@
       </c>
       <c r="R123" s="191"/>
       <c r="S123" s="189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T123" s="123"/>
       <c r="U123" s="123"/>
@@ -21441,7 +21469,7 @@
       <c r="I132" s="98"/>
       <c r="J132" s="98"/>
       <c r="K132" s="106" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L132" s="98"/>
       <c r="M132" s="98"/>
@@ -21471,7 +21499,7 @@
       <c r="I133" s="106"/>
       <c r="J133" s="106"/>
       <c r="K133" s="80" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L133" s="106"/>
       <c r="M133" s="106"/>
@@ -21591,7 +21619,7 @@
         <v>200</v>
       </c>
       <c r="M137" s="170" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N137" s="170" t="s">
         <v>201</v>
@@ -21725,7 +21753,7 @@
         <v>23</v>
       </c>
       <c r="M140" s="172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N140" s="347">
         <f>IF(AND(O140=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q140)</f>
@@ -21770,7 +21798,7 @@
         <v>91</v>
       </c>
       <c r="M141" s="172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N141" s="347">
         <f>IF(AND(O141=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q141)</f>
@@ -21815,7 +21843,7 @@
         <v>92</v>
       </c>
       <c r="M142" s="172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N142" s="347">
         <f>IF(AND(O142=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q142)</f>
@@ -21860,7 +21888,7 @@
         <v>204</v>
       </c>
       <c r="M143" s="172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N143" s="347">
         <f>IF(AND(O143=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q143)</f>
@@ -21899,13 +21927,13 @@
         <v>203</v>
       </c>
       <c r="K144" s="172" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L144" s="172" t="s">
         <v>91</v>
       </c>
       <c r="M144" s="172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N144" s="347">
         <f>IF(AND(O144=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q144)</f>
@@ -21944,13 +21972,13 @@
         <v>203</v>
       </c>
       <c r="K145" s="172" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L145" s="172" t="s">
         <v>92</v>
       </c>
       <c r="M145" s="172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N145" s="347">
         <f>IF(AND(O145=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q145)</f>
@@ -21989,13 +22017,13 @@
         <v>203</v>
       </c>
       <c r="K146" s="172" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L146" s="172" t="s">
         <v>93</v>
       </c>
       <c r="M146" s="172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N146" s="347">
         <f>IF(AND(O146=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q146)</f>
@@ -22034,13 +22062,13 @@
         <v>203</v>
       </c>
       <c r="K147" s="172" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L147" s="172" t="s">
         <v>204</v>
       </c>
       <c r="M147" s="172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N147" s="347">
         <f>IF(AND(O147=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q147)</f>
@@ -22337,7 +22365,7 @@
       </c>
       <c r="F154" s="89"/>
       <c r="G154" s="90" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H154" s="91"/>
       <c r="I154" s="91"/>
@@ -22717,7 +22745,7 @@
       <c r="U160" s="111"/>
       <c r="V160" s="111"/>
       <c r="W160" s="136" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="X160" s="136"/>
       <c r="Y160" s="111"/>
@@ -24150,7 +24178,7 @@
       </c>
       <c r="F178" s="89"/>
       <c r="G178" s="90" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H178" s="91"/>
       <c r="I178" s="91"/>
@@ -24530,7 +24558,7 @@
       <c r="U184" s="111"/>
       <c r="V184" s="111"/>
       <c r="W184" s="136" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="X184" s="136"/>
       <c r="Y184" s="111"/>
@@ -24895,7 +24923,7 @@
         <v>50</v>
       </c>
       <c r="Y188" s="116" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Z188" s="116"/>
       <c r="AA188" s="116"/>
@@ -27113,7 +27141,7 @@
       <c r="F223" s="114"/>
       <c r="G223" s="123"/>
       <c r="H223" s="123" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I223" s="139"/>
       <c r="J223" s="123"/>
@@ -27225,7 +27253,7 @@
       <c r="F225" s="114"/>
       <c r="G225" s="123"/>
       <c r="H225" s="123" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I225" s="139"/>
       <c r="J225" s="123"/>
@@ -27281,7 +27309,7 @@
       <c r="F226" s="114"/>
       <c r="G226" s="123"/>
       <c r="H226" s="123" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I226" s="139"/>
       <c r="J226" s="123"/>
@@ -29513,15 +29541,15 @@
       </c>
       <c r="S265" s="110"/>
       <c r="T265" s="110" t="s">
-        <v>258</v>
+        <v>530</v>
       </c>
       <c r="U265" s="110"/>
       <c r="V265" s="111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W265" s="111"/>
       <c r="X265" s="111" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y265" s="110"/>
       <c r="Z265" s="94"/>
@@ -29582,19 +29610,19 @@
         <v>71</v>
       </c>
       <c r="P266" s="170" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q266" s="111"/>
       <c r="R266" s="111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S266" s="111"/>
       <c r="T266" s="111" t="s">
-        <v>263</v>
+        <v>531</v>
       </c>
       <c r="U266" s="111"/>
       <c r="V266" s="111" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W266" s="111"/>
       <c r="X266" s="111"/>
@@ -29892,7 +29920,7 @@
       </c>
       <c r="Q270" s="116"/>
       <c r="R270" s="135">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="S270" s="116"/>
       <c r="T270" s="133">
@@ -29969,7 +29997,7 @@
       </c>
       <c r="Q271" s="116"/>
       <c r="R271" s="135">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S271" s="116"/>
       <c r="T271" s="133">
@@ -30743,7 +30771,7 @@
       </c>
       <c r="F283" s="89"/>
       <c r="G283" s="90" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H283" s="91"/>
       <c r="I283" s="91"/>
@@ -30797,7 +30825,7 @@
       <c r="E284" s="96"/>
       <c r="F284" s="97"/>
       <c r="G284" s="98" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H284" s="98"/>
       <c r="I284" s="98"/>
@@ -30967,7 +30995,7 @@
         <v>214</v>
       </c>
       <c r="K287" s="213" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L287" s="110"/>
       <c r="M287" s="110"/>
@@ -30976,7 +31004,7 @@
         <v>214</v>
       </c>
       <c r="P287" s="213" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q287" s="110"/>
       <c r="R287" s="110"/>
@@ -31025,14 +31053,14 @@
       <c r="I288" s="96"/>
       <c r="J288" s="96"/>
       <c r="K288" s="214" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L288" s="110"/>
       <c r="M288" s="110"/>
       <c r="N288" s="110"/>
       <c r="O288" s="96"/>
       <c r="P288" s="214" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q288" s="110"/>
       <c r="R288" s="110"/>
@@ -31081,24 +31109,24 @@
       <c r="I289" s="111"/>
       <c r="J289" s="111"/>
       <c r="K289" s="136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L289" s="136"/>
       <c r="M289" s="136"/>
       <c r="N289" s="111"/>
       <c r="O289" s="111"/>
       <c r="P289" s="136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q289" s="136"/>
       <c r="R289" s="136"/>
       <c r="S289" s="111"/>
       <c r="T289" s="136" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U289" s="136"/>
       <c r="V289" s="219" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W289" s="94"/>
       <c r="X289" s="132"/>
@@ -31137,41 +31165,41 @@
       <c r="E290" s="112"/>
       <c r="F290" s="96"/>
       <c r="G290" s="111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H290" s="111" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I290" s="111" t="s">
         <v>208</v>
       </c>
       <c r="J290" s="111"/>
       <c r="K290" s="111" t="s">
+        <v>273</v>
+      </c>
+      <c r="L290" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="M290" s="111" t="s">
         <v>275</v>
-      </c>
-      <c r="L290" s="111" t="s">
-        <v>276</v>
-      </c>
-      <c r="M290" s="111" t="s">
-        <v>277</v>
       </c>
       <c r="N290" s="111"/>
       <c r="O290" s="111"/>
       <c r="P290" s="111" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q290" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="R290" s="111" t="s">
         <v>275</v>
-      </c>
-      <c r="Q290" s="111" t="s">
-        <v>276</v>
-      </c>
-      <c r="R290" s="111" t="s">
-        <v>277</v>
       </c>
       <c r="S290" s="111"/>
       <c r="T290" s="111" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U290" s="111" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V290" s="219"/>
       <c r="W290" s="94"/>
@@ -32135,7 +32163,7 @@
         <v>214</v>
       </c>
       <c r="I304" s="217" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J304" s="123"/>
       <c r="K304" s="141"/>
@@ -32189,7 +32217,7 @@
       <c r="G305" s="123"/>
       <c r="H305" s="217"/>
       <c r="I305" s="218" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J305" s="123"/>
       <c r="K305" s="141"/>
@@ -32295,7 +32323,7 @@
       <c r="E307" s="125"/>
       <c r="F307" s="125"/>
       <c r="G307" s="126" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H307" s="127"/>
       <c r="I307" s="127"/>
@@ -32491,7 +32519,7 @@
       </c>
       <c r="F312" s="89"/>
       <c r="G312" s="90" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H312" s="91"/>
       <c r="I312" s="91"/>
@@ -32519,7 +32547,7 @@
       <c r="E313" s="96"/>
       <c r="F313" s="97"/>
       <c r="G313" s="98" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H313" s="98"/>
       <c r="I313" s="98"/>
@@ -32765,14 +32793,14 @@
       <c r="E322" s="112"/>
       <c r="F322" s="114"/>
       <c r="G322" s="226" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H322" s="223"/>
       <c r="I322" s="223"/>
       <c r="J322" s="224"/>
       <c r="K322" s="225"/>
       <c r="L322" s="225" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M322" s="142" t="s">
         <v>67</v>
@@ -32808,7 +32836,7 @@
       <c r="I323" s="223"/>
       <c r="J323" s="225"/>
       <c r="K323" s="227" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L323" s="238">
         <v>0</v>
@@ -33266,7 +33294,7 @@
       <c r="E336" s="125"/>
       <c r="F336" s="125"/>
       <c r="G336" s="126" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H336" s="127"/>
       <c r="I336" s="127"/>
@@ -33486,7 +33514,7 @@
       </c>
       <c r="F341" s="147"/>
       <c r="G341" s="148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H341" s="147"/>
       <c r="I341" s="147"/>
@@ -33540,7 +33568,7 @@
       <c r="E342" s="96"/>
       <c r="F342" s="147"/>
       <c r="G342" s="147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H342" s="150"/>
       <c r="I342" s="147"/>
@@ -33807,26 +33835,26 @@
       <c r="F347" s="96"/>
       <c r="G347" s="96"/>
       <c r="H347" s="96" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I347" s="96"/>
       <c r="J347" s="111" t="s">
+        <v>287</v>
+      </c>
+      <c r="K347" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="L347" s="111" t="s">
         <v>289</v>
       </c>
-      <c r="K347" s="111" t="s">
+      <c r="M347" s="111" t="s">
         <v>290</v>
       </c>
-      <c r="L347" s="111" t="s">
+      <c r="N347" s="111" t="s">
+        <v>289</v>
+      </c>
+      <c r="O347" s="111" t="s">
         <v>291</v>
-      </c>
-      <c r="M347" s="111" t="s">
-        <v>292</v>
-      </c>
-      <c r="N347" s="111" t="s">
-        <v>291</v>
-      </c>
-      <c r="O347" s="111" t="s">
-        <v>293</v>
       </c>
       <c r="P347" s="111"/>
       <c r="Q347" s="111"/>
@@ -33875,22 +33903,22 @@
       <c r="H348" s="96"/>
       <c r="I348" s="96"/>
       <c r="J348" s="111" t="s">
+        <v>292</v>
+      </c>
+      <c r="K348" s="111" t="s">
+        <v>293</v>
+      </c>
+      <c r="L348" s="111" t="s">
         <v>294</v>
       </c>
-      <c r="K348" s="111" t="s">
+      <c r="M348" s="111" t="s">
         <v>295</v>
       </c>
-      <c r="L348" s="111" t="s">
+      <c r="N348" s="111" t="s">
         <v>296</v>
       </c>
-      <c r="M348" s="111" t="s">
+      <c r="O348" s="111" t="s">
         <v>297</v>
-      </c>
-      <c r="N348" s="111" t="s">
-        <v>298</v>
-      </c>
-      <c r="O348" s="111" t="s">
-        <v>299</v>
       </c>
       <c r="P348" s="111"/>
       <c r="Q348" s="111"/>
@@ -34780,7 +34808,7 @@
       <c r="E364" s="125"/>
       <c r="F364" s="125"/>
       <c r="G364" s="126" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H364" s="127"/>
       <c r="I364" s="127"/>
@@ -35051,7 +35079,7 @@
       </c>
       <c r="F369" s="147"/>
       <c r="G369" s="148" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H369" s="147"/>
       <c r="I369" s="147"/>
@@ -35105,7 +35133,7 @@
       <c r="E370" s="96"/>
       <c r="F370" s="147"/>
       <c r="G370" s="147" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H370" s="150"/>
       <c r="I370" s="147"/>
@@ -35374,7 +35402,7 @@
       <c r="H375" s="96"/>
       <c r="I375" s="96"/>
       <c r="J375" s="96" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K375" s="111"/>
       <c r="L375" s="111"/>
@@ -35428,7 +35456,7 @@
       <c r="H376" s="96"/>
       <c r="I376" s="96"/>
       <c r="J376" s="111" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K376" s="111" t="s">
         <v>180</v>
@@ -36130,7 +36158,7 @@
       <c r="F387" s="156"/>
       <c r="G387" s="120"/>
       <c r="H387" s="120" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I387" s="120"/>
       <c r="J387" s="118"/>
@@ -36339,7 +36367,7 @@
       <c r="E391" s="125"/>
       <c r="F391" s="125"/>
       <c r="G391" s="126" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H391" s="127"/>
       <c r="I391" s="127"/>
@@ -36611,7 +36639,7 @@
       </c>
       <c r="F396" s="89"/>
       <c r="G396" s="90" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H396" s="91"/>
       <c r="I396" s="91"/>
@@ -36665,7 +36693,7 @@
       <c r="E397" s="96"/>
       <c r="F397" s="97"/>
       <c r="G397" s="98" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H397" s="98"/>
       <c r="I397" s="98"/>
@@ -36777,7 +36805,7 @@
       <c r="E399" s="96"/>
       <c r="F399" s="104"/>
       <c r="G399" s="105" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H399" s="106"/>
       <c r="I399" s="106"/>
@@ -36889,13 +36917,13 @@
       <c r="K401" s="96"/>
       <c r="L401" s="110"/>
       <c r="M401" s="136" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N401" s="136"/>
       <c r="O401" s="136"/>
       <c r="P401" s="136"/>
       <c r="Q401" s="193" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="R401" s="110"/>
       <c r="S401" s="110"/>
@@ -36944,10 +36972,10 @@
       <c r="J402" s="111"/>
       <c r="K402" s="111"/>
       <c r="L402" s="111" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M402" s="136" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N402" s="136"/>
       <c r="O402" s="136"/>
@@ -37002,19 +37030,19 @@
         <v>208</v>
       </c>
       <c r="L403" s="170" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M403" s="170" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N403" s="170" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O403" s="170" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="P403" s="170" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q403" s="111"/>
       <c r="R403" s="111"/>
@@ -37805,7 +37833,7 @@
       <c r="E416" s="125"/>
       <c r="F416" s="125"/>
       <c r="G416" s="126" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H416" s="127"/>
       <c r="I416" s="127"/>
@@ -38219,8 +38247,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AU487"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G270" sqref="G270:P280"/>
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -38340,7 +38368,7 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -38880,7 +38908,7 @@
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -39406,7 +39434,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="25"/>
       <c r="G41" s="364" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
@@ -39636,7 +39664,7 @@
       <c r="F48" s="25"/>
       <c r="G48" s="33"/>
       <c r="H48" s="362" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I48" s="410"/>
       <c r="J48" s="410"/>
@@ -39963,7 +39991,8 @@
       <c r="H58" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="I58" s="411">
+      <c r="I58" s="473">
+        <f>MIN(I65:I75)</f>
         <v>43794</v>
       </c>
       <c r="J58" s="34"/>
@@ -40553,7 +40582,7 @@
       <c r="F77" s="25"/>
       <c r="G77" s="33"/>
       <c r="H77" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I77" s="411">
         <v>43770</v>
@@ -40613,7 +40642,7 @@
       <c r="F79" s="25"/>
       <c r="G79" s="33"/>
       <c r="H79" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I79" s="410">
         <v>15</v>
@@ -40672,7 +40701,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="25"/>
       <c r="G81" s="363" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="34"/>
@@ -40702,7 +40731,7 @@
       <c r="F82" s="25"/>
       <c r="G82" s="33"/>
       <c r="H82" s="34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I82" s="410">
         <v>7</v>
@@ -41197,7 +41226,7 @@
       <c r="F98" s="25"/>
       <c r="G98" s="33"/>
       <c r="H98" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I98" s="408">
         <v>1</v>
@@ -41485,7 +41514,7 @@
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -41517,7 +41546,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="12"/>
       <c r="I108" s="354" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
@@ -41547,7 +41576,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
@@ -41634,14 +41663,14 @@
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
       <c r="H112" s="470" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I112" s="470"/>
       <c r="J112" s="470"/>
       <c r="K112" s="349"/>
       <c r="L112" s="366"/>
       <c r="M112" s="469" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N112" s="469"/>
       <c r="O112" s="469"/>
@@ -42047,7 +42076,7 @@
       <c r="E122" s="16"/>
       <c r="F122" s="25"/>
       <c r="G122" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H122" s="412">
         <v>250</v>
@@ -42357,7 +42386,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="25"/>
       <c r="G129" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H129" s="412">
         <v>250</v>
@@ -42402,7 +42431,7 @@
       <c r="E130" s="16"/>
       <c r="F130" s="25"/>
       <c r="G130" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H130" s="412">
         <v>250</v>
@@ -42446,7 +42475,7 @@
       <c r="E131" s="16"/>
       <c r="F131" s="25"/>
       <c r="G131" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H131" s="412">
         <v>250</v>
@@ -42490,7 +42519,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="25"/>
       <c r="G132" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H132" s="412">
         <v>250</v>
@@ -42580,7 +42609,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="25"/>
       <c r="G134" s="26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H134" s="412">
         <v>250</v>
@@ -42625,7 +42654,7 @@
       <c r="E135" s="16"/>
       <c r="F135" s="25"/>
       <c r="G135" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H135" s="412">
         <v>250</v>
@@ -42670,7 +42699,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="25"/>
       <c r="G136" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H136" s="412">
         <v>250</v>
@@ -42715,7 +42744,7 @@
       <c r="E137" s="16"/>
       <c r="F137" s="25"/>
       <c r="G137" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H137" s="412">
         <v>250</v>
@@ -42760,7 +42789,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="25"/>
       <c r="G138" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H138" s="412">
         <v>250</v>
@@ -42805,7 +42834,7 @@
       <c r="E139" s="16"/>
       <c r="F139" s="25"/>
       <c r="G139" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H139" s="412">
         <v>250</v>
@@ -43121,7 +43150,7 @@
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
@@ -43183,7 +43212,7 @@
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
@@ -43471,7 +43500,7 @@
       <c r="E160" s="16"/>
       <c r="F160" s="25"/>
       <c r="G160" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H160" s="26" t="s">
         <v>74</v>
@@ -43749,14 +43778,14 @@
       </c>
       <c r="F168" s="12"/>
       <c r="G168" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
       <c r="K168" s="12"/>
       <c r="L168" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M168" s="12"/>
       <c r="N168" s="12"/>
@@ -43788,7 +43817,7 @@
       <c r="G169" s="17"/>
       <c r="H169" s="12"/>
       <c r="I169" s="368" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J169" s="417" t="b">
         <v>1</v>
@@ -43830,7 +43859,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="12"/>
       <c r="L170" s="32" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M170" s="12"/>
       <c r="N170" s="12"/>
@@ -43867,7 +43896,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="12"/>
       <c r="L171" s="32" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M171" s="12"/>
       <c r="N171" s="12"/>
@@ -43904,7 +43933,7 @@
       <c r="L172" s="366"/>
       <c r="M172" s="366"/>
       <c r="N172" s="369" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O172" s="366"/>
       <c r="P172" s="366"/>
@@ -43934,7 +43963,7 @@
       <c r="G173" s="16"/>
       <c r="H173" s="16"/>
       <c r="I173" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J173" s="16"/>
       <c r="K173" s="16"/>
@@ -43973,49 +44002,49 @@
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
       <c r="M174" s="366" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N174" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="O174" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="P174" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q174" s="370" t="s">
         <v>477</v>
       </c>
-      <c r="O174" s="16" t="s">
+      <c r="R174" s="370" t="s">
         <v>477</v>
       </c>
-      <c r="P174" s="16" t="s">
+      <c r="S174" s="370" t="s">
         <v>477</v>
       </c>
-      <c r="Q174" s="370" t="s">
-        <v>479</v>
-      </c>
-      <c r="R174" s="370" t="s">
-        <v>479</v>
-      </c>
-      <c r="S174" s="370" t="s">
-        <v>479</v>
-      </c>
       <c r="T174" s="366" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="U174" s="366" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V174" s="366" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="W174" s="366" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="X174" s="366" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Y174" s="366" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Z174" s="366" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AA174" s="366" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AB174" s="15"/>
       <c r="AC174" s="6"/>
@@ -44030,67 +44059,67 @@
       <c r="E175" s="16"/>
       <c r="F175" s="16"/>
       <c r="G175" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H175" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="I175" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="J175" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="K175" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="L175" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="M175" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="I175" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="J175" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="K175" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="L175" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="M175" s="22" t="s">
-        <v>476</v>
-      </c>
       <c r="N175" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="O175" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="P175" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="O175" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="P175" s="22" t="s">
-        <v>467</v>
-      </c>
       <c r="Q175" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="R175" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="S175" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="R175" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="S175" s="22" t="s">
-        <v>453</v>
-      </c>
       <c r="T175" s="23" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="U175" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="V175" s="23" t="s">
         <v>73</v>
       </c>
       <c r="W175" s="23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="X175" s="23" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Y175" s="23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Z175" s="23" t="s">
         <v>73</v>
       </c>
       <c r="AA175" s="23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AB175" s="15"/>
       <c r="AC175" s="6"/>
@@ -44184,7 +44213,7 @@
       <c r="E177" s="16"/>
       <c r="F177" s="25"/>
       <c r="G177" s="415" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H177" s="415" t="s">
         <v>23</v>
@@ -44266,7 +44295,7 @@
         <v>23</v>
       </c>
       <c r="H178" s="415" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I178" s="415" t="s">
         <v>23</v>
@@ -44342,10 +44371,10 @@
       <c r="E179" s="16"/>
       <c r="F179" s="25"/>
       <c r="G179" s="415" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H179" s="415" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I179" s="415" t="s">
         <v>91</v>
@@ -44421,10 +44450,10 @@
       <c r="E180" s="16"/>
       <c r="F180" s="25"/>
       <c r="G180" s="415" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H180" s="415" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I180" s="415" t="s">
         <v>92</v>
@@ -44500,10 +44529,10 @@
       <c r="E181" s="16"/>
       <c r="F181" s="25"/>
       <c r="G181" s="415" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H181" s="415" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I181" s="415" t="s">
         <v>92</v>
@@ -44881,7 +44910,7 @@
       </c>
       <c r="F191" s="12"/>
       <c r="G191" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
@@ -44941,7 +44970,7 @@
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="12"/>
@@ -45057,22 +45086,22 @@
       <c r="G197" s="16"/>
       <c r="H197" s="16"/>
       <c r="I197" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J197" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L197" s="366" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M197" s="366" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N197" s="366" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O197" s="16"/>
       <c r="P197" s="16"/>
@@ -45096,25 +45125,25 @@
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
       <c r="H198" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I198" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="J198" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="K198" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="J198" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="K198" s="22" t="s">
-        <v>467</v>
-      </c>
       <c r="L198" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="M198" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="N198" s="22" t="s">
         <v>451</v>
-      </c>
-      <c r="M198" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="N198" s="22" t="s">
-        <v>453</v>
       </c>
       <c r="O198" s="22"/>
       <c r="P198" s="22"/>
@@ -45418,7 +45447,7 @@
       <c r="F206" s="25"/>
       <c r="G206" s="25"/>
       <c r="H206" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I206" s="412">
         <v>0</v>
@@ -45698,7 +45727,7 @@
       <c r="F213" s="25"/>
       <c r="G213" s="25"/>
       <c r="H213" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I213" s="412">
         <v>30</v>
@@ -45738,7 +45767,7 @@
       <c r="F214" s="25"/>
       <c r="G214" s="25"/>
       <c r="H214" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I214" s="412">
         <v>30</v>
@@ -45778,7 +45807,7 @@
       <c r="F215" s="25"/>
       <c r="G215" s="25"/>
       <c r="H215" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I215" s="412">
         <v>30</v>
@@ -45818,7 +45847,7 @@
       <c r="F216" s="25"/>
       <c r="G216" s="25"/>
       <c r="H216" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I216" s="412">
         <v>30</v>
@@ -45898,7 +45927,7 @@
       <c r="F218" s="25"/>
       <c r="G218" s="25"/>
       <c r="H218" s="26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I218" s="412">
         <v>30</v>
@@ -45938,7 +45967,7 @@
       <c r="F219" s="25"/>
       <c r="G219" s="25"/>
       <c r="H219" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I219" s="412">
         <v>30</v>
@@ -45978,7 +46007,7 @@
       <c r="F220" s="25"/>
       <c r="G220" s="25"/>
       <c r="H220" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I220" s="412">
         <v>30</v>
@@ -46018,7 +46047,7 @@
       <c r="F221" s="25"/>
       <c r="G221" s="25"/>
       <c r="H221" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I221" s="412">
         <v>30</v>
@@ -46058,7 +46087,7 @@
       <c r="F222" s="25"/>
       <c r="G222" s="25"/>
       <c r="H222" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I222" s="412">
         <v>30</v>
@@ -46098,7 +46127,7 @@
       <c r="F223" s="25"/>
       <c r="G223" s="25"/>
       <c r="H223" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I223" s="412">
         <v>30</v>
@@ -46973,7 +47002,7 @@
       <c r="F249" s="32"/>
       <c r="H249" s="26"/>
       <c r="I249" s="26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J249" s="419">
         <v>0.06</v>
@@ -47328,7 +47357,7 @@
       </c>
       <c r="F261" s="12"/>
       <c r="G261" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
@@ -47891,7 +47920,7 @@
       <c r="F277" s="32"/>
       <c r="G277" s="221"/>
       <c r="H277" s="221" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I277" s="414">
         <v>0</v>
@@ -48251,7 +48280,7 @@
       </c>
       <c r="F288" s="12"/>
       <c r="G288" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H288" s="12"/>
       <c r="I288" s="12"/>
@@ -48311,7 +48340,7 @@
       <c r="G290" s="12"/>
       <c r="H290" s="12"/>
       <c r="I290" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J290" s="12"/>
       <c r="K290" s="12"/>
@@ -48433,7 +48462,7 @@
       <c r="E294" s="16"/>
       <c r="F294" s="32"/>
       <c r="H294" s="372" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I294" s="417">
         <v>0</v>
@@ -48470,7 +48499,7 @@
       <c r="E295" s="16"/>
       <c r="F295" s="32"/>
       <c r="H295" s="373" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I295" s="417">
         <v>1</v>
@@ -48544,7 +48573,7 @@
       <c r="E297" s="16"/>
       <c r="F297" s="32"/>
       <c r="H297" s="373" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I297" s="417">
         <v>1</v>
@@ -49133,7 +49162,7 @@
       <c r="E316" s="16"/>
       <c r="F316" s="32"/>
       <c r="H316" s="372" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I316" s="418">
         <v>0.62</v>
@@ -49171,7 +49200,7 @@
       <c r="E317" s="16"/>
       <c r="F317" s="32"/>
       <c r="H317" s="373" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I317" s="418">
         <v>0.62</v>
@@ -49250,7 +49279,7 @@
       <c r="F319" s="32"/>
       <c r="G319" s="80"/>
       <c r="H319" s="373" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I319" s="418">
         <v>0.62</v>
@@ -49872,7 +49901,7 @@
       <c r="G339" s="26"/>
       <c r="H339" s="26"/>
       <c r="I339" s="33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J339" s="418">
         <v>1</v>
@@ -49912,7 +49941,7 @@
       <c r="G340" s="26"/>
       <c r="H340" s="26"/>
       <c r="I340" s="33" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J340" s="418">
         <v>1</v>
@@ -49952,7 +49981,7 @@
       <c r="G341" s="26"/>
       <c r="H341" s="26"/>
       <c r="I341" s="33" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J341" s="418">
         <v>1</v>
@@ -49992,7 +50021,7 @@
       <c r="G342" s="26"/>
       <c r="H342" s="26"/>
       <c r="I342" s="33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J342" s="418">
         <v>1</v>
@@ -50032,7 +50061,7 @@
       <c r="G343" s="26"/>
       <c r="H343" s="26"/>
       <c r="I343" s="33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J343" s="418">
         <v>1</v>
@@ -50072,7 +50101,7 @@
       <c r="G344" s="26"/>
       <c r="H344" s="26"/>
       <c r="I344" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J344" s="418">
         <v>1</v>
@@ -50315,7 +50344,7 @@
       </c>
       <c r="F352" s="12"/>
       <c r="G352" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H352" s="12"/>
       <c r="I352" s="12"/>
@@ -50346,7 +50375,7 @@
       <c r="F353" s="12"/>
       <c r="G353" s="17"/>
       <c r="H353" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I353" s="12"/>
       <c r="J353" s="12"/>
@@ -51193,7 +51222,7 @@
       </c>
       <c r="O380" s="22"/>
       <c r="P380" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q380" s="23"/>
       <c r="R380" s="23"/>
@@ -51552,7 +51581,7 @@
       <c r="G389" s="48"/>
       <c r="H389" s="30"/>
       <c r="I389" s="26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J389" s="425">
         <v>100</v>
@@ -51804,7 +51833,7 @@
       <c r="G395" s="49"/>
       <c r="H395" s="50"/>
       <c r="I395" s="70" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J395" s="425">
         <v>2</v>
@@ -51846,7 +51875,7 @@
       <c r="G396" s="49"/>
       <c r="H396" s="50"/>
       <c r="I396" s="70" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J396" s="425">
         <v>10</v>
@@ -51888,7 +51917,7 @@
       <c r="G397" s="49"/>
       <c r="H397" s="50"/>
       <c r="I397" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J397" s="425">
         <v>10</v>
@@ -51929,7 +51958,7 @@
       <c r="G398" s="49"/>
       <c r="H398" s="50"/>
       <c r="I398" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J398" s="425">
         <v>10</v>
@@ -52384,34 +52413,34 @@
         <v>39</v>
       </c>
       <c r="H413" s="52" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I413" s="52" t="s">
         <v>49</v>
       </c>
       <c r="J413" s="52" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K413" s="24" t="s">
         <v>50</v>
       </c>
       <c r="L413" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M413" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N413" s="24" t="s">
         <v>51</v>
       </c>
       <c r="O413" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P413" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q413" s="255" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="R413" s="52"/>
       <c r="S413" s="52"/>
@@ -52775,7 +52804,7 @@
       <c r="E422" s="16"/>
       <c r="F422" s="32"/>
       <c r="G422" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H422" s="428">
         <v>0</v>
@@ -53023,7 +53052,7 @@
       <c r="E428" s="16"/>
       <c r="F428" s="32"/>
       <c r="G428" s="253" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H428" s="428">
         <v>3000</v>
@@ -53064,7 +53093,7 @@
       <c r="E429" s="16"/>
       <c r="F429" s="32"/>
       <c r="G429" s="253" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H429" s="428">
         <v>3000</v>
@@ -53105,7 +53134,7 @@
       <c r="E430" s="16"/>
       <c r="F430" s="32"/>
       <c r="G430" s="254" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H430" s="428">
         <v>3000</v>
@@ -53146,7 +53175,7 @@
       <c r="E431" s="16"/>
       <c r="F431" s="32"/>
       <c r="G431" s="254" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H431" s="428">
         <v>3000</v>
@@ -55028,57 +55057,57 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="365" t="s">
+        <v>457</v>
+      </c>
+      <c r="I1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1" t="s">
         <v>462</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>462</v>
-      </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F1" s="365" t="s">
-        <v>459</v>
-      </c>
-      <c r="I1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J1" t="s">
-        <v>451</v>
-      </c>
-      <c r="K1" t="s">
-        <v>464</v>
-      </c>
-      <c r="L1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F2" s="365" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J2" t="s">
         <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L2" t="s">
         <v>88</v>
@@ -55086,7 +55115,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -55101,7 +55130,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -55118,7 +55147,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -55133,7 +55162,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -55150,7 +55179,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -55165,7 +55194,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -55182,7 +55211,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -55197,7 +55226,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -55214,7 +55243,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -55229,7 +55258,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -55246,7 +55275,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -55261,7 +55290,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -55278,7 +55307,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -55293,7 +55322,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -55426,7 +55455,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -55561,15 +55590,15 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="23"/>
@@ -55618,7 +55647,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H11" s="436">
         <v>1</v>
@@ -55652,7 +55681,7 @@
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H12" s="436">
         <v>1</v>
@@ -55712,7 +55741,7 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H14" s="245"/>
       <c r="I14" s="245"/>
@@ -55742,7 +55771,7 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H15" s="245"/>
       <c r="I15" s="245"/>
@@ -55983,7 +56012,7 @@
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -56118,15 +56147,15 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="23"/>
@@ -56175,7 +56204,7 @@
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H31" s="245"/>
       <c r="I31" s="245"/>
@@ -56231,7 +56260,7 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H33" s="411">
         <v>43511</v>
@@ -56289,7 +56318,7 @@
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H35" s="436">
         <v>28</v>
@@ -56506,7 +56535,7 @@
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -56641,13 +56670,13 @@
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I48" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="J48" s="22" t="s">
         <v>337</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>339</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -56672,7 +56701,7 @@
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H49" s="436">
         <v>9</v>
@@ -56706,7 +56735,7 @@
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="257" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H50" s="436">
         <v>4.5</v>
@@ -56740,7 +56769,7 @@
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
       <c r="G51" s="258" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H51" s="436">
         <v>10</v>
@@ -56774,7 +56803,7 @@
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="257" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H52" s="422">
         <v>9</v>
@@ -56834,7 +56863,7 @@
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="437" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H54" s="245"/>
       <c r="I54" s="245"/>
@@ -56864,10 +56893,10 @@
       <c r="G55" s="239"/>
       <c r="H55" s="245"/>
       <c r="I55" s="257" t="s">
+        <v>335</v>
+      </c>
+      <c r="J55" s="257" t="s">
         <v>337</v>
-      </c>
-      <c r="J55" s="257" t="s">
-        <v>339</v>
       </c>
       <c r="K55" s="245"/>
       <c r="L55" s="245"/>
@@ -56892,7 +56921,7 @@
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="H56" s="260" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I56" s="436">
         <v>7.0000000000000007E-2</v>
@@ -56923,7 +56952,7 @@
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="H57" s="261" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I57" s="436">
         <v>0.02</v>
@@ -57113,7 +57142,7 @@
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
@@ -57145,7 +57174,7 @@
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
@@ -57222,27 +57251,27 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="471" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G68" s="472"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
       <c r="O68" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P68" s="23"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="S68" s="21"/>
       <c r="T68" s="21"/>
@@ -57261,32 +57290,32 @@
         <v>117</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22" t="s">
         <v>117</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K69" s="22"/>
       <c r="L69" s="22" t="s">
         <v>117</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N69" s="23"/>
       <c r="O69" s="22" t="s">
         <v>117</v>
       </c>
       <c r="P69" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q69" s="21"/>
       <c r="R69" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="S69" s="21"/>
       <c r="T69" s="21"/>
@@ -57947,7 +57976,7 @@
       <c r="C92" s="11"/>
       <c r="D92" s="12"/>
       <c r="E92" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
@@ -58002,7 +58031,7 @@
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
@@ -58013,7 +58042,7 @@
       <c r="M94" s="21"/>
       <c r="N94" s="21"/>
       <c r="O94" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P94" s="21"/>
       <c r="Q94" s="21"/>
@@ -58059,27 +58088,27 @@
       <c r="E96" s="471"/>
       <c r="F96" s="472"/>
       <c r="G96" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
       <c r="J96" s="136" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K96" s="136"/>
       <c r="L96" s="22"/>
       <c r="M96" s="136" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N96" s="136"/>
       <c r="O96" s="22"/>
       <c r="P96" s="441" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q96" s="199"/>
       <c r="R96" s="21"/>
       <c r="S96" s="199" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="T96" s="199"/>
       <c r="U96" s="15"/>
@@ -58093,42 +58122,42 @@
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="22" t="s">
         <v>126</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I97" s="22"/>
       <c r="J97" s="22" t="s">
         <v>117</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L97" s="22"/>
       <c r="M97" s="22" t="s">
         <v>117</v>
       </c>
       <c r="N97" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O97" s="22"/>
       <c r="P97" s="22" t="s">
         <v>117</v>
       </c>
       <c r="Q97" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R97" s="22"/>
       <c r="S97" s="22" t="s">
         <v>117</v>
       </c>
       <c r="T97" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="U97" s="15"/>
       <c r="V97" s="6"/>
@@ -58309,7 +58338,7 @@
       <c r="E102" s="267"/>
       <c r="F102" s="76"/>
       <c r="G102" s="76" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H102" s="440">
         <v>1.2</v>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE89F559-FD4E-4DD3-82DD-81D1771ACDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28E0E47-5F22-4F13-B609-5F39728F5B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="150" windowWidth="27645" windowHeight="15360" activeTab="4" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -182,6 +182,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -905,31 +913,6 @@
           </rPr>
           <t xml:space="preserve">
 Note APa doesn't exist therefore only necessary option is CPa</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T264" authorId="1" shapeId="0" xr:uid="{C6CAF181-37E2-4F82-A4EA-A528C123A019}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>John:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is the range of digestibility of the top 25% of the feed compared with the bottom 25%. Which is roughly the 10 to 90 percentile range (because the average of the top 25% is roughly the 10 percentile value)
-Value is to be for a low FOO sward. Increasing FOO increases the range in digestibility. The high end remains the same but the low end is reduced.</t>
         </r>
       </text>
     </comment>
@@ -3759,6 +3742,9 @@
     <t>digestibility if deferred</t>
   </si>
   <si>
+    <t>of sward</t>
+  </si>
+  <si>
     <t>senescing feed relative</t>
   </si>
   <si>
@@ -3769,6 +3755,9 @@
   </si>
   <si>
     <t>1 month</t>
+  </si>
+  <si>
+    <t>components</t>
   </si>
   <si>
     <t>to green diet digestibility</t>
@@ -4584,12 +4573,6 @@
       </rPr>
       <t>-potentially this could come from the the simulation-ev_cutoff_p6f</t>
     </r>
-  </si>
-  <si>
-    <t>of sward components</t>
-  </si>
-  <si>
-    <t>(low FOO)</t>
   </si>
 </sst>
 </file>
@@ -7405,7 +7388,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -7721,7 +7704,7 @@
       <c r="G29" s="242"/>
       <c r="H29" s="242"/>
       <c r="I29" s="242" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J29" s="443">
         <v>1</v>
@@ -8240,7 +8223,7 @@
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="13" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -8529,7 +8512,7 @@
         <v>126</v>
       </c>
       <c r="H58" s="243" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="I58" s="240"/>
       <c r="J58" s="241"/>
@@ -9393,14 +9376,14 @@
       <c r="E88" s="16"/>
       <c r="F88" s="25"/>
       <c r="G88" s="26" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H88" s="444">
         <v>1</v>
       </c>
       <c r="I88" s="54"/>
       <c r="K88" s="348" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L88" s="445">
         <v>0.05</v>
@@ -9576,7 +9559,7 @@
       <c r="K94" s="53"/>
       <c r="L94" s="53"/>
       <c r="M94" s="33" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N94" s="33"/>
       <c r="O94" s="55"/>
@@ -9602,7 +9585,7 @@
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
       <c r="I95" s="55" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J95" s="244"/>
       <c r="K95" s="53"/>
@@ -9610,7 +9593,7 @@
       <c r="M95" s="33"/>
       <c r="N95" s="33"/>
       <c r="O95" s="55" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P95" s="31"/>
       <c r="Q95" s="31"/>
@@ -9950,7 +9933,7 @@
       <c r="K105" s="53"/>
       <c r="L105" s="53"/>
       <c r="M105" s="33" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N105" s="33"/>
       <c r="O105" s="55"/>
@@ -9976,7 +9959,7 @@
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="55" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J106" s="53"/>
       <c r="K106" s="53"/>
@@ -9984,7 +9967,7 @@
       <c r="M106" s="33"/>
       <c r="N106" s="33"/>
       <c r="O106" s="55" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P106" s="31"/>
       <c r="Q106" s="31"/>
@@ -10322,7 +10305,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="25"/>
       <c r="G116" s="33" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H116" s="33"/>
       <c r="I116" s="54"/>
@@ -10354,19 +10337,19 @@
       <c r="G117" s="33"/>
       <c r="H117" s="33"/>
       <c r="I117" s="158" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J117" s="448" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K117" s="448" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L117" s="448" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M117" s="448" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="N117" s="56"/>
       <c r="O117" s="56"/>
@@ -10738,7 +10721,7 @@
       <c r="E127" s="16"/>
       <c r="F127" s="25"/>
       <c r="G127" s="33" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="54"/>
@@ -10770,19 +10753,19 @@
       <c r="G128" s="33"/>
       <c r="H128" s="33"/>
       <c r="I128" s="158" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J128" s="448" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K128" s="448" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L128" s="448" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M128" s="448" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="N128" s="56"/>
       <c r="O128" s="56"/>
@@ -11154,7 +11137,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="25"/>
       <c r="G138" s="33" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H138" s="33"/>
       <c r="I138" s="54"/>
@@ -11192,10 +11175,10 @@
         <v>81</v>
       </c>
       <c r="K139" s="448" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L139" s="448" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M139" s="56"/>
       <c r="N139" s="56"/>
@@ -11560,7 +11543,7 @@
       <c r="E149" s="16"/>
       <c r="F149" s="25"/>
       <c r="G149" s="33" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H149" s="33"/>
       <c r="I149" s="54"/>
@@ -11598,10 +11581,10 @@
         <v>81</v>
       </c>
       <c r="K150" s="448" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L150" s="448" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M150" s="56"/>
       <c r="N150" s="56"/>
@@ -12295,10 +12278,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G3" s="74" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -12460,7 +12443,7 @@
       </c>
       <c r="F17" s="282"/>
       <c r="G17" s="283" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H17" s="282"/>
       <c r="I17" s="282"/>
@@ -12521,7 +12504,7 @@
       <c r="H19" s="282"/>
       <c r="I19" s="282"/>
       <c r="J19" s="282" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K19" s="282"/>
       <c r="L19" s="282"/>
@@ -12665,14 +12648,14 @@
       <c r="H24" s="286"/>
       <c r="I24" s="286"/>
       <c r="J24" s="292" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K24" s="292" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L24" s="293"/>
       <c r="M24" s="375" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N24" s="293"/>
       <c r="O24" s="293"/>
@@ -12698,7 +12681,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="298"/>
       <c r="I25" s="309" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J25" s="380">
         <v>1</v>
@@ -12984,7 +12967,7 @@
       <c r="E35" s="286"/>
       <c r="F35" s="302"/>
       <c r="G35" s="298" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H35" s="298"/>
       <c r="I35" s="298"/>
@@ -13194,7 +13177,7 @@
       </c>
       <c r="F42" s="282"/>
       <c r="G42" s="283" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H42" s="282"/>
       <c r="I42" s="282"/>
@@ -13224,7 +13207,7 @@
       <c r="E43" s="286"/>
       <c r="F43" s="282"/>
       <c r="G43" s="282" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H43" s="282"/>
       <c r="I43" s="282"/>
@@ -13257,7 +13240,7 @@
         <v>38576.728726851848</v>
       </c>
       <c r="H44" s="282" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I44" s="282"/>
       <c r="J44" s="282"/>
@@ -13378,7 +13361,7 @@
       <c r="K48" s="292"/>
       <c r="L48" s="293"/>
       <c r="M48" s="293" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N48" s="293"/>
       <c r="O48" s="293"/>
@@ -13405,7 +13388,7 @@
       <c r="H49" s="286"/>
       <c r="I49" s="286"/>
       <c r="J49" s="292" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K49" s="292"/>
       <c r="L49" s="293"/>
@@ -13434,7 +13417,7 @@
       <c r="G50" s="74"/>
       <c r="H50" s="298"/>
       <c r="I50" s="309" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J50" s="385">
         <v>1500</v>
@@ -13468,7 +13451,7 @@
       <c r="G51" s="74"/>
       <c r="H51" s="298"/>
       <c r="I51" s="309" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J51" s="385">
         <v>15000</v>
@@ -13502,7 +13485,7 @@
       <c r="G52" s="74"/>
       <c r="H52" s="298"/>
       <c r="I52" s="309" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J52" s="385">
         <v>2000</v>
@@ -13536,7 +13519,7 @@
       <c r="G53" s="74"/>
       <c r="H53" s="298"/>
       <c r="I53" s="309" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J53" s="385">
         <v>5000</v>
@@ -13570,7 +13553,7 @@
       <c r="G54" s="74"/>
       <c r="H54" s="298"/>
       <c r="I54" s="309" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J54" s="385">
         <v>50000</v>
@@ -13604,7 +13587,7 @@
       <c r="G55" s="74"/>
       <c r="H55" s="298"/>
       <c r="I55" s="309" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J55" s="385">
         <v>1500</v>
@@ -13638,7 +13621,7 @@
       <c r="G56" s="74"/>
       <c r="H56" s="298"/>
       <c r="I56" s="309" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J56" s="385">
         <v>10000</v>
@@ -13672,7 +13655,7 @@
       <c r="G57" s="74"/>
       <c r="H57" s="298"/>
       <c r="I57" s="309" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J57" s="385">
         <v>7500</v>
@@ -13706,7 +13689,7 @@
       <c r="G58" s="74"/>
       <c r="H58" s="298"/>
       <c r="I58" s="309" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J58" s="385">
         <v>6000</v>
@@ -13764,7 +13747,7 @@
       <c r="E60" s="286"/>
       <c r="F60" s="302"/>
       <c r="G60" s="298" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H60" s="298"/>
       <c r="I60" s="298"/>
@@ -13944,7 +13927,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -14183,7 +14166,7 @@
       </c>
       <c r="F4" s="282"/>
       <c r="G4" s="283" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H4" s="282"/>
       <c r="I4" s="282"/>
@@ -14213,7 +14196,7 @@
       <c r="E5" s="286"/>
       <c r="F5" s="282"/>
       <c r="G5" s="282" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H5" s="282"/>
       <c r="I5" s="282"/>
@@ -14247,7 +14230,7 @@
       </c>
       <c r="H6" s="282"/>
       <c r="I6" s="282" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J6" s="282"/>
       <c r="K6" s="282"/>
@@ -14364,10 +14347,10 @@
       <c r="H10" s="286"/>
       <c r="I10" s="286"/>
       <c r="J10" s="292" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K10" s="292" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L10" s="293"/>
       <c r="M10" s="293"/>
@@ -14452,10 +14435,10 @@
       <c r="H13" s="295"/>
       <c r="I13" s="295"/>
       <c r="J13" s="296" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K13" s="296" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L13" s="296"/>
       <c r="M13" s="296"/>
@@ -14482,7 +14465,7 @@
       <c r="F14" s="294"/>
       <c r="H14" s="298"/>
       <c r="I14" s="311" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J14" s="388">
         <v>70</v>
@@ -14515,7 +14498,7 @@
       <c r="F15" s="294"/>
       <c r="H15" s="298"/>
       <c r="I15" s="311" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J15" s="388">
         <v>4760</v>
@@ -14524,10 +14507,10 @@
         <v>6752</v>
       </c>
       <c r="L15" s="298" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M15" s="298" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N15" s="311"/>
       <c r="O15" s="299"/>
@@ -14552,7 +14535,7 @@
       <c r="F16" s="294"/>
       <c r="H16" s="298"/>
       <c r="I16" s="311" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J16" s="388">
         <v>30</v>
@@ -14561,7 +14544,7 @@
         <v>30</v>
       </c>
       <c r="L16" s="298" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M16" s="311"/>
       <c r="N16" s="311"/>
@@ -14587,7 +14570,7 @@
       <c r="F17" s="294"/>
       <c r="H17" s="298"/>
       <c r="I17" s="311" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J17" s="2">
         <f>J15/EXP(J16*LN(1.2))</f>
@@ -14598,7 +14581,7 @@
         <v>28.444287013806314</v>
       </c>
       <c r="L17" s="298" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M17" s="311"/>
       <c r="N17" s="311"/>
@@ -14624,7 +14607,7 @@
       <c r="F18" s="302"/>
       <c r="H18" s="298"/>
       <c r="I18" s="312" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J18" s="389">
         <v>3.6</v>
@@ -14807,7 +14790,7 @@
       </c>
       <c r="F24" s="282"/>
       <c r="G24" s="283" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H24" s="282"/>
       <c r="I24" s="282"/>
@@ -14837,7 +14820,7 @@
       <c r="E25" s="286"/>
       <c r="F25" s="282"/>
       <c r="G25" s="282" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H25" s="282"/>
       <c r="I25" s="282"/>
@@ -15257,7 +15240,7 @@
       </c>
       <c r="F39" s="282"/>
       <c r="G39" s="283" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H39" s="282"/>
       <c r="I39" s="282"/>
@@ -15290,7 +15273,7 @@
       <c r="E40" s="286"/>
       <c r="F40" s="282"/>
       <c r="G40" s="282" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H40" s="316"/>
       <c r="I40" s="282"/>
@@ -15358,7 +15341,7 @@
       <c r="E42" s="286"/>
       <c r="F42" s="282"/>
       <c r="G42" s="310" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H42" s="316"/>
       <c r="I42" s="282"/>
@@ -15459,7 +15442,7 @@
       <c r="I45" s="320"/>
       <c r="J45" s="292"/>
       <c r="K45" s="292" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L45" s="292"/>
       <c r="M45" s="291"/>
@@ -15492,7 +15475,7 @@
       <c r="I46" s="320"/>
       <c r="J46" s="291"/>
       <c r="K46" s="291" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L46" s="291"/>
       <c r="M46" s="291"/>
@@ -15552,7 +15535,7 @@
       <c r="E48" s="286"/>
       <c r="F48" s="294"/>
       <c r="G48" s="327" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H48" s="323"/>
       <c r="I48" s="324"/>
@@ -15608,10 +15591,10 @@
       <c r="F50" s="294"/>
       <c r="G50" s="329"/>
       <c r="H50" s="329" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I50" s="329" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J50" s="329"/>
       <c r="K50" s="329"/>
@@ -15633,7 +15616,7 @@
       <c r="E51" s="286"/>
       <c r="F51" s="294"/>
       <c r="G51" s="341" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H51" s="391">
         <v>0.1</v>
@@ -15642,7 +15625,7 @@
         <v>0.2</v>
       </c>
       <c r="J51" s="329" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K51" s="393">
         <f>H51*60</f>
@@ -15653,7 +15636,7 @@
         <v>12</v>
       </c>
       <c r="M51" s="329" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q51" s="329"/>
       <c r="R51" s="329"/>
@@ -15677,7 +15660,7 @@
       <c r="E52" s="286"/>
       <c r="F52" s="294"/>
       <c r="G52" s="341" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H52" s="391">
         <v>0.1</v>
@@ -15686,7 +15669,7 @@
         <v>0.1</v>
       </c>
       <c r="J52" s="329" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K52" s="393">
         <f>H52*60</f>
@@ -15697,7 +15680,7 @@
         <v>6</v>
       </c>
       <c r="M52" s="329" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q52" s="329"/>
       <c r="R52" s="329"/>
@@ -15721,7 +15704,7 @@
       <c r="E53" s="286"/>
       <c r="F53" s="294"/>
       <c r="G53" s="341" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H53" s="391">
         <v>2</v>
@@ -15730,7 +15713,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="329" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K53" s="329"/>
       <c r="L53" s="329"/>
@@ -15764,7 +15747,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="J54" s="329" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K54" s="329"/>
       <c r="L54" s="329"/>
@@ -15797,12 +15780,12 @@
       <c r="L55" s="332"/>
       <c r="M55" s="332"/>
       <c r="N55" s="336" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O55" s="332"/>
       <c r="P55" s="332"/>
       <c r="Q55" s="329" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="R55" s="333"/>
       <c r="V55" s="334"/>
@@ -15847,26 +15830,26 @@
       <c r="E57" s="286"/>
       <c r="F57" s="301"/>
       <c r="H57" s="335" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K57" s="332"/>
       <c r="L57" s="332"/>
       <c r="M57" s="332"/>
       <c r="N57" s="332" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O57" s="394">
         <v>0.2</v>
       </c>
       <c r="P57" s="337" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q57" s="396">
         <f>O57*60</f>
         <v>12</v>
       </c>
       <c r="R57" s="332" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="V57" s="334"/>
       <c r="W57" s="285"/>
@@ -15891,13 +15874,13 @@
       <c r="L58" s="332"/>
       <c r="M58" s="332"/>
       <c r="N58" s="331" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O58" s="395">
         <v>2</v>
       </c>
       <c r="P58" s="337" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q58" s="332"/>
       <c r="R58" s="332"/>
@@ -15943,10 +15926,10 @@
       <c r="E60" s="286"/>
       <c r="F60" s="301"/>
       <c r="H60" s="326" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I60" s="331" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L60" s="332"/>
       <c r="M60" s="332"/>
@@ -15966,7 +15949,7 @@
       <c r="AA60" s="277"/>
       <c r="AB60" s="277"/>
       <c r="AC60" s="323" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15980,20 +15963,20 @@
         <v>117</v>
       </c>
       <c r="H61" s="331" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I61" s="331" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M61" s="332"/>
       <c r="N61" s="332" t="s">
         <v>117</v>
       </c>
       <c r="O61" s="332" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P61" s="338" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q61" s="332"/>
       <c r="U61" s="333"/>
@@ -16258,7 +16241,7 @@
       <c r="AA68" s="277"/>
       <c r="AB68" s="277"/>
       <c r="AC68" s="323" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16291,7 +16274,7 @@
       <c r="AA69" s="277"/>
       <c r="AB69" s="277"/>
       <c r="AC69" s="323" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16329,7 +16312,7 @@
       <c r="AA70" s="277"/>
       <c r="AB70" s="277"/>
       <c r="AC70" s="323" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16362,7 +16345,7 @@
       <c r="AA71" s="277"/>
       <c r="AB71" s="277"/>
       <c r="AC71" s="323" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -16376,8 +16359,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:BD427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="S269" sqref="S269"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="K167" sqref="K167:O171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -20345,7 +20328,7 @@
       <c r="F110" s="114"/>
       <c r="G110" s="116"/>
       <c r="H110" s="116" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I110" s="116"/>
       <c r="J110" s="176">
@@ -20459,7 +20442,7 @@
       <c r="F112" s="114"/>
       <c r="G112" s="116"/>
       <c r="H112" s="116" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I112" s="116"/>
       <c r="J112" s="346">
@@ -20467,7 +20450,7 @@
       </c>
       <c r="K112" s="116"/>
       <c r="L112" s="116" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M112" s="116"/>
       <c r="N112" s="116"/>
@@ -20517,7 +20500,7 @@
       <c r="F113" s="114"/>
       <c r="G113" s="116"/>
       <c r="H113" s="344" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I113" s="116"/>
       <c r="J113" s="345">
@@ -20526,7 +20509,7 @@
       </c>
       <c r="K113" s="116"/>
       <c r="L113" s="116" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M113" s="116"/>
       <c r="N113" s="116"/>
@@ -21113,7 +21096,7 @@
       </c>
       <c r="R123" s="191"/>
       <c r="S123" s="189" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="T123" s="123"/>
       <c r="U123" s="123"/>
@@ -21469,7 +21452,7 @@
       <c r="I132" s="98"/>
       <c r="J132" s="98"/>
       <c r="K132" s="106" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L132" s="98"/>
       <c r="M132" s="98"/>
@@ -21499,7 +21482,7 @@
       <c r="I133" s="106"/>
       <c r="J133" s="106"/>
       <c r="K133" s="80" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L133" s="106"/>
       <c r="M133" s="106"/>
@@ -21619,7 +21602,7 @@
         <v>200</v>
       </c>
       <c r="M137" s="170" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N137" s="170" t="s">
         <v>201</v>
@@ -21753,7 +21736,7 @@
         <v>23</v>
       </c>
       <c r="M140" s="172" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N140" s="347">
         <f>IF(AND(O140=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q140)</f>
@@ -21798,7 +21781,7 @@
         <v>91</v>
       </c>
       <c r="M141" s="172" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N141" s="347">
         <f>IF(AND(O141=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q141)</f>
@@ -21843,7 +21826,7 @@
         <v>92</v>
       </c>
       <c r="M142" s="172" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N142" s="347">
         <f>IF(AND(O142=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q142)</f>
@@ -21888,7 +21871,7 @@
         <v>204</v>
       </c>
       <c r="M143" s="172" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N143" s="347">
         <f>IF(AND(O143=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q143)</f>
@@ -21927,13 +21910,13 @@
         <v>203</v>
       </c>
       <c r="K144" s="172" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L144" s="172" t="s">
         <v>91</v>
       </c>
       <c r="M144" s="172" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N144" s="347">
         <f>IF(AND(O144=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q144)</f>
@@ -21972,13 +21955,13 @@
         <v>203</v>
       </c>
       <c r="K145" s="172" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L145" s="172" t="s">
         <v>92</v>
       </c>
       <c r="M145" s="172" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N145" s="347">
         <f>IF(AND(O145=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q145)</f>
@@ -22017,13 +22000,13 @@
         <v>203</v>
       </c>
       <c r="K146" s="172" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L146" s="172" t="s">
         <v>93</v>
       </c>
       <c r="M146" s="172" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N146" s="347">
         <f>IF(AND(O146=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q146)</f>
@@ -22062,13 +22045,13 @@
         <v>203</v>
       </c>
       <c r="K147" s="172" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L147" s="172" t="s">
         <v>204</v>
       </c>
       <c r="M147" s="172" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N147" s="347">
         <f>IF(AND(O147=1,(Date_Destocking&lt;'Feed Budget'!$B$4)),0,$Q147)</f>
@@ -22365,7 +22348,7 @@
       </c>
       <c r="F154" s="89"/>
       <c r="G154" s="90" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H154" s="91"/>
       <c r="I154" s="91"/>
@@ -22745,7 +22728,7 @@
       <c r="U160" s="111"/>
       <c r="V160" s="111"/>
       <c r="W160" s="136" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="X160" s="136"/>
       <c r="Y160" s="111"/>
@@ -24178,7 +24161,7 @@
       </c>
       <c r="F178" s="89"/>
       <c r="G178" s="90" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H178" s="91"/>
       <c r="I178" s="91"/>
@@ -24558,7 +24541,7 @@
       <c r="U184" s="111"/>
       <c r="V184" s="111"/>
       <c r="W184" s="136" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="X184" s="136"/>
       <c r="Y184" s="111"/>
@@ -24923,7 +24906,7 @@
         <v>50</v>
       </c>
       <c r="Y188" s="116" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Z188" s="116"/>
       <c r="AA188" s="116"/>
@@ -27141,7 +27124,7 @@
       <c r="F223" s="114"/>
       <c r="G223" s="123"/>
       <c r="H223" s="123" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I223" s="139"/>
       <c r="J223" s="123"/>
@@ -27253,7 +27236,7 @@
       <c r="F225" s="114"/>
       <c r="G225" s="123"/>
       <c r="H225" s="123" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I225" s="139"/>
       <c r="J225" s="123"/>
@@ -27309,7 +27292,7 @@
       <c r="F226" s="114"/>
       <c r="G226" s="123"/>
       <c r="H226" s="123" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I226" s="139"/>
       <c r="J226" s="123"/>
@@ -29541,15 +29524,15 @@
       </c>
       <c r="S265" s="110"/>
       <c r="T265" s="110" t="s">
-        <v>530</v>
+        <v>258</v>
       </c>
       <c r="U265" s="110"/>
       <c r="V265" s="111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W265" s="111"/>
       <c r="X265" s="111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y265" s="110"/>
       <c r="Z265" s="94"/>
@@ -29610,19 +29593,19 @@
         <v>71</v>
       </c>
       <c r="P266" s="170" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q266" s="111"/>
       <c r="R266" s="111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S266" s="111"/>
       <c r="T266" s="111" t="s">
-        <v>531</v>
+        <v>263</v>
       </c>
       <c r="U266" s="111"/>
       <c r="V266" s="111" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="W266" s="111"/>
       <c r="X266" s="111"/>
@@ -29920,7 +29903,7 @@
       </c>
       <c r="Q270" s="116"/>
       <c r="R270" s="135">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="S270" s="116"/>
       <c r="T270" s="133">
@@ -29997,7 +29980,7 @@
       </c>
       <c r="Q271" s="116"/>
       <c r="R271" s="135">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S271" s="116"/>
       <c r="T271" s="133">
@@ -30771,7 +30754,7 @@
       </c>
       <c r="F283" s="89"/>
       <c r="G283" s="90" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H283" s="91"/>
       <c r="I283" s="91"/>
@@ -30825,7 +30808,7 @@
       <c r="E284" s="96"/>
       <c r="F284" s="97"/>
       <c r="G284" s="98" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H284" s="98"/>
       <c r="I284" s="98"/>
@@ -30995,7 +30978,7 @@
         <v>214</v>
       </c>
       <c r="K287" s="213" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L287" s="110"/>
       <c r="M287" s="110"/>
@@ -31004,7 +30987,7 @@
         <v>214</v>
       </c>
       <c r="P287" s="213" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q287" s="110"/>
       <c r="R287" s="110"/>
@@ -31053,14 +31036,14 @@
       <c r="I288" s="96"/>
       <c r="J288" s="96"/>
       <c r="K288" s="214" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L288" s="110"/>
       <c r="M288" s="110"/>
       <c r="N288" s="110"/>
       <c r="O288" s="96"/>
       <c r="P288" s="214" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q288" s="110"/>
       <c r="R288" s="110"/>
@@ -31109,24 +31092,24 @@
       <c r="I289" s="111"/>
       <c r="J289" s="111"/>
       <c r="K289" s="136" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L289" s="136"/>
       <c r="M289" s="136"/>
       <c r="N289" s="111"/>
       <c r="O289" s="111"/>
       <c r="P289" s="136" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q289" s="136"/>
       <c r="R289" s="136"/>
       <c r="S289" s="111"/>
       <c r="T289" s="136" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="U289" s="136"/>
       <c r="V289" s="219" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W289" s="94"/>
       <c r="X289" s="132"/>
@@ -31165,41 +31148,41 @@
       <c r="E290" s="112"/>
       <c r="F290" s="96"/>
       <c r="G290" s="111" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H290" s="111" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I290" s="111" t="s">
         <v>208</v>
       </c>
       <c r="J290" s="111"/>
       <c r="K290" s="111" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L290" s="111" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M290" s="111" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N290" s="111"/>
       <c r="O290" s="111"/>
       <c r="P290" s="111" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q290" s="111" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R290" s="111" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S290" s="111"/>
       <c r="T290" s="111" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="U290" s="111" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="V290" s="219"/>
       <c r="W290" s="94"/>
@@ -32163,7 +32146,7 @@
         <v>214</v>
       </c>
       <c r="I304" s="217" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J304" s="123"/>
       <c r="K304" s="141"/>
@@ -32217,7 +32200,7 @@
       <c r="G305" s="123"/>
       <c r="H305" s="217"/>
       <c r="I305" s="218" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J305" s="123"/>
       <c r="K305" s="141"/>
@@ -32323,7 +32306,7 @@
       <c r="E307" s="125"/>
       <c r="F307" s="125"/>
       <c r="G307" s="126" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H307" s="127"/>
       <c r="I307" s="127"/>
@@ -32519,7 +32502,7 @@
       </c>
       <c r="F312" s="89"/>
       <c r="G312" s="90" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H312" s="91"/>
       <c r="I312" s="91"/>
@@ -32547,7 +32530,7 @@
       <c r="E313" s="96"/>
       <c r="F313" s="97"/>
       <c r="G313" s="98" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H313" s="98"/>
       <c r="I313" s="98"/>
@@ -32793,14 +32776,14 @@
       <c r="E322" s="112"/>
       <c r="F322" s="114"/>
       <c r="G322" s="226" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H322" s="223"/>
       <c r="I322" s="223"/>
       <c r="J322" s="224"/>
       <c r="K322" s="225"/>
       <c r="L322" s="225" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M322" s="142" t="s">
         <v>67</v>
@@ -32836,7 +32819,7 @@
       <c r="I323" s="223"/>
       <c r="J323" s="225"/>
       <c r="K323" s="227" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L323" s="238">
         <v>0</v>
@@ -33294,7 +33277,7 @@
       <c r="E336" s="125"/>
       <c r="F336" s="125"/>
       <c r="G336" s="126" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H336" s="127"/>
       <c r="I336" s="127"/>
@@ -33514,7 +33497,7 @@
       </c>
       <c r="F341" s="147"/>
       <c r="G341" s="148" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H341" s="147"/>
       <c r="I341" s="147"/>
@@ -33568,7 +33551,7 @@
       <c r="E342" s="96"/>
       <c r="F342" s="147"/>
       <c r="G342" s="147" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H342" s="150"/>
       <c r="I342" s="147"/>
@@ -33835,26 +33818,26 @@
       <c r="F347" s="96"/>
       <c r="G347" s="96"/>
       <c r="H347" s="96" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I347" s="96"/>
       <c r="J347" s="111" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K347" s="111" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L347" s="111" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M347" s="111" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N347" s="111" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O347" s="111" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P347" s="111"/>
       <c r="Q347" s="111"/>
@@ -33903,22 +33886,22 @@
       <c r="H348" s="96"/>
       <c r="I348" s="96"/>
       <c r="J348" s="111" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K348" s="111" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L348" s="111" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M348" s="111" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N348" s="111" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O348" s="111" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P348" s="111"/>
       <c r="Q348" s="111"/>
@@ -34808,7 +34791,7 @@
       <c r="E364" s="125"/>
       <c r="F364" s="125"/>
       <c r="G364" s="126" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H364" s="127"/>
       <c r="I364" s="127"/>
@@ -35079,7 +35062,7 @@
       </c>
       <c r="F369" s="147"/>
       <c r="G369" s="148" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H369" s="147"/>
       <c r="I369" s="147"/>
@@ -35133,7 +35116,7 @@
       <c r="E370" s="96"/>
       <c r="F370" s="147"/>
       <c r="G370" s="147" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H370" s="150"/>
       <c r="I370" s="147"/>
@@ -35402,7 +35385,7 @@
       <c r="H375" s="96"/>
       <c r="I375" s="96"/>
       <c r="J375" s="96" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K375" s="111"/>
       <c r="L375" s="111"/>
@@ -35456,7 +35439,7 @@
       <c r="H376" s="96"/>
       <c r="I376" s="96"/>
       <c r="J376" s="111" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K376" s="111" t="s">
         <v>180</v>
@@ -36158,7 +36141,7 @@
       <c r="F387" s="156"/>
       <c r="G387" s="120"/>
       <c r="H387" s="120" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I387" s="120"/>
       <c r="J387" s="118"/>
@@ -36367,7 +36350,7 @@
       <c r="E391" s="125"/>
       <c r="F391" s="125"/>
       <c r="G391" s="126" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H391" s="127"/>
       <c r="I391" s="127"/>
@@ -36639,7 +36622,7 @@
       </c>
       <c r="F396" s="89"/>
       <c r="G396" s="90" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H396" s="91"/>
       <c r="I396" s="91"/>
@@ -36693,7 +36676,7 @@
       <c r="E397" s="96"/>
       <c r="F397" s="97"/>
       <c r="G397" s="98" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H397" s="98"/>
       <c r="I397" s="98"/>
@@ -36805,7 +36788,7 @@
       <c r="E399" s="96"/>
       <c r="F399" s="104"/>
       <c r="G399" s="105" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H399" s="106"/>
       <c r="I399" s="106"/>
@@ -36917,13 +36900,13 @@
       <c r="K401" s="96"/>
       <c r="L401" s="110"/>
       <c r="M401" s="136" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N401" s="136"/>
       <c r="O401" s="136"/>
       <c r="P401" s="136"/>
       <c r="Q401" s="193" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="R401" s="110"/>
       <c r="S401" s="110"/>
@@ -36972,10 +36955,10 @@
       <c r="J402" s="111"/>
       <c r="K402" s="111"/>
       <c r="L402" s="111" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M402" s="136" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N402" s="136"/>
       <c r="O402" s="136"/>
@@ -37030,19 +37013,19 @@
         <v>208</v>
       </c>
       <c r="L403" s="170" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M403" s="170" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N403" s="170" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O403" s="170" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P403" s="170" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q403" s="111"/>
       <c r="R403" s="111"/>
@@ -37833,7 +37816,7 @@
       <c r="E416" s="125"/>
       <c r="F416" s="125"/>
       <c r="G416" s="126" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H416" s="127"/>
       <c r="I416" s="127"/>
@@ -38247,7 +38230,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AU487"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
@@ -38368,7 +38351,7 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -38908,7 +38891,7 @@
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -39434,7 +39417,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="25"/>
       <c r="G41" s="364" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
@@ -39664,7 +39647,7 @@
       <c r="F48" s="25"/>
       <c r="G48" s="33"/>
       <c r="H48" s="362" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I48" s="410"/>
       <c r="J48" s="410"/>
@@ -40582,7 +40565,7 @@
       <c r="F77" s="25"/>
       <c r="G77" s="33"/>
       <c r="H77" s="34" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I77" s="411">
         <v>43770</v>
@@ -40642,7 +40625,7 @@
       <c r="F79" s="25"/>
       <c r="G79" s="33"/>
       <c r="H79" s="34" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I79" s="410">
         <v>15</v>
@@ -40701,7 +40684,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="25"/>
       <c r="G81" s="363" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="34"/>
@@ -40731,7 +40714,7 @@
       <c r="F82" s="25"/>
       <c r="G82" s="33"/>
       <c r="H82" s="34" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I82" s="410">
         <v>7</v>
@@ -41226,7 +41209,7 @@
       <c r="F98" s="25"/>
       <c r="G98" s="33"/>
       <c r="H98" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I98" s="408">
         <v>1</v>
@@ -41514,7 +41497,7 @@
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -41546,7 +41529,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="12"/>
       <c r="I108" s="354" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
@@ -41576,7 +41559,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
@@ -41663,14 +41646,14 @@
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
       <c r="H112" s="470" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I112" s="470"/>
       <c r="J112" s="470"/>
       <c r="K112" s="349"/>
       <c r="L112" s="366"/>
       <c r="M112" s="469" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N112" s="469"/>
       <c r="O112" s="469"/>
@@ -42076,7 +42059,7 @@
       <c r="E122" s="16"/>
       <c r="F122" s="25"/>
       <c r="G122" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H122" s="412">
         <v>250</v>
@@ -42386,7 +42369,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="25"/>
       <c r="G129" s="26" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H129" s="412">
         <v>250</v>
@@ -42431,7 +42414,7 @@
       <c r="E130" s="16"/>
       <c r="F130" s="25"/>
       <c r="G130" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H130" s="412">
         <v>250</v>
@@ -42475,7 +42458,7 @@
       <c r="E131" s="16"/>
       <c r="F131" s="25"/>
       <c r="G131" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H131" s="412">
         <v>250</v>
@@ -42519,7 +42502,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="25"/>
       <c r="G132" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H132" s="412">
         <v>250</v>
@@ -42609,7 +42592,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="25"/>
       <c r="G134" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H134" s="412">
         <v>250</v>
@@ -42654,7 +42637,7 @@
       <c r="E135" s="16"/>
       <c r="F135" s="25"/>
       <c r="G135" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H135" s="412">
         <v>250</v>
@@ -42699,7 +42682,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="25"/>
       <c r="G136" s="26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H136" s="412">
         <v>250</v>
@@ -42744,7 +42727,7 @@
       <c r="E137" s="16"/>
       <c r="F137" s="25"/>
       <c r="G137" s="25" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H137" s="412">
         <v>250</v>
@@ -42789,7 +42772,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="25"/>
       <c r="G138" s="25" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H138" s="412">
         <v>250</v>
@@ -42834,7 +42817,7 @@
       <c r="E139" s="16"/>
       <c r="F139" s="25"/>
       <c r="G139" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H139" s="412">
         <v>250</v>
@@ -43150,7 +43133,7 @@
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="13" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
@@ -43212,7 +43195,7 @@
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
@@ -43500,7 +43483,7 @@
       <c r="E160" s="16"/>
       <c r="F160" s="25"/>
       <c r="G160" s="26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H160" s="26" t="s">
         <v>74</v>
@@ -43778,14 +43761,14 @@
       </c>
       <c r="F168" s="12"/>
       <c r="G168" s="13" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
       <c r="K168" s="12"/>
       <c r="L168" s="12" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M168" s="12"/>
       <c r="N168" s="12"/>
@@ -43817,7 +43800,7 @@
       <c r="G169" s="17"/>
       <c r="H169" s="12"/>
       <c r="I169" s="368" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J169" s="417" t="b">
         <v>1</v>
@@ -43859,7 +43842,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="12"/>
       <c r="L170" s="32" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M170" s="12"/>
       <c r="N170" s="12"/>
@@ -43896,7 +43879,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="12"/>
       <c r="L171" s="32" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M171" s="12"/>
       <c r="N171" s="12"/>
@@ -43933,7 +43916,7 @@
       <c r="L172" s="366"/>
       <c r="M172" s="366"/>
       <c r="N172" s="369" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O172" s="366"/>
       <c r="P172" s="366"/>
@@ -43963,7 +43946,7 @@
       <c r="G173" s="16"/>
       <c r="H173" s="16"/>
       <c r="I173" s="16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J173" s="16"/>
       <c r="K173" s="16"/>
@@ -44002,49 +43985,49 @@
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
       <c r="M174" s="366" t="s">
+        <v>481</v>
+      </c>
+      <c r="N174" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="O174" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="P174" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q174" s="370" t="s">
         <v>479</v>
       </c>
-      <c r="N174" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="O174" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="P174" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q174" s="370" t="s">
-        <v>477</v>
-      </c>
       <c r="R174" s="370" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="S174" s="370" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="T174" s="366" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="U174" s="366" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="V174" s="366" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="W174" s="366" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="X174" s="366" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Y174" s="366" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Z174" s="366" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AA174" s="366" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AB174" s="15"/>
       <c r="AC174" s="6"/>
@@ -44059,67 +44042,67 @@
       <c r="E175" s="16"/>
       <c r="F175" s="16"/>
       <c r="G175" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="H175" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="I175" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="J175" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="H175" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="I175" s="22" t="s">
+      <c r="K175" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="L175" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="J175" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="K175" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="L175" s="22" t="s">
-        <v>468</v>
-      </c>
       <c r="M175" s="22" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N175" s="22" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="O175" s="22" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P175" s="22" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q175" s="22" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="R175" s="22" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="S175" s="22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T175" s="23" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="U175" s="23" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="V175" s="23" t="s">
         <v>73</v>
       </c>
       <c r="W175" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="X175" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="X175" s="23" t="s">
-        <v>490</v>
-      </c>
       <c r="Y175" s="23" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Z175" s="23" t="s">
         <v>73</v>
       </c>
       <c r="AA175" s="23" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AB175" s="15"/>
       <c r="AC175" s="6"/>
@@ -44213,7 +44196,7 @@
       <c r="E177" s="16"/>
       <c r="F177" s="25"/>
       <c r="G177" s="415" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H177" s="415" t="s">
         <v>23</v>
@@ -44295,7 +44278,7 @@
         <v>23</v>
       </c>
       <c r="H178" s="415" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I178" s="415" t="s">
         <v>23</v>
@@ -44371,10 +44354,10 @@
       <c r="E179" s="16"/>
       <c r="F179" s="25"/>
       <c r="G179" s="415" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H179" s="415" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I179" s="415" t="s">
         <v>91</v>
@@ -44450,10 +44433,10 @@
       <c r="E180" s="16"/>
       <c r="F180" s="25"/>
       <c r="G180" s="415" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H180" s="415" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I180" s="415" t="s">
         <v>92</v>
@@ -44529,10 +44512,10 @@
       <c r="E181" s="16"/>
       <c r="F181" s="25"/>
       <c r="G181" s="415" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H181" s="415" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I181" s="415" t="s">
         <v>92</v>
@@ -44910,7 +44893,7 @@
       </c>
       <c r="F191" s="12"/>
       <c r="G191" s="13" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
@@ -44970,7 +44953,7 @@
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="12"/>
@@ -45086,22 +45069,22 @@
       <c r="G197" s="16"/>
       <c r="H197" s="16"/>
       <c r="I197" s="16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J197" s="16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L197" s="366" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M197" s="366" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N197" s="366" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O197" s="16"/>
       <c r="P197" s="16"/>
@@ -45125,25 +45108,25 @@
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
       <c r="H198" s="16" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I198" s="22" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J198" s="22" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K198" s="22" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L198" s="22" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M198" s="22" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N198" s="22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O198" s="22"/>
       <c r="P198" s="22"/>
@@ -45447,7 +45430,7 @@
       <c r="F206" s="25"/>
       <c r="G206" s="25"/>
       <c r="H206" s="25" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I206" s="412">
         <v>0</v>
@@ -45727,7 +45710,7 @@
       <c r="F213" s="25"/>
       <c r="G213" s="25"/>
       <c r="H213" s="26" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I213" s="412">
         <v>30</v>
@@ -45767,7 +45750,7 @@
       <c r="F214" s="25"/>
       <c r="G214" s="25"/>
       <c r="H214" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I214" s="412">
         <v>30</v>
@@ -45807,7 +45790,7 @@
       <c r="F215" s="25"/>
       <c r="G215" s="25"/>
       <c r="H215" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I215" s="412">
         <v>30</v>
@@ -45847,7 +45830,7 @@
       <c r="F216" s="25"/>
       <c r="G216" s="25"/>
       <c r="H216" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I216" s="412">
         <v>30</v>
@@ -45927,7 +45910,7 @@
       <c r="F218" s="25"/>
       <c r="G218" s="25"/>
       <c r="H218" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I218" s="412">
         <v>30</v>
@@ -45967,7 +45950,7 @@
       <c r="F219" s="25"/>
       <c r="G219" s="25"/>
       <c r="H219" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I219" s="412">
         <v>30</v>
@@ -46007,7 +45990,7 @@
       <c r="F220" s="25"/>
       <c r="G220" s="25"/>
       <c r="H220" s="26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I220" s="412">
         <v>30</v>
@@ -46047,7 +46030,7 @@
       <c r="F221" s="25"/>
       <c r="G221" s="25"/>
       <c r="H221" s="25" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I221" s="412">
         <v>30</v>
@@ -46087,7 +46070,7 @@
       <c r="F222" s="25"/>
       <c r="G222" s="25"/>
       <c r="H222" s="25" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I222" s="412">
         <v>30</v>
@@ -46127,7 +46110,7 @@
       <c r="F223" s="25"/>
       <c r="G223" s="25"/>
       <c r="H223" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I223" s="412">
         <v>30</v>
@@ -47002,7 +46985,7 @@
       <c r="F249" s="32"/>
       <c r="H249" s="26"/>
       <c r="I249" s="26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J249" s="419">
         <v>0.06</v>
@@ -47357,7 +47340,7 @@
       </c>
       <c r="F261" s="12"/>
       <c r="G261" s="13" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
@@ -47920,7 +47903,7 @@
       <c r="F277" s="32"/>
       <c r="G277" s="221"/>
       <c r="H277" s="221" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I277" s="414">
         <v>0</v>
@@ -48280,7 +48263,7 @@
       </c>
       <c r="F288" s="12"/>
       <c r="G288" s="13" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H288" s="12"/>
       <c r="I288" s="12"/>
@@ -48340,7 +48323,7 @@
       <c r="G290" s="12"/>
       <c r="H290" s="12"/>
       <c r="I290" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J290" s="12"/>
       <c r="K290" s="12"/>
@@ -48462,7 +48445,7 @@
       <c r="E294" s="16"/>
       <c r="F294" s="32"/>
       <c r="H294" s="372" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I294" s="417">
         <v>0</v>
@@ -48499,7 +48482,7 @@
       <c r="E295" s="16"/>
       <c r="F295" s="32"/>
       <c r="H295" s="373" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I295" s="417">
         <v>1</v>
@@ -48573,7 +48556,7 @@
       <c r="E297" s="16"/>
       <c r="F297" s="32"/>
       <c r="H297" s="373" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I297" s="417">
         <v>1</v>
@@ -49162,7 +49145,7 @@
       <c r="E316" s="16"/>
       <c r="F316" s="32"/>
       <c r="H316" s="372" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I316" s="418">
         <v>0.62</v>
@@ -49200,7 +49183,7 @@
       <c r="E317" s="16"/>
       <c r="F317" s="32"/>
       <c r="H317" s="373" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I317" s="418">
         <v>0.62</v>
@@ -49279,7 +49262,7 @@
       <c r="F319" s="32"/>
       <c r="G319" s="80"/>
       <c r="H319" s="373" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I319" s="418">
         <v>0.62</v>
@@ -49901,7 +49884,7 @@
       <c r="G339" s="26"/>
       <c r="H339" s="26"/>
       <c r="I339" s="33" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J339" s="418">
         <v>1</v>
@@ -49941,7 +49924,7 @@
       <c r="G340" s="26"/>
       <c r="H340" s="26"/>
       <c r="I340" s="33" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J340" s="418">
         <v>1</v>
@@ -49981,7 +49964,7 @@
       <c r="G341" s="26"/>
       <c r="H341" s="26"/>
       <c r="I341" s="33" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J341" s="418">
         <v>1</v>
@@ -50021,7 +50004,7 @@
       <c r="G342" s="26"/>
       <c r="H342" s="26"/>
       <c r="I342" s="33" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J342" s="418">
         <v>1</v>
@@ -50061,7 +50044,7 @@
       <c r="G343" s="26"/>
       <c r="H343" s="26"/>
       <c r="I343" s="33" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J343" s="418">
         <v>1</v>
@@ -50101,7 +50084,7 @@
       <c r="G344" s="26"/>
       <c r="H344" s="26"/>
       <c r="I344" s="33" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J344" s="418">
         <v>1</v>
@@ -50344,7 +50327,7 @@
       </c>
       <c r="F352" s="12"/>
       <c r="G352" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H352" s="12"/>
       <c r="I352" s="12"/>
@@ -50375,7 +50358,7 @@
       <c r="F353" s="12"/>
       <c r="G353" s="17"/>
       <c r="H353" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I353" s="12"/>
       <c r="J353" s="12"/>
@@ -51222,7 +51205,7 @@
       </c>
       <c r="O380" s="22"/>
       <c r="P380" s="22" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q380" s="23"/>
       <c r="R380" s="23"/>
@@ -51581,7 +51564,7 @@
       <c r="G389" s="48"/>
       <c r="H389" s="30"/>
       <c r="I389" s="26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J389" s="425">
         <v>100</v>
@@ -51833,7 +51816,7 @@
       <c r="G395" s="49"/>
       <c r="H395" s="50"/>
       <c r="I395" s="70" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J395" s="425">
         <v>2</v>
@@ -51875,7 +51858,7 @@
       <c r="G396" s="49"/>
       <c r="H396" s="50"/>
       <c r="I396" s="70" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J396" s="425">
         <v>10</v>
@@ -51917,7 +51900,7 @@
       <c r="G397" s="49"/>
       <c r="H397" s="50"/>
       <c r="I397" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J397" s="425">
         <v>10</v>
@@ -51958,7 +51941,7 @@
       <c r="G398" s="49"/>
       <c r="H398" s="50"/>
       <c r="I398" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J398" s="425">
         <v>10</v>
@@ -52413,34 +52396,34 @@
         <v>39</v>
       </c>
       <c r="H413" s="52" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I413" s="52" t="s">
         <v>49</v>
       </c>
       <c r="J413" s="52" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K413" s="24" t="s">
         <v>50</v>
       </c>
       <c r="L413" s="24" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M413" s="24" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N413" s="24" t="s">
         <v>51</v>
       </c>
       <c r="O413" s="24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P413" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q413" s="255" t="s">
         <v>334</v>
-      </c>
-      <c r="Q413" s="255" t="s">
-        <v>332</v>
       </c>
       <c r="R413" s="52"/>
       <c r="S413" s="52"/>
@@ -52804,7 +52787,7 @@
       <c r="E422" s="16"/>
       <c r="F422" s="32"/>
       <c r="G422" s="28" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H422" s="428">
         <v>0</v>
@@ -53052,7 +53035,7 @@
       <c r="E428" s="16"/>
       <c r="F428" s="32"/>
       <c r="G428" s="253" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H428" s="428">
         <v>3000</v>
@@ -53093,7 +53076,7 @@
       <c r="E429" s="16"/>
       <c r="F429" s="32"/>
       <c r="G429" s="253" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H429" s="428">
         <v>3000</v>
@@ -53134,7 +53117,7 @@
       <c r="E430" s="16"/>
       <c r="F430" s="32"/>
       <c r="G430" s="254" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H430" s="428">
         <v>3000</v>
@@ -53175,7 +53158,7 @@
       <c r="E431" s="16"/>
       <c r="F431" s="32"/>
       <c r="G431" s="254" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H431" s="428">
         <v>3000</v>
@@ -55057,57 +55040,57 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F1" s="365" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" s="365" t="s">
         <v>460</v>
       </c>
-      <c r="C2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D2" t="s">
-        <v>460</v>
-      </c>
-      <c r="E2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F2" s="365" t="s">
-        <v>458</v>
-      </c>
       <c r="I2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J2" t="s">
         <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L2" t="s">
         <v>88</v>
@@ -55115,7 +55098,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -55130,7 +55113,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -55147,7 +55130,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -55162,7 +55145,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -55179,7 +55162,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -55194,7 +55177,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -55211,7 +55194,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -55226,7 +55209,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -55243,7 +55226,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -55258,7 +55241,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -55275,7 +55258,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -55290,7 +55273,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -55307,7 +55290,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -55322,7 +55305,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -55455,7 +55438,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -55590,15 +55573,15 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="22" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="23"/>
@@ -55647,7 +55630,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H11" s="436">
         <v>1</v>
@@ -55681,7 +55664,7 @@
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="33" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H12" s="436">
         <v>1</v>
@@ -55741,7 +55724,7 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H14" s="245"/>
       <c r="I14" s="245"/>
@@ -55771,7 +55754,7 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H15" s="245"/>
       <c r="I15" s="245"/>
@@ -56012,7 +55995,7 @@
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -56147,15 +56130,15 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="22" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="23"/>
@@ -56204,7 +56187,7 @@
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H31" s="245"/>
       <c r="I31" s="245"/>
@@ -56260,7 +56243,7 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H33" s="411">
         <v>43511</v>
@@ -56318,7 +56301,7 @@
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H35" s="436">
         <v>28</v>
@@ -56535,7 +56518,7 @@
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -56670,13 +56653,13 @@
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="22" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -56701,7 +56684,7 @@
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="28" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H49" s="436">
         <v>9</v>
@@ -56735,7 +56718,7 @@
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="257" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H50" s="436">
         <v>4.5</v>
@@ -56769,7 +56752,7 @@
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
       <c r="G51" s="258" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H51" s="436">
         <v>10</v>
@@ -56803,7 +56786,7 @@
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="257" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H52" s="422">
         <v>9</v>
@@ -56863,7 +56846,7 @@
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="437" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H54" s="245"/>
       <c r="I54" s="245"/>
@@ -56893,10 +56876,10 @@
       <c r="G55" s="239"/>
       <c r="H55" s="245"/>
       <c r="I55" s="257" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J55" s="257" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K55" s="245"/>
       <c r="L55" s="245"/>
@@ -56921,7 +56904,7 @@
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="H56" s="260" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I56" s="436">
         <v>7.0000000000000007E-2</v>
@@ -56952,7 +56935,7 @@
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="H57" s="261" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I57" s="436">
         <v>0.02</v>
@@ -57142,7 +57125,7 @@
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
@@ -57174,7 +57157,7 @@
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
@@ -57251,27 +57234,27 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="471" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G68" s="472"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
       <c r="O68" s="22" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P68" s="23"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="21" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="S68" s="21"/>
       <c r="T68" s="21"/>
@@ -57290,32 +57273,32 @@
         <v>117</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="22" t="s">
         <v>117</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K69" s="22"/>
       <c r="L69" s="22" t="s">
         <v>117</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N69" s="23"/>
       <c r="O69" s="22" t="s">
         <v>117</v>
       </c>
       <c r="P69" s="22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q69" s="21"/>
       <c r="R69" s="21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="S69" s="21"/>
       <c r="T69" s="21"/>
@@ -57976,7 +57959,7 @@
       <c r="C92" s="11"/>
       <c r="D92" s="12"/>
       <c r="E92" s="13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
@@ -58031,7 +58014,7 @@
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
@@ -58042,7 +58025,7 @@
       <c r="M94" s="21"/>
       <c r="N94" s="21"/>
       <c r="O94" s="21" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="P94" s="21"/>
       <c r="Q94" s="21"/>
@@ -58088,27 +58071,27 @@
       <c r="E96" s="471"/>
       <c r="F96" s="472"/>
       <c r="G96" s="22" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
       <c r="J96" s="136" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K96" s="136"/>
       <c r="L96" s="22"/>
       <c r="M96" s="136" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="N96" s="136"/>
       <c r="O96" s="22"/>
       <c r="P96" s="441" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q96" s="199"/>
       <c r="R96" s="21"/>
       <c r="S96" s="199" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="T96" s="199"/>
       <c r="U96" s="15"/>
@@ -58122,42 +58105,42 @@
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="22" t="s">
         <v>126</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I97" s="22"/>
       <c r="J97" s="22" t="s">
         <v>117</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L97" s="22"/>
       <c r="M97" s="22" t="s">
         <v>117</v>
       </c>
       <c r="N97" s="22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="O97" s="22"/>
       <c r="P97" s="22" t="s">
         <v>117</v>
       </c>
       <c r="Q97" s="22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="R97" s="22"/>
       <c r="S97" s="22" t="s">
         <v>117</v>
       </c>
       <c r="T97" s="22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="U97" s="15"/>
       <c r="V97" s="6"/>
@@ -58338,7 +58321,7 @@
       <c r="E102" s="267"/>
       <c r="F102" s="76"/>
       <c r="G102" s="76" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H102" s="440">
         <v>1.2</v>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E6133-A5AB-4CC6-86D9-BC9DDA29EB14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A91E87-16E8-433F-9C87-DD0C1ACF0861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -2954,7 +2954,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="545">
   <si>
     <t>«</t>
   </si>
@@ -4438,9 +4438,6 @@
     <t>Season Types</t>
   </si>
   <si>
-    <t>season 1</t>
-  </si>
-  <si>
     <t>probability</t>
   </si>
   <si>
@@ -4448,9 +4445,6 @@
   </si>
   <si>
     <t>included</t>
-  </si>
-  <si>
-    <t>Do you wan steady state model?</t>
   </si>
   <si>
     <t>Y</t>
@@ -4579,6 +4573,45 @@
   </si>
   <si>
     <t>lmu0</t>
+  </si>
+  <si>
+    <t>FP0</t>
+  </si>
+  <si>
+    <t>FP1</t>
+  </si>
+  <si>
+    <t>FP2</t>
+  </si>
+  <si>
+    <t>FP3</t>
+  </si>
+  <si>
+    <t>FP4</t>
+  </si>
+  <si>
+    <t>FP5</t>
+  </si>
+  <si>
+    <t>FP6</t>
+  </si>
+  <si>
+    <t>FP7</t>
+  </si>
+  <si>
+    <t>FP8</t>
+  </si>
+  <si>
+    <t>FP9</t>
+  </si>
+  <si>
+    <t>FP10</t>
+  </si>
+  <si>
+    <t>Do you want steady state model?</t>
+  </si>
+  <si>
+    <t>season0</t>
   </si>
 </sst>
 </file>
@@ -7416,7 +7449,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -7732,7 +7765,7 @@
       <c r="G29" s="241"/>
       <c r="H29" s="241"/>
       <c r="I29" s="241" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J29" s="442">
         <v>1</v>
@@ -8540,7 +8573,7 @@
         <v>125</v>
       </c>
       <c r="H58" s="242" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I58" s="239"/>
       <c r="J58" s="240"/>
@@ -9587,7 +9620,7 @@
       <c r="K94" s="53"/>
       <c r="L94" s="53"/>
       <c r="M94" s="33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N94" s="33"/>
       <c r="O94" s="55"/>
@@ -9961,7 +9994,7 @@
       <c r="K105" s="53"/>
       <c r="L105" s="53"/>
       <c r="M105" s="33" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N105" s="33"/>
       <c r="O105" s="55"/>
@@ -10749,7 +10782,7 @@
       <c r="E127" s="16"/>
       <c r="F127" s="25"/>
       <c r="G127" s="33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="54"/>
@@ -12285,8 +12318,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12314,7 +12347,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G4" s="74" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H4" s="378">
         <v>0</v>
@@ -12532,7 +12565,7 @@
       <c r="H19" s="281"/>
       <c r="I19" s="281"/>
       <c r="J19" s="281" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K19" s="281"/>
       <c r="L19" s="281"/>
@@ -12676,14 +12709,14 @@
       <c r="H24" s="285"/>
       <c r="I24" s="285"/>
       <c r="J24" s="291" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K24" s="291" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L24" s="292"/>
       <c r="M24" s="374" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="N24" s="292"/>
       <c r="O24" s="292"/>
@@ -12709,7 +12742,7 @@
       <c r="G25" s="74"/>
       <c r="H25" s="297"/>
       <c r="I25" s="308" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="J25" s="379">
         <v>1</v>
@@ -13905,7 +13938,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13932,8 +13965,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
-        <v>0</v>
+      <c r="A4" s="74" t="s">
+        <v>532</v>
       </c>
       <c r="B4" s="386">
         <v>43579</v>
@@ -13944,8 +13977,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="74">
-        <v>1</v>
+      <c r="A5" s="76" t="s">
+        <v>533</v>
       </c>
       <c r="B5" s="386">
         <v>43600</v>
@@ -13955,12 +13988,12 @@
         <v>28</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="74">
-        <v>2</v>
+      <c r="A6" s="76" t="s">
+        <v>534</v>
       </c>
       <c r="B6" s="386">
         <v>43628</v>
@@ -13971,8 +14004,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="74">
-        <v>3</v>
+      <c r="A7" s="76" t="s">
+        <v>535</v>
       </c>
       <c r="B7" s="386">
         <v>43684</v>
@@ -13983,8 +14016,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="74">
-        <v>4</v>
+      <c r="A8" s="76" t="s">
+        <v>536</v>
       </c>
       <c r="B8" s="386">
         <v>43733</v>
@@ -13995,8 +14028,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="74">
-        <v>5</v>
+      <c r="A9" s="76" t="s">
+        <v>537</v>
       </c>
       <c r="B9" s="386">
         <v>43768</v>
@@ -14007,8 +14040,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="74">
-        <v>6</v>
+      <c r="A10" s="76" t="s">
+        <v>538</v>
       </c>
       <c r="B10" s="386">
         <v>43796</v>
@@ -14019,8 +14052,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="74">
-        <v>7</v>
+      <c r="A11" s="76" t="s">
+        <v>539</v>
       </c>
       <c r="B11" s="386">
         <v>43852</v>
@@ -14031,8 +14064,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
-        <v>8</v>
+      <c r="A12" s="76" t="s">
+        <v>540</v>
       </c>
       <c r="B12" s="386">
         <v>43902</v>
@@ -14043,8 +14076,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="74">
-        <v>9</v>
+      <c r="A13" s="76" t="s">
+        <v>541</v>
       </c>
       <c r="B13" s="386">
         <v>43930</v>
@@ -14055,8 +14088,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="74">
-        <v>10</v>
+      <c r="A14" s="76" t="s">
+        <v>542</v>
       </c>
       <c r="B14" s="386">
         <v>43945</v>
@@ -14066,6 +14099,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -17771,7 +17805,7 @@
       <c r="F50" s="114"/>
       <c r="G50" s="116"/>
       <c r="H50" s="120" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I50" s="120"/>
       <c r="J50" s="118"/>
@@ -17799,7 +17833,7 @@
       <c r="F51" s="114"/>
       <c r="G51" s="116"/>
       <c r="H51" s="468" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I51" s="469"/>
       <c r="J51" s="469"/>
@@ -19043,7 +19077,7 @@
       <c r="J87" s="111"/>
       <c r="K87" s="111"/>
       <c r="L87" s="111" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M87" s="136" t="s">
         <v>182</v>
@@ -19102,22 +19136,22 @@
         <v>42</v>
       </c>
       <c r="M88" s="111" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N88" s="111" t="s">
+        <v>523</v>
+      </c>
+      <c r="O88" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="O88" s="111" t="s">
+      <c r="P88" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q88" s="111" t="s">
         <v>527</v>
       </c>
-      <c r="P88" s="111" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q88" s="111" t="s">
+      <c r="R88" s="111" t="s">
         <v>529</v>
-      </c>
-      <c r="R88" s="111" t="s">
-        <v>531</v>
       </c>
       <c r="S88" s="111"/>
       <c r="T88" s="111"/>
@@ -20861,7 +20895,7 @@
       <c r="J120" s="179"/>
       <c r="K120" s="179"/>
       <c r="L120" s="180" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M120" s="181" t="s">
         <v>209</v>
@@ -20920,22 +20954,22 @@
         <v>42</v>
       </c>
       <c r="M121" s="183" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N121" s="183" t="s">
+        <v>523</v>
+      </c>
+      <c r="O121" s="183" t="s">
         <v>525</v>
       </c>
-      <c r="O121" s="183" t="s">
+      <c r="P121" s="183" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q121" s="183" t="s">
         <v>527</v>
       </c>
-      <c r="P121" s="183" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q121" s="183" t="s">
+      <c r="R121" s="183" t="s">
         <v>529</v>
-      </c>
-      <c r="R121" s="183" t="s">
-        <v>531</v>
       </c>
       <c r="S121" s="123"/>
       <c r="T121" s="123"/>
@@ -22812,7 +22846,7 @@
       <c r="U162" s="111"/>
       <c r="V162" s="111"/>
       <c r="W162" s="136" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="X162" s="136"/>
       <c r="Y162" s="111"/>
@@ -22860,36 +22894,36 @@
       <c r="I163" s="111"/>
       <c r="J163" s="111"/>
       <c r="K163" s="111" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L163" s="111" t="s">
+        <v>523</v>
+      </c>
+      <c r="M163" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="M163" s="111" t="s">
+      <c r="N163" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="O163" s="111" t="s">
         <v>527</v>
-      </c>
-      <c r="N163" s="111" t="s">
-        <v>528</v>
-      </c>
-      <c r="O163" s="111" t="s">
-        <v>529</v>
       </c>
       <c r="P163" s="111"/>
       <c r="Q163" s="111"/>
       <c r="R163" s="111" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="S163" s="111" t="s">
+        <v>523</v>
+      </c>
+      <c r="T163" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="T163" s="111" t="s">
+      <c r="U163" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="V163" s="111" t="s">
         <v>527</v>
-      </c>
-      <c r="U163" s="111" t="s">
-        <v>528</v>
-      </c>
-      <c r="V163" s="111" t="s">
-        <v>529</v>
       </c>
       <c r="W163" s="111"/>
       <c r="X163" s="111"/>
@@ -22937,7 +22971,7 @@
       <c r="H164" s="116"/>
       <c r="I164" s="139"/>
       <c r="J164" s="139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K164" s="448">
         <f>K188/2</f>
@@ -22961,7 +22995,7 @@
       </c>
       <c r="P164" s="116"/>
       <c r="Q164" s="139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="R164" s="3">
         <f t="shared" ref="R164:V165" si="1">R188*0.6</f>
@@ -24625,7 +24659,7 @@
       <c r="U186" s="111"/>
       <c r="V186" s="111"/>
       <c r="W186" s="136" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="X186" s="136"/>
       <c r="Y186" s="111"/>
@@ -24673,42 +24707,42 @@
       <c r="I187" s="111"/>
       <c r="J187" s="111"/>
       <c r="K187" s="111" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L187" s="111" t="s">
+        <v>523</v>
+      </c>
+      <c r="M187" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="M187" s="111" t="s">
+      <c r="N187" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="O187" s="111" t="s">
         <v>527</v>
-      </c>
-      <c r="N187" s="111" t="s">
-        <v>528</v>
-      </c>
-      <c r="O187" s="111" t="s">
-        <v>529</v>
       </c>
       <c r="P187" s="111"/>
       <c r="Q187" s="111"/>
       <c r="R187" s="111" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="S187" s="111" t="s">
+        <v>523</v>
+      </c>
+      <c r="T187" s="111" t="s">
         <v>525</v>
       </c>
-      <c r="T187" s="111" t="s">
+      <c r="U187" s="111" t="s">
+        <v>526</v>
+      </c>
+      <c r="V187" s="111" t="s">
         <v>527</v>
       </c>
-      <c r="U187" s="111" t="s">
-        <v>528</v>
-      </c>
-      <c r="V187" s="111" t="s">
-        <v>529</v>
-      </c>
       <c r="W187" s="111" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="X187" s="111" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Y187" s="111"/>
       <c r="Z187" s="111"/>
@@ -24754,7 +24788,7 @@
       <c r="H188" s="116"/>
       <c r="I188" s="139"/>
       <c r="J188" s="139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K188" s="450">
         <v>200</v>
@@ -24774,7 +24808,7 @@
       </c>
       <c r="P188" s="116"/>
       <c r="Q188" s="139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="R188" s="3">
         <f>0.55*$V188*(K188/$O188)</f>
@@ -24990,7 +25024,7 @@
         <v>50</v>
       </c>
       <c r="Y190" s="116" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Z190" s="116"/>
       <c r="AA190" s="116"/>
@@ -26577,7 +26611,7 @@
       <c r="G214" s="116"/>
       <c r="H214" s="116"/>
       <c r="I214" s="139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J214" s="116"/>
       <c r="K214" s="134">
@@ -28385,7 +28419,7 @@
       <c r="G246" s="116"/>
       <c r="H246" s="116"/>
       <c r="I246" s="139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J246" s="116"/>
       <c r="K246" s="200">
@@ -29662,7 +29696,7 @@
         <v>200</v>
       </c>
       <c r="K268" s="170" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L268" s="170" t="s">
         <v>66</v>
@@ -29734,7 +29768,7 @@
       <c r="H269" s="116"/>
       <c r="I269" s="116"/>
       <c r="J269" s="139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K269" s="133">
         <v>0.81</v>
@@ -31420,7 +31454,7 @@
         <v>0.05</v>
       </c>
       <c r="I295" s="139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J295" s="116"/>
       <c r="K295" s="452">
@@ -32867,10 +32901,10 @@
       <c r="J324" s="224"/>
       <c r="K324" s="225"/>
       <c r="L324" s="225" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M324" s="142" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N324" s="142" t="s">
         <v>66</v>
@@ -32906,7 +32940,7 @@
         <v>276</v>
       </c>
       <c r="L325" s="139" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M325" s="451">
         <v>5.5</v>
@@ -34138,7 +34172,7 @@
       <c r="F353" s="156"/>
       <c r="G353" s="120"/>
       <c r="H353" s="229" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I353" s="120"/>
       <c r="J353" s="133">
@@ -35526,7 +35560,7 @@
         <v>293</v>
       </c>
       <c r="K378" s="111" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L378" s="111" t="s">
         <v>66</v>
@@ -35587,7 +35621,7 @@
       <c r="H379" s="120"/>
       <c r="I379" s="120"/>
       <c r="J379" s="229" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K379" s="137">
         <v>100</v>
@@ -36760,7 +36794,7 @@
       <c r="E399" s="96"/>
       <c r="F399" s="97"/>
       <c r="G399" s="98" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H399" s="98"/>
       <c r="I399" s="98"/>
@@ -36990,7 +37024,7 @@
       <c r="O403" s="136"/>
       <c r="P403" s="136"/>
       <c r="Q403" s="193" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="R403" s="110"/>
       <c r="S403" s="110"/>
@@ -37042,7 +37076,7 @@
         <v>296</v>
       </c>
       <c r="M404" s="136" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N404" s="136"/>
       <c r="O404" s="136"/>
@@ -37103,10 +37137,10 @@
         <v>262</v>
       </c>
       <c r="N405" s="170" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="O405" s="170" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P405" s="170" t="s">
         <v>261</v>
@@ -37158,7 +37192,7 @@
       <c r="I406" s="179"/>
       <c r="J406" s="179"/>
       <c r="K406" s="208" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L406" s="404">
         <v>0.5</v>
@@ -38436,7 +38470,7 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -41257,7 +41291,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J97" s="22" t="s">
         <v>66</v>
@@ -43424,7 +43458,7 @@
       <c r="G156" s="16"/>
       <c r="H156" s="16"/>
       <c r="I156" s="291" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J156" s="291" t="s">
         <v>66</v>
@@ -43532,7 +43566,7 @@
       <c r="G159" s="26"/>
       <c r="H159" s="267"/>
       <c r="I159" s="256" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J159" s="256" t="s">
         <v>66</v>
@@ -43853,7 +43887,7 @@
       <c r="J168" s="12"/>
       <c r="K168" s="12"/>
       <c r="L168" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M168" s="12"/>
       <c r="N168" s="12"/>
@@ -43927,7 +43961,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="12"/>
       <c r="L170" s="32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M170" s="12"/>
       <c r="N170" s="12"/>
@@ -43964,7 +43998,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="12"/>
       <c r="L171" s="32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M171" s="12"/>
       <c r="N171" s="12"/>
@@ -44281,7 +44315,7 @@
       <c r="E177" s="16"/>
       <c r="F177" s="25"/>
       <c r="G177" s="414" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H177" s="414" t="s">
         <v>23</v>
@@ -44363,7 +44397,7 @@
         <v>23</v>
       </c>
       <c r="H178" s="414" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I178" s="414" t="s">
         <v>23</v>
@@ -44439,10 +44473,10 @@
       <c r="E179" s="16"/>
       <c r="F179" s="25"/>
       <c r="G179" s="414" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H179" s="414" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I179" s="414" t="s">
         <v>90</v>
@@ -44518,10 +44552,10 @@
       <c r="E180" s="16"/>
       <c r="F180" s="25"/>
       <c r="G180" s="414" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H180" s="414" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I180" s="414" t="s">
         <v>91</v>
@@ -44597,10 +44631,10 @@
       <c r="E181" s="16"/>
       <c r="F181" s="25"/>
       <c r="G181" s="414" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H181" s="414" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I181" s="414" t="s">
         <v>91</v>
@@ -45038,7 +45072,7 @@
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="12"/>
@@ -46734,7 +46768,7 @@
       <c r="H240" s="16"/>
       <c r="I240" s="16"/>
       <c r="J240" s="291" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K240" s="291" t="s">
         <v>66</v>
@@ -47425,7 +47459,7 @@
       </c>
       <c r="F261" s="12"/>
       <c r="G261" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
@@ -47631,7 +47665,7 @@
       <c r="G268" s="16"/>
       <c r="H268" s="16"/>
       <c r="I268" s="291" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J268" s="291" t="s">
         <v>66</v>
@@ -49194,7 +49228,7 @@
       <c r="G315" s="16"/>
       <c r="H315" s="16"/>
       <c r="I315" s="291" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J315" s="291" t="s">
         <v>66</v>
@@ -49932,7 +49966,7 @@
       <c r="H338" s="16"/>
       <c r="I338" s="16"/>
       <c r="J338" s="291" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K338" s="291" t="s">
         <v>66</v>
@@ -51274,7 +51308,7 @@
       <c r="H380" s="471"/>
       <c r="I380" s="16"/>
       <c r="J380" s="291" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K380" s="291" t="s">
         <v>66</v>
@@ -54519,7 +54553,7 @@
       <c r="H473" s="16"/>
       <c r="I473" s="16"/>
       <c r="J473" s="291" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K473" s="291" t="s">
         <v>66</v>
@@ -56931,7 +56965,7 @@
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="436" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H54" s="244"/>
       <c r="I54" s="244"/>
@@ -57329,7 +57363,7 @@
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
@@ -58110,7 +58144,7 @@
       <c r="M94" s="21"/>
       <c r="N94" s="21"/>
       <c r="O94" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P94" s="21"/>
       <c r="Q94" s="21"/>
@@ -58161,22 +58195,22 @@
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
       <c r="J96" s="136" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K96" s="136"/>
       <c r="L96" s="22"/>
       <c r="M96" s="136" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="N96" s="136"/>
       <c r="O96" s="22"/>
       <c r="P96" s="440" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q96" s="199"/>
       <c r="R96" s="21"/>
       <c r="S96" s="199" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="T96" s="199"/>
       <c r="U96" s="15"/>
@@ -58977,7 +59011,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="74" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B18" s="378">
         <v>1.3</v>
@@ -59023,7 +59057,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="76" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B25" s="378">
         <v>1.2</v>
@@ -59069,7 +59103,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="76" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B32" s="378">
         <v>1</v>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A91E87-16E8-433F-9C87-DD0C1ACF0861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54760EAF-F97A-4006-B2DF-DC1D9DBDE926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <definedName name="approx_hay_yield" localSheetId="8">Mach!$B$42</definedName>
     <definedName name="arable" localSheetId="5">Crop!$H$97:$M$98</definedName>
     <definedName name="ave_pad_distance" localSheetId="8">Mach!$B$7</definedName>
+    <definedName name="bank_bal_start">Finance!$B$4</definedName>
     <definedName name="bas">Labour!$L$69:$M$73</definedName>
     <definedName name="BaseLevelInput" localSheetId="4">Annual!$K$214:$K$223</definedName>
     <definedName name="chem" localSheetId="5">Crop!$N$175:$S$181</definedName>
@@ -2954,7 +2955,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="546">
   <si>
     <t>«</t>
   </si>
@@ -4613,6 +4614,9 @@
   <si>
     <t>season0</t>
   </si>
+  <si>
+    <t>Bank balance at beginning of year</t>
+  </si>
 </sst>
 </file>
 
@@ -5238,7 +5242,7 @@
     <xf numFmtId="0" fontId="23" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="476">
+  <cellXfs count="477">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -6387,6 +6391,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="4" applyBorder="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Calculations" xfId="6" xr:uid="{449B9FA0-BCFF-41FE-A9C5-7F4DFD2D1D3B}"/>
@@ -12288,10 +12295,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17698FFE-A6A0-4C30-BDC9-58F80A4FAF68}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12308,6 +12315,14 @@
         <v>1500000</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="72" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="476">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12318,7 +12333,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -38349,7 +38364,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AU487"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A145" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J473" sqref="J473:N473"/>
     </sheetView>
   </sheetViews>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAC4E55-B843-47CD-BB32-C7178A50803A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4FF39E-049F-4C2F-B6ED-E755C9900E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="120" windowWidth="27645" windowHeight="15360" activeTab="1" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -183,6 +183,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1831,10 +1839,35 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Michael Young (21512438)</author>
     <author>Michael Young</author>
   </authors>
   <commentList>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{DBA6624F-6323-454D-83C4-9FC45D73793A}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{60E7A3CD-8351-4E6D-88CA-00A69BBD741D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+use inf if no upper bound</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{DBA6624F-6323-454D-83C4-9FC45D73793A}">
       <text>
         <r>
           <rPr>
@@ -1858,7 +1891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{8D68E3E3-EE34-4C0C-B024-B91FB156C392}">
+    <comment ref="G31" authorId="1" shapeId="0" xr:uid="{8D68E3E3-EE34-4C0C-B024-B91FB156C392}">
       <text>
         <r>
           <rPr>
@@ -1883,7 +1916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{A65347A9-DEC2-4564-A0FB-24057F909B61}">
+    <comment ref="G33" authorId="1" shapeId="0" xr:uid="{A65347A9-DEC2-4564-A0FB-24057F909B61}">
       <text>
         <r>
           <rPr>
@@ -1907,7 +1940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G35" authorId="0" shapeId="0" xr:uid="{791C22EB-EF1A-4FCF-A94E-EE863DD48988}">
+    <comment ref="G35" authorId="1" shapeId="0" xr:uid="{791C22EB-EF1A-4FCF-A94E-EE863DD48988}">
       <text>
         <r>
           <rPr>
@@ -1931,7 +1964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I55" authorId="0" shapeId="0" xr:uid="{C9446E84-3893-4CF7-B0DD-E7F359075FD5}">
+    <comment ref="I55" authorId="1" shapeId="0" xr:uid="{C9446E84-3893-4CF7-B0DD-E7F359075FD5}">
       <text>
         <r>
           <rPr>
@@ -1955,7 +1988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J55" authorId="0" shapeId="0" xr:uid="{F983B3EA-4B7F-4979-8C06-EF3420596BEB}">
+    <comment ref="J55" authorId="1" shapeId="0" xr:uid="{F983B3EA-4B7F-4979-8C06-EF3420596BEB}">
       <text>
         <r>
           <rPr>
@@ -1979,7 +2012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I65" authorId="0" shapeId="0" xr:uid="{B209E28F-C834-48B1-AA94-D99ACEDE211E}">
+    <comment ref="I65" authorId="1" shapeId="0" xr:uid="{B209E28F-C834-48B1-AA94-D99ACEDE211E}">
       <text>
         <r>
           <rPr>
@@ -2003,7 +2036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{F9A826C7-3483-4FFA-8869-EA6605440132}">
+    <comment ref="F68" authorId="1" shapeId="0" xr:uid="{F9A826C7-3483-4FFA-8869-EA6605440132}">
       <text>
         <r>
           <rPr>
@@ -2027,7 +2060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="0" shapeId="0" xr:uid="{770D2E27-B18C-4C66-8DFC-C68627FF3690}">
+    <comment ref="I68" authorId="1" shapeId="0" xr:uid="{770D2E27-B18C-4C66-8DFC-C68627FF3690}">
       <text>
         <r>
           <rPr>
@@ -2051,7 +2084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L68" authorId="0" shapeId="0" xr:uid="{896E932B-9731-43DF-A069-5AF883B496E1}">
+    <comment ref="L68" authorId="1" shapeId="0" xr:uid="{896E932B-9731-43DF-A069-5AF883B496E1}">
       <text>
         <r>
           <rPr>
@@ -2075,7 +2108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O68" authorId="0" shapeId="0" xr:uid="{EAD17A91-5EEC-42C3-AE12-CD61AC5A5F53}">
+    <comment ref="O68" authorId="1" shapeId="0" xr:uid="{EAD17A91-5EEC-42C3-AE12-CD61AC5A5F53}">
       <text>
         <r>
           <rPr>
@@ -2099,7 +2132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R68" authorId="0" shapeId="0" xr:uid="{D2CAA65F-E328-44CA-8066-C5866E30C5F1}">
+    <comment ref="R68" authorId="1" shapeId="0" xr:uid="{D2CAA65F-E328-44CA-8066-C5866E30C5F1}">
       <text>
         <r>
           <rPr>
@@ -2128,7 +2161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0" shapeId="0" xr:uid="{4D3A08CC-4105-4514-9B64-22884418DA4F}">
+    <comment ref="F94" authorId="1" shapeId="0" xr:uid="{4D3A08CC-4105-4514-9B64-22884418DA4F}">
       <text>
         <r>
           <rPr>
@@ -2152,7 +2185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{C1F16B6D-8FDE-4A08-BB0F-24BE243EDFBD}">
+    <comment ref="G96" authorId="1" shapeId="0" xr:uid="{C1F16B6D-8FDE-4A08-BB0F-24BE243EDFBD}">
       <text>
         <r>
           <rPr>
@@ -2177,7 +2210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E97" authorId="0" shapeId="0" xr:uid="{E8E8443C-AE1C-4C29-9300-352BA7728A91}">
+    <comment ref="E97" authorId="1" shapeId="0" xr:uid="{E8E8443C-AE1C-4C29-9300-352BA7728A91}">
       <text>
         <r>
           <rPr>
@@ -2201,7 +2234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S100" authorId="0" shapeId="0" xr:uid="{EF7D8FE2-3051-4D14-9A9E-5122835842D1}">
+    <comment ref="S100" authorId="1" shapeId="0" xr:uid="{EF7D8FE2-3051-4D14-9A9E-5122835842D1}">
       <text>
         <r>
           <rPr>
@@ -2948,7 +2981,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="548">
   <si>
     <t>«</t>
   </si>
@@ -4613,6 +4646,9 @@
   <si>
     <t>z0</t>
   </si>
+  <si>
+    <t>inf</t>
+  </si>
 </sst>
 </file>
 
@@ -4632,7 +4668,7 @@
     <numFmt numFmtId="174" formatCode="0.000"/>
     <numFmt numFmtId="175" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4801,6 +4837,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="20">
@@ -12328,7 +12377,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -38359,7 +38408,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AU511"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A190" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J172" sqref="J172:N184"/>
     </sheetView>
   </sheetViews>
@@ -56489,8 +56538,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:X118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O94" sqref="O94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -56624,7 +56673,9 @@
       <c r="E5" s="20"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>414</v>
+      </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -56830,8 +56881,8 @@
         <v>1</v>
       </c>
       <c r="K12" s="244"/>
-      <c r="L12" s="435">
-        <v>1</v>
+      <c r="L12" s="435" t="s">
+        <v>547</v>
       </c>
       <c r="M12" s="244"/>
       <c r="N12" s="247"/>
@@ -56916,8 +56967,8 @@
       <c r="I15" s="244"/>
       <c r="J15" s="244"/>
       <c r="K15" s="244"/>
-      <c r="L15" s="435">
-        <v>1</v>
+      <c r="L15" s="435" t="s">
+        <v>547</v>
       </c>
       <c r="M15" s="244"/>
       <c r="N15" s="247"/>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4FF39E-049F-4C2F-B6ED-E755C9900E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783B708-82A1-4CF3-A0AA-B6FA3CBDD0D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -41,8 +41,8 @@
     <definedName name="chem_by_lmu">Crop!$I$362:$N$368</definedName>
     <definedName name="chem_cost" localSheetId="5">Crop!$H$222:$N$247</definedName>
     <definedName name="chem_info">Crop!$I$383:$K$389</definedName>
-    <definedName name="clover_propn_in_sward_stubble">Stubble!$L$88</definedName>
-    <definedName name="component_dmd">Stubble!$H$117:$M$125</definedName>
+    <definedName name="clover_propn_in_sward_stubble">Stubble!$L$79</definedName>
+    <definedName name="component_dmd">Stubble!$H$108:$M$116</definedName>
     <definedName name="CPDry" localSheetId="4">Annual!$V$295:$V$304</definedName>
     <definedName name="CPGrn" localSheetId="4">Annual!$X$269:$X$278</definedName>
     <definedName name="daily_harvest_hours" localSheetId="8">Mach!$B$10</definedName>
@@ -91,7 +91,7 @@
     <definedName name="harv_date" localSheetId="5">Crop!$I$58</definedName>
     <definedName name="harv_period_lengths" localSheetId="5">Crop!$I$60:$I$61</definedName>
     <definedName name="harvest_helper">Labour!$G$97:$H$109</definedName>
-    <definedName name="harvest_index">Stubble!$H$95:$I$103</definedName>
+    <definedName name="harvest_index">Stubble!$H$86:$I$94</definedName>
     <definedName name="harvest_prep">Labour!$J$97:$K$99</definedName>
     <definedName name="hay_making_date" localSheetId="5">Crop!$I$77</definedName>
     <definedName name="hay_making_len" localSheetId="5">Crop!$I$79</definedName>
@@ -132,9 +132,9 @@
     <definedName name="planning">Labour!$I$69:$J$80</definedName>
     <definedName name="poc_destock">Crop!$I$82</definedName>
     <definedName name="POCCons" localSheetId="4">Annual!$L$324:$Q$334</definedName>
-    <definedName name="proportion_grain_harv">Stubble!$H$106:$I$114</definedName>
-    <definedName name="quality_deterioration">Stubble!$H$128:$M$136</definedName>
-    <definedName name="quantity_deterioration">Stubble!$N$95:$O$103</definedName>
+    <definedName name="proportion_grain_harv">Stubble!$H$97:$I$105</definedName>
+    <definedName name="quality_deterioration">Stubble!$H$119:$M$127</definedName>
+    <definedName name="quantity_deterioration">Stubble!$N$86:$O$94</definedName>
     <definedName name="rail_cartage" localSheetId="1">General!$H$10</definedName>
     <definedName name="RIFOO" localSheetId="4">Annual!$K$18</definedName>
     <definedName name="road_cartage_distance" localSheetId="1">General!$H$12</definedName>
@@ -156,15 +156,15 @@
     <definedName name="sprayer_crop_allocation" localSheetId="8">Mach!$B$39</definedName>
     <definedName name="start_harvest_crops" localSheetId="5">Crop!$H$64:$I$75</definedName>
     <definedName name="steady_state">General!$M$25</definedName>
-    <definedName name="step_size">Stubble!$H$88</definedName>
+    <definedName name="step_size">Stubble!$H$79</definedName>
     <definedName name="storage_cost_date">'Sup Feed'!$K$32</definedName>
     <definedName name="storage_grain">'[1]Sup Feed'!$I$26:$N$28</definedName>
     <definedName name="storage_type">'Sup Feed'!$I$13:$K$18</definedName>
-    <definedName name="stub_cat_prop">Stubble!$H$139:$L$147</definedName>
-    <definedName name="stub_cat_qual">Stubble!$H$150:$L$158</definedName>
+    <definedName name="stub_cat_prop">Stubble!$H$130:$L$138</definedName>
+    <definedName name="stub_cat_qual">Stubble!$H$141:$L$149</definedName>
     <definedName name="stub_handling_date" localSheetId="8">Mach!$B$45</definedName>
     <definedName name="stub_handling_length" localSheetId="8">Mach!$B$47</definedName>
-    <definedName name="stubble_handling" localSheetId="9">Stubble!$G$58:$H$69</definedName>
+    <definedName name="stubble_handling" localSheetId="9">Stubble!$G$49:$H$60</definedName>
     <definedName name="super">Labour!$O$69:$P$73</definedName>
     <definedName name="tax">Labour!$F$69:$G$72</definedName>
     <definedName name="test" localSheetId="6">'Sheep Regions'!$B$3:$E$9</definedName>
@@ -173,7 +173,7 @@
     <definedName name="time_between_pad">'Sup Feed'!$O$57</definedName>
     <definedName name="time_fill_feeder">'Sup Feed'!$G$50:$I$53</definedName>
     <definedName name="Trampling" localSheetId="4">Annual!$J$68</definedName>
-    <definedName name="trampling">Stubble!$N$106:$O$114</definedName>
+    <definedName name="trampling">Stubble!$N$97:$O$105</definedName>
     <definedName name="user_crop_rot">Crop!$J$193</definedName>
     <definedName name="yield_by_lmu" localSheetId="5">Crop!$I$264:$N$276</definedName>
     <definedName name="yield_penalty" localSheetId="5">Crop!$H$43:$J$55</definedName>
@@ -183,14 +183,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2615,7 +2607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G58" authorId="0" shapeId="0" xr:uid="{A636A175-11E8-4327-BFE9-1ABC2EA6635E}">
+    <comment ref="G49" authorId="0" shapeId="0" xr:uid="{A636A175-11E8-4327-BFE9-1ABC2EA6635E}">
       <text>
         <r>
           <rPr>
@@ -2639,7 +2631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H58" authorId="0" shapeId="0" xr:uid="{66079CB8-D06C-46AC-8DC7-9BC360514861}">
+    <comment ref="H49" authorId="0" shapeId="0" xr:uid="{66079CB8-D06C-46AC-8DC7-9BC360514861}">
       <text>
         <r>
           <rPr>
@@ -2663,7 +2655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G88" authorId="0" shapeId="0" xr:uid="{B66DD46C-909C-4413-9B2B-84ED918734EC}">
+    <comment ref="G79" authorId="0" shapeId="0" xr:uid="{B66DD46C-909C-4413-9B2B-84ED918734EC}">
       <text>
         <r>
           <rPr>
@@ -2688,7 +2680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K88" authorId="0" shapeId="0" xr:uid="{14FD931B-0795-46B2-9E97-B92F9945A6C8}">
+    <comment ref="K79" authorId="0" shapeId="0" xr:uid="{14FD931B-0795-46B2-9E97-B92F9945A6C8}">
       <text>
         <r>
           <rPr>
@@ -2712,7 +2704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G94" authorId="0" shapeId="0" xr:uid="{65BBE8AA-806B-4B95-A72F-8EEBBD4EB545}">
+    <comment ref="G85" authorId="0" shapeId="0" xr:uid="{65BBE8AA-806B-4B95-A72F-8EEBBD4EB545}">
       <text>
         <r>
           <rPr>
@@ -2736,7 +2728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M94" authorId="0" shapeId="0" xr:uid="{93B2860A-E775-407D-826A-9870DF7B6A60}">
+    <comment ref="M85" authorId="0" shapeId="0" xr:uid="{93B2860A-E775-407D-826A-9870DF7B6A60}">
       <text>
         <r>
           <rPr>
@@ -2760,7 +2752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G105" authorId="0" shapeId="0" xr:uid="{15BB0F16-7131-4D16-8E31-4B9CC8FFC43A}">
+    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{15BB0F16-7131-4D16-8E31-4B9CC8FFC43A}">
       <text>
         <r>
           <rPr>
@@ -2784,7 +2776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M105" authorId="0" shapeId="0" xr:uid="{292DEB33-D3BC-40E7-B57E-79BBE377AFB7}">
+    <comment ref="M96" authorId="0" shapeId="0" xr:uid="{292DEB33-D3BC-40E7-B57E-79BBE377AFB7}">
       <text>
         <r>
           <rPr>
@@ -2808,7 +2800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G116" authorId="0" shapeId="0" xr:uid="{6D28406D-A9F4-40AE-8098-A3882D5B99CC}">
+    <comment ref="G107" authorId="0" shapeId="0" xr:uid="{6D28406D-A9F4-40AE-8098-A3882D5B99CC}">
       <text>
         <r>
           <rPr>
@@ -2832,7 +2824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K117" authorId="0" shapeId="0" xr:uid="{C283F54F-991D-4DC4-91FD-263895B776C5}">
+    <comment ref="K108" authorId="0" shapeId="0" xr:uid="{C283F54F-991D-4DC4-91FD-263895B776C5}">
       <text>
         <r>
           <rPr>
@@ -2856,7 +2848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K121" authorId="0" shapeId="0" xr:uid="{57F02848-1BF2-4441-892B-02350168CEC6}">
+    <comment ref="K112" authorId="0" shapeId="0" xr:uid="{57F02848-1BF2-4441-892B-02350168CEC6}">
       <text>
         <r>
           <rPr>
@@ -2880,7 +2872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J125" authorId="0" shapeId="0" xr:uid="{B7B8AF9E-21B8-4DA5-807B-DFECEF827112}">
+    <comment ref="J116" authorId="0" shapeId="0" xr:uid="{B7B8AF9E-21B8-4DA5-807B-DFECEF827112}">
       <text>
         <r>
           <rPr>
@@ -2904,7 +2896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G127" authorId="0" shapeId="0" xr:uid="{E4E27D6A-42FE-4E50-AEF9-FFBE2460AE39}">
+    <comment ref="G118" authorId="0" shapeId="0" xr:uid="{E4E27D6A-42FE-4E50-AEF9-FFBE2460AE39}">
       <text>
         <r>
           <rPr>
@@ -2928,7 +2920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G138" authorId="0" shapeId="0" xr:uid="{A744DFE7-5AB9-4797-A593-B6D02F1C1475}">
+    <comment ref="G129" authorId="0" shapeId="0" xr:uid="{A744DFE7-5AB9-4797-A593-B6D02F1C1475}">
       <text>
         <r>
           <rPr>
@@ -2952,7 +2944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G149" authorId="0" shapeId="0" xr:uid="{AB62E3CC-0B13-41F2-8F34-470B177749F8}">
+    <comment ref="G140" authorId="0" shapeId="0" xr:uid="{AB62E3CC-0B13-41F2-8F34-470B177749F8}">
       <text>
         <r>
           <rPr>
@@ -6917,9 +6909,9 @@
       <sheetName val="Mach 1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="26">
           <cell r="I26" t="str">
@@ -6982,7 +6974,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="35">
           <cell r="B35">
@@ -7384,10 +7376,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E7CEFF-83F4-4D28-85EF-3859ECCF0B70}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:Z169"/>
+  <dimension ref="A2:Z160"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="I155" sqref="I155"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7869,9 +7861,9 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="238"/>
+      <c r="I31" s="239"/>
       <c r="J31" s="241"/>
       <c r="K31" s="56"/>
       <c r="L31" s="56"/>
@@ -7888,54 +7880,63 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="241"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="241"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
       <c r="V32" s="29"/>
       <c r="W32" s="15"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" s="7" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="241"/>
-      <c r="I33" s="241"/>
-      <c r="J33" s="241"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="15"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39" t="str">
+        <f>G18</f>
+        <v>STUBBLE As Feed</v>
+      </c>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
@@ -7943,25 +7944,27 @@
     <row r="34" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="241"/>
-      <c r="H34" s="241"/>
-      <c r="I34" s="241"/>
-      <c r="J34" s="241"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="15"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
@@ -7969,25 +7972,27 @@
     <row r="35" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="241"/>
-      <c r="H35" s="241"/>
-      <c r="I35" s="241"/>
-      <c r="J35" s="241"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="15"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
@@ -7995,77 +8000,85 @@
     <row r="36" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="240"/>
-      <c r="H36" s="240"/>
-      <c r="I36" s="240"/>
-      <c r="J36" s="240"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-    </row>
-    <row r="37" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+    </row>
+    <row r="37" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="240"/>
-      <c r="H37" s="240"/>
-      <c r="I37" s="240"/>
-      <c r="J37" s="240"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-    </row>
-    <row r="38" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+    </row>
+    <row r="38" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="241"/>
-      <c r="H38" s="241"/>
-      <c r="I38" s="241"/>
-      <c r="J38" s="241"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="15"/>
+      <c r="C38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="10"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -8073,24 +8086,30 @@
     <row r="39" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="241"/>
-      <c r="I39" s="241"/>
-      <c r="J39" s="241"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="29"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
       <c r="W39" s="15"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
@@ -8099,86 +8118,87 @@
     <row r="40" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="16"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="238"/>
-      <c r="I40" s="239"/>
-      <c r="J40" s="241"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="29"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
       <c r="W40" s="15"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
-    <row r="41" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="29"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="44">
+        <v>38576.728703703702</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
       <c r="W41" s="15"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
     </row>
-    <row r="42" spans="1:26" s="7" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39" t="str">
-        <f>G18</f>
-        <v>STUBBLE As Feed</v>
-      </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="40" t="s">
-        <v>24</v>
-      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="15"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
@@ -8186,27 +8206,27 @@
     <row r="43" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="15"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
@@ -8214,27 +8234,27 @@
     <row r="44" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="15"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
@@ -8242,116 +8262,110 @@
     <row r="45" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-    </row>
-    <row r="46" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
     </row>
     <row r="47" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="10"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="15"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="29"/>
       <c r="W48" s="15"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
@@ -8360,28 +8374,30 @@
     <row r="49" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="16"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="242" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="242" t="s">
+        <v>512</v>
+      </c>
+      <c r="I49" s="239"/>
+      <c r="J49" s="240"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="29"/>
       <c r="W49" s="15"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
@@ -8391,27 +8407,27 @@
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="16"/>
-      <c r="D50" s="11"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="16"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="44">
-        <v>38576.728703703702</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="242" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="416">
+        <v>3.5</v>
+      </c>
+      <c r="I50" s="239"/>
+      <c r="J50" s="241"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="29"/>
       <c r="W50" s="15"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
@@ -8420,26 +8436,28 @@
     <row r="51" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="11"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="242" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="416">
+        <v>4.2</v>
+      </c>
+      <c r="I51" s="239"/>
+      <c r="J51" s="241"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="29"/>
       <c r="W51" s="15"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
@@ -8451,23 +8469,25 @@
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="242" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="416">
+        <v>3.5</v>
+      </c>
+      <c r="I52" s="239"/>
+      <c r="J52" s="241"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="29"/>
       <c r="W52" s="15"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
@@ -8479,23 +8499,23 @@
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="242" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="416"/>
+      <c r="I53" s="239"/>
+      <c r="J53" s="241"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="29"/>
       <c r="W53" s="15"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
@@ -8507,23 +8527,25 @@
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="242" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="416">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I54" s="239"/>
+      <c r="J54" s="241"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="29"/>
       <c r="W54" s="15"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
@@ -8535,78 +8557,80 @@
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="242" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="416">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I55" s="239"/>
+      <c r="J55" s="241"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="29"/>
       <c r="W55" s="15"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="242" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" s="416"/>
+      <c r="I56" s="239"/>
+      <c r="J56" s="241"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="29"/>
       <c r="W56" s="15"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
+      <c r="G57" s="242" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="416"/>
+      <c r="I57" s="239"/>
+      <c r="J57" s="240"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="31"/>
       <c r="V57" s="29"/>
       <c r="W57" s="15"/>
       <c r="X57" s="6"/>
@@ -8621,17 +8645,13 @@
       <c r="E58" s="16"/>
       <c r="F58" s="25"/>
       <c r="G58" s="242" t="s">
-        <v>125</v>
-      </c>
-      <c r="H58" s="242" t="s">
-        <v>512</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H58" s="416"/>
       <c r="I58" s="239"/>
       <c r="J58" s="240"/>
       <c r="K58" s="53"/>
       <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
       <c r="O58" s="53"/>
       <c r="P58" s="31"/>
       <c r="Q58" s="31"/>
@@ -8653,11 +8673,9 @@
       <c r="E59" s="16"/>
       <c r="F59" s="25"/>
       <c r="G59" s="242" t="s">
-        <v>77</v>
-      </c>
-      <c r="H59" s="416">
-        <v>3.5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H59" s="416"/>
       <c r="I59" s="239"/>
       <c r="J59" s="241"/>
       <c r="K59" s="56"/>
@@ -8683,11 +8701,9 @@
       <c r="E60" s="16"/>
       <c r="F60" s="25"/>
       <c r="G60" s="242" t="s">
-        <v>80</v>
-      </c>
-      <c r="H60" s="416">
-        <v>4.2</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H60" s="416"/>
       <c r="I60" s="239"/>
       <c r="J60" s="241"/>
       <c r="K60" s="56"/>
@@ -8712,12 +8728,8 @@
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="242" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" s="416">
-        <v>3.5</v>
-      </c>
+      <c r="G61" s="238"/>
+      <c r="H61" s="238"/>
       <c r="I61" s="239"/>
       <c r="J61" s="241"/>
       <c r="K61" s="56"/>
@@ -8735,60 +8747,63 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="242" t="s">
-        <v>82</v>
-      </c>
-      <c r="H62" s="416"/>
-      <c r="I62" s="239"/>
-      <c r="J62" s="241"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
       <c r="V62" s="29"/>
       <c r="W62" s="15"/>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="7" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="242" t="s">
-        <v>85</v>
-      </c>
-      <c r="H63" s="416">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I63" s="239"/>
-      <c r="J63" s="241"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="15"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="39" t="str">
+        <f>G39</f>
+        <v>STUBBLE HANDLING</v>
+      </c>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
@@ -8796,29 +8811,27 @@
     <row r="64" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="242" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="416">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I64" s="239"/>
-      <c r="J64" s="241"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="15"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
@@ -8826,27 +8839,27 @@
     <row r="65" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="242" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" s="416"/>
-      <c r="I65" s="239"/>
-      <c r="J65" s="241"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="15"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
@@ -8854,83 +8867,85 @@
     <row r="66" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="242" t="s">
-        <v>78</v>
-      </c>
-      <c r="H66" s="416"/>
-      <c r="I66" s="239"/>
-      <c r="J66" s="240"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="15"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-    </row>
-    <row r="67" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="67" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="242" t="s">
-        <v>86</v>
-      </c>
-      <c r="H67" s="416"/>
-      <c r="I67" s="239"/>
-      <c r="J67" s="240"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="15"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-    </row>
-    <row r="68" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+    </row>
+    <row r="68" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="242" t="s">
-        <v>87</v>
-      </c>
-      <c r="H68" s="416"/>
-      <c r="I68" s="239"/>
-      <c r="J68" s="241"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="31"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="15"/>
+      <c r="C68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="10"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
@@ -8938,26 +8953,30 @@
     <row r="69" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="242" t="s">
-        <v>88</v>
-      </c>
-      <c r="H69" s="416"/>
-      <c r="I69" s="239"/>
-      <c r="J69" s="241"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="29"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
       <c r="W69" s="15"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
@@ -8966,86 +8985,87 @@
     <row r="70" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="238"/>
-      <c r="H70" s="238"/>
-      <c r="I70" s="239"/>
-      <c r="J70" s="241"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="31"/>
-      <c r="V70" s="29"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
       <c r="W70" s="15"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="29"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="44">
+        <v>38576.728703703702</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
       <c r="W71" s="15"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="1:26" s="7" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="39" t="str">
-        <f>G48</f>
-        <v>STUBBLE HANDLING</v>
-      </c>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="40" t="s">
-        <v>24</v>
-      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="15"/>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
@@ -9053,27 +9073,27 @@
     <row r="73" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="15"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
@@ -9081,27 +9101,27 @@
     <row r="74" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="15"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
@@ -9109,288 +9129,285 @@
     <row r="75" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-    </row>
-    <row r="76" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
     </row>
     <row r="77" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="10"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="15"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
     </row>
-    <row r="78" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="14"/>
-      <c r="V78" s="14"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="28"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="29"/>
       <c r="W78" s="15"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="14"/>
-      <c r="V79" s="14"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="H79" s="443">
+        <v>1</v>
+      </c>
+      <c r="I79" s="54"/>
+      <c r="K79" s="347" t="s">
+        <v>439</v>
+      </c>
+      <c r="L79" s="444">
+        <v>0.05</v>
+      </c>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="28"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="29"/>
       <c r="W79" s="15"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="16"/>
-      <c r="D80" s="11"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="44">
-        <v>38576.728703703702</v>
-      </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="14"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="29"/>
       <c r="W80" s="15"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="11"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="14"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="28"/>
+      <c r="Q81" s="28"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="29"/>
       <c r="W81" s="15"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
-      <c r="U82" s="21"/>
-      <c r="V82" s="21"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="28"/>
+      <c r="U82" s="28"/>
+      <c r="V82" s="29"/>
       <c r="W82" s="15"/>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
-      <c r="U83" s="21"/>
-      <c r="V83" s="21"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="28"/>
+      <c r="R83" s="28"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="28"/>
+      <c r="U83" s="28"/>
+      <c r="V83" s="29"/>
       <c r="W83" s="15"/>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="23"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="21"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="28"/>
+      <c r="S84" s="28"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="29"/>
       <c r="W84" s="15"/>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
@@ -9402,253 +9419,304 @@
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" s="33"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="53"/>
+      <c r="M85" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="N85" s="33"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="31"/>
+      <c r="T85" s="31"/>
+      <c r="U85" s="31"/>
+      <c r="V85" s="29"/>
       <c r="W85" s="15"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="23"/>
-      <c r="R86" s="23"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="55" t="s">
+        <v>431</v>
+      </c>
+      <c r="J86" s="243"/>
+      <c r="K86" s="53"/>
+      <c r="L86" s="53"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="55" t="s">
+        <v>436</v>
+      </c>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
+      <c r="T86" s="31"/>
+      <c r="U86" s="31"/>
+      <c r="V86" s="29"/>
       <c r="W86" s="15"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="25"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="28"/>
-      <c r="Q87" s="28"/>
-      <c r="R87" s="28"/>
-      <c r="S87" s="28"/>
-      <c r="T87" s="28"/>
-      <c r="U87" s="28"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87" s="445">
+        <v>0.42</v>
+      </c>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O87" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="31"/>
+      <c r="T87" s="31"/>
+      <c r="U87" s="31"/>
       <c r="V87" s="29"/>
       <c r="W87" s="15"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="25"/>
-      <c r="G88" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="H88" s="443">
-        <v>1</v>
-      </c>
-      <c r="I88" s="54"/>
-      <c r="K88" s="347" t="s">
-        <v>439</v>
-      </c>
-      <c r="L88" s="444">
-        <v>0.05</v>
-      </c>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="28"/>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="28"/>
-      <c r="S88" s="28"/>
-      <c r="T88" s="28"/>
-      <c r="U88" s="28"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I88" s="445">
+        <v>0.44</v>
+      </c>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O88" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
+      <c r="R88" s="31"/>
+      <c r="S88" s="31"/>
+      <c r="T88" s="31"/>
+      <c r="U88" s="31"/>
       <c r="V88" s="29"/>
       <c r="W88" s="15"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="25"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="28"/>
-      <c r="R89" s="28"/>
-      <c r="S89" s="28"/>
-      <c r="T89" s="28"/>
-      <c r="U89" s="28"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I89" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O89" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="31"/>
+      <c r="R89" s="31"/>
+      <c r="S89" s="31"/>
+      <c r="T89" s="31"/>
+      <c r="U89" s="31"/>
       <c r="V89" s="29"/>
       <c r="W89" s="15"/>
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="25"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="28"/>
-      <c r="Q90" s="28"/>
-      <c r="R90" s="28"/>
-      <c r="S90" s="28"/>
-      <c r="T90" s="28"/>
-      <c r="U90" s="28"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90" s="445">
+        <v>0.2</v>
+      </c>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="O90" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="31"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="31"/>
+      <c r="T90" s="31"/>
+      <c r="U90" s="31"/>
       <c r="V90" s="29"/>
       <c r="W90" s="15"/>
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
     </row>
-    <row r="91" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="25"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="28"/>
-      <c r="R91" s="28"/>
-      <c r="S91" s="28"/>
-      <c r="T91" s="28"/>
-      <c r="U91" s="28"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I91" s="445">
+        <v>0.2</v>
+      </c>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O91" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="31"/>
+      <c r="S91" s="31"/>
+      <c r="T91" s="31"/>
+      <c r="U91" s="31"/>
       <c r="V91" s="29"/>
       <c r="W91" s="15"/>
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
     </row>
-    <row r="92" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="25"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="28"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="28"/>
-      <c r="Q92" s="28"/>
-      <c r="R92" s="28"/>
-      <c r="S92" s="28"/>
-      <c r="T92" s="28"/>
-      <c r="U92" s="28"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="K92" s="56"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="O92" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="31"/>
+      <c r="S92" s="31"/>
+      <c r="T92" s="31"/>
+      <c r="U92" s="31"/>
       <c r="V92" s="29"/>
       <c r="W92" s="15"/>
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
     </row>
-    <row r="93" spans="1:26" s="7" customFormat="1" ht="11.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="28"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="28"/>
-      <c r="Q93" s="28"/>
-      <c r="R93" s="28"/>
-      <c r="S93" s="28"/>
-      <c r="T93" s="28"/>
-      <c r="U93" s="28"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I93" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="56"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O93" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P93" s="31"/>
+      <c r="Q93" s="31"/>
+      <c r="R93" s="31"/>
+      <c r="S93" s="31"/>
+      <c r="T93" s="31"/>
+      <c r="U93" s="31"/>
       <c r="V93" s="29"/>
       <c r="W93" s="15"/>
       <c r="X93" s="6"/>
@@ -9662,19 +9730,23 @@
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="25"/>
-      <c r="G94" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H94" s="33"/>
-      <c r="I94" s="55"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I94" s="445">
+        <v>0.7</v>
+      </c>
       <c r="J94" s="53"/>
       <c r="K94" s="53"/>
       <c r="L94" s="53"/>
-      <c r="M94" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="N94" s="33"/>
-      <c r="O94" s="55"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O94" s="445">
+        <v>0.4</v>
+      </c>
       <c r="P94" s="31"/>
       <c r="Q94" s="31"/>
       <c r="R94" s="31"/>
@@ -9696,17 +9768,13 @@
       <c r="F95" s="25"/>
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
-      <c r="I95" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="J95" s="243"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="53"/>
       <c r="K95" s="53"/>
       <c r="L95" s="53"/>
-      <c r="M95" s="33"/>
-      <c r="N95" s="33"/>
-      <c r="O95" s="55" t="s">
-        <v>436</v>
-      </c>
+      <c r="M95" s="53"/>
+      <c r="N95" s="53"/>
+      <c r="O95" s="53"/>
       <c r="P95" s="31"/>
       <c r="Q95" s="31"/>
       <c r="R95" s="31"/>
@@ -9726,22 +9794,19 @@
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="25"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I96" s="445">
-        <v>0.42</v>
-      </c>
-      <c r="K96" s="56"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="33"/>
-      <c r="N96" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="O96" s="445">
-        <v>0.4</v>
-      </c>
+      <c r="G96" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H96" s="33"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="53"/>
+      <c r="L96" s="53"/>
+      <c r="M96" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="N96" s="33"/>
+      <c r="O96" s="55"/>
       <c r="P96" s="31"/>
       <c r="Q96" s="31"/>
       <c r="R96" s="31"/>
@@ -9762,20 +9827,17 @@
       <c r="E97" s="16"/>
       <c r="F97" s="25"/>
       <c r="G97" s="33"/>
-      <c r="H97" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I97" s="445">
-        <v>0.44</v>
-      </c>
-      <c r="K97" s="56"/>
-      <c r="L97" s="56"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="J97" s="53"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="53"/>
       <c r="M97" s="33"/>
-      <c r="N97" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="O97" s="445">
-        <v>0.4</v>
+      <c r="N97" s="33"/>
+      <c r="O97" s="55" t="s">
+        <v>437</v>
       </c>
       <c r="P97" s="31"/>
       <c r="Q97" s="31"/>
@@ -9798,19 +9860,20 @@
       <c r="F98" s="25"/>
       <c r="G98" s="33"/>
       <c r="H98" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I98" s="445">
-        <v>0.4</v>
-      </c>
+        <v>0.94</v>
+      </c>
+      <c r="J98" s="53"/>
       <c r="K98" s="56"/>
       <c r="L98" s="56"/>
       <c r="M98" s="33"/>
       <c r="N98" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O98" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P98" s="31"/>
       <c r="Q98" s="31"/>
@@ -9833,19 +9896,20 @@
       <c r="F99" s="25"/>
       <c r="G99" s="33"/>
       <c r="H99" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I99" s="445">
-        <v>0.2</v>
-      </c>
+        <v>0.94</v>
+      </c>
+      <c r="J99" s="53"/>
       <c r="K99" s="56"/>
       <c r="L99" s="56"/>
       <c r="M99" s="33"/>
       <c r="N99" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O99" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P99" s="31"/>
       <c r="Q99" s="31"/>
@@ -9868,19 +9932,20 @@
       <c r="F100" s="25"/>
       <c r="G100" s="33"/>
       <c r="H100" s="33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I100" s="445">
-        <v>0.2</v>
-      </c>
+        <v>0.94</v>
+      </c>
+      <c r="J100" s="53"/>
       <c r="K100" s="56"/>
       <c r="L100" s="56"/>
       <c r="M100" s="33"/>
       <c r="N100" s="33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O100" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P100" s="31"/>
       <c r="Q100" s="31"/>
@@ -9903,19 +9968,20 @@
       <c r="F101" s="25"/>
       <c r="G101" s="33"/>
       <c r="H101" s="33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I101" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.97</v>
+      </c>
+      <c r="J101" s="53"/>
       <c r="K101" s="56"/>
       <c r="L101" s="56"/>
       <c r="M101" s="33"/>
       <c r="N101" s="33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="O101" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P101" s="31"/>
       <c r="Q101" s="31"/>
@@ -9938,20 +10004,20 @@
       <c r="F102" s="25"/>
       <c r="G102" s="33"/>
       <c r="H102" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I102" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="J102" s="56"/>
+        <v>0.97</v>
+      </c>
+      <c r="J102" s="53"/>
       <c r="K102" s="56"/>
       <c r="L102" s="56"/>
       <c r="M102" s="33"/>
       <c r="N102" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O102" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P102" s="31"/>
       <c r="Q102" s="31"/>
@@ -9974,20 +10040,20 @@
       <c r="F103" s="25"/>
       <c r="G103" s="33"/>
       <c r="H103" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I103" s="445">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J103" s="53"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="53"/>
+      <c r="K103" s="56"/>
+      <c r="L103" s="56"/>
       <c r="M103" s="33"/>
       <c r="N103" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O103" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P103" s="31"/>
       <c r="Q103" s="31"/>
@@ -10009,14 +10075,22 @@
       <c r="E104" s="16"/>
       <c r="F104" s="25"/>
       <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="55"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="53"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="53"/>
-      <c r="O104" s="53"/>
+      <c r="H104" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I104" s="445">
+        <v>0.9</v>
+      </c>
+      <c r="J104" s="56"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="56"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O104" s="445">
+        <v>2</v>
+      </c>
       <c r="P104" s="31"/>
       <c r="Q104" s="31"/>
       <c r="R104" s="31"/>
@@ -10036,19 +10110,23 @@
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="25"/>
-      <c r="G105" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H105" s="33"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="53"/>
-      <c r="M105" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="N105" s="33"/>
-      <c r="O105" s="55"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I105" s="445">
+        <v>1</v>
+      </c>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="56"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O105" s="445">
+        <v>2</v>
+      </c>
       <c r="P105" s="31"/>
       <c r="Q105" s="31"/>
       <c r="R105" s="31"/>
@@ -10070,17 +10148,13 @@
       <c r="F106" s="25"/>
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
-      <c r="I106" s="55" t="s">
-        <v>430</v>
-      </c>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="53"/>
-      <c r="M106" s="33"/>
-      <c r="N106" s="33"/>
-      <c r="O106" s="55" t="s">
-        <v>437</v>
-      </c>
+      <c r="I106" s="54"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="56"/>
+      <c r="N106" s="56"/>
+      <c r="O106" s="56"/>
       <c r="P106" s="31"/>
       <c r="Q106" s="31"/>
       <c r="R106" s="31"/>
@@ -10100,23 +10174,17 @@
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="25"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I107" s="445">
-        <v>0.94</v>
-      </c>
-      <c r="J107" s="53"/>
+      <c r="G107" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H107" s="33"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="56"/>
       <c r="K107" s="56"/>
       <c r="L107" s="56"/>
-      <c r="M107" s="33"/>
-      <c r="N107" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="O107" s="445">
-        <v>2</v>
-      </c>
+      <c r="M107" s="56"/>
+      <c r="N107" s="56"/>
+      <c r="O107" s="56"/>
       <c r="P107" s="31"/>
       <c r="Q107" s="31"/>
       <c r="R107" s="31"/>
@@ -10137,22 +10205,24 @@
       <c r="E108" s="16"/>
       <c r="F108" s="25"/>
       <c r="G108" s="33"/>
-      <c r="H108" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I108" s="445">
-        <v>0.94</v>
-      </c>
-      <c r="J108" s="53"/>
-      <c r="K108" s="56"/>
-      <c r="L108" s="56"/>
-      <c r="M108" s="33"/>
-      <c r="N108" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="O108" s="445">
-        <v>2</v>
-      </c>
+      <c r="H108" s="33"/>
+      <c r="I108" s="158" t="s">
+        <v>384</v>
+      </c>
+      <c r="J108" s="447" t="s">
+        <v>426</v>
+      </c>
+      <c r="K108" s="447" t="s">
+        <v>427</v>
+      </c>
+      <c r="L108" s="447" t="s">
+        <v>428</v>
+      </c>
+      <c r="M108" s="447" t="s">
+        <v>429</v>
+      </c>
+      <c r="N108" s="56"/>
+      <c r="O108" s="56"/>
       <c r="P108" s="31"/>
       <c r="Q108" s="31"/>
       <c r="R108" s="31"/>
@@ -10174,21 +10244,25 @@
       <c r="F109" s="25"/>
       <c r="G109" s="33"/>
       <c r="H109" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I109" s="445">
-        <v>0.94</v>
-      </c>
-      <c r="J109" s="53"/>
-      <c r="K109" s="56"/>
-      <c r="L109" s="56"/>
-      <c r="M109" s="33"/>
-      <c r="N109" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="O109" s="445">
-        <v>2</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J109" s="445">
+        <v>58</v>
+      </c>
+      <c r="K109" s="445">
+        <v>37</v>
+      </c>
+      <c r="L109" s="445">
+        <v>37</v>
+      </c>
+      <c r="M109" s="445">
+        <v>23</v>
+      </c>
+      <c r="N109" s="56"/>
+      <c r="O109" s="56"/>
       <c r="P109" s="31"/>
       <c r="Q109" s="31"/>
       <c r="R109" s="31"/>
@@ -10210,21 +10284,25 @@
       <c r="F110" s="25"/>
       <c r="G110" s="33"/>
       <c r="H110" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I110" s="445">
         <v>85</v>
       </c>
-      <c r="I110" s="445">
-        <v>0.97</v>
-      </c>
-      <c r="J110" s="53"/>
-      <c r="K110" s="56"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="33"/>
-      <c r="N110" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O110" s="445">
-        <v>2</v>
-      </c>
+      <c r="J110" s="445">
+        <v>58</v>
+      </c>
+      <c r="K110" s="445">
+        <v>37</v>
+      </c>
+      <c r="L110" s="445">
+        <v>37</v>
+      </c>
+      <c r="M110" s="445">
+        <v>23</v>
+      </c>
+      <c r="N110" s="56"/>
+      <c r="O110" s="56"/>
       <c r="P110" s="31"/>
       <c r="Q110" s="31"/>
       <c r="R110" s="31"/>
@@ -10246,21 +10324,25 @@
       <c r="F111" s="25"/>
       <c r="G111" s="33"/>
       <c r="H111" s="33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I111" s="445">
-        <v>0.97</v>
-      </c>
-      <c r="J111" s="53"/>
-      <c r="K111" s="56"/>
-      <c r="L111" s="56"/>
-      <c r="M111" s="33"/>
-      <c r="N111" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="O111" s="445">
-        <v>2</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J111" s="445">
+        <v>58</v>
+      </c>
+      <c r="K111" s="445">
+        <v>37</v>
+      </c>
+      <c r="L111" s="445">
+        <v>37</v>
+      </c>
+      <c r="M111" s="445">
+        <v>23</v>
+      </c>
+      <c r="N111" s="56"/>
+      <c r="O111" s="56"/>
       <c r="P111" s="31"/>
       <c r="Q111" s="31"/>
       <c r="R111" s="31"/>
@@ -10282,21 +10364,25 @@
       <c r="F112" s="25"/>
       <c r="G112" s="33"/>
       <c r="H112" s="33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I112" s="445">
-        <v>0.9</v>
-      </c>
-      <c r="J112" s="53"/>
-      <c r="K112" s="56"/>
-      <c r="L112" s="56"/>
-      <c r="M112" s="33"/>
-      <c r="N112" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="O112" s="445">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J112" s="445">
+        <v>64</v>
+      </c>
+      <c r="K112" s="445">
+        <v>0</v>
+      </c>
+      <c r="L112" s="445">
+        <v>52</v>
+      </c>
+      <c r="M112" s="445">
+        <v>31</v>
+      </c>
+      <c r="N112" s="56"/>
+      <c r="O112" s="56"/>
       <c r="P112" s="31"/>
       <c r="Q112" s="31"/>
       <c r="R112" s="31"/>
@@ -10318,21 +10404,25 @@
       <c r="F113" s="25"/>
       <c r="G113" s="33"/>
       <c r="H113" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I113" s="445">
-        <v>0.9</v>
-      </c>
-      <c r="J113" s="56"/>
-      <c r="K113" s="56"/>
-      <c r="L113" s="56"/>
-      <c r="M113" s="33"/>
-      <c r="N113" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="O113" s="445">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J113" s="445">
+        <v>64</v>
+      </c>
+      <c r="K113" s="445">
+        <v>0</v>
+      </c>
+      <c r="L113" s="445">
+        <v>52</v>
+      </c>
+      <c r="M113" s="445">
+        <v>31</v>
+      </c>
+      <c r="N113" s="56"/>
+      <c r="O113" s="56"/>
       <c r="P113" s="31"/>
       <c r="Q113" s="31"/>
       <c r="R113" s="31"/>
@@ -10354,21 +10444,25 @@
       <c r="F114" s="25"/>
       <c r="G114" s="33"/>
       <c r="H114" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I114" s="445">
-        <v>1</v>
-      </c>
-      <c r="J114" s="56"/>
-      <c r="K114" s="56"/>
-      <c r="L114" s="56"/>
-      <c r="M114" s="33"/>
-      <c r="N114" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="O114" s="445">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J114" s="445">
+        <v>64</v>
+      </c>
+      <c r="K114" s="445">
+        <v>0</v>
+      </c>
+      <c r="L114" s="445">
+        <v>58</v>
+      </c>
+      <c r="M114" s="445">
+        <v>35</v>
+      </c>
+      <c r="N114" s="56"/>
+      <c r="O114" s="56"/>
       <c r="P114" s="31"/>
       <c r="Q114" s="31"/>
       <c r="R114" s="31"/>
@@ -10389,12 +10483,24 @@
       <c r="E115" s="16"/>
       <c r="F115" s="25"/>
       <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="56"/>
-      <c r="K115" s="56"/>
-      <c r="L115" s="56"/>
-      <c r="M115" s="56"/>
+      <c r="H115" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I115" s="445">
+        <v>90</v>
+      </c>
+      <c r="J115" s="445">
+        <v>64</v>
+      </c>
+      <c r="K115" s="445">
+        <v>0</v>
+      </c>
+      <c r="L115" s="445">
+        <v>58</v>
+      </c>
+      <c r="M115" s="445">
+        <v>35</v>
+      </c>
       <c r="N115" s="56"/>
       <c r="O115" s="56"/>
       <c r="P115" s="31"/>
@@ -10416,15 +10522,25 @@
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
       <c r="F116" s="25"/>
-      <c r="G116" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="H116" s="33"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
-      <c r="L116" s="56"/>
-      <c r="M116" s="56"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I116" s="445">
+        <v>85</v>
+      </c>
+      <c r="J116" s="445">
+        <v>70</v>
+      </c>
+      <c r="K116" s="445">
+        <v>37</v>
+      </c>
+      <c r="L116" s="445">
+        <v>37</v>
+      </c>
+      <c r="M116" s="445">
+        <v>23</v>
+      </c>
       <c r="N116" s="56"/>
       <c r="O116" s="56"/>
       <c r="P116" s="31"/>
@@ -10448,21 +10564,11 @@
       <c r="F117" s="25"/>
       <c r="G117" s="33"/>
       <c r="H117" s="33"/>
-      <c r="I117" s="158" t="s">
-        <v>384</v>
-      </c>
-      <c r="J117" s="447" t="s">
-        <v>426</v>
-      </c>
-      <c r="K117" s="447" t="s">
-        <v>427</v>
-      </c>
-      <c r="L117" s="447" t="s">
-        <v>428</v>
-      </c>
-      <c r="M117" s="447" t="s">
-        <v>429</v>
-      </c>
+      <c r="I117" s="54"/>
+      <c r="J117" s="56"/>
+      <c r="K117" s="56"/>
+      <c r="L117" s="56"/>
+      <c r="M117" s="56"/>
       <c r="N117" s="56"/>
       <c r="O117" s="56"/>
       <c r="P117" s="31"/>
@@ -10484,25 +10590,15 @@
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="25"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I118" s="445">
-        <v>85</v>
-      </c>
-      <c r="J118" s="445">
-        <v>58</v>
-      </c>
-      <c r="K118" s="445">
-        <v>37</v>
-      </c>
-      <c r="L118" s="445">
-        <v>37</v>
-      </c>
-      <c r="M118" s="445">
-        <v>23</v>
-      </c>
+      <c r="G118" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="H118" s="33"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="56"/>
+      <c r="L118" s="56"/>
+      <c r="M118" s="56"/>
       <c r="N118" s="56"/>
       <c r="O118" s="56"/>
       <c r="P118" s="31"/>
@@ -10525,23 +10621,21 @@
       <c r="E119" s="16"/>
       <c r="F119" s="25"/>
       <c r="G119" s="33"/>
-      <c r="H119" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I119" s="445">
-        <v>85</v>
-      </c>
-      <c r="J119" s="445">
-        <v>58</v>
-      </c>
-      <c r="K119" s="445">
-        <v>37</v>
-      </c>
-      <c r="L119" s="445">
-        <v>37</v>
-      </c>
-      <c r="M119" s="445">
-        <v>23</v>
+      <c r="H119" s="33"/>
+      <c r="I119" s="158" t="s">
+        <v>384</v>
+      </c>
+      <c r="J119" s="447" t="s">
+        <v>426</v>
+      </c>
+      <c r="K119" s="447" t="s">
+        <v>427</v>
+      </c>
+      <c r="L119" s="447" t="s">
+        <v>428</v>
+      </c>
+      <c r="M119" s="447" t="s">
+        <v>429</v>
       </c>
       <c r="N119" s="56"/>
       <c r="O119" s="56"/>
@@ -10566,22 +10660,22 @@
       <c r="F120" s="25"/>
       <c r="G120" s="33"/>
       <c r="H120" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I120" s="445">
-        <v>85</v>
+        <v>0.05</v>
       </c>
       <c r="J120" s="445">
-        <v>58</v>
+        <v>0.3</v>
       </c>
       <c r="K120" s="445">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="L120" s="445">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="M120" s="445">
-        <v>23</v>
+        <v>0.3</v>
       </c>
       <c r="N120" s="56"/>
       <c r="O120" s="56"/>
@@ -10606,22 +10700,22 @@
       <c r="F121" s="25"/>
       <c r="G121" s="33"/>
       <c r="H121" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I121" s="445">
-        <v>95</v>
+        <v>0.05</v>
       </c>
       <c r="J121" s="445">
-        <v>64</v>
+        <v>0.3</v>
       </c>
       <c r="K121" s="445">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L121" s="445">
-        <v>52</v>
+        <v>0.3</v>
       </c>
       <c r="M121" s="445">
-        <v>31</v>
+        <v>0.3</v>
       </c>
       <c r="N121" s="56"/>
       <c r="O121" s="56"/>
@@ -10646,22 +10740,22 @@
       <c r="F122" s="25"/>
       <c r="G122" s="33"/>
       <c r="H122" s="33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I122" s="445">
-        <v>95</v>
+        <v>0.05</v>
       </c>
       <c r="J122" s="445">
-        <v>64</v>
+        <v>0.3</v>
       </c>
       <c r="K122" s="445">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L122" s="445">
-        <v>52</v>
+        <v>0.3</v>
       </c>
       <c r="M122" s="445">
-        <v>31</v>
+        <v>0.3</v>
       </c>
       <c r="N122" s="56"/>
       <c r="O122" s="56"/>
@@ -10686,22 +10780,22 @@
       <c r="F123" s="25"/>
       <c r="G123" s="33"/>
       <c r="H123" s="33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I123" s="445">
-        <v>90</v>
+        <v>0.05</v>
       </c>
       <c r="J123" s="445">
-        <v>64</v>
+        <v>0.3</v>
       </c>
       <c r="K123" s="445">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L123" s="445">
-        <v>58</v>
+        <v>0.3</v>
       </c>
       <c r="M123" s="445">
-        <v>35</v>
+        <v>0.3</v>
       </c>
       <c r="N123" s="56"/>
       <c r="O123" s="56"/>
@@ -10726,22 +10820,22 @@
       <c r="F124" s="25"/>
       <c r="G124" s="33"/>
       <c r="H124" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I124" s="445">
-        <v>90</v>
+        <v>0.05</v>
       </c>
       <c r="J124" s="445">
-        <v>64</v>
+        <v>0.3</v>
       </c>
       <c r="K124" s="445">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L124" s="445">
-        <v>58</v>
+        <v>0.3</v>
       </c>
       <c r="M124" s="445">
-        <v>35</v>
+        <v>0.3</v>
       </c>
       <c r="N124" s="56"/>
       <c r="O124" s="56"/>
@@ -10766,22 +10860,22 @@
       <c r="F125" s="25"/>
       <c r="G125" s="33"/>
       <c r="H125" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I125" s="445">
-        <v>85</v>
+        <v>0.05</v>
       </c>
       <c r="J125" s="445">
-        <v>70</v>
+        <v>0.3</v>
       </c>
       <c r="K125" s="445">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="L125" s="445">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="M125" s="445">
-        <v>23</v>
+        <v>0.3</v>
       </c>
       <c r="N125" s="56"/>
       <c r="O125" s="56"/>
@@ -10805,12 +10899,24 @@
       <c r="E126" s="16"/>
       <c r="F126" s="25"/>
       <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="56"/>
-      <c r="K126" s="56"/>
-      <c r="L126" s="56"/>
-      <c r="M126" s="56"/>
+      <c r="H126" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I126" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="J126" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="K126" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="L126" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="M126" s="445">
+        <v>0.3</v>
+      </c>
       <c r="N126" s="56"/>
       <c r="O126" s="56"/>
       <c r="P126" s="31"/>
@@ -10832,15 +10938,25 @@
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
       <c r="F127" s="25"/>
-      <c r="G127" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="H127" s="33"/>
-      <c r="I127" s="54"/>
-      <c r="J127" s="56"/>
-      <c r="K127" s="56"/>
-      <c r="L127" s="56"/>
-      <c r="M127" s="56"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I127" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="J127" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="K127" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="L127" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="M127" s="445">
+        <v>0.3</v>
+      </c>
       <c r="N127" s="56"/>
       <c r="O127" s="56"/>
       <c r="P127" s="31"/>
@@ -10855,7 +10971,7 @@
       <c r="Y127" s="6"/>
       <c r="Z127" s="6"/>
     </row>
-    <row r="128" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" s="7" customFormat="1" ht="12.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="16"/>
@@ -10864,21 +10980,11 @@
       <c r="F128" s="25"/>
       <c r="G128" s="33"/>
       <c r="H128" s="33"/>
-      <c r="I128" s="158" t="s">
-        <v>384</v>
-      </c>
-      <c r="J128" s="447" t="s">
-        <v>426</v>
-      </c>
-      <c r="K128" s="447" t="s">
-        <v>427</v>
-      </c>
-      <c r="L128" s="447" t="s">
-        <v>428</v>
-      </c>
-      <c r="M128" s="447" t="s">
-        <v>429</v>
-      </c>
+      <c r="I128" s="54"/>
+      <c r="J128" s="56"/>
+      <c r="K128" s="56"/>
+      <c r="L128" s="56"/>
+      <c r="M128" s="56"/>
       <c r="N128" s="56"/>
       <c r="O128" s="56"/>
       <c r="P128" s="31"/>
@@ -10900,25 +11006,15 @@
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
       <c r="F129" s="25"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I129" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="J129" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="K129" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L129" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M129" s="445">
-        <v>0.3</v>
-      </c>
+      <c r="G129" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="H129" s="33"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="56"/>
+      <c r="K129" s="56"/>
+      <c r="L129" s="56"/>
+      <c r="M129" s="56"/>
       <c r="N129" s="56"/>
       <c r="O129" s="56"/>
       <c r="P129" s="31"/>
@@ -10941,24 +11037,20 @@
       <c r="E130" s="16"/>
       <c r="F130" s="25"/>
       <c r="G130" s="33"/>
-      <c r="H130" s="33" t="s">
+      <c r="H130" s="33"/>
+      <c r="I130" s="158" t="s">
+        <v>83</v>
+      </c>
+      <c r="J130" s="447" t="s">
         <v>80</v>
       </c>
-      <c r="I130" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="J130" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="K130" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L130" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M130" s="445">
-        <v>0.3</v>
-      </c>
+      <c r="K130" s="447" t="s">
+        <v>434</v>
+      </c>
+      <c r="L130" s="447" t="s">
+        <v>435</v>
+      </c>
+      <c r="M130" s="56"/>
       <c r="N130" s="56"/>
       <c r="O130" s="56"/>
       <c r="P130" s="31"/>
@@ -10982,23 +11074,22 @@
       <c r="F131" s="25"/>
       <c r="G131" s="33"/>
       <c r="H131" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I131" s="445">
         <v>0.05</v>
       </c>
       <c r="J131" s="445">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
       <c r="K131" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L131" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M131" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="L131" s="446">
+        <f>1-SUM(I131:K131)</f>
+        <v>0.81</v>
+      </c>
+      <c r="M131" s="56"/>
       <c r="N131" s="56"/>
       <c r="O131" s="56"/>
       <c r="P131" s="31"/>
@@ -11022,23 +11113,22 @@
       <c r="F132" s="25"/>
       <c r="G132" s="33"/>
       <c r="H132" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I132" s="445">
         <v>0.05</v>
       </c>
       <c r="J132" s="445">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
       <c r="K132" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L132" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M132" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="L132" s="446">
+        <f t="shared" ref="L132:L133" si="0">1-SUM(I132:K132)</f>
+        <v>0.81</v>
+      </c>
+      <c r="M132" s="56"/>
       <c r="N132" s="56"/>
       <c r="O132" s="56"/>
       <c r="P132" s="31"/>
@@ -11062,23 +11152,22 @@
       <c r="F133" s="25"/>
       <c r="G133" s="33"/>
       <c r="H133" s="33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I133" s="445">
         <v>0.05</v>
       </c>
       <c r="J133" s="445">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
       <c r="K133" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L133" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M133" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="L133" s="446">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="M133" s="56"/>
       <c r="N133" s="56"/>
       <c r="O133" s="56"/>
       <c r="P133" s="31"/>
@@ -11102,23 +11191,22 @@
       <c r="F134" s="25"/>
       <c r="G134" s="33"/>
       <c r="H134" s="33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I134" s="445">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J134" s="445">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="K134" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L134" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M134" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="L134" s="446">
+        <f t="shared" ref="L134:L138" si="1">1-SUM(I134:K134)</f>
+        <v>0.85</v>
+      </c>
+      <c r="M134" s="56"/>
       <c r="N134" s="56"/>
       <c r="O134" s="56"/>
       <c r="P134" s="31"/>
@@ -11142,23 +11230,22 @@
       <c r="F135" s="25"/>
       <c r="G135" s="33"/>
       <c r="H135" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I135" s="445">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J135" s="445">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="K135" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L135" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M135" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="L135" s="446">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M135" s="56"/>
       <c r="N135" s="56"/>
       <c r="O135" s="56"/>
       <c r="P135" s="31"/>
@@ -11182,23 +11269,22 @@
       <c r="F136" s="25"/>
       <c r="G136" s="33"/>
       <c r="H136" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I136" s="445">
         <v>0.05</v>
       </c>
       <c r="J136" s="445">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="K136" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L136" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M136" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="L136" s="446">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M136" s="56"/>
       <c r="N136" s="56"/>
       <c r="O136" s="56"/>
       <c r="P136" s="31"/>
@@ -11213,7 +11299,7 @@
       <c r="Y136" s="6"/>
       <c r="Z136" s="6"/>
     </row>
-    <row r="137" spans="1:26" s="7" customFormat="1" ht="12.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="16"/>
@@ -11221,11 +11307,22 @@
       <c r="E137" s="16"/>
       <c r="F137" s="25"/>
       <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
-      <c r="I137" s="54"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="56"/>
-      <c r="L137" s="56"/>
+      <c r="H137" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I137" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="J137" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="K137" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="L137" s="446">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
       <c r="M137" s="56"/>
       <c r="N137" s="56"/>
       <c r="O137" s="56"/>
@@ -11248,14 +11345,23 @@
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
       <c r="F138" s="25"/>
-      <c r="G138" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="H138" s="33"/>
-      <c r="I138" s="54"/>
-      <c r="J138" s="56"/>
-      <c r="K138" s="56"/>
-      <c r="L138" s="56"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I138" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="J138" s="445">
+        <v>0.04</v>
+      </c>
+      <c r="K138" s="445">
+        <v>0.1</v>
+      </c>
+      <c r="L138" s="446">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
       <c r="M138" s="56"/>
       <c r="N138" s="56"/>
       <c r="O138" s="56"/>
@@ -11280,18 +11386,10 @@
       <c r="F139" s="25"/>
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
-      <c r="I139" s="158" t="s">
-        <v>83</v>
-      </c>
-      <c r="J139" s="447" t="s">
-        <v>80</v>
-      </c>
-      <c r="K139" s="447" t="s">
-        <v>434</v>
-      </c>
-      <c r="L139" s="447" t="s">
-        <v>435</v>
-      </c>
+      <c r="I139" s="54"/>
+      <c r="J139" s="56"/>
+      <c r="K139" s="56"/>
+      <c r="L139" s="56"/>
       <c r="M139" s="56"/>
       <c r="N139" s="56"/>
       <c r="O139" s="56"/>
@@ -11314,23 +11412,14 @@
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
       <c r="F140" s="25"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I140" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="J140" s="445">
-        <v>0.04</v>
-      </c>
-      <c r="K140" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L140" s="446">
-        <f>1-SUM(I140:K140)</f>
-        <v>0.81</v>
-      </c>
+      <c r="G140" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="H140" s="33"/>
+      <c r="I140" s="54"/>
+      <c r="J140" s="56"/>
+      <c r="K140" s="56"/>
+      <c r="L140" s="56"/>
       <c r="M140" s="56"/>
       <c r="N140" s="56"/>
       <c r="O140" s="56"/>
@@ -11354,21 +11443,18 @@
       <c r="E141" s="16"/>
       <c r="F141" s="25"/>
       <c r="G141" s="33"/>
-      <c r="H141" s="33" t="s">
+      <c r="H141" s="33"/>
+      <c r="I141" s="158" t="s">
+        <v>83</v>
+      </c>
+      <c r="J141" s="447" t="s">
         <v>80</v>
       </c>
-      <c r="I141" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="J141" s="445">
-        <v>0.04</v>
-      </c>
-      <c r="K141" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L141" s="446">
-        <f t="shared" ref="L141:L142" si="0">1-SUM(I141:K141)</f>
-        <v>0.81</v>
+      <c r="K141" s="447" t="s">
+        <v>434</v>
+      </c>
+      <c r="L141" s="447" t="s">
+        <v>435</v>
       </c>
       <c r="M141" s="56"/>
       <c r="N141" s="56"/>
@@ -11394,20 +11480,19 @@
       <c r="F142" s="25"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I142" s="445">
-        <v>0.05</v>
+        <v>80</v>
       </c>
       <c r="J142" s="445">
-        <v>0.04</v>
+        <v>51</v>
       </c>
       <c r="K142" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L142" s="446">
-        <f t="shared" si="0"/>
-        <v>0.81</v>
+        <v>45</v>
+      </c>
+      <c r="L142" s="445">
+        <v>30</v>
       </c>
       <c r="M142" s="56"/>
       <c r="N142" s="56"/>
@@ -11433,20 +11518,19 @@
       <c r="F143" s="25"/>
       <c r="G143" s="33"/>
       <c r="H143" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I143" s="445">
-        <v>0.02</v>
+        <v>80</v>
       </c>
       <c r="J143" s="445">
-        <v>0.03</v>
+        <v>51</v>
       </c>
       <c r="K143" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L143" s="446">
-        <f t="shared" ref="L143:L147" si="1">1-SUM(I143:K143)</f>
-        <v>0.85</v>
+        <v>45</v>
+      </c>
+      <c r="L143" s="445">
+        <v>30</v>
       </c>
       <c r="M143" s="56"/>
       <c r="N143" s="56"/>
@@ -11472,20 +11556,19 @@
       <c r="F144" s="25"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I144" s="445">
-        <v>0.02</v>
+        <v>80</v>
       </c>
       <c r="J144" s="445">
-        <v>0.03</v>
+        <v>51</v>
       </c>
       <c r="K144" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L144" s="446">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
+        <v>45</v>
+      </c>
+      <c r="L144" s="445">
+        <v>30</v>
       </c>
       <c r="M144" s="56"/>
       <c r="N144" s="56"/>
@@ -11511,20 +11594,19 @@
       <c r="F145" s="25"/>
       <c r="G145" s="33"/>
       <c r="H145" s="33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I145" s="445">
-        <v>0.05</v>
+        <v>89</v>
       </c>
       <c r="J145" s="445">
-        <v>0.05</v>
+        <v>68</v>
       </c>
       <c r="K145" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="L145" s="446">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
+        <v>46</v>
+      </c>
+      <c r="L145" s="445">
+        <v>33</v>
       </c>
       <c r="M145" s="56"/>
       <c r="N145" s="56"/>
@@ -11550,20 +11632,19 @@
       <c r="F146" s="25"/>
       <c r="G146" s="33"/>
       <c r="H146" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I146" s="445">
-        <v>0.05</v>
+        <v>89</v>
       </c>
       <c r="J146" s="445">
-        <v>0.05</v>
+        <v>68</v>
       </c>
       <c r="K146" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="L146" s="446">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
+        <v>46</v>
+      </c>
+      <c r="L146" s="445">
+        <v>33</v>
       </c>
       <c r="M146" s="56"/>
       <c r="N146" s="56"/>
@@ -11589,20 +11670,19 @@
       <c r="F147" s="25"/>
       <c r="G147" s="33"/>
       <c r="H147" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I147" s="445">
-        <v>0.05</v>
+        <v>85</v>
       </c>
       <c r="J147" s="445">
-        <v>0.04</v>
+        <v>65</v>
       </c>
       <c r="K147" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L147" s="446">
-        <f t="shared" si="1"/>
-        <v>0.81</v>
+        <v>56</v>
+      </c>
+      <c r="L147" s="445">
+        <v>43</v>
       </c>
       <c r="M147" s="56"/>
       <c r="N147" s="56"/>
@@ -11627,11 +11707,21 @@
       <c r="E148" s="16"/>
       <c r="F148" s="25"/>
       <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="56"/>
-      <c r="K148" s="56"/>
-      <c r="L148" s="56"/>
+      <c r="H148" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I148" s="445">
+        <v>85</v>
+      </c>
+      <c r="J148" s="445">
+        <v>65</v>
+      </c>
+      <c r="K148" s="445">
+        <v>56</v>
+      </c>
+      <c r="L148" s="445">
+        <v>43</v>
+      </c>
       <c r="M148" s="56"/>
       <c r="N148" s="56"/>
       <c r="O148" s="56"/>
@@ -11654,14 +11744,22 @@
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
       <c r="F149" s="25"/>
-      <c r="G149" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="H149" s="33"/>
-      <c r="I149" s="54"/>
-      <c r="J149" s="56"/>
-      <c r="K149" s="56"/>
-      <c r="L149" s="56"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I149" s="445">
+        <v>80</v>
+      </c>
+      <c r="J149" s="445">
+        <v>51</v>
+      </c>
+      <c r="K149" s="445">
+        <v>45</v>
+      </c>
+      <c r="L149" s="445">
+        <v>30</v>
+      </c>
       <c r="M149" s="56"/>
       <c r="N149" s="56"/>
       <c r="O149" s="56"/>
@@ -11686,18 +11784,10 @@
       <c r="F150" s="25"/>
       <c r="G150" s="33"/>
       <c r="H150" s="33"/>
-      <c r="I150" s="158" t="s">
-        <v>83</v>
-      </c>
-      <c r="J150" s="447" t="s">
-        <v>80</v>
-      </c>
-      <c r="K150" s="447" t="s">
-        <v>434</v>
-      </c>
-      <c r="L150" s="447" t="s">
-        <v>435</v>
-      </c>
+      <c r="I150" s="54"/>
+      <c r="J150" s="56"/>
+      <c r="K150" s="56"/>
+      <c r="L150" s="56"/>
       <c r="M150" s="56"/>
       <c r="N150" s="56"/>
       <c r="O150" s="56"/>
@@ -11721,21 +11811,11 @@
       <c r="E151" s="16"/>
       <c r="F151" s="25"/>
       <c r="G151" s="33"/>
-      <c r="H151" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I151" s="445">
-        <v>80</v>
-      </c>
-      <c r="J151" s="445">
-        <v>51</v>
-      </c>
-      <c r="K151" s="445">
-        <v>45</v>
-      </c>
-      <c r="L151" s="445">
-        <v>30</v>
-      </c>
+      <c r="H151" s="33"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="56"/>
+      <c r="K151" s="56"/>
+      <c r="L151" s="56"/>
       <c r="M151" s="56"/>
       <c r="N151" s="56"/>
       <c r="O151" s="56"/>
@@ -11759,21 +11839,11 @@
       <c r="E152" s="16"/>
       <c r="F152" s="25"/>
       <c r="G152" s="33"/>
-      <c r="H152" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I152" s="445">
-        <v>80</v>
-      </c>
-      <c r="J152" s="445">
-        <v>51</v>
-      </c>
-      <c r="K152" s="445">
-        <v>45</v>
-      </c>
-      <c r="L152" s="445">
-        <v>30</v>
-      </c>
+      <c r="H152" s="33"/>
+      <c r="I152" s="54"/>
+      <c r="J152" s="56"/>
+      <c r="K152" s="56"/>
+      <c r="L152" s="56"/>
       <c r="M152" s="56"/>
       <c r="N152" s="56"/>
       <c r="O152" s="56"/>
@@ -11797,21 +11867,11 @@
       <c r="E153" s="16"/>
       <c r="F153" s="25"/>
       <c r="G153" s="33"/>
-      <c r="H153" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="I153" s="445">
-        <v>80</v>
-      </c>
-      <c r="J153" s="445">
-        <v>51</v>
-      </c>
-      <c r="K153" s="445">
-        <v>45</v>
-      </c>
-      <c r="L153" s="445">
-        <v>30</v>
-      </c>
+      <c r="H153" s="33"/>
+      <c r="I153" s="54"/>
+      <c r="J153" s="56"/>
+      <c r="K153" s="56"/>
+      <c r="L153" s="56"/>
       <c r="M153" s="56"/>
       <c r="N153" s="56"/>
       <c r="O153" s="56"/>
@@ -11835,21 +11895,11 @@
       <c r="E154" s="16"/>
       <c r="F154" s="25"/>
       <c r="G154" s="33"/>
-      <c r="H154" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I154" s="445">
-        <v>89</v>
-      </c>
-      <c r="J154" s="445">
-        <v>68</v>
-      </c>
-      <c r="K154" s="445">
-        <v>46</v>
-      </c>
-      <c r="L154" s="445">
-        <v>33</v>
-      </c>
+      <c r="H154" s="33"/>
+      <c r="I154" s="54"/>
+      <c r="J154" s="56"/>
+      <c r="K154" s="56"/>
+      <c r="L154" s="56"/>
       <c r="M154" s="56"/>
       <c r="N154" s="56"/>
       <c r="O154" s="56"/>
@@ -11873,21 +11923,11 @@
       <c r="E155" s="16"/>
       <c r="F155" s="25"/>
       <c r="G155" s="33"/>
-      <c r="H155" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I155" s="445">
-        <v>89</v>
-      </c>
-      <c r="J155" s="445">
-        <v>68</v>
-      </c>
-      <c r="K155" s="445">
-        <v>46</v>
-      </c>
-      <c r="L155" s="445">
-        <v>33</v>
-      </c>
+      <c r="H155" s="33"/>
+      <c r="I155" s="54"/>
+      <c r="J155" s="56"/>
+      <c r="K155" s="56"/>
+      <c r="L155" s="56"/>
       <c r="M155" s="56"/>
       <c r="N155" s="56"/>
       <c r="O155" s="56"/>
@@ -11911,21 +11951,11 @@
       <c r="E156" s="16"/>
       <c r="F156" s="25"/>
       <c r="G156" s="33"/>
-      <c r="H156" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I156" s="445">
-        <v>85</v>
-      </c>
-      <c r="J156" s="445">
-        <v>65</v>
-      </c>
-      <c r="K156" s="445">
-        <v>56</v>
-      </c>
-      <c r="L156" s="445">
-        <v>43</v>
-      </c>
+      <c r="H156" s="33"/>
+      <c r="I156" s="54"/>
+      <c r="J156" s="56"/>
+      <c r="K156" s="56"/>
+      <c r="L156" s="56"/>
       <c r="M156" s="56"/>
       <c r="N156" s="56"/>
       <c r="O156" s="56"/>
@@ -11947,26 +11977,16 @@
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="25"/>
+      <c r="F157" s="32"/>
       <c r="G157" s="33"/>
-      <c r="H157" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I157" s="445">
-        <v>85</v>
-      </c>
-      <c r="J157" s="445">
-        <v>65</v>
-      </c>
-      <c r="K157" s="445">
-        <v>56</v>
-      </c>
-      <c r="L157" s="445">
-        <v>43</v>
-      </c>
-      <c r="M157" s="56"/>
-      <c r="N157" s="56"/>
-      <c r="O157" s="56"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="54"/>
+      <c r="J157" s="53"/>
+      <c r="K157" s="53"/>
+      <c r="L157" s="53"/>
+      <c r="M157" s="53"/>
+      <c r="N157" s="53"/>
+      <c r="O157" s="53"/>
       <c r="P157" s="31"/>
       <c r="Q157" s="31"/>
       <c r="R157" s="31"/>
@@ -11979,68 +11999,63 @@
       <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
     </row>
-    <row r="158" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I158" s="445">
-        <v>80</v>
-      </c>
-      <c r="J158" s="445">
-        <v>51</v>
-      </c>
-      <c r="K158" s="445">
-        <v>45</v>
-      </c>
-      <c r="L158" s="445">
-        <v>30</v>
-      </c>
-      <c r="M158" s="56"/>
-      <c r="N158" s="56"/>
-      <c r="O158" s="56"/>
-      <c r="P158" s="31"/>
-      <c r="Q158" s="31"/>
-      <c r="R158" s="31"/>
-      <c r="S158" s="31"/>
-      <c r="T158" s="31"/>
-      <c r="U158" s="31"/>
+      <c r="F158" s="35"/>
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="37"/>
+      <c r="K158" s="37"/>
+      <c r="L158" s="37"/>
+      <c r="M158" s="37"/>
+      <c r="N158" s="37"/>
+      <c r="O158" s="37"/>
+      <c r="P158" s="37"/>
+      <c r="Q158" s="37"/>
+      <c r="R158" s="37"/>
+      <c r="S158" s="37"/>
+      <c r="T158" s="37"/>
+      <c r="U158" s="37"/>
       <c r="V158" s="29"/>
       <c r="W158" s="15"/>
       <c r="X158" s="6"/>
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
     </row>
-    <row r="159" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" s="7" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="25"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="54"/>
-      <c r="J159" s="56"/>
-      <c r="K159" s="56"/>
-      <c r="L159" s="56"/>
-      <c r="M159" s="56"/>
-      <c r="N159" s="56"/>
-      <c r="O159" s="56"/>
-      <c r="P159" s="31"/>
-      <c r="Q159" s="31"/>
-      <c r="R159" s="31"/>
-      <c r="S159" s="31"/>
-      <c r="T159" s="31"/>
-      <c r="U159" s="31"/>
-      <c r="V159" s="29"/>
-      <c r="W159" s="15"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="38"/>
+      <c r="F159" s="38"/>
+      <c r="G159" s="39" t="str">
+        <f>G69</f>
+        <v>HARVEST INDEX &amp; STUBBLE PRODUCTION</v>
+      </c>
+      <c r="H159" s="38"/>
+      <c r="I159" s="38"/>
+      <c r="J159" s="38"/>
+      <c r="K159" s="38"/>
+      <c r="L159" s="38"/>
+      <c r="M159" s="38"/>
+      <c r="N159" s="38"/>
+      <c r="O159" s="38"/>
+      <c r="P159" s="38"/>
+      <c r="Q159" s="38"/>
+      <c r="R159" s="38"/>
+      <c r="S159" s="38"/>
+      <c r="T159" s="38"/>
+      <c r="U159" s="38"/>
+      <c r="V159" s="38"/>
+      <c r="W159" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="X159" s="6"/>
       <c r="Y159" s="6"/>
       <c r="Z159" s="6"/>
@@ -12048,287 +12063,30 @@
     <row r="160" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="54"/>
-      <c r="J160" s="56"/>
-      <c r="K160" s="56"/>
-      <c r="L160" s="56"/>
-      <c r="M160" s="56"/>
-      <c r="N160" s="56"/>
-      <c r="O160" s="56"/>
-      <c r="P160" s="31"/>
-      <c r="Q160" s="31"/>
-      <c r="R160" s="31"/>
-      <c r="S160" s="31"/>
-      <c r="T160" s="31"/>
-      <c r="U160" s="31"/>
-      <c r="V160" s="29"/>
-      <c r="W160" s="15"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
+      <c r="W160" s="6"/>
       <c r="X160" s="6"/>
       <c r="Y160" s="6"/>
       <c r="Z160" s="6"/>
-    </row>
-    <row r="161" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="33"/>
-      <c r="H161" s="33"/>
-      <c r="I161" s="54"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="56"/>
-      <c r="L161" s="56"/>
-      <c r="M161" s="56"/>
-      <c r="N161" s="56"/>
-      <c r="O161" s="56"/>
-      <c r="P161" s="31"/>
-      <c r="Q161" s="31"/>
-      <c r="R161" s="31"/>
-      <c r="S161" s="31"/>
-      <c r="T161" s="31"/>
-      <c r="U161" s="31"/>
-      <c r="V161" s="29"/>
-      <c r="W161" s="15"/>
-      <c r="X161" s="6"/>
-      <c r="Y161" s="6"/>
-      <c r="Z161" s="6"/>
-    </row>
-    <row r="162" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="33"/>
-      <c r="H162" s="33"/>
-      <c r="I162" s="54"/>
-      <c r="J162" s="56"/>
-      <c r="K162" s="56"/>
-      <c r="L162" s="56"/>
-      <c r="M162" s="56"/>
-      <c r="N162" s="56"/>
-      <c r="O162" s="56"/>
-      <c r="P162" s="31"/>
-      <c r="Q162" s="31"/>
-      <c r="R162" s="31"/>
-      <c r="S162" s="31"/>
-      <c r="T162" s="31"/>
-      <c r="U162" s="31"/>
-      <c r="V162" s="29"/>
-      <c r="W162" s="15"/>
-      <c r="X162" s="6"/>
-      <c r="Y162" s="6"/>
-      <c r="Z162" s="6"/>
-    </row>
-    <row r="163" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="25"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="54"/>
-      <c r="J163" s="56"/>
-      <c r="K163" s="56"/>
-      <c r="L163" s="56"/>
-      <c r="M163" s="56"/>
-      <c r="N163" s="56"/>
-      <c r="O163" s="56"/>
-      <c r="P163" s="31"/>
-      <c r="Q163" s="31"/>
-      <c r="R163" s="31"/>
-      <c r="S163" s="31"/>
-      <c r="T163" s="31"/>
-      <c r="U163" s="31"/>
-      <c r="V163" s="29"/>
-      <c r="W163" s="15"/>
-      <c r="X163" s="6"/>
-      <c r="Y163" s="6"/>
-      <c r="Z163" s="6"/>
-    </row>
-    <row r="164" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="25"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
-      <c r="I164" s="54"/>
-      <c r="J164" s="56"/>
-      <c r="K164" s="56"/>
-      <c r="L164" s="56"/>
-      <c r="M164" s="56"/>
-      <c r="N164" s="56"/>
-      <c r="O164" s="56"/>
-      <c r="P164" s="31"/>
-      <c r="Q164" s="31"/>
-      <c r="R164" s="31"/>
-      <c r="S164" s="31"/>
-      <c r="T164" s="31"/>
-      <c r="U164" s="31"/>
-      <c r="V164" s="29"/>
-      <c r="W164" s="15"/>
-      <c r="X164" s="6"/>
-      <c r="Y164" s="6"/>
-      <c r="Z164" s="6"/>
-    </row>
-    <row r="165" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="33"/>
-      <c r="H165" s="33"/>
-      <c r="I165" s="54"/>
-      <c r="J165" s="56"/>
-      <c r="K165" s="56"/>
-      <c r="L165" s="56"/>
-      <c r="M165" s="56"/>
-      <c r="N165" s="56"/>
-      <c r="O165" s="56"/>
-      <c r="P165" s="31"/>
-      <c r="Q165" s="31"/>
-      <c r="R165" s="31"/>
-      <c r="S165" s="31"/>
-      <c r="T165" s="31"/>
-      <c r="U165" s="31"/>
-      <c r="V165" s="29"/>
-      <c r="W165" s="15"/>
-      <c r="X165" s="6"/>
-      <c r="Y165" s="6"/>
-      <c r="Z165" s="6"/>
-    </row>
-    <row r="166" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="33"/>
-      <c r="I166" s="54"/>
-      <c r="J166" s="53"/>
-      <c r="K166" s="53"/>
-      <c r="L166" s="53"/>
-      <c r="M166" s="53"/>
-      <c r="N166" s="53"/>
-      <c r="O166" s="53"/>
-      <c r="P166" s="31"/>
-      <c r="Q166" s="31"/>
-      <c r="R166" s="31"/>
-      <c r="S166" s="31"/>
-      <c r="T166" s="31"/>
-      <c r="U166" s="31"/>
-      <c r="V166" s="29"/>
-      <c r="W166" s="15"/>
-      <c r="X166" s="6"/>
-      <c r="Y166" s="6"/>
-      <c r="Z166" s="6"/>
-    </row>
-    <row r="167" spans="1:26" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="36"/>
-      <c r="J167" s="37"/>
-      <c r="K167" s="37"/>
-      <c r="L167" s="37"/>
-      <c r="M167" s="37"/>
-      <c r="N167" s="37"/>
-      <c r="O167" s="37"/>
-      <c r="P167" s="37"/>
-      <c r="Q167" s="37"/>
-      <c r="R167" s="37"/>
-      <c r="S167" s="37"/>
-      <c r="T167" s="37"/>
-      <c r="U167" s="37"/>
-      <c r="V167" s="29"/>
-      <c r="W167" s="15"/>
-      <c r="X167" s="6"/>
-      <c r="Y167" s="6"/>
-      <c r="Z167" s="6"/>
-    </row>
-    <row r="168" spans="1:26" s="7" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="38"/>
-      <c r="D168" s="38"/>
-      <c r="E168" s="38"/>
-      <c r="F168" s="38"/>
-      <c r="G168" s="39" t="str">
-        <f>G78</f>
-        <v>HARVEST INDEX &amp; STUBBLE PRODUCTION</v>
-      </c>
-      <c r="H168" s="38"/>
-      <c r="I168" s="38"/>
-      <c r="J168" s="38"/>
-      <c r="K168" s="38"/>
-      <c r="L168" s="38"/>
-      <c r="M168" s="38"/>
-      <c r="N168" s="38"/>
-      <c r="O168" s="38"/>
-      <c r="P168" s="38"/>
-      <c r="Q168" s="38"/>
-      <c r="R168" s="38"/>
-      <c r="S168" s="38"/>
-      <c r="T168" s="38"/>
-      <c r="U168" s="38"/>
-      <c r="V168" s="38"/>
-      <c r="W168" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="X168" s="6"/>
-      <c r="Y168" s="6"/>
-      <c r="Z168" s="6"/>
-    </row>
-    <row r="169" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
-      <c r="L169" s="6"/>
-      <c r="M169" s="6"/>
-      <c r="N169" s="6"/>
-      <c r="O169" s="6"/>
-      <c r="P169" s="6"/>
-      <c r="Q169" s="6"/>
-      <c r="R169" s="6"/>
-      <c r="S169" s="6"/>
-      <c r="T169" s="6"/>
-      <c r="U169" s="6"/>
-      <c r="V169" s="6"/>
-      <c r="W169" s="6"/>
-      <c r="X169" s="6"/>
-      <c r="Y169" s="6"/>
-      <c r="Z169" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12342,12 +12100,12 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="72" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="8.85546875" style="72"/>
   </cols>
   <sheetData>
@@ -12377,7 +12135,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:Z63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -14169,7 +13927,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC68" sqref="AC68"/>
     </sheetView>
   </sheetViews>
@@ -16480,8 +16238,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:BD429"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="M355" sqref="M355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -33478,7 +33236,7 @@
       </c>
       <c r="X338" s="132"/>
     </row>
-    <row r="339" spans="1:56" ht="12" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:56" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="78"/>
       <c r="B339" s="79"/>
       <c r="C339" s="79"/>
@@ -33504,7 +33262,7 @@
       <c r="W339" s="132"/>
       <c r="X339" s="132"/>
     </row>
-    <row r="340" spans="1:56" s="145" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:56" s="145" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A340" s="143"/>
       <c r="B340" s="79"/>
       <c r="C340" s="79"/>
@@ -33556,7 +33314,7 @@
       <c r="BC340" s="80"/>
       <c r="BD340" s="80"/>
     </row>
-    <row r="341" spans="1:56" s="145" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:56" s="145" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="143"/>
       <c r="B341" s="79"/>
       <c r="C341" s="79"/>
@@ -33608,7 +33366,7 @@
       <c r="BC341" s="80"/>
       <c r="BD341" s="80"/>
     </row>
-    <row r="342" spans="1:56" s="145" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:56" s="145" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A342" s="143"/>
       <c r="B342" s="79"/>
       <c r="C342" s="83" t="s">
@@ -33662,7 +33420,7 @@
       <c r="BC342" s="80"/>
       <c r="BD342" s="80"/>
     </row>
-    <row r="343" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A343" s="143"/>
       <c r="B343" s="79"/>
       <c r="C343" s="88"/>
@@ -33720,7 +33478,7 @@
       <c r="BC343" s="80"/>
       <c r="BD343" s="80"/>
     </row>
-    <row r="344" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A344" s="143"/>
       <c r="B344" s="79"/>
       <c r="C344" s="88"/>
@@ -33774,7 +33532,7 @@
       <c r="BC344" s="80"/>
       <c r="BD344" s="80"/>
     </row>
-    <row r="345" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="143"/>
       <c r="B345" s="79"/>
       <c r="C345" s="96"/>
@@ -33828,7 +33586,7 @@
       <c r="BC345" s="80"/>
       <c r="BD345" s="80"/>
     </row>
-    <row r="346" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A346" s="143"/>
       <c r="B346" s="79"/>
       <c r="C346" s="96">
@@ -33882,7 +33640,7 @@
       <c r="BC346" s="80"/>
       <c r="BD346" s="80"/>
     </row>
-    <row r="347" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A347" s="143"/>
       <c r="B347" s="79"/>
       <c r="C347" s="96"/>
@@ -33934,7 +33692,7 @@
       <c r="BC347" s="80"/>
       <c r="BD347" s="80"/>
     </row>
-    <row r="348" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A348" s="143"/>
       <c r="B348" s="79"/>
       <c r="C348" s="96"/>
@@ -33986,7 +33744,7 @@
       <c r="BC348" s="80"/>
       <c r="BD348" s="80"/>
     </row>
-    <row r="349" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A349" s="143"/>
       <c r="B349" s="79"/>
       <c r="C349" s="96"/>
@@ -34052,7 +33810,7 @@
       <c r="BC349" s="80"/>
       <c r="BD349" s="80"/>
     </row>
-    <row r="350" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A350" s="143"/>
       <c r="B350" s="79"/>
       <c r="C350" s="112"/>
@@ -34116,7 +33874,7 @@
       <c r="BC350" s="80"/>
       <c r="BD350" s="80"/>
     </row>
-    <row r="351" spans="1:56" s="145" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:56" s="145" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A351" s="143"/>
       <c r="B351" s="79"/>
       <c r="C351" s="112"/>
@@ -34170,7 +33928,7 @@
       <c r="BC351" s="80"/>
       <c r="BD351" s="80"/>
     </row>
-    <row r="352" spans="1:56" s="145" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:56" s="145" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A352" s="143"/>
       <c r="B352" s="79"/>
       <c r="C352" s="112"/>
@@ -34222,7 +33980,7 @@
       <c r="BC352" s="80"/>
       <c r="BD352" s="80"/>
     </row>
-    <row r="353" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="143"/>
       <c r="B353" s="79"/>
       <c r="C353" s="112"/>
@@ -34280,7 +34038,7 @@
       <c r="BC353" s="80"/>
       <c r="BD353" s="80"/>
     </row>
-    <row r="354" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A354" s="143"/>
       <c r="B354" s="79"/>
       <c r="C354" s="112"/>
@@ -34298,7 +34056,7 @@
       <c r="K354" s="230"/>
       <c r="L354" s="231"/>
       <c r="M354" s="160">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N354" s="231"/>
       <c r="O354" s="231"/>
@@ -34338,7 +34096,7 @@
       <c r="BC354" s="80"/>
       <c r="BD354" s="80"/>
     </row>
-    <row r="355" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A355" s="143"/>
       <c r="B355" s="79"/>
       <c r="C355" s="112"/>
@@ -34356,7 +34114,7 @@
       <c r="K355" s="230"/>
       <c r="L355" s="231"/>
       <c r="M355" s="160">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N355" s="231"/>
       <c r="O355" s="231"/>
@@ -34396,7 +34154,7 @@
       <c r="BC355" s="80"/>
       <c r="BD355" s="80"/>
     </row>
-    <row r="356" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A356" s="143"/>
       <c r="B356" s="79"/>
       <c r="C356" s="112"/>
@@ -34454,7 +34212,7 @@
       <c r="BC356" s="80"/>
       <c r="BD356" s="80"/>
     </row>
-    <row r="357" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A357" s="143"/>
       <c r="B357" s="79"/>
       <c r="C357" s="112"/>
@@ -34512,7 +34270,7 @@
       <c r="BC357" s="80"/>
       <c r="BD357" s="80"/>
     </row>
-    <row r="358" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A358" s="143"/>
       <c r="B358" s="79"/>
       <c r="C358" s="112"/>
@@ -34570,7 +34328,7 @@
       <c r="BC358" s="80"/>
       <c r="BD358" s="80"/>
     </row>
-    <row r="359" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A359" s="143"/>
       <c r="B359" s="79"/>
       <c r="C359" s="112"/>
@@ -34628,7 +34386,7 @@
       <c r="BC359" s="80"/>
       <c r="BD359" s="80"/>
     </row>
-    <row r="360" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A360" s="143"/>
       <c r="B360" s="79"/>
       <c r="C360" s="112"/>
@@ -34686,7 +34444,7 @@
       <c r="BC360" s="80"/>
       <c r="BD360" s="80"/>
     </row>
-    <row r="361" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A361" s="143"/>
       <c r="B361" s="79"/>
       <c r="C361" s="112"/>
@@ -34744,7 +34502,7 @@
       <c r="BC361" s="80"/>
       <c r="BD361" s="80"/>
     </row>
-    <row r="362" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A362" s="143"/>
       <c r="B362" s="79"/>
       <c r="C362" s="112"/>
@@ -34802,7 +34560,7 @@
       <c r="BC362" s="80"/>
       <c r="BD362" s="80"/>
     </row>
-    <row r="363" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A363" s="143"/>
       <c r="B363" s="79"/>
       <c r="C363" s="112"/>
@@ -34854,7 +34612,7 @@
       <c r="BC363" s="80"/>
       <c r="BD363" s="80"/>
     </row>
-    <row r="364" spans="1:56" s="145" customFormat="1" ht="12.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:56" s="145" customFormat="1" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A364" s="143"/>
       <c r="B364" s="79"/>
       <c r="C364" s="112"/>
@@ -34906,7 +34664,7 @@
       <c r="BC364" s="80"/>
       <c r="BD364" s="80"/>
     </row>
-    <row r="365" spans="1:56" s="145" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:56" s="145" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A365" s="143"/>
       <c r="B365" s="79"/>
       <c r="C365" s="95" t="s">
@@ -34960,7 +34718,7 @@
       <c r="BC365" s="80"/>
       <c r="BD365" s="80"/>
     </row>
-    <row r="366" spans="1:56" s="145" customFormat="1" ht="24" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:56" s="145" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="143"/>
       <c r="B366" s="79"/>
       <c r="C366" s="125"/>
@@ -56538,8 +56296,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -56553,10 +56311,11 @@
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -58117,7 +57876,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J56" s="435">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="K56" s="244"/>
       <c r="L56" s="244"/>
@@ -58148,7 +57907,7 @@
         <v>0.02</v>
       </c>
       <c r="J57" s="435">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="K57" s="244"/>
       <c r="L57" s="244"/>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783B708-82A1-4CF3-A0AA-B6FA3CBDD0D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4677C5-022C-4B2D-A923-BB38889BEA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -24,10 +24,11 @@
     <sheet name="Mach" sheetId="2" r:id="rId9"/>
     <sheet name="Stubble" sheetId="6" r:id="rId10"/>
     <sheet name="Finance" sheetId="3" r:id="rId11"/>
+    <sheet name="Report Settings" sheetId="13" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Annual!$G$139:$O$149</definedName>
@@ -96,6 +97,8 @@
     <definedName name="hay_making_date" localSheetId="5">Crop!$I$77</definedName>
     <definedName name="hay_making_len" localSheetId="5">Crop!$I$79</definedName>
     <definedName name="i_hf">Stubble!$J$29</definedName>
+    <definedName name="i_store_fec_rep">'Report Settings'!$J$18</definedName>
+    <definedName name="i_store_lw_rep">'Report Settings'!$G$18</definedName>
     <definedName name="initial_fungus" localSheetId="5">'[2]Initial conditions'!$M$12:$O$12</definedName>
     <definedName name="initial_nutrients">'[2]Initial conditions'!$R$12</definedName>
     <definedName name="initial_weed" localSheetId="5">'[2]Initial conditions'!$H$11:$J$13</definedName>
@@ -179,10 +182,18 @@
     <definedName name="yield_penalty" localSheetId="5">Crop!$H$43:$J$55</definedName>
     <definedName name="yields" localSheetId="5">Crop!$M$200:$M$205</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2973,7 +2984,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="554">
   <si>
     <t>«</t>
   </si>
@@ -4641,6 +4652,24 @@
   <si>
     <t>inf</t>
   </si>
+  <si>
+    <t>Control variable to be stored for reporting</t>
+  </si>
+  <si>
+    <t>Some arrays used for reporting are vary big so the default is not to store them. This is the default settings which can be overwritten using sensitivity values</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>store lw patterns</t>
+  </si>
+  <si>
+    <t>FEC</t>
+  </si>
+  <si>
+    <t>store fec patterns</t>
+  </si>
 </sst>
 </file>
 
@@ -5279,7 +5308,7 @@
     <xf numFmtId="0" fontId="23" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="477">
+  <cellXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -6370,6 +6399,10 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="4" applyBorder="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="14" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -6430,6 +6463,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -7379,7 +7415,7 @@
   <dimension ref="A2:Z160"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="A35" sqref="A35:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -12130,12 +12166,896 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65171DF4-3688-4166-9603-E4B261BE1A52}">
+  <dimension ref="A1:Z31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="274"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="276"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
+      <c r="Y1" s="276"/>
+      <c r="Z1" s="276"/>
+    </row>
+    <row r="2" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="274"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="276"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="276"/>
+      <c r="R2" s="276"/>
+      <c r="S2" s="276"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="275"/>
+      <c r="Y2" s="275"/>
+      <c r="Z2" s="275"/>
+    </row>
+    <row r="3" spans="1:26" s="80" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="274"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
+      <c r="M3" s="276"/>
+      <c r="N3" s="276"/>
+      <c r="O3" s="276"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="276"/>
+      <c r="S3" s="276"/>
+      <c r="T3" s="276"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="276"/>
+      <c r="W3" s="276"/>
+      <c r="X3" s="275"/>
+      <c r="Y3" s="275"/>
+      <c r="Z3" s="275"/>
+    </row>
+    <row r="4" spans="1:26" s="80" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="274"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="277"/>
+      <c r="K4" s="278"/>
+      <c r="L4" s="278"/>
+      <c r="M4" s="278"/>
+      <c r="N4" s="278"/>
+      <c r="O4" s="278"/>
+      <c r="P4" s="278"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="278"/>
+      <c r="S4" s="278"/>
+      <c r="T4" s="278"/>
+      <c r="U4" s="278"/>
+      <c r="V4" s="278"/>
+      <c r="W4" s="279"/>
+      <c r="X4" s="276"/>
+      <c r="Y4" s="276"/>
+      <c r="Z4" s="276"/>
+    </row>
+    <row r="5" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="274"/>
+      <c r="B5" s="275"/>
+      <c r="C5" s="280"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="281"/>
+      <c r="G5" s="282" t="s">
+        <v>548</v>
+      </c>
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="281"/>
+      <c r="K5" s="281"/>
+      <c r="L5" s="281"/>
+      <c r="M5" s="281"/>
+      <c r="N5" s="281"/>
+      <c r="O5" s="281"/>
+      <c r="P5" s="281"/>
+      <c r="Q5" s="281"/>
+      <c r="R5" s="281"/>
+      <c r="S5" s="283"/>
+      <c r="T5" s="281"/>
+      <c r="U5" s="283"/>
+      <c r="V5" s="283"/>
+      <c r="W5" s="284"/>
+      <c r="X5" s="276"/>
+      <c r="Y5" s="276"/>
+      <c r="Z5" s="276"/>
+    </row>
+    <row r="6" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="274"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="281"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="281"/>
+      <c r="J6" s="281"/>
+      <c r="K6" s="281"/>
+      <c r="L6" s="281"/>
+      <c r="M6" s="281"/>
+      <c r="N6" s="281"/>
+      <c r="O6" s="281"/>
+      <c r="P6" s="281"/>
+      <c r="Q6" s="281"/>
+      <c r="R6" s="281"/>
+      <c r="S6" s="283"/>
+      <c r="T6" s="286"/>
+      <c r="U6" s="283"/>
+      <c r="V6" s="283"/>
+      <c r="W6" s="284"/>
+      <c r="X6" s="276"/>
+      <c r="Y6" s="276"/>
+      <c r="Z6" s="276"/>
+    </row>
+    <row r="7" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="274"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="287" t="s">
+        <v>549</v>
+      </c>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="283"/>
+      <c r="T7" s="286"/>
+      <c r="U7" s="283"/>
+      <c r="V7" s="283"/>
+      <c r="W7" s="284"/>
+      <c r="X7" s="276"/>
+      <c r="Y7" s="276"/>
+      <c r="Z7" s="276"/>
+    </row>
+    <row r="8" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="274"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="280"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="281"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="281"/>
+      <c r="I8" s="281"/>
+      <c r="J8" s="281"/>
+      <c r="K8" s="281"/>
+      <c r="L8" s="281"/>
+      <c r="M8" s="281"/>
+      <c r="N8" s="281"/>
+      <c r="O8" s="281"/>
+      <c r="P8" s="281"/>
+      <c r="Q8" s="281"/>
+      <c r="R8" s="281"/>
+      <c r="S8" s="283"/>
+      <c r="T8" s="286"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="283"/>
+      <c r="W8" s="284"/>
+      <c r="X8" s="276"/>
+      <c r="Y8" s="276"/>
+      <c r="Z8" s="276"/>
+    </row>
+    <row r="9" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="274"/>
+      <c r="B9" s="275"/>
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="285"/>
+      <c r="G9" s="285"/>
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="458"/>
+      <c r="K9" s="458"/>
+      <c r="L9" s="458"/>
+      <c r="M9" s="458"/>
+      <c r="N9" s="458"/>
+      <c r="O9" s="458"/>
+      <c r="P9" s="458"/>
+      <c r="Q9" s="458"/>
+      <c r="R9" s="458"/>
+      <c r="S9" s="458"/>
+      <c r="T9" s="458"/>
+      <c r="U9" s="458"/>
+      <c r="V9" s="458"/>
+      <c r="W9" s="284"/>
+      <c r="X9" s="276"/>
+      <c r="Y9" s="276"/>
+      <c r="Z9" s="276"/>
+    </row>
+    <row r="10" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="274"/>
+      <c r="B10" s="275"/>
+      <c r="C10" s="285"/>
+      <c r="D10" s="285"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="285"/>
+      <c r="H10" s="285"/>
+      <c r="I10" s="285"/>
+      <c r="J10" s="285"/>
+      <c r="K10" s="285"/>
+      <c r="L10" s="458"/>
+      <c r="M10" s="458"/>
+      <c r="N10" s="458"/>
+      <c r="O10" s="458"/>
+      <c r="P10" s="458"/>
+      <c r="Q10" s="458"/>
+      <c r="R10" s="458"/>
+      <c r="S10" s="458"/>
+      <c r="T10" s="458"/>
+      <c r="U10" s="458"/>
+      <c r="V10" s="458"/>
+      <c r="W10" s="284"/>
+      <c r="X10" s="276"/>
+      <c r="Y10" s="276"/>
+      <c r="Z10" s="276"/>
+    </row>
+    <row r="11" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="274"/>
+      <c r="B11" s="275"/>
+      <c r="C11" s="285"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="285"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="285"/>
+      <c r="I11" s="285"/>
+      <c r="J11" s="291"/>
+      <c r="K11" s="291"/>
+      <c r="L11" s="291"/>
+      <c r="M11" s="291"/>
+      <c r="N11" s="291"/>
+      <c r="O11" s="291"/>
+      <c r="P11" s="292"/>
+      <c r="Q11" s="292"/>
+      <c r="R11" s="292"/>
+      <c r="S11" s="458"/>
+      <c r="T11" s="458"/>
+      <c r="U11" s="458"/>
+      <c r="V11" s="458"/>
+      <c r="W11" s="284"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="276"/>
+      <c r="Z11" s="276"/>
+    </row>
+    <row r="12" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="274"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="285"/>
+      <c r="E12" s="285"/>
+      <c r="F12" s="285"/>
+      <c r="G12" s="285"/>
+      <c r="H12" s="285"/>
+      <c r="I12" s="458"/>
+      <c r="J12" s="291"/>
+      <c r="K12" s="291"/>
+      <c r="L12" s="291"/>
+      <c r="M12" s="291"/>
+      <c r="N12" s="291"/>
+      <c r="O12" s="291"/>
+      <c r="P12" s="292"/>
+      <c r="Q12" s="292"/>
+      <c r="R12" s="292"/>
+      <c r="S12" s="458"/>
+      <c r="T12" s="458"/>
+      <c r="U12" s="458"/>
+      <c r="V12" s="458"/>
+      <c r="W12" s="284"/>
+      <c r="X12" s="276"/>
+      <c r="Y12" s="276"/>
+      <c r="Z12" s="276"/>
+    </row>
+    <row r="13" spans="1:26" s="80" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="274"/>
+      <c r="B13" s="275"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="291"/>
+      <c r="K13" s="291"/>
+      <c r="L13" s="292"/>
+      <c r="M13" s="292"/>
+      <c r="N13" s="292"/>
+      <c r="O13" s="292"/>
+      <c r="P13" s="292"/>
+      <c r="Q13" s="292"/>
+      <c r="R13" s="292"/>
+      <c r="S13" s="458"/>
+      <c r="T13" s="458"/>
+      <c r="U13" s="458"/>
+      <c r="V13" s="458"/>
+      <c r="W13" s="284"/>
+      <c r="X13" s="276"/>
+      <c r="Y13" s="276"/>
+      <c r="Z13" s="276"/>
+    </row>
+    <row r="14" spans="1:26" s="80" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="274"/>
+      <c r="B14" s="275"/>
+      <c r="C14" s="285"/>
+      <c r="D14" s="285"/>
+      <c r="E14" s="285"/>
+      <c r="F14" s="293"/>
+      <c r="G14" s="294"/>
+      <c r="H14" s="294"/>
+      <c r="I14" s="222"/>
+      <c r="J14" s="324"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
+      <c r="M14" s="324"/>
+      <c r="N14" s="324"/>
+      <c r="O14" s="324"/>
+      <c r="P14" s="295"/>
+      <c r="Q14" s="295"/>
+      <c r="R14" s="295"/>
+      <c r="S14" s="295"/>
+      <c r="T14" s="295"/>
+      <c r="U14" s="295"/>
+      <c r="V14" s="296"/>
+      <c r="W14" s="284"/>
+      <c r="X14" s="276"/>
+      <c r="Y14" s="276"/>
+      <c r="Z14" s="276"/>
+    </row>
+    <row r="15" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="274"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="239"/>
+      <c r="J15" s="240"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="298"/>
+      <c r="Q15" s="298"/>
+      <c r="R15" s="298"/>
+      <c r="S15" s="298"/>
+      <c r="T15" s="298"/>
+      <c r="U15" s="298"/>
+      <c r="V15" s="296"/>
+      <c r="W15" s="284"/>
+      <c r="X15" s="276"/>
+      <c r="Y15" s="276"/>
+      <c r="Z15" s="276"/>
+    </row>
+    <row r="16" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="274"/>
+      <c r="B16" s="275"/>
+      <c r="C16" s="285"/>
+      <c r="D16" s="285"/>
+      <c r="E16" s="285"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="459" t="s">
+        <v>550</v>
+      </c>
+      <c r="H16" s="242"/>
+      <c r="I16" s="239"/>
+      <c r="J16" s="479" t="s">
+        <v>552</v>
+      </c>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="298"/>
+      <c r="Q16" s="298"/>
+      <c r="R16" s="298"/>
+      <c r="S16" s="298"/>
+      <c r="T16" s="298"/>
+      <c r="U16" s="298"/>
+      <c r="V16" s="296"/>
+      <c r="W16" s="284"/>
+      <c r="X16" s="276"/>
+      <c r="Y16" s="276"/>
+      <c r="Z16" s="276"/>
+    </row>
+    <row r="17" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="274"/>
+      <c r="B17" s="275"/>
+      <c r="C17" s="285"/>
+      <c r="D17" s="285"/>
+      <c r="E17" s="285"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="242" t="s">
+        <v>551</v>
+      </c>
+      <c r="H17" s="242"/>
+      <c r="I17" s="239"/>
+      <c r="J17" s="242" t="s">
+        <v>553</v>
+      </c>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="298"/>
+      <c r="Q17" s="298"/>
+      <c r="R17" s="298"/>
+      <c r="S17" s="298"/>
+      <c r="T17" s="298"/>
+      <c r="U17" s="298"/>
+      <c r="V17" s="296"/>
+      <c r="W17" s="284"/>
+      <c r="X17" s="276"/>
+      <c r="Y17" s="276"/>
+      <c r="Z17" s="276"/>
+    </row>
+    <row r="18" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="274"/>
+      <c r="B18" s="275"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="285"/>
+      <c r="E18" s="285"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="416" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="242"/>
+      <c r="I18" s="239"/>
+      <c r="J18" s="416" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="298"/>
+      <c r="Q18" s="298"/>
+      <c r="R18" s="298"/>
+      <c r="S18" s="298"/>
+      <c r="T18" s="298"/>
+      <c r="U18" s="298"/>
+      <c r="V18" s="296"/>
+      <c r="W18" s="284"/>
+      <c r="X18" s="276"/>
+      <c r="Y18" s="276"/>
+      <c r="Z18" s="276"/>
+    </row>
+    <row r="19" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="274"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="285"/>
+      <c r="D19" s="285"/>
+      <c r="E19" s="285"/>
+      <c r="F19" s="293"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="239"/>
+      <c r="J19" s="241"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="298"/>
+      <c r="Q19" s="298"/>
+      <c r="R19" s="298"/>
+      <c r="S19" s="298"/>
+      <c r="T19" s="298"/>
+      <c r="U19" s="298"/>
+      <c r="V19" s="296"/>
+      <c r="W19" s="284"/>
+      <c r="X19" s="276"/>
+      <c r="Y19" s="276"/>
+      <c r="Z19" s="276"/>
+    </row>
+    <row r="20" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="274"/>
+      <c r="B20" s="275"/>
+      <c r="C20" s="285"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="293"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="242"/>
+      <c r="I20" s="239"/>
+      <c r="J20" s="241"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="298"/>
+      <c r="Q20" s="298"/>
+      <c r="R20" s="298"/>
+      <c r="S20" s="298"/>
+      <c r="T20" s="298"/>
+      <c r="U20" s="298"/>
+      <c r="V20" s="296"/>
+      <c r="W20" s="284"/>
+      <c r="X20" s="276"/>
+      <c r="Y20" s="276"/>
+      <c r="Z20" s="276"/>
+    </row>
+    <row r="21" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="274"/>
+      <c r="B21" s="275"/>
+      <c r="C21" s="285"/>
+      <c r="D21" s="285"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="242"/>
+      <c r="H21" s="242"/>
+      <c r="I21" s="239"/>
+      <c r="J21" s="241"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="298"/>
+      <c r="Q21" s="298"/>
+      <c r="R21" s="298"/>
+      <c r="S21" s="298"/>
+      <c r="T21" s="298"/>
+      <c r="U21" s="298"/>
+      <c r="V21" s="296"/>
+      <c r="W21" s="284"/>
+      <c r="X21" s="276"/>
+      <c r="Y21" s="276"/>
+      <c r="Z21" s="276"/>
+    </row>
+    <row r="22" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="274"/>
+      <c r="B22" s="275"/>
+      <c r="C22" s="285"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="285"/>
+      <c r="F22" s="293"/>
+      <c r="G22" s="242"/>
+      <c r="H22" s="242"/>
+      <c r="I22" s="239"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="298"/>
+      <c r="Q22" s="298"/>
+      <c r="R22" s="298"/>
+      <c r="S22" s="298"/>
+      <c r="T22" s="298"/>
+      <c r="U22" s="298"/>
+      <c r="V22" s="296"/>
+      <c r="W22" s="284"/>
+      <c r="X22" s="276"/>
+      <c r="Y22" s="276"/>
+      <c r="Z22" s="276"/>
+    </row>
+    <row r="23" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="274"/>
+      <c r="B23" s="275"/>
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="293"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="239"/>
+      <c r="J23" s="240"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="298"/>
+      <c r="Q23" s="298"/>
+      <c r="R23" s="298"/>
+      <c r="S23" s="298"/>
+      <c r="T23" s="298"/>
+      <c r="U23" s="298"/>
+      <c r="V23" s="296"/>
+      <c r="W23" s="284"/>
+      <c r="X23" s="276"/>
+      <c r="Y23" s="276"/>
+      <c r="Z23" s="276"/>
+    </row>
+    <row r="24" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="274"/>
+      <c r="B24" s="275"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="293"/>
+      <c r="G24" s="242"/>
+      <c r="H24" s="242"/>
+      <c r="I24" s="239"/>
+      <c r="J24" s="240"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="298"/>
+      <c r="Q24" s="298"/>
+      <c r="R24" s="298"/>
+      <c r="S24" s="298"/>
+      <c r="T24" s="298"/>
+      <c r="U24" s="298"/>
+      <c r="V24" s="296"/>
+      <c r="W24" s="284"/>
+      <c r="X24" s="276"/>
+      <c r="Y24" s="276"/>
+      <c r="Z24" s="276"/>
+    </row>
+    <row r="25" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="274"/>
+      <c r="B25" s="275"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="242"/>
+      <c r="I25" s="239"/>
+      <c r="J25" s="241"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="298"/>
+      <c r="Q25" s="298"/>
+      <c r="R25" s="298"/>
+      <c r="S25" s="298"/>
+      <c r="T25" s="298"/>
+      <c r="U25" s="298"/>
+      <c r="V25" s="296"/>
+      <c r="W25" s="284"/>
+      <c r="X25" s="276"/>
+      <c r="Y25" s="276"/>
+      <c r="Z25" s="276"/>
+    </row>
+    <row r="26" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="274"/>
+      <c r="B26" s="275"/>
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="293"/>
+      <c r="G26" s="242"/>
+      <c r="H26" s="242"/>
+      <c r="I26" s="239"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="298"/>
+      <c r="Q26" s="298"/>
+      <c r="R26" s="298"/>
+      <c r="S26" s="298"/>
+      <c r="T26" s="298"/>
+      <c r="U26" s="298"/>
+      <c r="V26" s="296"/>
+      <c r="W26" s="284"/>
+      <c r="X26" s="276"/>
+      <c r="Y26" s="276"/>
+      <c r="Z26" s="276"/>
+    </row>
+    <row r="27" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="274"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="285"/>
+      <c r="F27" s="293"/>
+      <c r="G27" s="238"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="239"/>
+      <c r="J27" s="241"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="298"/>
+      <c r="Q27" s="298"/>
+      <c r="R27" s="298"/>
+      <c r="S27" s="298"/>
+      <c r="T27" s="298"/>
+      <c r="U27" s="298"/>
+      <c r="V27" s="296"/>
+      <c r="W27" s="284"/>
+      <c r="X27" s="276"/>
+      <c r="Y27" s="276"/>
+      <c r="Z27" s="276"/>
+    </row>
+    <row r="28" spans="1:26" s="80" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="274"/>
+      <c r="B28" s="275"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="300"/>
+      <c r="G28" s="303"/>
+      <c r="H28" s="303"/>
+      <c r="I28" s="303"/>
+      <c r="J28" s="304"/>
+      <c r="K28" s="304"/>
+      <c r="L28" s="304"/>
+      <c r="M28" s="304"/>
+      <c r="N28" s="304"/>
+      <c r="O28" s="304"/>
+      <c r="P28" s="304"/>
+      <c r="Q28" s="304"/>
+      <c r="R28" s="304"/>
+      <c r="S28" s="304"/>
+      <c r="T28" s="304"/>
+      <c r="U28" s="304"/>
+      <c r="V28" s="296"/>
+      <c r="W28" s="284"/>
+      <c r="X28" s="276"/>
+      <c r="Y28" s="276"/>
+      <c r="Z28" s="276"/>
+    </row>
+    <row r="29" spans="1:26" s="80" customFormat="1" ht="24.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="274"/>
+      <c r="B29" s="275"/>
+      <c r="C29" s="305"/>
+      <c r="D29" s="305"/>
+      <c r="E29" s="305"/>
+      <c r="F29" s="305"/>
+      <c r="G29" s="306"/>
+      <c r="H29" s="305"/>
+      <c r="I29" s="305"/>
+      <c r="J29" s="305"/>
+      <c r="K29" s="305"/>
+      <c r="L29" s="305"/>
+      <c r="M29" s="305"/>
+      <c r="N29" s="305"/>
+      <c r="O29" s="305"/>
+      <c r="P29" s="305"/>
+      <c r="Q29" s="305"/>
+      <c r="R29" s="305"/>
+      <c r="S29" s="305"/>
+      <c r="T29" s="305"/>
+      <c r="U29" s="305"/>
+      <c r="V29" s="305"/>
+      <c r="W29" s="307"/>
+      <c r="X29" s="276"/>
+      <c r="Y29" s="276"/>
+      <c r="Z29" s="276"/>
+    </row>
+    <row r="30" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="274"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="276"/>
+      <c r="G30" s="276"/>
+      <c r="H30" s="276"/>
+      <c r="I30" s="276"/>
+      <c r="J30" s="276"/>
+      <c r="K30" s="276"/>
+      <c r="L30" s="276"/>
+      <c r="M30" s="276"/>
+      <c r="N30" s="276"/>
+      <c r="O30" s="276"/>
+      <c r="P30" s="276"/>
+      <c r="Q30" s="276"/>
+      <c r="R30" s="276"/>
+      <c r="S30" s="276"/>
+      <c r="T30" s="276"/>
+      <c r="U30" s="276"/>
+      <c r="V30" s="276"/>
+      <c r="W30" s="276"/>
+      <c r="X30" s="276"/>
+      <c r="Y30" s="276"/>
+      <c r="Z30" s="276"/>
+    </row>
+    <row r="31" spans="1:26" s="80" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="274"/>
+      <c r="B31" s="275"/>
+      <c r="C31" s="275"/>
+      <c r="D31" s="275"/>
+      <c r="E31" s="275"/>
+      <c r="F31" s="276"/>
+      <c r="G31" s="276"/>
+      <c r="H31" s="276"/>
+      <c r="I31" s="276"/>
+      <c r="J31" s="276"/>
+      <c r="K31" s="276"/>
+      <c r="L31" s="276"/>
+      <c r="M31" s="276"/>
+      <c r="N31" s="276"/>
+      <c r="O31" s="276"/>
+      <c r="P31" s="276"/>
+      <c r="Q31" s="276"/>
+      <c r="R31" s="276"/>
+      <c r="S31" s="276"/>
+      <c r="T31" s="276"/>
+      <c r="U31" s="276"/>
+      <c r="V31" s="276"/>
+      <c r="W31" s="276"/>
+      <c r="X31" s="276"/>
+      <c r="Y31" s="276"/>
+      <c r="Z31" s="276"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB1FD0-C06F-43E2-AD4D-7EBD7CDF886A}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -17515,21 +18435,21 @@
       <c r="E46" s="112"/>
       <c r="F46" s="114"/>
       <c r="G46" s="123"/>
-      <c r="H46" s="458" t="s">
+      <c r="H46" s="460" t="s">
         <v>161</v>
       </c>
-      <c r="I46" s="459"/>
-      <c r="J46" s="459"/>
-      <c r="K46" s="459"/>
-      <c r="L46" s="459"/>
-      <c r="M46" s="459"/>
-      <c r="N46" s="459"/>
-      <c r="O46" s="459"/>
-      <c r="P46" s="459"/>
-      <c r="Q46" s="459"/>
-      <c r="R46" s="459"/>
-      <c r="S46" s="459"/>
-      <c r="T46" s="460"/>
+      <c r="I46" s="461"/>
+      <c r="J46" s="461"/>
+      <c r="K46" s="461"/>
+      <c r="L46" s="461"/>
+      <c r="M46" s="461"/>
+      <c r="N46" s="461"/>
+      <c r="O46" s="461"/>
+      <c r="P46" s="461"/>
+      <c r="Q46" s="461"/>
+      <c r="R46" s="461"/>
+      <c r="S46" s="461"/>
+      <c r="T46" s="462"/>
       <c r="U46" s="123"/>
       <c r="V46" s="114"/>
       <c r="W46" s="94"/>
@@ -17543,19 +18463,19 @@
       <c r="E47" s="112"/>
       <c r="F47" s="114"/>
       <c r="G47" s="123"/>
-      <c r="H47" s="461"/>
-      <c r="I47" s="462"/>
-      <c r="J47" s="462"/>
-      <c r="K47" s="462"/>
-      <c r="L47" s="462"/>
-      <c r="M47" s="462"/>
-      <c r="N47" s="462"/>
-      <c r="O47" s="462"/>
-      <c r="P47" s="462"/>
-      <c r="Q47" s="462"/>
-      <c r="R47" s="462"/>
-      <c r="S47" s="462"/>
-      <c r="T47" s="463"/>
+      <c r="H47" s="463"/>
+      <c r="I47" s="464"/>
+      <c r="J47" s="464"/>
+      <c r="K47" s="464"/>
+      <c r="L47" s="464"/>
+      <c r="M47" s="464"/>
+      <c r="N47" s="464"/>
+      <c r="O47" s="464"/>
+      <c r="P47" s="464"/>
+      <c r="Q47" s="464"/>
+      <c r="R47" s="464"/>
+      <c r="S47" s="464"/>
+      <c r="T47" s="465"/>
       <c r="U47" s="123"/>
       <c r="V47" s="114"/>
       <c r="W47" s="94"/>
@@ -17569,19 +18489,19 @@
       <c r="E48" s="112"/>
       <c r="F48" s="114"/>
       <c r="G48" s="123"/>
-      <c r="H48" s="461"/>
-      <c r="I48" s="462"/>
-      <c r="J48" s="462"/>
-      <c r="K48" s="462"/>
-      <c r="L48" s="462"/>
-      <c r="M48" s="462"/>
-      <c r="N48" s="462"/>
-      <c r="O48" s="462"/>
-      <c r="P48" s="462"/>
-      <c r="Q48" s="462"/>
-      <c r="R48" s="462"/>
-      <c r="S48" s="462"/>
-      <c r="T48" s="463"/>
+      <c r="H48" s="463"/>
+      <c r="I48" s="464"/>
+      <c r="J48" s="464"/>
+      <c r="K48" s="464"/>
+      <c r="L48" s="464"/>
+      <c r="M48" s="464"/>
+      <c r="N48" s="464"/>
+      <c r="O48" s="464"/>
+      <c r="P48" s="464"/>
+      <c r="Q48" s="464"/>
+      <c r="R48" s="464"/>
+      <c r="S48" s="464"/>
+      <c r="T48" s="465"/>
       <c r="U48" s="123"/>
       <c r="V48" s="114"/>
       <c r="W48" s="94"/>
@@ -17595,19 +18515,19 @@
       <c r="E49" s="112"/>
       <c r="F49" s="114"/>
       <c r="G49" s="123"/>
-      <c r="H49" s="464"/>
-      <c r="I49" s="465"/>
-      <c r="J49" s="465"/>
-      <c r="K49" s="465"/>
-      <c r="L49" s="465"/>
-      <c r="M49" s="465"/>
-      <c r="N49" s="465"/>
-      <c r="O49" s="465"/>
-      <c r="P49" s="465"/>
-      <c r="Q49" s="465"/>
-      <c r="R49" s="465"/>
-      <c r="S49" s="465"/>
-      <c r="T49" s="466"/>
+      <c r="H49" s="466"/>
+      <c r="I49" s="467"/>
+      <c r="J49" s="467"/>
+      <c r="K49" s="467"/>
+      <c r="L49" s="467"/>
+      <c r="M49" s="467"/>
+      <c r="N49" s="467"/>
+      <c r="O49" s="467"/>
+      <c r="P49" s="467"/>
+      <c r="Q49" s="467"/>
+      <c r="R49" s="467"/>
+      <c r="S49" s="467"/>
+      <c r="T49" s="468"/>
       <c r="U49" s="123"/>
       <c r="V49" s="114"/>
       <c r="W49" s="94"/>
@@ -17649,21 +18569,21 @@
       <c r="E51" s="112"/>
       <c r="F51" s="114"/>
       <c r="G51" s="116"/>
-      <c r="H51" s="469" t="s">
+      <c r="H51" s="471" t="s">
         <v>521</v>
       </c>
-      <c r="I51" s="470"/>
-      <c r="J51" s="470"/>
-      <c r="K51" s="470"/>
-      <c r="L51" s="470"/>
-      <c r="M51" s="470"/>
-      <c r="N51" s="470"/>
-      <c r="O51" s="470"/>
-      <c r="P51" s="470"/>
-      <c r="Q51" s="470"/>
-      <c r="R51" s="470"/>
-      <c r="S51" s="470"/>
-      <c r="T51" s="471"/>
+      <c r="I51" s="472"/>
+      <c r="J51" s="472"/>
+      <c r="K51" s="472"/>
+      <c r="L51" s="472"/>
+      <c r="M51" s="472"/>
+      <c r="N51" s="472"/>
+      <c r="O51" s="472"/>
+      <c r="P51" s="472"/>
+      <c r="Q51" s="472"/>
+      <c r="R51" s="472"/>
+      <c r="S51" s="472"/>
+      <c r="T51" s="473"/>
       <c r="U51" s="116"/>
       <c r="V51" s="114"/>
       <c r="W51" s="284"/>
@@ -32607,9 +33527,9 @@
       <c r="I320" s="219"/>
       <c r="J320" s="219"/>
       <c r="K320" s="111"/>
-      <c r="L320" s="467"/>
-      <c r="M320" s="468"/>
-      <c r="N320" s="468"/>
+      <c r="L320" s="469"/>
+      <c r="M320" s="470"/>
+      <c r="N320" s="470"/>
       <c r="O320" s="111"/>
       <c r="P320" s="111"/>
       <c r="Q320" s="111"/>
@@ -41581,18 +42501,18 @@
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
-      <c r="H112" s="474" t="s">
+      <c r="H112" s="476" t="s">
         <v>487</v>
       </c>
-      <c r="I112" s="474"/>
-      <c r="J112" s="474"/>
+      <c r="I112" s="476"/>
+      <c r="J112" s="476"/>
       <c r="K112" s="348"/>
       <c r="L112" s="365"/>
-      <c r="M112" s="473" t="s">
+      <c r="M112" s="475" t="s">
         <v>357</v>
       </c>
-      <c r="N112" s="473"/>
-      <c r="O112" s="473"/>
+      <c r="N112" s="475"/>
+      <c r="O112" s="475"/>
       <c r="P112" s="365"/>
       <c r="Q112" s="365"/>
       <c r="R112" s="365"/>
@@ -52084,7 +53004,7 @@
       <c r="E402" s="16"/>
       <c r="F402" s="16"/>
       <c r="G402" s="16"/>
-      <c r="H402" s="472"/>
+      <c r="H402" s="474"/>
       <c r="I402" s="16"/>
       <c r="J402" s="16"/>
       <c r="K402" s="21"/>
@@ -52112,7 +53032,7 @@
       <c r="E403" s="16"/>
       <c r="F403" s="16"/>
       <c r="G403" s="16"/>
-      <c r="H403" s="472"/>
+      <c r="H403" s="474"/>
       <c r="I403" s="16"/>
       <c r="J403" s="22" t="s">
         <v>41</v>
@@ -52146,7 +53066,7 @@
       <c r="G404" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H404" s="472"/>
+      <c r="H404" s="474"/>
       <c r="I404" s="16"/>
       <c r="J404" s="291" t="s">
         <v>531</v>
@@ -58199,10 +59119,10 @@
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
-      <c r="F68" s="475" t="s">
+      <c r="F68" s="477" t="s">
         <v>347</v>
       </c>
-      <c r="G68" s="476"/>
+      <c r="G68" s="478"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22" t="s">
         <v>348</v>
@@ -59034,8 +59954,8 @@
       <c r="B96" s="5"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
-      <c r="E96" s="475"/>
-      <c r="F96" s="476"/>
+      <c r="E96" s="477"/>
+      <c r="F96" s="478"/>
       <c r="G96" s="22" t="s">
         <v>354</v>
       </c>

--- a/Property.xlsx
+++ b/Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A7390-51E9-45EE-94E8-7754A47AC83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A489D1-B3E4-416F-9DCD-09C1E7882532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A2ED2E73-F223-47EC-9041-EDA3E1B5327D}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -42,8 +42,8 @@
     <definedName name="chem_by_lmu">Crop!$I$362:$N$368</definedName>
     <definedName name="chem_cost" localSheetId="5">Crop!$H$222:$N$247</definedName>
     <definedName name="chem_info">Crop!$I$383:$K$389</definedName>
-    <definedName name="clover_propn_in_sward_stubble">Stubble!$L$79</definedName>
-    <definedName name="component_dmd">Stubble!$H$108:$M$116</definedName>
+    <definedName name="clover_propn_in_sward_stubble">Stubble!$L$65</definedName>
+    <definedName name="component_dmd">Stubble!$H$94:$M$102</definedName>
     <definedName name="CPDry" localSheetId="4">Annual!$V$295:$V$304</definedName>
     <definedName name="CPGrn" localSheetId="4">Annual!$X$269:$X$278</definedName>
     <definedName name="crop_monitoring">Labour!$E$119:$Q$131</definedName>
@@ -93,11 +93,11 @@
     <definedName name="harv_date" localSheetId="5">Crop!$I$58</definedName>
     <definedName name="harv_period_lengths" localSheetId="5">Crop!$I$60:$I$61</definedName>
     <definedName name="harvest_helper">Labour!$G$97:$H$109</definedName>
-    <definedName name="harvest_index">Stubble!$H$86:$I$94</definedName>
+    <definedName name="harvest_index">Stubble!$H$72:$I$80</definedName>
     <definedName name="harvest_prep">Labour!$J$97:$K$99</definedName>
     <definedName name="hay_making_date" localSheetId="5">Crop!$I$77</definedName>
     <definedName name="hay_making_len" localSheetId="5">Crop!$I$79</definedName>
-    <definedName name="i_hf">Stubble!$J$29</definedName>
+    <definedName name="i_hf">Stubble!$J$15</definedName>
     <definedName name="i_store_fec_rep">'Report Settings'!$J$18</definedName>
     <definedName name="i_store_lw_rep">'Report Settings'!$G$18</definedName>
     <definedName name="initial_fungus" localSheetId="5">'[2]Initial conditions'!$M$12:$O$12</definedName>
@@ -138,9 +138,9 @@
     <definedName name="planning">Labour!$I$69:$J$80</definedName>
     <definedName name="poc_destock">Crop!$I$82</definedName>
     <definedName name="POCCons" localSheetId="4">Annual!$L$324:$Q$334</definedName>
-    <definedName name="proportion_grain_harv">Stubble!$H$97:$I$105</definedName>
-    <definedName name="quality_deterioration">Stubble!$H$119:$M$127</definedName>
-    <definedName name="quantity_deterioration">Stubble!$N$86:$O$94</definedName>
+    <definedName name="proportion_grain_harv">Stubble!$H$83:$I$91</definedName>
+    <definedName name="quality_deterioration">Stubble!$H$105:$M$113</definedName>
+    <definedName name="quantity_deterioration">Stubble!$N$72:$O$80</definedName>
     <definedName name="rail_cartage" localSheetId="1">General!$K$12</definedName>
     <definedName name="RIFOO" localSheetId="4">Annual!$K$18</definedName>
     <definedName name="road_cartage_distance" localSheetId="1">General!$K$14</definedName>
@@ -162,15 +162,15 @@
     <definedName name="sprayer_crop_allocation" localSheetId="8">Mach!#REF!</definedName>
     <definedName name="start_harvest_crops" localSheetId="5">Crop!$H$64:$I$75</definedName>
     <definedName name="steady_state">General!$M$37</definedName>
-    <definedName name="step_size">Stubble!$H$79</definedName>
+    <definedName name="step_size">Stubble!$H$65</definedName>
     <definedName name="storage_cost_date">'Sup Feed'!$K$32</definedName>
     <definedName name="storage_grain">'[1]Sup Feed'!$I$26:$N$28</definedName>
     <definedName name="storage_type">'Sup Feed'!$I$13:$K$18</definedName>
-    <definedName name="stub_cat_prop">Stubble!$H$130:$L$138</definedName>
-    <definedName name="stub_cat_qual">Stubble!$H$141:$L$149</definedName>
+    <definedName name="stub_cat_prop">Stubble!$H$116:$L$124</definedName>
+    <definedName name="stub_cat_qual">Stubble!$H$127:$L$135</definedName>
     <definedName name="stub_handling_date" localSheetId="8">Mach!$B$45</definedName>
     <definedName name="stub_handling_length" localSheetId="8">Mach!$B$47</definedName>
-    <definedName name="stubble_handling" localSheetId="9">Stubble!$G$49:$H$60</definedName>
+    <definedName name="stubble_handling" localSheetId="9">Stubble!$G$35:$H$46</definedName>
     <definedName name="super">Labour!$O$69:$P$73</definedName>
     <definedName name="tax">Labour!$F$69:$G$72</definedName>
     <definedName name="test" localSheetId="7">'Sheep Regions'!$B$3:$E$9</definedName>
@@ -179,7 +179,7 @@
     <definedName name="time_between_pad">'Sup Feed'!$O$57</definedName>
     <definedName name="time_fill_feeder">'Sup Feed'!$G$50:$I$53</definedName>
     <definedName name="Trampling" localSheetId="4">Annual!$J$68</definedName>
-    <definedName name="trampling">Stubble!$N$97:$O$105</definedName>
+    <definedName name="trampling">Stubble!$N$83:$O$91</definedName>
     <definedName name="user_crop_rot">Crop!$J$193</definedName>
     <definedName name="yield_by_lmu" localSheetId="5">Crop!$I$264:$N$276</definedName>
     <definedName name="yield_penalty" localSheetId="5">Crop!$H$43:$J$55</definedName>
@@ -2646,7 +2646,7 @@
     <author>Michael Young</author>
   </authors>
   <commentList>
-    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{70D896D4-9185-4577-B620-39C167EABF61}">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{70D896D4-9185-4577-B620-39C167EABF61}">
       <text>
         <r>
           <rPr>
@@ -2670,7 +2670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G49" authorId="0" shapeId="0" xr:uid="{A636A175-11E8-4327-BFE9-1ABC2EA6635E}">
+    <comment ref="G35" authorId="0" shapeId="0" xr:uid="{A636A175-11E8-4327-BFE9-1ABC2EA6635E}">
       <text>
         <r>
           <rPr>
@@ -2694,7 +2694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="0" shapeId="0" xr:uid="{66079CB8-D06C-46AC-8DC7-9BC360514861}">
+    <comment ref="H35" authorId="0" shapeId="0" xr:uid="{66079CB8-D06C-46AC-8DC7-9BC360514861}">
       <text>
         <r>
           <rPr>
@@ -2718,7 +2718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G79" authorId="0" shapeId="0" xr:uid="{B66DD46C-909C-4413-9B2B-84ED918734EC}">
+    <comment ref="G65" authorId="0" shapeId="0" xr:uid="{B66DD46C-909C-4413-9B2B-84ED918734EC}">
       <text>
         <r>
           <rPr>
@@ -2743,7 +2743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K79" authorId="0" shapeId="0" xr:uid="{14FD931B-0795-46B2-9E97-B92F9945A6C8}">
+    <comment ref="K65" authorId="0" shapeId="0" xr:uid="{14FD931B-0795-46B2-9E97-B92F9945A6C8}">
       <text>
         <r>
           <rPr>
@@ -2767,7 +2767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G85" authorId="0" shapeId="0" xr:uid="{65BBE8AA-806B-4B95-A72F-8EEBBD4EB545}">
+    <comment ref="G71" authorId="0" shapeId="0" xr:uid="{65BBE8AA-806B-4B95-A72F-8EEBBD4EB545}">
       <text>
         <r>
           <rPr>
@@ -2791,7 +2791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M85" authorId="0" shapeId="0" xr:uid="{93B2860A-E775-407D-826A-9870DF7B6A60}">
+    <comment ref="M71" authorId="0" shapeId="0" xr:uid="{93B2860A-E775-407D-826A-9870DF7B6A60}">
       <text>
         <r>
           <rPr>
@@ -2815,7 +2815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G96" authorId="0" shapeId="0" xr:uid="{15BB0F16-7131-4D16-8E31-4B9CC8FFC43A}">
+    <comment ref="G82" authorId="0" shapeId="0" xr:uid="{15BB0F16-7131-4D16-8E31-4B9CC8FFC43A}">
       <text>
         <r>
           <rPr>
@@ -2839,7 +2839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M96" authorId="0" shapeId="0" xr:uid="{292DEB33-D3BC-40E7-B57E-79BBE377AFB7}">
+    <comment ref="M82" authorId="0" shapeId="0" xr:uid="{292DEB33-D3BC-40E7-B57E-79BBE377AFB7}">
       <text>
         <r>
           <rPr>
@@ -2863,7 +2863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G107" authorId="0" shapeId="0" xr:uid="{6D28406D-A9F4-40AE-8098-A3882D5B99CC}">
+    <comment ref="G93" authorId="0" shapeId="0" xr:uid="{6D28406D-A9F4-40AE-8098-A3882D5B99CC}">
       <text>
         <r>
           <rPr>
@@ -2887,7 +2887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K108" authorId="0" shapeId="0" xr:uid="{C283F54F-991D-4DC4-91FD-263895B776C5}">
+    <comment ref="K94" authorId="0" shapeId="0" xr:uid="{C283F54F-991D-4DC4-91FD-263895B776C5}">
       <text>
         <r>
           <rPr>
@@ -2911,7 +2911,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K112" authorId="0" shapeId="0" xr:uid="{57F02848-1BF2-4441-892B-02350168CEC6}">
+    <comment ref="K98" authorId="0" shapeId="0" xr:uid="{57F02848-1BF2-4441-892B-02350168CEC6}">
       <text>
         <r>
           <rPr>
@@ -2935,7 +2935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J116" authorId="0" shapeId="0" xr:uid="{B7B8AF9E-21B8-4DA5-807B-DFECEF827112}">
+    <comment ref="J102" authorId="0" shapeId="0" xr:uid="{B7B8AF9E-21B8-4DA5-807B-DFECEF827112}">
       <text>
         <r>
           <rPr>
@@ -2959,7 +2959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G118" authorId="0" shapeId="0" xr:uid="{E4E27D6A-42FE-4E50-AEF9-FFBE2460AE39}">
+    <comment ref="G104" authorId="0" shapeId="0" xr:uid="{E4E27D6A-42FE-4E50-AEF9-FFBE2460AE39}">
       <text>
         <r>
           <rPr>
@@ -2983,7 +2983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G129" authorId="0" shapeId="0" xr:uid="{A744DFE7-5AB9-4797-A593-B6D02F1C1475}">
+    <comment ref="G115" authorId="0" shapeId="0" xr:uid="{A744DFE7-5AB9-4797-A593-B6D02F1C1475}">
       <text>
         <r>
           <rPr>
@@ -3007,7 +3007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G140" authorId="0" shapeId="0" xr:uid="{AB62E3CC-0B13-41F2-8F34-470B177749F8}">
+    <comment ref="G126" authorId="0" shapeId="0" xr:uid="{AB62E3CC-0B13-41F2-8F34-470B177749F8}">
       <text>
         <r>
           <rPr>
@@ -3036,7 +3036,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="552">
   <si>
     <t>«</t>
   </si>
@@ -4260,21 +4260,6 @@
   </si>
   <si>
     <t>/week</t>
-  </si>
-  <si>
-    <t>BFDP1E</t>
-  </si>
-  <si>
-    <t>BFDP2E</t>
-  </si>
-  <si>
-    <t>BFDP3E</t>
-  </si>
-  <si>
-    <t>BFDP4E</t>
-  </si>
-  <si>
-    <t>BFDP5E</t>
   </si>
   <si>
     <t>drive time</t>
@@ -6485,6 +6470,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="16" fillId="14" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="14" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -6545,10 +6534,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="14" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -7495,10 +7480,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E7CEFF-83F4-4D28-85EF-3859ECCF0B70}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:Z160"/>
+  <dimension ref="A1:Z146"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -7512,153 +7497,547 @@
     <col min="7" max="16384" width="8.81640625" style="72"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="G2" s="73"/>
+    <row r="1" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="44">
+        <v>38576.728703703702</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="377"/>
+      <c r="K8" s="377"/>
+      <c r="L8" s="377"/>
+      <c r="M8" s="377"/>
+      <c r="N8" s="377"/>
+      <c r="O8" s="377"/>
+      <c r="P8" s="377"/>
+      <c r="Q8" s="377"/>
+      <c r="R8" s="377"/>
+      <c r="S8" s="377"/>
+      <c r="T8" s="377"/>
+      <c r="U8" s="377"/>
+      <c r="V8" s="377"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="377"/>
+      <c r="M9" s="377"/>
+      <c r="N9" s="377"/>
+      <c r="O9" s="377"/>
+      <c r="P9" s="377"/>
+      <c r="Q9" s="377"/>
+      <c r="R9" s="377"/>
+      <c r="S9" s="377"/>
+      <c r="T9" s="377"/>
+      <c r="U9" s="377"/>
+      <c r="V9" s="377"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="377"/>
+      <c r="T10" s="377"/>
+      <c r="U10" s="377"/>
+      <c r="V10" s="377"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="377"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="377"/>
+      <c r="T11" s="377"/>
+      <c r="U11" s="377"/>
+      <c r="V11" s="377"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="377"/>
+      <c r="T12" s="377"/>
+      <c r="U12" s="377"/>
+      <c r="V12" s="377"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="240"/>
+      <c r="J14" s="240"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241" t="s">
+        <v>493</v>
+      </c>
+      <c r="J15" s="442">
+        <v>1</v>
+      </c>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="10"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="239"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="15"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="29"/>
       <c r="W18" s="15"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" s="7" customFormat="1" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39" t="str">
+        <f>G4</f>
+        <v>STUBBLE As Feed</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
@@ -7666,29 +8045,27 @@
     <row r="20" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="44">
-        <v>38576.728703703702</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="15"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
@@ -7696,27 +8073,27 @@
     <row r="21" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
@@ -7724,83 +8101,85 @@
     <row r="22" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="377"/>
-      <c r="K22" s="377"/>
-      <c r="L22" s="377"/>
-      <c r="M22" s="377"/>
-      <c r="N22" s="377"/>
-      <c r="O22" s="377"/>
-      <c r="P22" s="377"/>
-      <c r="Q22" s="377"/>
-      <c r="R22" s="377"/>
-      <c r="S22" s="377"/>
-      <c r="T22" s="377"/>
-      <c r="U22" s="377"/>
-      <c r="V22" s="377"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="377"/>
-      <c r="M23" s="377"/>
-      <c r="N23" s="377"/>
-      <c r="O23" s="377"/>
-      <c r="P23" s="377"/>
-      <c r="Q23" s="377"/>
-      <c r="R23" s="377"/>
-      <c r="S23" s="377"/>
-      <c r="T23" s="377"/>
-      <c r="U23" s="377"/>
-      <c r="V23" s="377"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="377"/>
-      <c r="T24" s="377"/>
-      <c r="U24" s="377"/>
-      <c r="V24" s="377"/>
-      <c r="W24" s="15"/>
+      <c r="C24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="10"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
@@ -7808,82 +8187,90 @@
     <row r="25" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="377"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="377"/>
-      <c r="T25" s="377"/>
-      <c r="U25" s="377"/>
-      <c r="V25" s="377"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
       <c r="W25" s="15"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="377"/>
-      <c r="T26" s="377"/>
-      <c r="U26" s="377"/>
-      <c r="V26" s="377"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
       <c r="W26" s="15"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="29"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="44">
+        <v>38576.728703703702</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
       <c r="W27" s="15"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
@@ -7892,26 +8279,26 @@
     <row r="28" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="240"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="29"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
       <c r="W28" s="15"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
@@ -7923,25 +8310,23 @@
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="241" t="s">
-        <v>498</v>
-      </c>
-      <c r="J29" s="442">
-        <v>1</v>
-      </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="29"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
       <c r="W29" s="15"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
@@ -7953,21 +8338,23 @@
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="29"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
       <c r="W30" s="15"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
@@ -7979,111 +8366,108 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="238"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="29"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
       <c r="W31" s="15"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="29"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
       <c r="W32" s="15"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" spans="1:26" s="7" customFormat="1" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39" t="str">
-        <f>G18</f>
-        <v>STUBBLE As Feed</v>
-      </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="40" t="s">
-        <v>24</v>
-      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="15"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="15"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
@@ -8091,27 +8475,31 @@
     <row r="35" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="242" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="242" t="s">
+        <v>504</v>
+      </c>
+      <c r="I35" s="239"/>
+      <c r="J35" s="240"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="15"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
@@ -8119,85 +8507,89 @@
     <row r="36" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-    </row>
-    <row r="37" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="242" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="416">
+        <v>3.5</v>
+      </c>
+      <c r="I36" s="239"/>
+      <c r="J36" s="241"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-    </row>
-    <row r="38" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="242" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="416">
+        <v>4.2</v>
+      </c>
+      <c r="I37" s="239"/>
+      <c r="J37" s="241"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="10"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="242" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="416">
+        <v>3.5</v>
+      </c>
+      <c r="I38" s="239"/>
+      <c r="J38" s="241"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="15"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -8205,30 +8597,26 @@
     <row r="39" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="242" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="416"/>
+      <c r="I39" s="239"/>
+      <c r="J39" s="241"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="29"/>
       <c r="W39" s="15"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
@@ -8237,28 +8625,28 @@
     <row r="40" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="16"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="242" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="416">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I40" s="239"/>
+      <c r="J40" s="241"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="29"/>
       <c r="W40" s="15"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
@@ -8268,27 +8656,27 @@
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="11"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="44">
-        <v>38576.728703703702</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="242" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="416">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I41" s="239"/>
+      <c r="J41" s="241"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="29"/>
       <c r="W41" s="15"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
@@ -8297,26 +8685,26 @@
     <row r="42" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="11"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="242" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="416"/>
+      <c r="I42" s="239"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="29"/>
       <c r="W42" s="15"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
@@ -8328,23 +8716,23 @@
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="242" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="416"/>
+      <c r="I43" s="239"/>
+      <c r="J43" s="240"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="29"/>
       <c r="W43" s="15"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
@@ -8356,23 +8744,23 @@
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="242" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="416"/>
+      <c r="I44" s="239"/>
+      <c r="J44" s="240"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="29"/>
       <c r="W44" s="15"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
@@ -8384,23 +8772,23 @@
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="242" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="416"/>
+      <c r="I45" s="239"/>
+      <c r="J45" s="241"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="29"/>
       <c r="W45" s="15"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
@@ -8412,51 +8800,49 @@
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="242" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="416"/>
+      <c r="I46" s="239"/>
+      <c r="J46" s="241"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="29"/>
       <c r="W46" s="15"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="238"/>
+      <c r="H47" s="238"/>
+      <c r="I47" s="239"/>
+      <c r="J47" s="241"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="29"/>
       <c r="W47" s="15"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
@@ -8468,56 +8854,57 @@
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
       <c r="V48" s="29"/>
       <c r="W48" s="15"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" s="7" customFormat="1" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="242" t="s">
-        <v>122</v>
-      </c>
-      <c r="H49" s="242" t="s">
-        <v>509</v>
-      </c>
-      <c r="I49" s="239"/>
-      <c r="J49" s="240"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="15"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39" t="str">
+        <f>G25</f>
+        <v>STUBBLE HANDLING</v>
+      </c>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
@@ -8525,29 +8912,27 @@
     <row r="50" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="242" t="s">
-        <v>77</v>
-      </c>
-      <c r="H50" s="416">
-        <v>3.5</v>
-      </c>
-      <c r="I50" s="239"/>
-      <c r="J50" s="241"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="15"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
@@ -8555,29 +8940,27 @@
     <row r="51" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="242" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="416">
-        <v>4.2</v>
-      </c>
-      <c r="I51" s="239"/>
-      <c r="J51" s="241"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="15"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -8585,87 +8968,85 @@
     <row r="52" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="242" t="s">
-        <v>79</v>
-      </c>
-      <c r="H52" s="416">
-        <v>3.5</v>
-      </c>
-      <c r="I52" s="239"/>
-      <c r="J52" s="241"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-    </row>
-    <row r="53" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+    </row>
+    <row r="53" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="242" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" s="416"/>
-      <c r="I53" s="239"/>
-      <c r="J53" s="241"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-    </row>
-    <row r="54" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+    </row>
+    <row r="54" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="242" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="416">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I54" s="239"/>
-      <c r="J54" s="241"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="15"/>
+      <c r="C54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="10"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
@@ -8673,28 +9054,30 @@
     <row r="55" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="242" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="416">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I55" s="239"/>
-      <c r="J55" s="241"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="29"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
       <c r="W55" s="15"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
@@ -8703,26 +9086,28 @@
     <row r="56" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="242" t="s">
-        <v>81</v>
-      </c>
-      <c r="H56" s="416"/>
-      <c r="I56" s="239"/>
-      <c r="J56" s="241"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="29"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
       <c r="W56" s="15"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
@@ -8732,25 +9117,27 @@
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="242" t="s">
-        <v>78</v>
-      </c>
-      <c r="H57" s="416"/>
-      <c r="I57" s="239"/>
-      <c r="J57" s="240"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="29"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="44">
+        <v>38576.728703703702</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
       <c r="W57" s="15"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
@@ -8759,26 +9146,26 @@
     <row r="58" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="242" t="s">
-        <v>86</v>
-      </c>
-      <c r="H58" s="416"/>
-      <c r="I58" s="239"/>
-      <c r="J58" s="240"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="29"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
       <c r="W58" s="15"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
@@ -8790,23 +9177,23 @@
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="242" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" s="416"/>
-      <c r="I59" s="239"/>
-      <c r="J59" s="241"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="29"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
       <c r="W59" s="15"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
@@ -8818,23 +9205,23 @@
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="242" t="s">
-        <v>88</v>
-      </c>
-      <c r="H60" s="416"/>
-      <c r="I60" s="239"/>
-      <c r="J60" s="241"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="29"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
       <c r="W60" s="15"/>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
@@ -8846,286 +9233,282 @@
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="238"/>
-      <c r="H61" s="238"/>
-      <c r="I61" s="239"/>
-      <c r="J61" s="241"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="29"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
       <c r="W61" s="15"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="29"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
       <c r="W62" s="15"/>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" spans="1:26" s="7" customFormat="1" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="39" t="str">
-        <f>G39</f>
-        <v>STUBBLE HANDLING</v>
-      </c>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="40" t="s">
-        <v>24</v>
-      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="15"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="15"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="H65" s="443">
+        <v>1</v>
+      </c>
+      <c r="I65" s="54"/>
+      <c r="K65" s="347" t="s">
+        <v>431</v>
+      </c>
+      <c r="L65" s="444">
+        <v>0.05</v>
+      </c>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="15"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-    </row>
-    <row r="67" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+    </row>
+    <row r="67" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+    </row>
+    <row r="68" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="10"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="15"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="14"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="29"/>
       <c r="W69" s="15"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="14"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="29"/>
       <c r="W70" s="15"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
@@ -9135,27 +9518,29 @@
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="16"/>
-      <c r="D71" s="11"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="44">
-        <v>38576.728703703702</v>
-      </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="14"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="33"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="N71" s="33"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="31"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="29"/>
       <c r="W71" s="15"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
@@ -9164,26 +9549,30 @@
     <row r="72" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="11"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="14"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="14"/>
-      <c r="V72" s="14"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="55" t="s">
+        <v>423</v>
+      </c>
+      <c r="J72" s="243"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="29"/>
       <c r="W72" s="15"/>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
@@ -9195,23 +9584,30 @@
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" s="445">
+        <v>0.42</v>
+      </c>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O73" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="31"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="29"/>
       <c r="W73" s="15"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
@@ -9223,23 +9619,30 @@
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74" s="445">
+        <v>0.44</v>
+      </c>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O74" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="29"/>
       <c r="W74" s="15"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
@@ -9251,23 +9654,30 @@
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I75" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O75" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="31"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="31"/>
+      <c r="V75" s="29"/>
       <c r="W75" s="15"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
@@ -9279,253 +9689,299 @@
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
-      <c r="U76" s="21"/>
-      <c r="V76" s="21"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" s="445">
+        <v>0.2</v>
+      </c>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="O76" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="29"/>
       <c r="W76" s="15"/>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
     </row>
-    <row r="77" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="23"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
-      <c r="U77" s="21"/>
-      <c r="V77" s="21"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77" s="445">
+        <v>0.2</v>
+      </c>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O77" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="31"/>
+      <c r="V77" s="29"/>
       <c r="W77" s="15"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
     </row>
-    <row r="78" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="25"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="28"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="O78" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="31"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="31"/>
       <c r="V78" s="29"/>
       <c r="W78" s="15"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="25"/>
-      <c r="G79" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="H79" s="443">
-        <v>1</v>
-      </c>
-      <c r="I79" s="54"/>
-      <c r="K79" s="347" t="s">
-        <v>436</v>
-      </c>
-      <c r="L79" s="444">
-        <v>0.05</v>
-      </c>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="28"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I79" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O79" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="31"/>
       <c r="V79" s="29"/>
       <c r="W79" s="15"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="25"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I80" s="445">
+        <v>0.7</v>
+      </c>
+      <c r="J80" s="53"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O80" s="445">
+        <v>0.4</v>
+      </c>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="31"/>
+      <c r="T80" s="31"/>
+      <c r="U80" s="31"/>
       <c r="V80" s="29"/>
       <c r="W80" s="15"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-      <c r="S81" s="28"/>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="53"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="53"/>
+      <c r="O81" s="53"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="31"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="31"/>
       <c r="V81" s="29"/>
       <c r="W81" s="15"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="25"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="28"/>
-      <c r="U82" s="28"/>
+      <c r="G82" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H82" s="33"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="N82" s="33"/>
+      <c r="O82" s="55"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="31"/>
       <c r="V82" s="29"/>
       <c r="W82" s="15"/>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="25"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="28"/>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="28"/>
-      <c r="S83" s="28"/>
-      <c r="T83" s="28"/>
-      <c r="U83" s="28"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="J83" s="53"/>
+      <c r="K83" s="53"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
+      <c r="T83" s="31"/>
+      <c r="U83" s="31"/>
       <c r="V83" s="29"/>
       <c r="W83" s="15"/>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" spans="1:26" s="7" customFormat="1" ht="11.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="25"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="28"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I84" s="445">
+        <v>0.94</v>
+      </c>
+      <c r="J84" s="53"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O84" s="445">
+        <v>2</v>
+      </c>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
+      <c r="R84" s="31"/>
+      <c r="S84" s="31"/>
+      <c r="T84" s="31"/>
+      <c r="U84" s="31"/>
       <c r="V84" s="29"/>
       <c r="W84" s="15"/>
       <c r="X84" s="6"/>
@@ -9539,19 +9995,23 @@
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="25"/>
-      <c r="G85" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H85" s="33"/>
-      <c r="I85" s="55"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" s="445">
+        <v>0.94</v>
+      </c>
       <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="N85" s="33"/>
-      <c r="O85" s="55"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O85" s="445">
+        <v>2</v>
+      </c>
       <c r="P85" s="31"/>
       <c r="Q85" s="31"/>
       <c r="R85" s="31"/>
@@ -9572,17 +10032,21 @@
       <c r="E86" s="16"/>
       <c r="F86" s="25"/>
       <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="55" t="s">
-        <v>428</v>
-      </c>
-      <c r="J86" s="243"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="53"/>
+      <c r="H86" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I86" s="445">
+        <v>0.94</v>
+      </c>
+      <c r="J86" s="53"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
       <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="55" t="s">
-        <v>433</v>
+      <c r="N86" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O86" s="445">
+        <v>2</v>
       </c>
       <c r="P86" s="31"/>
       <c r="Q86" s="31"/>
@@ -9605,19 +10069,20 @@
       <c r="F87" s="25"/>
       <c r="G87" s="33"/>
       <c r="H87" s="33" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I87" s="445">
-        <v>0.42</v>
-      </c>
+        <v>0.97</v>
+      </c>
+      <c r="J87" s="53"/>
       <c r="K87" s="56"/>
       <c r="L87" s="56"/>
       <c r="M87" s="33"/>
       <c r="N87" s="33" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O87" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P87" s="31"/>
       <c r="Q87" s="31"/>
@@ -9640,19 +10105,20 @@
       <c r="F88" s="25"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I88" s="445">
-        <v>0.44</v>
-      </c>
+        <v>0.97</v>
+      </c>
+      <c r="J88" s="53"/>
       <c r="K88" s="56"/>
       <c r="L88" s="56"/>
       <c r="M88" s="33"/>
       <c r="N88" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O88" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P88" s="31"/>
       <c r="Q88" s="31"/>
@@ -9675,19 +10141,20 @@
       <c r="F89" s="25"/>
       <c r="G89" s="33"/>
       <c r="H89" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I89" s="445">
-        <v>0.4</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="J89" s="53"/>
       <c r="K89" s="56"/>
       <c r="L89" s="56"/>
       <c r="M89" s="33"/>
       <c r="N89" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O89" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P89" s="31"/>
       <c r="Q89" s="31"/>
@@ -9710,19 +10177,20 @@
       <c r="F90" s="25"/>
       <c r="G90" s="33"/>
       <c r="H90" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I90" s="445">
-        <v>0.2</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="J90" s="56"/>
       <c r="K90" s="56"/>
       <c r="L90" s="56"/>
       <c r="M90" s="33"/>
       <c r="N90" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O90" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P90" s="31"/>
       <c r="Q90" s="31"/>
@@ -9745,19 +10213,20 @@
       <c r="F91" s="25"/>
       <c r="G91" s="33"/>
       <c r="H91" s="33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I91" s="445">
-        <v>0.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" s="56"/>
       <c r="K91" s="56"/>
       <c r="L91" s="56"/>
       <c r="M91" s="33"/>
       <c r="N91" s="33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O91" s="445">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="P91" s="31"/>
       <c r="Q91" s="31"/>
@@ -9779,21 +10248,14 @@
       <c r="E92" s="16"/>
       <c r="F92" s="25"/>
       <c r="G92" s="33"/>
-      <c r="H92" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I92" s="445">
-        <v>0.3</v>
-      </c>
+      <c r="H92" s="33"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="56"/>
       <c r="K92" s="56"/>
       <c r="L92" s="56"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="O92" s="445">
-        <v>0.4</v>
-      </c>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="56"/>
       <c r="P92" s="31"/>
       <c r="Q92" s="31"/>
       <c r="R92" s="31"/>
@@ -9813,23 +10275,17 @@
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="25"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I93" s="445">
-        <v>0.3</v>
-      </c>
+      <c r="G93" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="H93" s="33"/>
+      <c r="I93" s="54"/>
       <c r="J93" s="56"/>
       <c r="K93" s="56"/>
       <c r="L93" s="56"/>
-      <c r="M93" s="33"/>
-      <c r="N93" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="O93" s="445">
-        <v>0.4</v>
-      </c>
+      <c r="M93" s="56"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="56"/>
       <c r="P93" s="31"/>
       <c r="Q93" s="31"/>
       <c r="R93" s="31"/>
@@ -9850,22 +10306,24 @@
       <c r="E94" s="16"/>
       <c r="F94" s="25"/>
       <c r="G94" s="33"/>
-      <c r="H94" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I94" s="445">
-        <v>0.7</v>
-      </c>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="53"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="O94" s="445">
-        <v>0.4</v>
-      </c>
+      <c r="H94" s="33"/>
+      <c r="I94" s="158" t="s">
+        <v>381</v>
+      </c>
+      <c r="J94" s="447" t="s">
+        <v>418</v>
+      </c>
+      <c r="K94" s="447" t="s">
+        <v>419</v>
+      </c>
+      <c r="L94" s="447" t="s">
+        <v>420</v>
+      </c>
+      <c r="M94" s="447" t="s">
+        <v>421</v>
+      </c>
+      <c r="N94" s="56"/>
+      <c r="O94" s="56"/>
       <c r="P94" s="31"/>
       <c r="Q94" s="31"/>
       <c r="R94" s="31"/>
@@ -9886,14 +10344,26 @@
       <c r="E95" s="16"/>
       <c r="F95" s="25"/>
       <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-      <c r="M95" s="53"/>
-      <c r="N95" s="53"/>
-      <c r="O95" s="53"/>
+      <c r="H95" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I95" s="445">
+        <v>85</v>
+      </c>
+      <c r="J95" s="445">
+        <v>58</v>
+      </c>
+      <c r="K95" s="445">
+        <v>37</v>
+      </c>
+      <c r="L95" s="445">
+        <v>37</v>
+      </c>
+      <c r="M95" s="445">
+        <v>23</v>
+      </c>
+      <c r="N95" s="56"/>
+      <c r="O95" s="56"/>
       <c r="P95" s="31"/>
       <c r="Q95" s="31"/>
       <c r="R95" s="31"/>
@@ -9913,19 +10383,27 @@
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="25"/>
-      <c r="G96" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H96" s="33"/>
-      <c r="I96" s="55"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="N96" s="33"/>
-      <c r="O96" s="55"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I96" s="445">
+        <v>85</v>
+      </c>
+      <c r="J96" s="445">
+        <v>58</v>
+      </c>
+      <c r="K96" s="445">
+        <v>37</v>
+      </c>
+      <c r="L96" s="445">
+        <v>37</v>
+      </c>
+      <c r="M96" s="445">
+        <v>23</v>
+      </c>
+      <c r="N96" s="56"/>
+      <c r="O96" s="56"/>
       <c r="P96" s="31"/>
       <c r="Q96" s="31"/>
       <c r="R96" s="31"/>
@@ -9946,18 +10424,26 @@
       <c r="E97" s="16"/>
       <c r="F97" s="25"/>
       <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="55" t="s">
-        <v>427</v>
-      </c>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="33"/>
-      <c r="N97" s="33"/>
-      <c r="O97" s="55" t="s">
-        <v>434</v>
-      </c>
+      <c r="H97" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97" s="445">
+        <v>85</v>
+      </c>
+      <c r="J97" s="445">
+        <v>58</v>
+      </c>
+      <c r="K97" s="445">
+        <v>37</v>
+      </c>
+      <c r="L97" s="445">
+        <v>37</v>
+      </c>
+      <c r="M97" s="445">
+        <v>23</v>
+      </c>
+      <c r="N97" s="56"/>
+      <c r="O97" s="56"/>
       <c r="P97" s="31"/>
       <c r="Q97" s="31"/>
       <c r="R97" s="31"/>
@@ -9979,21 +10465,25 @@
       <c r="F98" s="25"/>
       <c r="G98" s="33"/>
       <c r="H98" s="33" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I98" s="445">
-        <v>0.94</v>
-      </c>
-      <c r="J98" s="53"/>
-      <c r="K98" s="56"/>
-      <c r="L98" s="56"/>
-      <c r="M98" s="33"/>
-      <c r="N98" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="O98" s="445">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J98" s="445">
+        <v>64</v>
+      </c>
+      <c r="K98" s="445">
+        <v>0</v>
+      </c>
+      <c r="L98" s="445">
+        <v>52</v>
+      </c>
+      <c r="M98" s="445">
+        <v>31</v>
+      </c>
+      <c r="N98" s="56"/>
+      <c r="O98" s="56"/>
       <c r="P98" s="31"/>
       <c r="Q98" s="31"/>
       <c r="R98" s="31"/>
@@ -10015,21 +10505,25 @@
       <c r="F99" s="25"/>
       <c r="G99" s="33"/>
       <c r="H99" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I99" s="445">
-        <v>0.94</v>
-      </c>
-      <c r="J99" s="53"/>
-      <c r="K99" s="56"/>
-      <c r="L99" s="56"/>
-      <c r="M99" s="33"/>
-      <c r="N99" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="O99" s="445">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J99" s="445">
+        <v>64</v>
+      </c>
+      <c r="K99" s="445">
+        <v>0</v>
+      </c>
+      <c r="L99" s="445">
+        <v>52</v>
+      </c>
+      <c r="M99" s="445">
+        <v>31</v>
+      </c>
+      <c r="N99" s="56"/>
+      <c r="O99" s="56"/>
       <c r="P99" s="31"/>
       <c r="Q99" s="31"/>
       <c r="R99" s="31"/>
@@ -10051,21 +10545,25 @@
       <c r="F100" s="25"/>
       <c r="G100" s="33"/>
       <c r="H100" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I100" s="445">
-        <v>0.94</v>
-      </c>
-      <c r="J100" s="53"/>
-      <c r="K100" s="56"/>
-      <c r="L100" s="56"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="O100" s="445">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J100" s="445">
+        <v>64</v>
+      </c>
+      <c r="K100" s="445">
+        <v>0</v>
+      </c>
+      <c r="L100" s="445">
+        <v>58</v>
+      </c>
+      <c r="M100" s="445">
+        <v>35</v>
+      </c>
+      <c r="N100" s="56"/>
+      <c r="O100" s="56"/>
       <c r="P100" s="31"/>
       <c r="Q100" s="31"/>
       <c r="R100" s="31"/>
@@ -10087,21 +10585,25 @@
       <c r="F101" s="25"/>
       <c r="G101" s="33"/>
       <c r="H101" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I101" s="445">
-        <v>0.97</v>
-      </c>
-      <c r="J101" s="53"/>
-      <c r="K101" s="56"/>
-      <c r="L101" s="56"/>
-      <c r="M101" s="33"/>
-      <c r="N101" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="O101" s="445">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J101" s="445">
+        <v>64</v>
+      </c>
+      <c r="K101" s="445">
+        <v>0</v>
+      </c>
+      <c r="L101" s="445">
+        <v>58</v>
+      </c>
+      <c r="M101" s="445">
+        <v>35</v>
+      </c>
+      <c r="N101" s="56"/>
+      <c r="O101" s="56"/>
       <c r="P101" s="31"/>
       <c r="Q101" s="31"/>
       <c r="R101" s="31"/>
@@ -10123,21 +10625,25 @@
       <c r="F102" s="25"/>
       <c r="G102" s="33"/>
       <c r="H102" s="33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I102" s="445">
-        <v>0.97</v>
-      </c>
-      <c r="J102" s="53"/>
-      <c r="K102" s="56"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="33"/>
-      <c r="N102" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="O102" s="445">
-        <v>2</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J102" s="445">
+        <v>70</v>
+      </c>
+      <c r="K102" s="445">
+        <v>37</v>
+      </c>
+      <c r="L102" s="445">
+        <v>37</v>
+      </c>
+      <c r="M102" s="445">
+        <v>23</v>
+      </c>
+      <c r="N102" s="56"/>
+      <c r="O102" s="56"/>
       <c r="P102" s="31"/>
       <c r="Q102" s="31"/>
       <c r="R102" s="31"/>
@@ -10158,22 +10664,14 @@
       <c r="E103" s="16"/>
       <c r="F103" s="25"/>
       <c r="G103" s="33"/>
-      <c r="H103" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I103" s="445">
-        <v>0.9</v>
-      </c>
-      <c r="J103" s="53"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="56"/>
       <c r="K103" s="56"/>
       <c r="L103" s="56"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="O103" s="445">
-        <v>2</v>
-      </c>
+      <c r="M103" s="56"/>
+      <c r="N103" s="56"/>
+      <c r="O103" s="56"/>
       <c r="P103" s="31"/>
       <c r="Q103" s="31"/>
       <c r="R103" s="31"/>
@@ -10193,23 +10691,17 @@
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="25"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I104" s="445">
-        <v>0.9</v>
-      </c>
+      <c r="G104" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="H104" s="33"/>
+      <c r="I104" s="54"/>
       <c r="J104" s="56"/>
       <c r="K104" s="56"/>
       <c r="L104" s="56"/>
-      <c r="M104" s="33"/>
-      <c r="N104" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="O104" s="445">
-        <v>2</v>
-      </c>
+      <c r="M104" s="56"/>
+      <c r="N104" s="56"/>
+      <c r="O104" s="56"/>
       <c r="P104" s="31"/>
       <c r="Q104" s="31"/>
       <c r="R104" s="31"/>
@@ -10230,22 +10722,24 @@
       <c r="E105" s="16"/>
       <c r="F105" s="25"/>
       <c r="G105" s="33"/>
-      <c r="H105" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I105" s="445">
-        <v>1</v>
-      </c>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="56"/>
-      <c r="M105" s="33"/>
-      <c r="N105" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="O105" s="445">
-        <v>2</v>
-      </c>
+      <c r="H105" s="33"/>
+      <c r="I105" s="158" t="s">
+        <v>381</v>
+      </c>
+      <c r="J105" s="447" t="s">
+        <v>418</v>
+      </c>
+      <c r="K105" s="447" t="s">
+        <v>419</v>
+      </c>
+      <c r="L105" s="447" t="s">
+        <v>420</v>
+      </c>
+      <c r="M105" s="447" t="s">
+        <v>421</v>
+      </c>
+      <c r="N105" s="56"/>
+      <c r="O105" s="56"/>
       <c r="P105" s="31"/>
       <c r="Q105" s="31"/>
       <c r="R105" s="31"/>
@@ -10266,12 +10760,24 @@
       <c r="E106" s="16"/>
       <c r="F106" s="25"/>
       <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="56"/>
+      <c r="H106" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I106" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="J106" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="K106" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="L106" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="M106" s="445">
+        <v>0.3</v>
+      </c>
       <c r="N106" s="56"/>
       <c r="O106" s="56"/>
       <c r="P106" s="31"/>
@@ -10293,15 +10799,25 @@
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="25"/>
-      <c r="G107" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="H107" s="33"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I107" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="J107" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="K107" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="L107" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="M107" s="445">
+        <v>0.3</v>
+      </c>
       <c r="N107" s="56"/>
       <c r="O107" s="56"/>
       <c r="P107" s="31"/>
@@ -10324,21 +10840,23 @@
       <c r="E108" s="16"/>
       <c r="F108" s="25"/>
       <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="158" t="s">
-        <v>381</v>
-      </c>
-      <c r="J108" s="447" t="s">
-        <v>423</v>
-      </c>
-      <c r="K108" s="447" t="s">
-        <v>424</v>
-      </c>
-      <c r="L108" s="447" t="s">
-        <v>425</v>
-      </c>
-      <c r="M108" s="447" t="s">
-        <v>426</v>
+      <c r="H108" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I108" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="J108" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="K108" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="L108" s="445">
+        <v>0.3</v>
+      </c>
+      <c r="M108" s="445">
+        <v>0.3</v>
       </c>
       <c r="N108" s="56"/>
       <c r="O108" s="56"/>
@@ -10363,22 +10881,22 @@
       <c r="F109" s="25"/>
       <c r="G109" s="33"/>
       <c r="H109" s="33" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I109" s="445">
-        <v>85</v>
+        <v>0.05</v>
       </c>
       <c r="J109" s="445">
-        <v>58</v>
+        <v>0.3</v>
       </c>
       <c r="K109" s="445">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="L109" s="445">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="M109" s="445">
-        <v>23</v>
+        <v>0.3</v>
       </c>
       <c r="N109" s="56"/>
       <c r="O109" s="56"/>
@@ -10403,22 +10921,22 @@
       <c r="F110" s="25"/>
       <c r="G110" s="33"/>
       <c r="H110" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I110" s="445">
-        <v>85</v>
+        <v>0.05</v>
       </c>
       <c r="J110" s="445">
-        <v>58</v>
+        <v>0.3</v>
       </c>
       <c r="K110" s="445">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="L110" s="445">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="M110" s="445">
-        <v>23</v>
+        <v>0.3</v>
       </c>
       <c r="N110" s="56"/>
       <c r="O110" s="56"/>
@@ -10443,22 +10961,22 @@
       <c r="F111" s="25"/>
       <c r="G111" s="33"/>
       <c r="H111" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I111" s="445">
-        <v>85</v>
+        <v>0.05</v>
       </c>
       <c r="J111" s="445">
-        <v>58</v>
+        <v>0.3</v>
       </c>
       <c r="K111" s="445">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="L111" s="445">
-        <v>37</v>
+        <v>0.3</v>
       </c>
       <c r="M111" s="445">
-        <v>23</v>
+        <v>0.3</v>
       </c>
       <c r="N111" s="56"/>
       <c r="O111" s="56"/>
@@ -10483,22 +11001,22 @@
       <c r="F112" s="25"/>
       <c r="G112" s="33"/>
       <c r="H112" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I112" s="445">
-        <v>95</v>
+        <v>0.05</v>
       </c>
       <c r="J112" s="445">
-        <v>64</v>
+        <v>0.3</v>
       </c>
       <c r="K112" s="445">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L112" s="445">
-        <v>52</v>
+        <v>0.3</v>
       </c>
       <c r="M112" s="445">
-        <v>31</v>
+        <v>0.3</v>
       </c>
       <c r="N112" s="56"/>
       <c r="O112" s="56"/>
@@ -10523,22 +11041,22 @@
       <c r="F113" s="25"/>
       <c r="G113" s="33"/>
       <c r="H113" s="33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I113" s="445">
-        <v>95</v>
+        <v>0.05</v>
       </c>
       <c r="J113" s="445">
-        <v>64</v>
+        <v>0.3</v>
       </c>
       <c r="K113" s="445">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L113" s="445">
-        <v>52</v>
+        <v>0.3</v>
       </c>
       <c r="M113" s="445">
-        <v>31</v>
+        <v>0.3</v>
       </c>
       <c r="N113" s="56"/>
       <c r="O113" s="56"/>
@@ -10554,7 +11072,7 @@
       <c r="Y113" s="6"/>
       <c r="Z113" s="6"/>
     </row>
-    <row r="114" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" s="7" customFormat="1" ht="12.65" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="16"/>
@@ -10562,24 +11080,12 @@
       <c r="E114" s="16"/>
       <c r="F114" s="25"/>
       <c r="G114" s="33"/>
-      <c r="H114" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I114" s="445">
-        <v>90</v>
-      </c>
-      <c r="J114" s="445">
-        <v>64</v>
-      </c>
-      <c r="K114" s="445">
-        <v>0</v>
-      </c>
-      <c r="L114" s="445">
-        <v>58</v>
-      </c>
-      <c r="M114" s="445">
-        <v>35</v>
-      </c>
+      <c r="H114" s="33"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="56"/>
+      <c r="K114" s="56"/>
+      <c r="L114" s="56"/>
+      <c r="M114" s="56"/>
       <c r="N114" s="56"/>
       <c r="O114" s="56"/>
       <c r="P114" s="31"/>
@@ -10601,25 +11107,15 @@
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
       <c r="F115" s="25"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I115" s="445">
-        <v>90</v>
-      </c>
-      <c r="J115" s="445">
-        <v>64</v>
-      </c>
-      <c r="K115" s="445">
-        <v>0</v>
-      </c>
-      <c r="L115" s="445">
-        <v>58</v>
-      </c>
-      <c r="M115" s="445">
-        <v>35</v>
-      </c>
+      <c r="G115" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="H115" s="33"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="56"/>
+      <c r="K115" s="56"/>
+      <c r="L115" s="56"/>
+      <c r="M115" s="56"/>
       <c r="N115" s="56"/>
       <c r="O115" s="56"/>
       <c r="P115" s="31"/>
@@ -10642,24 +11138,20 @@
       <c r="E116" s="16"/>
       <c r="F116" s="25"/>
       <c r="G116" s="33"/>
-      <c r="H116" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I116" s="445">
-        <v>85</v>
-      </c>
-      <c r="J116" s="445">
-        <v>70</v>
-      </c>
-      <c r="K116" s="445">
-        <v>37</v>
-      </c>
-      <c r="L116" s="445">
-        <v>37</v>
-      </c>
-      <c r="M116" s="445">
-        <v>23</v>
-      </c>
+      <c r="H116" s="33"/>
+      <c r="I116" s="158" t="s">
+        <v>83</v>
+      </c>
+      <c r="J116" s="447" t="s">
+        <v>80</v>
+      </c>
+      <c r="K116" s="447" t="s">
+        <v>426</v>
+      </c>
+      <c r="L116" s="447" t="s">
+        <v>427</v>
+      </c>
+      <c r="M116" s="56"/>
       <c r="N116" s="56"/>
       <c r="O116" s="56"/>
       <c r="P116" s="31"/>
@@ -10682,11 +11174,22 @@
       <c r="E117" s="16"/>
       <c r="F117" s="25"/>
       <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="54"/>
-      <c r="J117" s="56"/>
-      <c r="K117" s="56"/>
-      <c r="L117" s="56"/>
+      <c r="H117" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I117" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="J117" s="445">
+        <v>0.04</v>
+      </c>
+      <c r="K117" s="445">
+        <v>0.1</v>
+      </c>
+      <c r="L117" s="446">
+        <f>1-SUM(I117:K117)</f>
+        <v>0.81</v>
+      </c>
       <c r="M117" s="56"/>
       <c r="N117" s="56"/>
       <c r="O117" s="56"/>
@@ -10709,14 +11212,23 @@
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="25"/>
-      <c r="G118" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="H118" s="33"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="56"/>
-      <c r="K118" s="56"/>
-      <c r="L118" s="56"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I118" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="J118" s="445">
+        <v>0.04</v>
+      </c>
+      <c r="K118" s="445">
+        <v>0.1</v>
+      </c>
+      <c r="L118" s="446">
+        <f t="shared" ref="L118:L119" si="0">1-SUM(I118:K118)</f>
+        <v>0.81</v>
+      </c>
       <c r="M118" s="56"/>
       <c r="N118" s="56"/>
       <c r="O118" s="56"/>
@@ -10740,22 +11252,23 @@
       <c r="E119" s="16"/>
       <c r="F119" s="25"/>
       <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="158" t="s">
-        <v>381</v>
-      </c>
-      <c r="J119" s="447" t="s">
-        <v>423</v>
-      </c>
-      <c r="K119" s="447" t="s">
-        <v>424</v>
-      </c>
-      <c r="L119" s="447" t="s">
-        <v>425</v>
-      </c>
-      <c r="M119" s="447" t="s">
-        <v>426</v>
-      </c>
+      <c r="H119" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I119" s="445">
+        <v>0.05</v>
+      </c>
+      <c r="J119" s="445">
+        <v>0.04</v>
+      </c>
+      <c r="K119" s="445">
+        <v>0.1</v>
+      </c>
+      <c r="L119" s="446">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="M119" s="56"/>
       <c r="N119" s="56"/>
       <c r="O119" s="56"/>
       <c r="P119" s="31"/>
@@ -10779,23 +11292,22 @@
       <c r="F120" s="25"/>
       <c r="G120" s="33"/>
       <c r="H120" s="33" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I120" s="445">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J120" s="445">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="K120" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L120" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M120" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="L120" s="446">
+        <f t="shared" ref="L120:L124" si="1">1-SUM(I120:K120)</f>
+        <v>0.85</v>
+      </c>
+      <c r="M120" s="56"/>
       <c r="N120" s="56"/>
       <c r="O120" s="56"/>
       <c r="P120" s="31"/>
@@ -10819,23 +11331,22 @@
       <c r="F121" s="25"/>
       <c r="G121" s="33"/>
       <c r="H121" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I121" s="445">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J121" s="445">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="K121" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L121" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M121" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="L121" s="446">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M121" s="56"/>
       <c r="N121" s="56"/>
       <c r="O121" s="56"/>
       <c r="P121" s="31"/>
@@ -10859,23 +11370,22 @@
       <c r="F122" s="25"/>
       <c r="G122" s="33"/>
       <c r="H122" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I122" s="445">
         <v>0.05</v>
       </c>
       <c r="J122" s="445">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="K122" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L122" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M122" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="L122" s="446">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M122" s="56"/>
       <c r="N122" s="56"/>
       <c r="O122" s="56"/>
       <c r="P122" s="31"/>
@@ -10899,23 +11409,22 @@
       <c r="F123" s="25"/>
       <c r="G123" s="33"/>
       <c r="H123" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I123" s="445">
         <v>0.05</v>
       </c>
       <c r="J123" s="445">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="K123" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L123" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M123" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="L123" s="446">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="M123" s="56"/>
       <c r="N123" s="56"/>
       <c r="O123" s="56"/>
       <c r="P123" s="31"/>
@@ -10939,23 +11448,22 @@
       <c r="F124" s="25"/>
       <c r="G124" s="33"/>
       <c r="H124" s="33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I124" s="445">
         <v>0.05</v>
       </c>
       <c r="J124" s="445">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
       <c r="K124" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L124" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M124" s="445">
-        <v>0.3</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="L124" s="446">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="M124" s="56"/>
       <c r="N124" s="56"/>
       <c r="O124" s="56"/>
       <c r="P124" s="31"/>
@@ -10978,24 +11486,12 @@
       <c r="E125" s="16"/>
       <c r="F125" s="25"/>
       <c r="G125" s="33"/>
-      <c r="H125" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I125" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="J125" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="K125" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L125" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M125" s="445">
-        <v>0.3</v>
-      </c>
+      <c r="H125" s="33"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
+      <c r="L125" s="56"/>
+      <c r="M125" s="56"/>
       <c r="N125" s="56"/>
       <c r="O125" s="56"/>
       <c r="P125" s="31"/>
@@ -11017,25 +11513,15 @@
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
       <c r="F126" s="25"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I126" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="J126" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="K126" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L126" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M126" s="445">
-        <v>0.3</v>
-      </c>
+      <c r="G126" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H126" s="33"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="56"/>
+      <c r="K126" s="56"/>
+      <c r="L126" s="56"/>
+      <c r="M126" s="56"/>
       <c r="N126" s="56"/>
       <c r="O126" s="56"/>
       <c r="P126" s="31"/>
@@ -11058,24 +11544,20 @@
       <c r="E127" s="16"/>
       <c r="F127" s="25"/>
       <c r="G127" s="33"/>
-      <c r="H127" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I127" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="J127" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="K127" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="L127" s="445">
-        <v>0.3</v>
-      </c>
-      <c r="M127" s="445">
-        <v>0.3</v>
-      </c>
+      <c r="H127" s="33"/>
+      <c r="I127" s="158" t="s">
+        <v>83</v>
+      </c>
+      <c r="J127" s="447" t="s">
+        <v>80</v>
+      </c>
+      <c r="K127" s="447" t="s">
+        <v>426</v>
+      </c>
+      <c r="L127" s="447" t="s">
+        <v>427</v>
+      </c>
+      <c r="M127" s="56"/>
       <c r="N127" s="56"/>
       <c r="O127" s="56"/>
       <c r="P127" s="31"/>
@@ -11090,7 +11572,7 @@
       <c r="Y127" s="6"/>
       <c r="Z127" s="6"/>
     </row>
-    <row r="128" spans="1:26" s="7" customFormat="1" ht="12.65" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="16"/>
@@ -11098,11 +11580,21 @@
       <c r="E128" s="16"/>
       <c r="F128" s="25"/>
       <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="56"/>
-      <c r="K128" s="56"/>
-      <c r="L128" s="56"/>
+      <c r="H128" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I128" s="445">
+        <v>80</v>
+      </c>
+      <c r="J128" s="445">
+        <v>51</v>
+      </c>
+      <c r="K128" s="445">
+        <v>45</v>
+      </c>
+      <c r="L128" s="445">
+        <v>30</v>
+      </c>
       <c r="M128" s="56"/>
       <c r="N128" s="56"/>
       <c r="O128" s="56"/>
@@ -11125,14 +11617,22 @@
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
       <c r="F129" s="25"/>
-      <c r="G129" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="H129" s="33"/>
-      <c r="I129" s="54"/>
-      <c r="J129" s="56"/>
-      <c r="K129" s="56"/>
-      <c r="L129" s="56"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I129" s="445">
+        <v>80</v>
+      </c>
+      <c r="J129" s="445">
+        <v>51</v>
+      </c>
+      <c r="K129" s="445">
+        <v>45</v>
+      </c>
+      <c r="L129" s="445">
+        <v>30</v>
+      </c>
       <c r="M129" s="56"/>
       <c r="N129" s="56"/>
       <c r="O129" s="56"/>
@@ -11156,18 +11656,20 @@
       <c r="E130" s="16"/>
       <c r="F130" s="25"/>
       <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="158" t="s">
-        <v>83</v>
-      </c>
-      <c r="J130" s="447" t="s">
+      <c r="H130" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I130" s="445">
         <v>80</v>
       </c>
-      <c r="K130" s="447" t="s">
-        <v>431</v>
-      </c>
-      <c r="L130" s="447" t="s">
-        <v>432</v>
+      <c r="J130" s="445">
+        <v>51</v>
+      </c>
+      <c r="K130" s="445">
+        <v>45</v>
+      </c>
+      <c r="L130" s="445">
+        <v>30</v>
       </c>
       <c r="M130" s="56"/>
       <c r="N130" s="56"/>
@@ -11193,20 +11695,19 @@
       <c r="F131" s="25"/>
       <c r="G131" s="33"/>
       <c r="H131" s="33" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I131" s="445">
-        <v>0.05</v>
+        <v>89</v>
       </c>
       <c r="J131" s="445">
-        <v>0.04</v>
+        <v>68</v>
       </c>
       <c r="K131" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L131" s="446">
-        <f>1-SUM(I131:K131)</f>
-        <v>0.81</v>
+        <v>46</v>
+      </c>
+      <c r="L131" s="445">
+        <v>33</v>
       </c>
       <c r="M131" s="56"/>
       <c r="N131" s="56"/>
@@ -11232,20 +11733,19 @@
       <c r="F132" s="25"/>
       <c r="G132" s="33"/>
       <c r="H132" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I132" s="445">
-        <v>0.05</v>
+        <v>89</v>
       </c>
       <c r="J132" s="445">
-        <v>0.04</v>
+        <v>68</v>
       </c>
       <c r="K132" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L132" s="446">
-        <f t="shared" ref="L132:L133" si="0">1-SUM(I132:K132)</f>
-        <v>0.81</v>
+        <v>46</v>
+      </c>
+      <c r="L132" s="445">
+        <v>33</v>
       </c>
       <c r="M132" s="56"/>
       <c r="N132" s="56"/>
@@ -11271,20 +11771,19 @@
       <c r="F133" s="25"/>
       <c r="G133" s="33"/>
       <c r="H133" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I133" s="445">
-        <v>0.05</v>
+        <v>85</v>
       </c>
       <c r="J133" s="445">
-        <v>0.04</v>
+        <v>65</v>
       </c>
       <c r="K133" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L133" s="446">
-        <f t="shared" si="0"/>
-        <v>0.81</v>
+        <v>56</v>
+      </c>
+      <c r="L133" s="445">
+        <v>43</v>
       </c>
       <c r="M133" s="56"/>
       <c r="N133" s="56"/>
@@ -11310,20 +11809,19 @@
       <c r="F134" s="25"/>
       <c r="G134" s="33"/>
       <c r="H134" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I134" s="445">
         <v>85</v>
       </c>
-      <c r="I134" s="445">
-        <v>0.02</v>
-      </c>
       <c r="J134" s="445">
-        <v>0.03</v>
+        <v>65</v>
       </c>
       <c r="K134" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L134" s="446">
-        <f t="shared" ref="L134:L138" si="1">1-SUM(I134:K134)</f>
-        <v>0.85</v>
+        <v>56</v>
+      </c>
+      <c r="L134" s="445">
+        <v>43</v>
       </c>
       <c r="M134" s="56"/>
       <c r="N134" s="56"/>
@@ -11349,20 +11847,19 @@
       <c r="F135" s="25"/>
       <c r="G135" s="33"/>
       <c r="H135" s="33" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I135" s="445">
-        <v>0.02</v>
+        <v>80</v>
       </c>
       <c r="J135" s="445">
-        <v>0.03</v>
+        <v>51</v>
       </c>
       <c r="K135" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L135" s="446">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
+        <v>45</v>
+      </c>
+      <c r="L135" s="445">
+        <v>30</v>
       </c>
       <c r="M135" s="56"/>
       <c r="N135" s="56"/>
@@ -11387,22 +11884,11 @@
       <c r="E136" s="16"/>
       <c r="F136" s="25"/>
       <c r="G136" s="33"/>
-      <c r="H136" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I136" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="J136" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="K136" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="L136" s="446">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
+      <c r="H136" s="33"/>
+      <c r="I136" s="54"/>
+      <c r="J136" s="56"/>
+      <c r="K136" s="56"/>
+      <c r="L136" s="56"/>
       <c r="M136" s="56"/>
       <c r="N136" s="56"/>
       <c r="O136" s="56"/>
@@ -11426,22 +11912,11 @@
       <c r="E137" s="16"/>
       <c r="F137" s="25"/>
       <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I137" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="J137" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="K137" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="L137" s="446">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
+      <c r="H137" s="33"/>
+      <c r="I137" s="54"/>
+      <c r="J137" s="56"/>
+      <c r="K137" s="56"/>
+      <c r="L137" s="56"/>
       <c r="M137" s="56"/>
       <c r="N137" s="56"/>
       <c r="O137" s="56"/>
@@ -11465,22 +11940,11 @@
       <c r="E138" s="16"/>
       <c r="F138" s="25"/>
       <c r="G138" s="33"/>
-      <c r="H138" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I138" s="445">
-        <v>0.05</v>
-      </c>
-      <c r="J138" s="445">
-        <v>0.04</v>
-      </c>
-      <c r="K138" s="445">
-        <v>0.1</v>
-      </c>
-      <c r="L138" s="446">
-        <f t="shared" si="1"/>
-        <v>0.81</v>
-      </c>
+      <c r="H138" s="33"/>
+      <c r="I138" s="54"/>
+      <c r="J138" s="56"/>
+      <c r="K138" s="56"/>
+      <c r="L138" s="56"/>
       <c r="M138" s="56"/>
       <c r="N138" s="56"/>
       <c r="O138" s="56"/>
@@ -11531,9 +11995,7 @@
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
       <c r="F140" s="25"/>
-      <c r="G140" s="33" t="s">
-        <v>430</v>
-      </c>
+      <c r="G140" s="33"/>
       <c r="H140" s="33"/>
       <c r="I140" s="54"/>
       <c r="J140" s="56"/>
@@ -11563,18 +12025,10 @@
       <c r="F141" s="25"/>
       <c r="G141" s="33"/>
       <c r="H141" s="33"/>
-      <c r="I141" s="158" t="s">
-        <v>83</v>
-      </c>
-      <c r="J141" s="447" t="s">
-        <v>80</v>
-      </c>
-      <c r="K141" s="447" t="s">
-        <v>431</v>
-      </c>
-      <c r="L141" s="447" t="s">
-        <v>432</v>
-      </c>
+      <c r="I141" s="54"/>
+      <c r="J141" s="56"/>
+      <c r="K141" s="56"/>
+      <c r="L141" s="56"/>
       <c r="M141" s="56"/>
       <c r="N141" s="56"/>
       <c r="O141" s="56"/>
@@ -11598,21 +12052,11 @@
       <c r="E142" s="16"/>
       <c r="F142" s="25"/>
       <c r="G142" s="33"/>
-      <c r="H142" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I142" s="445">
-        <v>80</v>
-      </c>
-      <c r="J142" s="445">
-        <v>51</v>
-      </c>
-      <c r="K142" s="445">
-        <v>45</v>
-      </c>
-      <c r="L142" s="445">
-        <v>30</v>
-      </c>
+      <c r="H142" s="33"/>
+      <c r="I142" s="54"/>
+      <c r="J142" s="56"/>
+      <c r="K142" s="56"/>
+      <c r="L142" s="56"/>
       <c r="M142" s="56"/>
       <c r="N142" s="56"/>
       <c r="O142" s="56"/>
@@ -11634,26 +12078,16 @@
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
-      <c r="F143" s="25"/>
+      <c r="F143" s="32"/>
       <c r="G143" s="33"/>
-      <c r="H143" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I143" s="445">
-        <v>80</v>
-      </c>
-      <c r="J143" s="445">
-        <v>51</v>
-      </c>
-      <c r="K143" s="445">
-        <v>45</v>
-      </c>
-      <c r="L143" s="445">
-        <v>30</v>
-      </c>
-      <c r="M143" s="56"/>
-      <c r="N143" s="56"/>
-      <c r="O143" s="56"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="54"/>
+      <c r="J143" s="53"/>
+      <c r="K143" s="53"/>
+      <c r="L143" s="53"/>
+      <c r="M143" s="53"/>
+      <c r="N143" s="53"/>
+      <c r="O143" s="53"/>
       <c r="P143" s="31"/>
       <c r="Q143" s="31"/>
       <c r="R143" s="31"/>
@@ -11666,78 +12100,63 @@
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
     </row>
-    <row r="144" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="I144" s="445">
-        <v>80</v>
-      </c>
-      <c r="J144" s="445">
-        <v>51</v>
-      </c>
-      <c r="K144" s="445">
-        <v>45</v>
-      </c>
-      <c r="L144" s="445">
-        <v>30</v>
-      </c>
-      <c r="M144" s="56"/>
-      <c r="N144" s="56"/>
-      <c r="O144" s="56"/>
-      <c r="P144" s="31"/>
-      <c r="Q144" s="31"/>
-      <c r="R144" s="31"/>
-      <c r="S144" s="31"/>
-      <c r="T144" s="31"/>
-      <c r="U144" s="31"/>
+      <c r="F144" s="35"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="37"/>
+      <c r="K144" s="37"/>
+      <c r="L144" s="37"/>
+      <c r="M144" s="37"/>
+      <c r="N144" s="37"/>
+      <c r="O144" s="37"/>
+      <c r="P144" s="37"/>
+      <c r="Q144" s="37"/>
+      <c r="R144" s="37"/>
+      <c r="S144" s="37"/>
+      <c r="T144" s="37"/>
+      <c r="U144" s="37"/>
       <c r="V144" s="29"/>
       <c r="W144" s="15"/>
       <c r="X144" s="6"/>
       <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
     </row>
-    <row r="145" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" s="7" customFormat="1" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="33"/>
-      <c r="H145" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I145" s="445">
-        <v>89</v>
-      </c>
-      <c r="J145" s="445">
-        <v>68</v>
-      </c>
-      <c r="K145" s="445">
-        <v>46</v>
-      </c>
-      <c r="L145" s="445">
-        <v>33</v>
-      </c>
-      <c r="M145" s="56"/>
-      <c r="N145" s="56"/>
-      <c r="O145" s="56"/>
-      <c r="P145" s="31"/>
-      <c r="Q145" s="31"/>
-      <c r="R145" s="31"/>
-      <c r="S145" s="31"/>
-      <c r="T145" s="31"/>
-      <c r="U145" s="31"/>
-      <c r="V145" s="29"/>
-      <c r="W145" s="15"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="38"/>
+      <c r="G145" s="39" t="str">
+        <f>G55</f>
+        <v>HARVEST INDEX &amp; STUBBLE PRODUCTION</v>
+      </c>
+      <c r="H145" s="38"/>
+      <c r="I145" s="38"/>
+      <c r="J145" s="38"/>
+      <c r="K145" s="38"/>
+      <c r="L145" s="38"/>
+      <c r="M145" s="38"/>
+      <c r="N145" s="38"/>
+      <c r="O145" s="38"/>
+      <c r="P145" s="38"/>
+      <c r="Q145" s="38"/>
+      <c r="R145" s="38"/>
+      <c r="S145" s="38"/>
+      <c r="T145" s="38"/>
+      <c r="U145" s="38"/>
+      <c r="V145" s="38"/>
+      <c r="W145" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="X145" s="6"/>
       <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
@@ -11745,467 +12164,30 @@
     <row r="146" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I146" s="445">
-        <v>89</v>
-      </c>
-      <c r="J146" s="445">
-        <v>68</v>
-      </c>
-      <c r="K146" s="445">
-        <v>46</v>
-      </c>
-      <c r="L146" s="445">
-        <v>33</v>
-      </c>
-      <c r="M146" s="56"/>
-      <c r="N146" s="56"/>
-      <c r="O146" s="56"/>
-      <c r="P146" s="31"/>
-      <c r="Q146" s="31"/>
-      <c r="R146" s="31"/>
-      <c r="S146" s="31"/>
-      <c r="T146" s="31"/>
-      <c r="U146" s="31"/>
-      <c r="V146" s="29"/>
-      <c r="W146" s="15"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="6"/>
+      <c r="V146" s="6"/>
+      <c r="W146" s="6"/>
       <c r="X146" s="6"/>
       <c r="Y146" s="6"/>
       <c r="Z146" s="6"/>
-    </row>
-    <row r="147" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="4"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I147" s="445">
-        <v>85</v>
-      </c>
-      <c r="J147" s="445">
-        <v>65</v>
-      </c>
-      <c r="K147" s="445">
-        <v>56</v>
-      </c>
-      <c r="L147" s="445">
-        <v>43</v>
-      </c>
-      <c r="M147" s="56"/>
-      <c r="N147" s="56"/>
-      <c r="O147" s="56"/>
-      <c r="P147" s="31"/>
-      <c r="Q147" s="31"/>
-      <c r="R147" s="31"/>
-      <c r="S147" s="31"/>
-      <c r="T147" s="31"/>
-      <c r="U147" s="31"/>
-      <c r="V147" s="29"/>
-      <c r="W147" s="15"/>
-      <c r="X147" s="6"/>
-      <c r="Y147" s="6"/>
-      <c r="Z147" s="6"/>
-    </row>
-    <row r="148" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="4"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I148" s="445">
-        <v>85</v>
-      </c>
-      <c r="J148" s="445">
-        <v>65</v>
-      </c>
-      <c r="K148" s="445">
-        <v>56</v>
-      </c>
-      <c r="L148" s="445">
-        <v>43</v>
-      </c>
-      <c r="M148" s="56"/>
-      <c r="N148" s="56"/>
-      <c r="O148" s="56"/>
-      <c r="P148" s="31"/>
-      <c r="Q148" s="31"/>
-      <c r="R148" s="31"/>
-      <c r="S148" s="31"/>
-      <c r="T148" s="31"/>
-      <c r="U148" s="31"/>
-      <c r="V148" s="29"/>
-      <c r="W148" s="15"/>
-      <c r="X148" s="6"/>
-      <c r="Y148" s="6"/>
-      <c r="Z148" s="6"/>
-    </row>
-    <row r="149" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="4"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I149" s="445">
-        <v>80</v>
-      </c>
-      <c r="J149" s="445">
-        <v>51</v>
-      </c>
-      <c r="K149" s="445">
-        <v>45</v>
-      </c>
-      <c r="L149" s="445">
-        <v>30</v>
-      </c>
-      <c r="M149" s="56"/>
-      <c r="N149" s="56"/>
-      <c r="O149" s="56"/>
-      <c r="P149" s="31"/>
-      <c r="Q149" s="31"/>
-      <c r="R149" s="31"/>
-      <c r="S149" s="31"/>
-      <c r="T149" s="31"/>
-      <c r="U149" s="31"/>
-      <c r="V149" s="29"/>
-      <c r="W149" s="15"/>
-      <c r="X149" s="6"/>
-      <c r="Y149" s="6"/>
-      <c r="Z149" s="6"/>
-    </row>
-    <row r="150" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="33"/>
-      <c r="I150" s="54"/>
-      <c r="J150" s="56"/>
-      <c r="K150" s="56"/>
-      <c r="L150" s="56"/>
-      <c r="M150" s="56"/>
-      <c r="N150" s="56"/>
-      <c r="O150" s="56"/>
-      <c r="P150" s="31"/>
-      <c r="Q150" s="31"/>
-      <c r="R150" s="31"/>
-      <c r="S150" s="31"/>
-      <c r="T150" s="31"/>
-      <c r="U150" s="31"/>
-      <c r="V150" s="29"/>
-      <c r="W150" s="15"/>
-      <c r="X150" s="6"/>
-      <c r="Y150" s="6"/>
-      <c r="Z150" s="6"/>
-    </row>
-    <row r="151" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
-      <c r="I151" s="54"/>
-      <c r="J151" s="56"/>
-      <c r="K151" s="56"/>
-      <c r="L151" s="56"/>
-      <c r="M151" s="56"/>
-      <c r="N151" s="56"/>
-      <c r="O151" s="56"/>
-      <c r="P151" s="31"/>
-      <c r="Q151" s="31"/>
-      <c r="R151" s="31"/>
-      <c r="S151" s="31"/>
-      <c r="T151" s="31"/>
-      <c r="U151" s="31"/>
-      <c r="V151" s="29"/>
-      <c r="W151" s="15"/>
-      <c r="X151" s="6"/>
-      <c r="Y151" s="6"/>
-      <c r="Z151" s="6"/>
-    </row>
-    <row r="152" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="4"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
-      <c r="I152" s="54"/>
-      <c r="J152" s="56"/>
-      <c r="K152" s="56"/>
-      <c r="L152" s="56"/>
-      <c r="M152" s="56"/>
-      <c r="N152" s="56"/>
-      <c r="O152" s="56"/>
-      <c r="P152" s="31"/>
-      <c r="Q152" s="31"/>
-      <c r="R152" s="31"/>
-      <c r="S152" s="31"/>
-      <c r="T152" s="31"/>
-      <c r="U152" s="31"/>
-      <c r="V152" s="29"/>
-      <c r="W152" s="15"/>
-      <c r="X152" s="6"/>
-      <c r="Y152" s="6"/>
-      <c r="Z152" s="6"/>
-    </row>
-    <row r="153" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="4"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="54"/>
-      <c r="J153" s="56"/>
-      <c r="K153" s="56"/>
-      <c r="L153" s="56"/>
-      <c r="M153" s="56"/>
-      <c r="N153" s="56"/>
-      <c r="O153" s="56"/>
-      <c r="P153" s="31"/>
-      <c r="Q153" s="31"/>
-      <c r="R153" s="31"/>
-      <c r="S153" s="31"/>
-      <c r="T153" s="31"/>
-      <c r="U153" s="31"/>
-      <c r="V153" s="29"/>
-      <c r="W153" s="15"/>
-      <c r="X153" s="6"/>
-      <c r="Y153" s="6"/>
-      <c r="Z153" s="6"/>
-    </row>
-    <row r="154" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="4"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="54"/>
-      <c r="J154" s="56"/>
-      <c r="K154" s="56"/>
-      <c r="L154" s="56"/>
-      <c r="M154" s="56"/>
-      <c r="N154" s="56"/>
-      <c r="O154" s="56"/>
-      <c r="P154" s="31"/>
-      <c r="Q154" s="31"/>
-      <c r="R154" s="31"/>
-      <c r="S154" s="31"/>
-      <c r="T154" s="31"/>
-      <c r="U154" s="31"/>
-      <c r="V154" s="29"/>
-      <c r="W154" s="15"/>
-      <c r="X154" s="6"/>
-      <c r="Y154" s="6"/>
-      <c r="Z154" s="6"/>
-    </row>
-    <row r="155" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="4"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="54"/>
-      <c r="J155" s="56"/>
-      <c r="K155" s="56"/>
-      <c r="L155" s="56"/>
-      <c r="M155" s="56"/>
-      <c r="N155" s="56"/>
-      <c r="O155" s="56"/>
-      <c r="P155" s="31"/>
-      <c r="Q155" s="31"/>
-      <c r="R155" s="31"/>
-      <c r="S155" s="31"/>
-      <c r="T155" s="31"/>
-      <c r="U155" s="31"/>
-      <c r="V155" s="29"/>
-      <c r="W155" s="15"/>
-      <c r="X155" s="6"/>
-      <c r="Y155" s="6"/>
-      <c r="Z155" s="6"/>
-    </row>
-    <row r="156" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="4"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
-      <c r="I156" s="54"/>
-      <c r="J156" s="56"/>
-      <c r="K156" s="56"/>
-      <c r="L156" s="56"/>
-      <c r="M156" s="56"/>
-      <c r="N156" s="56"/>
-      <c r="O156" s="56"/>
-      <c r="P156" s="31"/>
-      <c r="Q156" s="31"/>
-      <c r="R156" s="31"/>
-      <c r="S156" s="31"/>
-      <c r="T156" s="31"/>
-      <c r="U156" s="31"/>
-      <c r="V156" s="29"/>
-      <c r="W156" s="15"/>
-      <c r="X156" s="6"/>
-      <c r="Y156" s="6"/>
-      <c r="Z156" s="6"/>
-    </row>
-    <row r="157" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="4"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="32"/>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
-      <c r="I157" s="54"/>
-      <c r="J157" s="53"/>
-      <c r="K157" s="53"/>
-      <c r="L157" s="53"/>
-      <c r="M157" s="53"/>
-      <c r="N157" s="53"/>
-      <c r="O157" s="53"/>
-      <c r="P157" s="31"/>
-      <c r="Q157" s="31"/>
-      <c r="R157" s="31"/>
-      <c r="S157" s="31"/>
-      <c r="T157" s="31"/>
-      <c r="U157" s="31"/>
-      <c r="V157" s="29"/>
-      <c r="W157" s="15"/>
-      <c r="X157" s="6"/>
-      <c r="Y157" s="6"/>
-      <c r="Z157" s="6"/>
-    </row>
-    <row r="158" spans="1:26" s="7" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="4"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="35"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="37"/>
-      <c r="K158" s="37"/>
-      <c r="L158" s="37"/>
-      <c r="M158" s="37"/>
-      <c r="N158" s="37"/>
-      <c r="O158" s="37"/>
-      <c r="P158" s="37"/>
-      <c r="Q158" s="37"/>
-      <c r="R158" s="37"/>
-      <c r="S158" s="37"/>
-      <c r="T158" s="37"/>
-      <c r="U158" s="37"/>
-      <c r="V158" s="29"/>
-      <c r="W158" s="15"/>
-      <c r="X158" s="6"/>
-      <c r="Y158" s="6"/>
-      <c r="Z158" s="6"/>
-    </row>
-    <row r="159" spans="1:26" s="7" customFormat="1" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="38"/>
-      <c r="D159" s="38"/>
-      <c r="E159" s="38"/>
-      <c r="F159" s="38"/>
-      <c r="G159" s="39" t="str">
-        <f>G69</f>
-        <v>HARVEST INDEX &amp; STUBBLE PRODUCTION</v>
-      </c>
-      <c r="H159" s="38"/>
-      <c r="I159" s="38"/>
-      <c r="J159" s="38"/>
-      <c r="K159" s="38"/>
-      <c r="L159" s="38"/>
-      <c r="M159" s="38"/>
-      <c r="N159" s="38"/>
-      <c r="O159" s="38"/>
-      <c r="P159" s="38"/>
-      <c r="Q159" s="38"/>
-      <c r="R159" s="38"/>
-      <c r="S159" s="38"/>
-      <c r="T159" s="38"/>
-      <c r="U159" s="38"/>
-      <c r="V159" s="38"/>
-      <c r="W159" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="X159" s="6"/>
-      <c r="Y159" s="6"/>
-      <c r="Z159" s="6"/>
-    </row>
-    <row r="160" spans="1:26" s="7" customFormat="1" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6"/>
-      <c r="T160" s="6"/>
-      <c r="U160" s="6"/>
-      <c r="V160" s="6"/>
-      <c r="W160" s="6"/>
-      <c r="X160" s="6"/>
-      <c r="Y160" s="6"/>
-      <c r="Z160" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12238,7 +12220,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="72" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B4" s="457">
         <v>0</v>
@@ -12387,7 +12369,7 @@
       <c r="E5" s="280"/>
       <c r="F5" s="281"/>
       <c r="G5" s="282" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H5" s="281"/>
       <c r="I5" s="281"/>
@@ -12445,7 +12427,7 @@
       <c r="E7" s="285"/>
       <c r="F7" s="281"/>
       <c r="G7" s="287" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H7" s="281"/>
       <c r="I7" s="281"/>
@@ -12699,12 +12681,12 @@
       <c r="E16" s="285"/>
       <c r="F16" s="293"/>
       <c r="G16" s="459" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H16" s="242"/>
       <c r="I16" s="239"/>
       <c r="J16" s="460" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K16" s="56"/>
       <c r="L16" s="56"/>
@@ -12729,12 +12711,12 @@
       <c r="E17" s="285"/>
       <c r="F17" s="293"/>
       <c r="G17" s="242" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H17" s="242"/>
       <c r="I17" s="239"/>
       <c r="J17" s="242" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K17" s="56"/>
       <c r="L17" s="56"/>
@@ -13138,7 +13120,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -13248,7 +13230,7 @@
       </c>
       <c r="F4" s="281"/>
       <c r="G4" s="282" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H4" s="281"/>
       <c r="I4" s="281"/>
@@ -13459,7 +13441,7 @@
       <c r="L11" s="285"/>
       <c r="M11" s="285"/>
       <c r="N11" s="285" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O11" s="285"/>
       <c r="P11" s="292"/>
@@ -13496,11 +13478,11 @@
       </c>
       <c r="L12" s="297"/>
       <c r="M12" s="297"/>
-      <c r="N12" s="485">
+      <c r="N12" s="466">
         <v>40</v>
       </c>
       <c r="O12" s="297" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="P12" s="298"/>
       <c r="Q12" s="298"/>
@@ -13522,7 +13504,7 @@
       <c r="E13" s="285"/>
       <c r="F13" s="293"/>
       <c r="G13" s="74" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H13" s="378">
         <v>0</v>
@@ -13993,7 +13975,7 @@
       </c>
       <c r="F29" s="281"/>
       <c r="G29" s="282" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H29" s="281"/>
       <c r="I29" s="281"/>
@@ -14054,7 +14036,7 @@
       <c r="H31" s="281"/>
       <c r="I31" s="281"/>
       <c r="J31" s="281" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K31" s="281"/>
       <c r="L31" s="281"/>
@@ -14198,14 +14180,14 @@
       <c r="H36" s="285"/>
       <c r="I36" s="285"/>
       <c r="J36" s="291" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K36" s="291" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L36" s="292"/>
       <c r="M36" s="374" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="N36" s="292"/>
       <c r="O36" s="292"/>
@@ -14231,7 +14213,7 @@
       <c r="G37" s="74"/>
       <c r="H37" s="297"/>
       <c r="I37" s="308" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="J37" s="379">
         <v>1</v>
@@ -15456,7 +15438,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="74" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B4" s="386">
         <v>43579</v>
@@ -15468,7 +15450,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="76" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B5" s="386">
         <v>43600</v>
@@ -15478,12 +15460,12 @@
         <v>28</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="76" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B6" s="386">
         <v>43628</v>
@@ -15495,7 +15477,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B7" s="386">
         <v>43684</v>
@@ -15507,7 +15489,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="76" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B8" s="386">
         <v>43733</v>
@@ -15519,7 +15501,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="76" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B9" s="386">
         <v>43768</v>
@@ -15531,7 +15513,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="76" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B10" s="386">
         <v>43796</v>
@@ -15543,7 +15525,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="76" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B11" s="386">
         <v>43852</v>
@@ -15555,7 +15537,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B12" s="386">
         <v>43902</v>
@@ -15567,7 +15549,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="76" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B13" s="386">
         <v>43930</v>
@@ -15579,7 +15561,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="76" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B14" s="386">
         <v>43945</v>
@@ -15598,10 +15580,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D90829-35C9-440C-9296-0D022F3A539F}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:AC71"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC68" sqref="AC68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16597,7 +16579,7 @@
       <c r="Y32" s="276"/>
       <c r="Z32" s="276"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="274"/>
       <c r="B33" s="275"/>
       <c r="C33" s="285"/>
@@ -16625,7 +16607,7 @@
       <c r="Y33" s="276"/>
       <c r="Z33" s="276"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="274"/>
       <c r="B34" s="275"/>
       <c r="C34" s="285"/>
@@ -16653,7 +16635,7 @@
       <c r="Y34" s="276"/>
       <c r="Z34" s="276"/>
     </row>
-    <row r="35" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="274"/>
       <c r="B35" s="275"/>
       <c r="C35" s="305"/>
@@ -16686,7 +16668,7 @@
       <c r="Y35" s="276"/>
       <c r="Z35" s="276"/>
     </row>
-    <row r="36" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="274"/>
       <c r="B36" s="275"/>
       <c r="C36" s="275"/>
@@ -16714,7 +16696,7 @@
       <c r="Y36" s="276"/>
       <c r="Z36" s="276"/>
     </row>
-    <row r="37" spans="1:29" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="314"/>
       <c r="B37" s="275"/>
       <c r="C37" s="275"/>
@@ -16741,11 +16723,8 @@
       <c r="X37" s="276"/>
       <c r="Y37" s="276"/>
       <c r="Z37" s="276"/>
-      <c r="AA37" s="276"/>
-      <c r="AB37" s="276"/>
-      <c r="AC37" s="276"/>
-    </row>
-    <row r="38" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="314"/>
       <c r="B38" s="275"/>
       <c r="C38" s="277" t="s">
@@ -16776,11 +16755,8 @@
       <c r="X38" s="276"/>
       <c r="Y38" s="276"/>
       <c r="Z38" s="276"/>
-      <c r="AA38" s="276"/>
-      <c r="AB38" s="276"/>
-      <c r="AC38" s="276"/>
-    </row>
-    <row r="39" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="314"/>
       <c r="B39" s="275"/>
       <c r="C39" s="280"/>
@@ -16813,11 +16789,8 @@
       <c r="X39" s="276"/>
       <c r="Y39" s="276"/>
       <c r="Z39" s="276"/>
-      <c r="AA39" s="276"/>
-      <c r="AB39" s="276"/>
-      <c r="AC39" s="276"/>
-    </row>
-    <row r="40" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="314"/>
       <c r="B40" s="275"/>
       <c r="C40" s="280"/>
@@ -16846,11 +16819,8 @@
       <c r="X40" s="276"/>
       <c r="Y40" s="276"/>
       <c r="Z40" s="276"/>
-      <c r="AA40" s="276"/>
-      <c r="AB40" s="276"/>
-      <c r="AC40" s="276"/>
-    </row>
-    <row r="41" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="314"/>
       <c r="B41" s="275"/>
       <c r="C41" s="285"/>
@@ -16879,11 +16849,8 @@
       <c r="X41" s="276"/>
       <c r="Y41" s="276"/>
       <c r="Z41" s="276"/>
-      <c r="AA41" s="276"/>
-      <c r="AB41" s="276"/>
-      <c r="AC41" s="276"/>
-    </row>
-    <row r="42" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="314"/>
       <c r="B42" s="275"/>
       <c r="C42" s="285">
@@ -16916,11 +16883,8 @@
       <c r="X42" s="276"/>
       <c r="Y42" s="276"/>
       <c r="Z42" s="276"/>
-      <c r="AA42" s="276"/>
-      <c r="AB42" s="276"/>
-      <c r="AC42" s="276"/>
-    </row>
-    <row r="43" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="314"/>
       <c r="B43" s="275"/>
       <c r="C43" s="285"/>
@@ -16947,11 +16911,8 @@
       <c r="X43" s="276"/>
       <c r="Y43" s="276"/>
       <c r="Z43" s="276"/>
-      <c r="AA43" s="276"/>
-      <c r="AB43" s="276"/>
-      <c r="AC43" s="276"/>
-    </row>
-    <row r="44" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="314"/>
       <c r="B44" s="275"/>
       <c r="C44" s="285"/>
@@ -16978,11 +16939,8 @@
       <c r="X44" s="276"/>
       <c r="Y44" s="276"/>
       <c r="Z44" s="276"/>
-      <c r="AA44" s="276"/>
-      <c r="AB44" s="276"/>
-      <c r="AC44" s="276"/>
-    </row>
-    <row r="45" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="314"/>
       <c r="B45" s="275"/>
       <c r="C45" s="285"/>
@@ -17011,11 +16969,8 @@
       <c r="X45" s="276"/>
       <c r="Y45" s="276"/>
       <c r="Z45" s="276"/>
-      <c r="AA45" s="276"/>
-      <c r="AB45" s="276"/>
-      <c r="AC45" s="276"/>
-    </row>
-    <row r="46" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="314"/>
       <c r="B46" s="275"/>
       <c r="C46" s="285"/>
@@ -17044,11 +16999,8 @@
       <c r="X46" s="276"/>
       <c r="Y46" s="276"/>
       <c r="Z46" s="276"/>
-      <c r="AA46" s="276"/>
-      <c r="AB46" s="276"/>
-      <c r="AC46" s="276"/>
-    </row>
-    <row r="47" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="314"/>
       <c r="B47" s="275"/>
       <c r="C47" s="285"/>
@@ -17075,11 +17027,8 @@
       <c r="X47" s="276"/>
       <c r="Y47" s="276"/>
       <c r="Z47" s="276"/>
-      <c r="AA47" s="276"/>
-      <c r="AB47" s="276"/>
-      <c r="AC47" s="276"/>
-    </row>
-    <row r="48" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="314"/>
       <c r="B48" s="275"/>
       <c r="C48" s="285"/>
@@ -17107,11 +17056,8 @@
       <c r="X48" s="276"/>
       <c r="Y48" s="276"/>
       <c r="Z48" s="276"/>
-      <c r="AA48" s="276"/>
-      <c r="AB48" s="276"/>
-      <c r="AC48" s="276"/>
-    </row>
-    <row r="49" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="314"/>
       <c r="B49" s="275"/>
       <c r="C49" s="285"/>
@@ -17130,11 +17076,8 @@
       <c r="X49" s="276"/>
       <c r="Y49" s="276"/>
       <c r="Z49" s="276"/>
-      <c r="AA49" s="276"/>
-      <c r="AB49" s="276"/>
-      <c r="AC49" s="276"/>
-    </row>
-    <row r="50" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="314"/>
       <c r="B50" s="275"/>
       <c r="C50" s="285"/>
@@ -17156,11 +17099,8 @@
       <c r="X50" s="276"/>
       <c r="Y50" s="276"/>
       <c r="Z50" s="276"/>
-      <c r="AA50" s="276"/>
-      <c r="AB50" s="276"/>
-      <c r="AC50" s="276"/>
-    </row>
-    <row r="51" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="314"/>
       <c r="B51" s="275"/>
       <c r="C51" s="285"/>
@@ -17168,7 +17108,7 @@
       <c r="E51" s="285"/>
       <c r="F51" s="293"/>
       <c r="G51" s="340" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H51" s="390">
         <v>0.1</v>
@@ -17200,11 +17140,8 @@
       <c r="X51" s="276"/>
       <c r="Y51" s="276"/>
       <c r="Z51" s="276"/>
-      <c r="AA51" s="276"/>
-      <c r="AB51" s="276"/>
-      <c r="AC51" s="276"/>
-    </row>
-    <row r="52" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="314"/>
       <c r="B52" s="275"/>
       <c r="C52" s="285"/>
@@ -17212,7 +17149,7 @@
       <c r="E52" s="285"/>
       <c r="F52" s="293"/>
       <c r="G52" s="340" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H52" s="390">
         <v>0.1</v>
@@ -17244,11 +17181,8 @@
       <c r="X52" s="276"/>
       <c r="Y52" s="276"/>
       <c r="Z52" s="276"/>
-      <c r="AA52" s="276"/>
-      <c r="AB52" s="276"/>
-      <c r="AC52" s="276"/>
-    </row>
-    <row r="53" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="314"/>
       <c r="B53" s="275"/>
       <c r="C53" s="285"/>
@@ -17279,11 +17213,8 @@
       <c r="X53" s="276"/>
       <c r="Y53" s="276"/>
       <c r="Z53" s="276"/>
-      <c r="AA53" s="276"/>
-      <c r="AB53" s="276"/>
-      <c r="AC53" s="276"/>
-    </row>
-    <row r="54" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="314"/>
       <c r="B54" s="275"/>
       <c r="C54" s="285"/>
@@ -17313,11 +17244,8 @@
       <c r="X54" s="276"/>
       <c r="Y54" s="276"/>
       <c r="Z54" s="276"/>
-      <c r="AA54" s="276"/>
-      <c r="AB54" s="276"/>
-      <c r="AC54" s="276"/>
-    </row>
-    <row r="55" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="314"/>
       <c r="B55" s="275"/>
       <c r="C55" s="285"/>
@@ -17337,7 +17265,7 @@
       <c r="O55" s="331"/>
       <c r="P55" s="331"/>
       <c r="Q55" s="328" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="R55" s="332"/>
       <c r="V55" s="333"/>
@@ -17345,11 +17273,8 @@
       <c r="X55" s="276"/>
       <c r="Y55" s="276"/>
       <c r="Z55" s="276"/>
-      <c r="AA55" s="276"/>
-      <c r="AB55" s="276"/>
-      <c r="AC55" s="276"/>
-    </row>
-    <row r="56" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="314"/>
       <c r="B56" s="275"/>
       <c r="C56" s="285"/>
@@ -17370,11 +17295,8 @@
       <c r="X56" s="276"/>
       <c r="Y56" s="276"/>
       <c r="Z56" s="276"/>
-      <c r="AA56" s="276"/>
-      <c r="AB56" s="276"/>
-      <c r="AC56" s="276"/>
-    </row>
-    <row r="57" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="314"/>
       <c r="B57" s="275"/>
       <c r="C57" s="285"/>
@@ -17408,11 +17330,8 @@
       <c r="X57" s="276"/>
       <c r="Y57" s="276"/>
       <c r="Z57" s="276"/>
-      <c r="AA57" s="276"/>
-      <c r="AB57" s="276"/>
-      <c r="AC57" s="276"/>
-    </row>
-    <row r="58" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="314"/>
       <c r="B58" s="275"/>
       <c r="C58" s="285"/>
@@ -17441,11 +17360,8 @@
       <c r="X58" s="276"/>
       <c r="Y58" s="276"/>
       <c r="Z58" s="276"/>
-      <c r="AA58" s="276"/>
-      <c r="AB58" s="276"/>
-      <c r="AC58" s="276"/>
-    </row>
-    <row r="59" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="314"/>
       <c r="B59" s="275"/>
       <c r="C59" s="285"/>
@@ -17466,11 +17382,8 @@
       <c r="X59" s="276"/>
       <c r="Y59" s="276"/>
       <c r="Z59" s="276"/>
-      <c r="AA59" s="276"/>
-      <c r="AB59" s="276"/>
-      <c r="AC59" s="276"/>
-    </row>
-    <row r="60" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="314"/>
       <c r="B60" s="275"/>
       <c r="C60" s="285"/>
@@ -17498,13 +17411,8 @@
       <c r="X60" s="276"/>
       <c r="Y60" s="276"/>
       <c r="Z60" s="276"/>
-      <c r="AA60" s="276"/>
-      <c r="AB60" s="276"/>
-      <c r="AC60" s="322" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="314"/>
       <c r="B61" s="275"/>
       <c r="C61" s="285"/>
@@ -17515,20 +17423,20 @@
         <v>113</v>
       </c>
       <c r="H61" s="330" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="I61" s="330" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M61" s="331"/>
       <c r="N61" s="331" t="s">
         <v>113</v>
       </c>
       <c r="O61" s="331" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="P61" s="337" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q61" s="331"/>
       <c r="U61" s="332"/>
@@ -17537,11 +17445,8 @@
       <c r="X61" s="276"/>
       <c r="Y61" s="276"/>
       <c r="Z61" s="276"/>
-      <c r="AA61" s="276"/>
-      <c r="AB61" s="276"/>
-      <c r="AC61" s="322"/>
-    </row>
-    <row r="62" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="314"/>
       <c r="B62" s="275"/>
       <c r="C62" s="285"/>
@@ -17572,11 +17477,8 @@
       <c r="X62" s="276"/>
       <c r="Y62" s="276"/>
       <c r="Z62" s="276"/>
-      <c r="AA62" s="276"/>
-      <c r="AB62" s="276"/>
-      <c r="AC62" s="322"/>
-    </row>
-    <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="314"/>
       <c r="B63" s="275"/>
       <c r="C63" s="285"/>
@@ -17607,11 +17509,8 @@
       <c r="X63" s="276"/>
       <c r="Y63" s="276"/>
       <c r="Z63" s="276"/>
-      <c r="AA63" s="276"/>
-      <c r="AB63" s="276"/>
-      <c r="AC63" s="322"/>
-    </row>
-    <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="314"/>
       <c r="B64" s="275"/>
       <c r="C64" s="285"/>
@@ -17642,11 +17541,8 @@
       <c r="X64" s="276"/>
       <c r="Y64" s="276"/>
       <c r="Z64" s="276"/>
-      <c r="AA64" s="276"/>
-      <c r="AB64" s="276"/>
-      <c r="AC64" s="322"/>
-    </row>
-    <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="314"/>
       <c r="B65" s="275"/>
       <c r="C65" s="285"/>
@@ -17679,11 +17575,8 @@
       <c r="X65" s="276"/>
       <c r="Y65" s="276"/>
       <c r="Z65" s="276"/>
-      <c r="AA65" s="276"/>
-      <c r="AB65" s="276"/>
-      <c r="AC65" s="322"/>
-    </row>
-    <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="314"/>
       <c r="B66" s="275"/>
       <c r="C66" s="285"/>
@@ -17716,11 +17609,8 @@
       <c r="X66" s="276"/>
       <c r="Y66" s="276"/>
       <c r="Z66" s="276"/>
-      <c r="AA66" s="276"/>
-      <c r="AB66" s="276"/>
-      <c r="AC66" s="322"/>
-    </row>
-    <row r="67" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="314"/>
       <c r="B67" s="275"/>
       <c r="C67" s="285"/>
@@ -17753,11 +17643,8 @@
       <c r="X67" s="276"/>
       <c r="Y67" s="276"/>
       <c r="Z67" s="276"/>
-      <c r="AA67" s="276"/>
-      <c r="AB67" s="276"/>
-      <c r="AC67" s="322"/>
-    </row>
-    <row r="68" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="314"/>
       <c r="B68" s="275"/>
       <c r="C68" s="285"/>
@@ -17790,13 +17677,8 @@
       <c r="X68" s="276"/>
       <c r="Y68" s="276"/>
       <c r="Z68" s="276"/>
-      <c r="AA68" s="276"/>
-      <c r="AB68" s="276"/>
-      <c r="AC68" s="322" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="314"/>
       <c r="B69" s="275"/>
       <c r="C69" s="285"/>
@@ -17823,13 +17705,8 @@
       <c r="X69" s="276"/>
       <c r="Y69" s="276"/>
       <c r="Z69" s="276"/>
-      <c r="AA69" s="276"/>
-      <c r="AB69" s="276"/>
-      <c r="AC69" s="322" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="314"/>
       <c r="B70" s="275"/>
       <c r="C70" s="305"/>
@@ -17861,13 +17738,8 @@
       <c r="X70" s="276"/>
       <c r="Y70" s="276"/>
       <c r="Z70" s="276"/>
-      <c r="AA70" s="276"/>
-      <c r="AB70" s="276"/>
-      <c r="AC70" s="322" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="314"/>
       <c r="B71" s="275"/>
       <c r="C71" s="275"/>
@@ -17894,11 +17766,6 @@
       <c r="X71" s="276"/>
       <c r="Y71" s="276"/>
       <c r="Z71" s="276"/>
-      <c r="AA71" s="276"/>
-      <c r="AB71" s="276"/>
-      <c r="AC71" s="322" t="s">
-        <v>408</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19188,21 +19055,21 @@
       <c r="E46" s="112"/>
       <c r="F46" s="114"/>
       <c r="G46" s="123"/>
-      <c r="H46" s="466" t="s">
+      <c r="H46" s="467" t="s">
         <v>158</v>
       </c>
-      <c r="I46" s="467"/>
-      <c r="J46" s="467"/>
-      <c r="K46" s="467"/>
-      <c r="L46" s="467"/>
-      <c r="M46" s="467"/>
-      <c r="N46" s="467"/>
-      <c r="O46" s="467"/>
-      <c r="P46" s="467"/>
-      <c r="Q46" s="467"/>
-      <c r="R46" s="467"/>
-      <c r="S46" s="467"/>
-      <c r="T46" s="468"/>
+      <c r="I46" s="468"/>
+      <c r="J46" s="468"/>
+      <c r="K46" s="468"/>
+      <c r="L46" s="468"/>
+      <c r="M46" s="468"/>
+      <c r="N46" s="468"/>
+      <c r="O46" s="468"/>
+      <c r="P46" s="468"/>
+      <c r="Q46" s="468"/>
+      <c r="R46" s="468"/>
+      <c r="S46" s="468"/>
+      <c r="T46" s="469"/>
       <c r="U46" s="123"/>
       <c r="V46" s="114"/>
       <c r="W46" s="94"/>
@@ -19216,19 +19083,19 @@
       <c r="E47" s="112"/>
       <c r="F47" s="114"/>
       <c r="G47" s="123"/>
-      <c r="H47" s="469"/>
-      <c r="I47" s="470"/>
-      <c r="J47" s="470"/>
-      <c r="K47" s="470"/>
-      <c r="L47" s="470"/>
-      <c r="M47" s="470"/>
-      <c r="N47" s="470"/>
-      <c r="O47" s="470"/>
-      <c r="P47" s="470"/>
-      <c r="Q47" s="470"/>
-      <c r="R47" s="470"/>
-      <c r="S47" s="470"/>
-      <c r="T47" s="471"/>
+      <c r="H47" s="470"/>
+      <c r="I47" s="471"/>
+      <c r="J47" s="471"/>
+      <c r="K47" s="471"/>
+      <c r="L47" s="471"/>
+      <c r="M47" s="471"/>
+      <c r="N47" s="471"/>
+      <c r="O47" s="471"/>
+      <c r="P47" s="471"/>
+      <c r="Q47" s="471"/>
+      <c r="R47" s="471"/>
+      <c r="S47" s="471"/>
+      <c r="T47" s="472"/>
       <c r="U47" s="123"/>
       <c r="V47" s="114"/>
       <c r="W47" s="94"/>
@@ -19242,19 +19109,19 @@
       <c r="E48" s="112"/>
       <c r="F48" s="114"/>
       <c r="G48" s="123"/>
-      <c r="H48" s="469"/>
-      <c r="I48" s="470"/>
-      <c r="J48" s="470"/>
-      <c r="K48" s="470"/>
-      <c r="L48" s="470"/>
-      <c r="M48" s="470"/>
-      <c r="N48" s="470"/>
-      <c r="O48" s="470"/>
-      <c r="P48" s="470"/>
-      <c r="Q48" s="470"/>
-      <c r="R48" s="470"/>
-      <c r="S48" s="470"/>
-      <c r="T48" s="471"/>
+      <c r="H48" s="470"/>
+      <c r="I48" s="471"/>
+      <c r="J48" s="471"/>
+      <c r="K48" s="471"/>
+      <c r="L48" s="471"/>
+      <c r="M48" s="471"/>
+      <c r="N48" s="471"/>
+      <c r="O48" s="471"/>
+      <c r="P48" s="471"/>
+      <c r="Q48" s="471"/>
+      <c r="R48" s="471"/>
+      <c r="S48" s="471"/>
+      <c r="T48" s="472"/>
       <c r="U48" s="123"/>
       <c r="V48" s="114"/>
       <c r="W48" s="94"/>
@@ -19268,19 +19135,19 @@
       <c r="E49" s="112"/>
       <c r="F49" s="114"/>
       <c r="G49" s="123"/>
-      <c r="H49" s="472"/>
-      <c r="I49" s="473"/>
-      <c r="J49" s="473"/>
-      <c r="K49" s="473"/>
-      <c r="L49" s="473"/>
-      <c r="M49" s="473"/>
-      <c r="N49" s="473"/>
-      <c r="O49" s="473"/>
-      <c r="P49" s="473"/>
-      <c r="Q49" s="473"/>
-      <c r="R49" s="473"/>
-      <c r="S49" s="473"/>
-      <c r="T49" s="474"/>
+      <c r="H49" s="473"/>
+      <c r="I49" s="474"/>
+      <c r="J49" s="474"/>
+      <c r="K49" s="474"/>
+      <c r="L49" s="474"/>
+      <c r="M49" s="474"/>
+      <c r="N49" s="474"/>
+      <c r="O49" s="474"/>
+      <c r="P49" s="474"/>
+      <c r="Q49" s="474"/>
+      <c r="R49" s="474"/>
+      <c r="S49" s="474"/>
+      <c r="T49" s="475"/>
       <c r="U49" s="123"/>
       <c r="V49" s="114"/>
       <c r="W49" s="94"/>
@@ -19295,7 +19162,7 @@
       <c r="F50" s="114"/>
       <c r="G50" s="116"/>
       <c r="H50" s="120" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="I50" s="120"/>
       <c r="J50" s="118"/>
@@ -19322,21 +19189,21 @@
       <c r="E51" s="112"/>
       <c r="F51" s="114"/>
       <c r="G51" s="116"/>
-      <c r="H51" s="477" t="s">
-        <v>518</v>
-      </c>
-      <c r="I51" s="478"/>
-      <c r="J51" s="478"/>
-      <c r="K51" s="478"/>
-      <c r="L51" s="478"/>
-      <c r="M51" s="478"/>
-      <c r="N51" s="478"/>
-      <c r="O51" s="478"/>
-      <c r="P51" s="478"/>
-      <c r="Q51" s="478"/>
-      <c r="R51" s="478"/>
-      <c r="S51" s="478"/>
-      <c r="T51" s="479"/>
+      <c r="H51" s="478" t="s">
+        <v>513</v>
+      </c>
+      <c r="I51" s="479"/>
+      <c r="J51" s="479"/>
+      <c r="K51" s="479"/>
+      <c r="L51" s="479"/>
+      <c r="M51" s="479"/>
+      <c r="N51" s="479"/>
+      <c r="O51" s="479"/>
+      <c r="P51" s="479"/>
+      <c r="Q51" s="479"/>
+      <c r="R51" s="479"/>
+      <c r="S51" s="479"/>
+      <c r="T51" s="480"/>
       <c r="U51" s="116"/>
       <c r="V51" s="114"/>
       <c r="W51" s="284"/>
@@ -20567,7 +20434,7 @@
       <c r="J87" s="111"/>
       <c r="K87" s="111"/>
       <c r="L87" s="111" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M87" s="136" t="s">
         <v>179</v>
@@ -20626,22 +20493,22 @@
         <v>42</v>
       </c>
       <c r="M88" s="111" t="s">
+        <v>514</v>
+      </c>
+      <c r="N88" s="111" t="s">
+        <v>515</v>
+      </c>
+      <c r="O88" s="111" t="s">
+        <v>517</v>
+      </c>
+      <c r="P88" s="111" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q88" s="111" t="s">
         <v>519</v>
       </c>
-      <c r="N88" s="111" t="s">
-        <v>520</v>
-      </c>
-      <c r="O88" s="111" t="s">
-        <v>522</v>
-      </c>
-      <c r="P88" s="111" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q88" s="111" t="s">
-        <v>524</v>
-      </c>
       <c r="R88" s="111" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="S88" s="111"/>
       <c r="T88" s="111"/>
@@ -22050,7 +21917,7 @@
       <c r="F114" s="114"/>
       <c r="G114" s="116"/>
       <c r="H114" s="116" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="I114" s="116"/>
       <c r="J114" s="345">
@@ -22058,7 +21925,7 @@
       </c>
       <c r="K114" s="116"/>
       <c r="L114" s="116" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M114" s="116"/>
       <c r="N114" s="116"/>
@@ -22108,7 +21975,7 @@
       <c r="F115" s="114"/>
       <c r="G115" s="116"/>
       <c r="H115" s="343" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I115" s="116"/>
       <c r="J115" s="344">
@@ -22117,7 +21984,7 @@
       </c>
       <c r="K115" s="116"/>
       <c r="L115" s="116" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M115" s="116"/>
       <c r="N115" s="116"/>
@@ -22385,7 +22252,7 @@
       <c r="J120" s="179"/>
       <c r="K120" s="179"/>
       <c r="L120" s="180" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M120" s="181" t="s">
         <v>206</v>
@@ -22444,22 +22311,22 @@
         <v>42</v>
       </c>
       <c r="M121" s="183" t="s">
+        <v>514</v>
+      </c>
+      <c r="N121" s="183" t="s">
+        <v>515</v>
+      </c>
+      <c r="O121" s="183" t="s">
+        <v>517</v>
+      </c>
+      <c r="P121" s="183" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q121" s="183" t="s">
         <v>519</v>
       </c>
-      <c r="N121" s="183" t="s">
-        <v>520</v>
-      </c>
-      <c r="O121" s="183" t="s">
-        <v>522</v>
-      </c>
-      <c r="P121" s="183" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q121" s="183" t="s">
-        <v>524</v>
-      </c>
       <c r="R121" s="183" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="S121" s="123"/>
       <c r="T121" s="123"/>
@@ -23090,7 +22957,7 @@
       <c r="I135" s="106"/>
       <c r="J135" s="106"/>
       <c r="K135" s="80" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L135" s="106"/>
       <c r="M135" s="106"/>
@@ -23210,7 +23077,7 @@
         <v>189</v>
       </c>
       <c r="M139" s="170" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="N139" s="170" t="s">
         <v>190</v>
@@ -23956,7 +23823,7 @@
       </c>
       <c r="F156" s="89"/>
       <c r="G156" s="90" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H156" s="91"/>
       <c r="I156" s="91"/>
@@ -24336,7 +24203,7 @@
       <c r="U162" s="111"/>
       <c r="V162" s="111"/>
       <c r="W162" s="136" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="X162" s="136"/>
       <c r="Y162" s="111"/>
@@ -24384,36 +24251,36 @@
       <c r="I163" s="111"/>
       <c r="J163" s="111"/>
       <c r="K163" s="111" t="s">
+        <v>514</v>
+      </c>
+      <c r="L163" s="111" t="s">
+        <v>515</v>
+      </c>
+      <c r="M163" s="111" t="s">
+        <v>517</v>
+      </c>
+      <c r="N163" s="111" t="s">
+        <v>518</v>
+      </c>
+      <c r="O163" s="111" t="s">
         <v>519</v>
-      </c>
-      <c r="L163" s="111" t="s">
-        <v>520</v>
-      </c>
-      <c r="M163" s="111" t="s">
-        <v>522</v>
-      </c>
-      <c r="N163" s="111" t="s">
-        <v>523</v>
-      </c>
-      <c r="O163" s="111" t="s">
-        <v>524</v>
       </c>
       <c r="P163" s="111"/>
       <c r="Q163" s="111"/>
       <c r="R163" s="111" t="s">
+        <v>514</v>
+      </c>
+      <c r="S163" s="111" t="s">
+        <v>515</v>
+      </c>
+      <c r="T163" s="111" t="s">
+        <v>517</v>
+      </c>
+      <c r="U163" s="111" t="s">
+        <v>518</v>
+      </c>
+      <c r="V163" s="111" t="s">
         <v>519</v>
-      </c>
-      <c r="S163" s="111" t="s">
-        <v>520</v>
-      </c>
-      <c r="T163" s="111" t="s">
-        <v>522</v>
-      </c>
-      <c r="U163" s="111" t="s">
-        <v>523</v>
-      </c>
-      <c r="V163" s="111" t="s">
-        <v>524</v>
       </c>
       <c r="W163" s="111"/>
       <c r="X163" s="111"/>
@@ -24461,7 +24328,7 @@
       <c r="H164" s="116"/>
       <c r="I164" s="139"/>
       <c r="J164" s="139" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K164" s="448">
         <f>K188/2</f>
@@ -24485,7 +24352,7 @@
       </c>
       <c r="P164" s="116"/>
       <c r="Q164" s="139" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="R164" s="3">
         <f t="shared" ref="R164:V165" si="1">R188*0.6</f>
@@ -25769,7 +25636,7 @@
       </c>
       <c r="F180" s="89"/>
       <c r="G180" s="90" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H180" s="91"/>
       <c r="I180" s="91"/>
@@ -26149,7 +26016,7 @@
       <c r="U186" s="111"/>
       <c r="V186" s="111"/>
       <c r="W186" s="136" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="X186" s="136"/>
       <c r="Y186" s="111"/>
@@ -26197,42 +26064,42 @@
       <c r="I187" s="111"/>
       <c r="J187" s="111"/>
       <c r="K187" s="111" t="s">
+        <v>514</v>
+      </c>
+      <c r="L187" s="111" t="s">
+        <v>515</v>
+      </c>
+      <c r="M187" s="111" t="s">
+        <v>517</v>
+      </c>
+      <c r="N187" s="111" t="s">
+        <v>518</v>
+      </c>
+      <c r="O187" s="111" t="s">
         <v>519</v>
-      </c>
-      <c r="L187" s="111" t="s">
-        <v>520</v>
-      </c>
-      <c r="M187" s="111" t="s">
-        <v>522</v>
-      </c>
-      <c r="N187" s="111" t="s">
-        <v>523</v>
-      </c>
-      <c r="O187" s="111" t="s">
-        <v>524</v>
       </c>
       <c r="P187" s="111"/>
       <c r="Q187" s="111"/>
       <c r="R187" s="111" t="s">
+        <v>514</v>
+      </c>
+      <c r="S187" s="111" t="s">
+        <v>515</v>
+      </c>
+      <c r="T187" s="111" t="s">
+        <v>517</v>
+      </c>
+      <c r="U187" s="111" t="s">
+        <v>518</v>
+      </c>
+      <c r="V187" s="111" t="s">
         <v>519</v>
       </c>
-      <c r="S187" s="111" t="s">
-        <v>520</v>
-      </c>
-      <c r="T187" s="111" t="s">
-        <v>522</v>
-      </c>
-      <c r="U187" s="111" t="s">
-        <v>523</v>
-      </c>
-      <c r="V187" s="111" t="s">
-        <v>524</v>
-      </c>
       <c r="W187" s="111" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="X187" s="111" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Y187" s="111"/>
       <c r="Z187" s="111"/>
@@ -26278,7 +26145,7 @@
       <c r="H188" s="116"/>
       <c r="I188" s="139"/>
       <c r="J188" s="139" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K188" s="450">
         <v>200</v>
@@ -26298,7 +26165,7 @@
       </c>
       <c r="P188" s="116"/>
       <c r="Q188" s="139" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="R188" s="3">
         <f>0.55*$V188*(K188/$O188)</f>
@@ -26514,7 +26381,7 @@
         <v>50</v>
       </c>
       <c r="Y190" s="116" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Z190" s="116"/>
       <c r="AA190" s="116"/>
@@ -28101,7 +27968,7 @@
       <c r="G214" s="116"/>
       <c r="H214" s="116"/>
       <c r="I214" s="139" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J214" s="116"/>
       <c r="K214" s="134">
@@ -29909,7 +29776,7 @@
       <c r="G246" s="116"/>
       <c r="H246" s="116"/>
       <c r="I246" s="139" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J246" s="116"/>
       <c r="K246" s="200">
@@ -31186,7 +31053,7 @@
         <v>197</v>
       </c>
       <c r="K268" s="170" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="L268" s="170" t="s">
         <v>66</v>
@@ -31258,7 +31125,7 @@
       <c r="H269" s="116"/>
       <c r="I269" s="116"/>
       <c r="J269" s="139" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K269" s="133">
         <v>0.81</v>
@@ -32944,7 +32811,7 @@
         <v>0.05</v>
       </c>
       <c r="I295" s="139" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J295" s="116"/>
       <c r="K295" s="452">
@@ -34280,9 +34147,9 @@
       <c r="I320" s="219"/>
       <c r="J320" s="219"/>
       <c r="K320" s="111"/>
-      <c r="L320" s="475"/>
-      <c r="M320" s="476"/>
-      <c r="N320" s="476"/>
+      <c r="L320" s="476"/>
+      <c r="M320" s="477"/>
+      <c r="N320" s="477"/>
       <c r="O320" s="111"/>
       <c r="P320" s="111"/>
       <c r="Q320" s="111"/>
@@ -34391,10 +34258,10 @@
       <c r="J324" s="224"/>
       <c r="K324" s="225"/>
       <c r="L324" s="225" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M324" s="142" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="N324" s="142" t="s">
         <v>66</v>
@@ -34430,7 +34297,7 @@
         <v>273</v>
       </c>
       <c r="L325" s="139" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M325" s="451">
         <v>5.5</v>
@@ -35662,7 +35529,7 @@
       <c r="F353" s="156"/>
       <c r="G353" s="120"/>
       <c r="H353" s="229" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I353" s="120"/>
       <c r="J353" s="133">
@@ -37050,7 +36917,7 @@
         <v>290</v>
       </c>
       <c r="K378" s="111" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="L378" s="111" t="s">
         <v>66</v>
@@ -37111,7 +36978,7 @@
       <c r="H379" s="120"/>
       <c r="I379" s="120"/>
       <c r="J379" s="229" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K379" s="137">
         <v>100</v>
@@ -38284,7 +38151,7 @@
       <c r="E399" s="96"/>
       <c r="F399" s="97"/>
       <c r="G399" s="98" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H399" s="98"/>
       <c r="I399" s="98"/>
@@ -38514,7 +38381,7 @@
       <c r="O403" s="136"/>
       <c r="P403" s="136"/>
       <c r="Q403" s="193" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="R403" s="110"/>
       <c r="S403" s="110"/>
@@ -38566,7 +38433,7 @@
         <v>293</v>
       </c>
       <c r="M404" s="136" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N404" s="136"/>
       <c r="O404" s="136"/>
@@ -38627,10 +38494,10 @@
         <v>259</v>
       </c>
       <c r="N405" s="170" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="O405" s="170" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P405" s="170" t="s">
         <v>258</v>
@@ -38682,7 +38549,7 @@
       <c r="I406" s="179"/>
       <c r="J406" s="179"/>
       <c r="K406" s="208" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L406" s="404">
         <v>0.5</v>
@@ -39839,7 +39706,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AU511"/>
   <sheetViews>
-    <sheetView topLeftCell="A469" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
@@ -39960,7 +39827,7 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -40500,7 +40367,7 @@
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -41026,7 +40893,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="25"/>
       <c r="G41" s="363" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
@@ -42785,7 +42652,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="22" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J97" s="22" t="s">
         <v>66</v>
@@ -43110,7 +42977,7 @@
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="13" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -43142,7 +43009,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="12"/>
       <c r="I108" s="353" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
@@ -43172,7 +43039,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
@@ -43258,18 +43125,18 @@
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
-      <c r="H112" s="482" t="s">
-        <v>484</v>
-      </c>
-      <c r="I112" s="482"/>
-      <c r="J112" s="482"/>
+      <c r="H112" s="483" t="s">
+        <v>479</v>
+      </c>
+      <c r="I112" s="483"/>
+      <c r="J112" s="483"/>
       <c r="K112" s="348"/>
       <c r="L112" s="365"/>
-      <c r="M112" s="481" t="s">
+      <c r="M112" s="482" t="s">
         <v>354</v>
       </c>
-      <c r="N112" s="481"/>
-      <c r="O112" s="481"/>
+      <c r="N112" s="482"/>
+      <c r="O112" s="482"/>
       <c r="P112" s="365"/>
       <c r="Q112" s="365"/>
       <c r="R112" s="365"/>
@@ -43982,7 +43849,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="25"/>
       <c r="G129" s="26" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H129" s="411">
         <v>250</v>
@@ -44027,7 +43894,7 @@
       <c r="E130" s="16"/>
       <c r="F130" s="25"/>
       <c r="G130" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H130" s="411">
         <v>250</v>
@@ -44115,7 +43982,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="25"/>
       <c r="G132" s="26" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H132" s="411">
         <v>250</v>
@@ -44205,7 +44072,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="25"/>
       <c r="G134" s="26" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H134" s="411">
         <v>250</v>
@@ -44295,7 +44162,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="25"/>
       <c r="G136" s="26" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H136" s="411">
         <v>250</v>
@@ -44385,7 +44252,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="25"/>
       <c r="G138" s="25" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H138" s="411">
         <v>250</v>
@@ -44954,10 +44821,10 @@
         <v>71</v>
       </c>
       <c r="I156" s="285" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="J156" s="291" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K156" s="291" t="s">
         <v>66</v>
@@ -45082,7 +44949,7 @@
         <v>73</v>
       </c>
       <c r="I159" s="294" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="J159" s="413">
         <v>120</v>
@@ -45124,7 +44991,7 @@
         <v>73</v>
       </c>
       <c r="I160" s="80" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J160" s="413">
         <v>120</v>
@@ -45208,7 +45075,7 @@
         <v>73</v>
       </c>
       <c r="I162" s="294" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J162" s="413">
         <v>120</v>
@@ -45292,7 +45159,7 @@
         <v>73</v>
       </c>
       <c r="I164" s="294" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J164" s="413">
         <v>120</v>
@@ -45376,7 +45243,7 @@
         <v>73</v>
       </c>
       <c r="I166" s="294" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J166" s="413">
         <v>120</v>
@@ -45460,7 +45327,7 @@
         <v>73</v>
       </c>
       <c r="I168" s="293" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J168" s="413">
         <v>120</v>
@@ -45572,10 +45439,10 @@
         <v>71</v>
       </c>
       <c r="I171" s="267" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="J171" s="256" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K171" s="256" t="s">
         <v>66</v>
@@ -45700,7 +45567,7 @@
         <v>73</v>
       </c>
       <c r="I174" s="294" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="J174" s="380">
         <v>1</v>
@@ -45742,7 +45609,7 @@
         <v>73</v>
       </c>
       <c r="I175" s="80" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J175" s="380">
         <v>1</v>
@@ -45826,7 +45693,7 @@
         <v>73</v>
       </c>
       <c r="I177" s="294" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J177" s="380">
         <v>1</v>
@@ -45910,7 +45777,7 @@
         <v>73</v>
       </c>
       <c r="I179" s="294" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J179" s="380">
         <v>1</v>
@@ -45994,7 +45861,7 @@
         <v>73</v>
       </c>
       <c r="I181" s="294" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J181" s="380">
         <v>1</v>
@@ -46078,7 +45945,7 @@
         <v>73</v>
       </c>
       <c r="I183" s="293" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J183" s="380">
         <v>1</v>
@@ -46394,14 +46261,14 @@
       </c>
       <c r="F192" s="12"/>
       <c r="G192" s="13" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
       <c r="J192" s="12"/>
       <c r="K192" s="12"/>
       <c r="L192" s="12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M192" s="12"/>
       <c r="N192" s="12"/>
@@ -46433,7 +46300,7 @@
       <c r="G193" s="17"/>
       <c r="H193" s="12"/>
       <c r="I193" s="367" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="J193" s="416" t="b">
         <v>1</v>
@@ -46475,7 +46342,7 @@
       <c r="J194" s="12"/>
       <c r="K194" s="12"/>
       <c r="L194" s="32" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M194" s="12"/>
       <c r="N194" s="12"/>
@@ -46512,7 +46379,7 @@
       <c r="J195" s="12"/>
       <c r="K195" s="12"/>
       <c r="L195" s="32" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M195" s="12"/>
       <c r="N195" s="12"/>
@@ -46549,7 +46416,7 @@
       <c r="L196" s="365"/>
       <c r="M196" s="365"/>
       <c r="N196" s="368" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="O196" s="365"/>
       <c r="P196" s="365"/>
@@ -46618,49 +46485,49 @@
       <c r="K198" s="16"/>
       <c r="L198" s="16"/>
       <c r="M198" s="365" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N198" s="16" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="O198" s="16" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P198" s="16" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q198" s="369" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="R198" s="369" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="S198" s="369" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="T198" s="365" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="U198" s="365" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="V198" s="365" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="W198" s="365" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="X198" s="365" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Y198" s="365" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Z198" s="365" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AA198" s="365" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AB198" s="15"/>
       <c r="AC198" s="6"/>
@@ -46675,67 +46542,67 @@
       <c r="E199" s="16"/>
       <c r="F199" s="16"/>
       <c r="G199" s="22" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H199" s="22" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I199" s="22" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="J199" s="22" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K199" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="L199" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="M199" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="L199" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="M199" s="22" t="s">
-        <v>464</v>
-      </c>
       <c r="N199" s="22" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O199" s="22" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P199" s="22" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q199" s="22" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="R199" s="22" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="S199" s="22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="T199" s="23" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="U199" s="23" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="V199" s="23" t="s">
         <v>72</v>
       </c>
       <c r="W199" s="23" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="X199" s="23" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Y199" s="23" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Z199" s="23" t="s">
         <v>72</v>
       </c>
       <c r="AA199" s="23" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AB199" s="15"/>
       <c r="AC199" s="6"/>
@@ -46829,7 +46696,7 @@
       <c r="E201" s="16"/>
       <c r="F201" s="25"/>
       <c r="G201" s="414" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H201" s="414" t="s">
         <v>23</v>
@@ -46911,7 +46778,7 @@
         <v>23</v>
       </c>
       <c r="H202" s="414" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I202" s="414" t="s">
         <v>23</v>
@@ -46987,10 +46854,10 @@
       <c r="E203" s="16"/>
       <c r="F203" s="25"/>
       <c r="G203" s="414" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H203" s="414" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I203" s="414" t="s">
         <v>90</v>
@@ -47066,10 +46933,10 @@
       <c r="E204" s="16"/>
       <c r="F204" s="25"/>
       <c r="G204" s="414" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H204" s="414" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I204" s="414" t="s">
         <v>91</v>
@@ -47145,10 +47012,10 @@
       <c r="E205" s="16"/>
       <c r="F205" s="25"/>
       <c r="G205" s="414" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H205" s="414" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I205" s="414" t="s">
         <v>91</v>
@@ -47526,7 +47393,7 @@
       </c>
       <c r="F215" s="12"/>
       <c r="G215" s="13" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
@@ -47558,7 +47425,7 @@
       <c r="G216" s="17"/>
       <c r="H216" s="12"/>
       <c r="I216" s="353" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J216" s="12"/>
       <c r="K216" s="12"/>
@@ -47588,7 +47455,7 @@
       <c r="G217" s="12"/>
       <c r="H217" s="12"/>
       <c r="I217" s="12" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="J217" s="12"/>
       <c r="K217" s="12"/>
@@ -47704,22 +47571,22 @@
       <c r="G221" s="16"/>
       <c r="H221" s="16"/>
       <c r="I221" s="16" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J221" s="16" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K221" s="16" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="L221" s="365" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M221" s="365" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="N221" s="365" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="O221" s="16"/>
       <c r="P221" s="16"/>
@@ -47743,25 +47610,25 @@
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
       <c r="H222" s="16" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="I222" s="22" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J222" s="22" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="K222" s="22" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="L222" s="22" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M222" s="22" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="N222" s="22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="O222" s="22"/>
       <c r="P222" s="22"/>
@@ -48345,7 +48212,7 @@
       <c r="F237" s="25"/>
       <c r="G237" s="25"/>
       <c r="H237" s="26" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I237" s="411">
         <v>30</v>
@@ -48385,7 +48252,7 @@
       <c r="F238" s="25"/>
       <c r="G238" s="25"/>
       <c r="H238" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I238" s="411">
         <v>30</v>
@@ -48465,7 +48332,7 @@
       <c r="F240" s="25"/>
       <c r="G240" s="25"/>
       <c r="H240" s="26" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I240" s="411">
         <v>30</v>
@@ -48545,7 +48412,7 @@
       <c r="F242" s="25"/>
       <c r="G242" s="25"/>
       <c r="H242" s="26" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="I242" s="411">
         <v>30</v>
@@ -48625,7 +48492,7 @@
       <c r="F244" s="25"/>
       <c r="G244" s="25"/>
       <c r="H244" s="26" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="I244" s="411">
         <v>30</v>
@@ -48705,7 +48572,7 @@
       <c r="F246" s="25"/>
       <c r="G246" s="25"/>
       <c r="H246" s="25" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="I246" s="411">
         <v>30</v>
@@ -49284,7 +49151,7 @@
       <c r="H264" s="16"/>
       <c r="I264" s="16"/>
       <c r="J264" s="291" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K264" s="291" t="s">
         <v>66</v>
@@ -49975,7 +49842,7 @@
       </c>
       <c r="F285" s="12"/>
       <c r="G285" s="13" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
@@ -50181,7 +50048,7 @@
       <c r="G292" s="16"/>
       <c r="H292" s="16"/>
       <c r="I292" s="291" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J292" s="291" t="s">
         <v>66</v>
@@ -50898,7 +50765,7 @@
       </c>
       <c r="F312" s="12"/>
       <c r="G312" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H312" s="12"/>
       <c r="I312" s="12"/>
@@ -50958,7 +50825,7 @@
       <c r="G314" s="12"/>
       <c r="H314" s="12"/>
       <c r="I314" s="12" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J314" s="12"/>
       <c r="K314" s="12"/>
@@ -51080,7 +50947,7 @@
       <c r="E318" s="16"/>
       <c r="F318" s="32"/>
       <c r="H318" s="371" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I318" s="416">
         <v>0</v>
@@ -51117,7 +50984,7 @@
       <c r="E319" s="16"/>
       <c r="F319" s="32"/>
       <c r="H319" s="372" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I319" s="416">
         <v>1</v>
@@ -51191,7 +51058,7 @@
       <c r="E321" s="16"/>
       <c r="F321" s="32"/>
       <c r="H321" s="372" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I321" s="416">
         <v>1</v>
@@ -51744,7 +51611,7 @@
       <c r="G339" s="16"/>
       <c r="H339" s="16"/>
       <c r="I339" s="291" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J339" s="291" t="s">
         <v>66</v>
@@ -51780,7 +51647,7 @@
       <c r="E340" s="16"/>
       <c r="F340" s="32"/>
       <c r="H340" s="371" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I340" s="417">
         <v>0.62</v>
@@ -51818,7 +51685,7 @@
       <c r="E341" s="16"/>
       <c r="F341" s="32"/>
       <c r="H341" s="372" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I341" s="417">
         <v>0.62</v>
@@ -51897,7 +51764,7 @@
       <c r="F343" s="32"/>
       <c r="G343" s="80"/>
       <c r="H343" s="372" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I343" s="417">
         <v>0.62</v>
@@ -52482,7 +52349,7 @@
       <c r="H362" s="16"/>
       <c r="I362" s="16"/>
       <c r="J362" s="291" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K362" s="291" t="s">
         <v>66</v>
@@ -52519,7 +52386,7 @@
       <c r="G363" s="26"/>
       <c r="H363" s="26"/>
       <c r="I363" s="33" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J363" s="417">
         <v>1</v>
@@ -52559,7 +52426,7 @@
       <c r="G364" s="26"/>
       <c r="H364" s="26"/>
       <c r="I364" s="33" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="J364" s="417">
         <v>1</v>
@@ -52599,7 +52466,7 @@
       <c r="G365" s="26"/>
       <c r="H365" s="26"/>
       <c r="I365" s="33" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J365" s="417">
         <v>1</v>
@@ -52639,7 +52506,7 @@
       <c r="G366" s="26"/>
       <c r="H366" s="26"/>
       <c r="I366" s="33" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J366" s="417">
         <v>1</v>
@@ -52679,7 +52546,7 @@
       <c r="G367" s="26"/>
       <c r="H367" s="26"/>
       <c r="I367" s="33" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J367" s="417">
         <v>1</v>
@@ -52719,7 +52586,7 @@
       <c r="G368" s="26"/>
       <c r="H368" s="26"/>
       <c r="I368" s="33" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="J368" s="417">
         <v>1</v>
@@ -53645,7 +53512,7 @@
       </c>
       <c r="H398" s="12"/>
       <c r="I398" s="353" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J398" s="12"/>
       <c r="K398" s="12"/>
@@ -53761,7 +53628,7 @@
       <c r="E402" s="16"/>
       <c r="F402" s="16"/>
       <c r="G402" s="16"/>
-      <c r="H402" s="480"/>
+      <c r="H402" s="481"/>
       <c r="I402" s="16"/>
       <c r="J402" s="16"/>
       <c r="K402" s="21"/>
@@ -53789,7 +53656,7 @@
       <c r="E403" s="16"/>
       <c r="F403" s="16"/>
       <c r="G403" s="16"/>
-      <c r="H403" s="480"/>
+      <c r="H403" s="481"/>
       <c r="I403" s="16"/>
       <c r="J403" s="22" t="s">
         <v>41</v>
@@ -53823,10 +53690,10 @@
       <c r="G404" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H404" s="480"/>
+      <c r="H404" s="481"/>
       <c r="I404" s="16"/>
       <c r="J404" s="291" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K404" s="291" t="s">
         <v>66</v>
@@ -54919,7 +54786,7 @@
       <c r="H433" s="20"/>
       <c r="J433" s="12"/>
       <c r="N433" s="353" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q433" s="12"/>
       <c r="U433" s="12"/>
@@ -57074,7 +56941,7 @@
       <c r="H497" s="16"/>
       <c r="I497" s="16"/>
       <c r="J497" s="291" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K497" s="291" t="s">
         <v>66</v>
@@ -57672,7 +57539,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="E119" sqref="E119:Q131"/>
     </sheetView>
   </sheetViews>
@@ -57809,7 +57676,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -58017,7 +57884,7 @@
       </c>
       <c r="K12" s="244"/>
       <c r="L12" s="435" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M12" s="244"/>
       <c r="N12" s="247"/>
@@ -58103,7 +57970,7 @@
       <c r="J15" s="244"/>
       <c r="K15" s="244"/>
       <c r="L15" s="435" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M15" s="244"/>
       <c r="N15" s="247"/>
@@ -59188,7 +59055,7 @@
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="436" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H54" s="244"/>
       <c r="I54" s="244"/>
@@ -59575,10 +59442,10 @@
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
-      <c r="F68" s="483" t="s">
+      <c r="F68" s="484" t="s">
         <v>344</v>
       </c>
-      <c r="G68" s="484"/>
+      <c r="G68" s="485"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22" t="s">
         <v>345</v>
@@ -59586,7 +59453,7 @@
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
@@ -60367,7 +60234,7 @@
       <c r="M94" s="21"/>
       <c r="N94" s="21"/>
       <c r="O94" s="21" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="P94" s="21"/>
       <c r="Q94" s="21"/>
@@ -60410,30 +60277,30 @@
       <c r="B96" s="5"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
-      <c r="E96" s="483"/>
-      <c r="F96" s="484"/>
+      <c r="E96" s="484"/>
+      <c r="F96" s="485"/>
       <c r="G96" s="22" t="s">
         <v>351</v>
       </c>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
       <c r="J96" s="136" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K96" s="136"/>
       <c r="L96" s="22"/>
       <c r="M96" s="136" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="N96" s="136"/>
       <c r="O96" s="22"/>
       <c r="P96" s="440" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Q96" s="199"/>
       <c r="R96" s="21"/>
       <c r="S96" s="199" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="T96" s="199"/>
       <c r="U96" s="15"/>
@@ -61109,7 +60976,7 @@
       <c r="C118" s="285"/>
       <c r="D118" s="301"/>
       <c r="E118" s="238" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F118" s="258"/>
       <c r="G118" s="436"/>
@@ -61938,57 +61805,57 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F1" s="364" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J1" t="s">
+        <v>434</v>
+      </c>
+      <c r="K1" t="s">
         <v>447</v>
       </c>
-      <c r="I1" t="s">
-        <v>439</v>
-      </c>
-      <c r="J1" t="s">
-        <v>439</v>
-      </c>
-      <c r="K1" t="s">
-        <v>452</v>
-      </c>
       <c r="L1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F2" s="364" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L2" t="s">
         <v>87</v>
@@ -61996,7 +61863,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -62011,7 +61878,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -62028,7 +61895,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -62043,7 +61910,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -62060,7 +61927,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -62075,7 +61942,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -62092,7 +61959,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -62107,7 +61974,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -62124,7 +61991,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -62139,7 +62006,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -62156,7 +62023,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -62171,7 +62038,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -62188,7 +62055,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -62203,7 +62070,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -62231,7 +62098,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -62258,7 +62125,7 @@
     <row r="4" spans="1:2" ht="7.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="74" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B5" s="378">
         <v>1</v>
@@ -62267,7 +62134,7 @@
     <row r="6" spans="1:2" ht="7.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B7" s="378">
         <v>1</v>
@@ -62325,7 +62192,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="74" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B20" s="378">
         <v>1.3</v>
@@ -62371,7 +62238,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="76" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B27" s="378">
         <v>1.2</v>
@@ -62417,7 +62284,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="76" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B34" s="378">
         <v>1</v>
